--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="165">
   <si>
     <t>ITB/10000002</t>
   </si>
@@ -478,6 +478,48 @@
   </si>
   <si>
     <t>Lives near the takeaway</t>
+  </si>
+  <si>
+    <t>Fnol_PropertyNewOwnerEmail</t>
+  </si>
+  <si>
+    <t>AceLandlord@insrethebox.com</t>
+  </si>
+  <si>
+    <t>Fnol_TPPassengerPrefix</t>
+  </si>
+  <si>
+    <t>Fnol_TPPassengerFirstName</t>
+  </si>
+  <si>
+    <t>Fnol_TPPassengerLastName</t>
+  </si>
+  <si>
+    <t>Fnol_TPPassengerrEmail</t>
+  </si>
+  <si>
+    <t>Fnol_TPPassengerInjured</t>
+  </si>
+  <si>
+    <t>Fnol_TPPassengerInjDesc</t>
+  </si>
+  <si>
+    <t>Fnol_TPPassengerInj1BodyArea</t>
+  </si>
+  <si>
+    <t>Fnol_TPPassengerInj1Detailed</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Hitchhiker</t>
+  </si>
+  <si>
+    <t>hiker@gmail.com</t>
+  </si>
+  <si>
+    <t>Went through the window</t>
   </si>
 </sst>
 </file>
@@ -812,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1298,224 +1340,298 @@
         <v>53</v>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" t="b">
-        <v>1</v>
+        <v>153</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>113</v>
-      </c>
-      <c r="B64" t="s">
-        <v>121</v>
+        <v>156</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>115</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>122</v>
+        <v>157</v>
+      </c>
+      <c r="B65" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>125</v>
-      </c>
-      <c r="B66">
-        <v>1237771234</v>
+        <v>158</v>
+      </c>
+      <c r="B66" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="B67" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>116</v>
-      </c>
-      <c r="B68" t="b">
-        <v>1</v>
+        <v>160</v>
+      </c>
+      <c r="B68" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>128</v>
-      </c>
-      <c r="B69" t="s">
-        <v>129</v>
+        <v>14</v>
+      </c>
+      <c r="B69" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B70" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B71" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" t="b">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="B72" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>134</v>
-      </c>
-      <c r="B73" t="s">
-        <v>135</v>
+        <v>115</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>136</v>
-      </c>
-      <c r="B74" t="s">
-        <v>137</v>
+        <v>125</v>
+      </c>
+      <c r="B74">
+        <v>1237771234</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>138</v>
-      </c>
-      <c r="B75">
-        <v>4000</v>
+        <v>126</v>
+      </c>
+      <c r="B75" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>139</v>
-      </c>
-      <c r="B76" t="s">
-        <v>140</v>
+        <v>116</v>
+      </c>
+      <c r="B76" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B77" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>143</v>
-      </c>
-      <c r="B78" t="b">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="B78" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="B79" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>145</v>
-      </c>
-      <c r="B80" t="s">
-        <v>147</v>
+        <v>15</v>
+      </c>
+      <c r="B80" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B81" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B82" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>47</v>
-      </c>
-      <c r="B83" t="b">
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="B83">
+        <v>4000</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>49</v>
-      </c>
-      <c r="B84" t="b">
-        <v>0</v>
+        <v>139</v>
+      </c>
+      <c r="B84" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>48</v>
-      </c>
-      <c r="B85" t="b">
-        <v>0</v>
+        <v>141</v>
+      </c>
+      <c r="B85" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>143</v>
+      </c>
+      <c r="B86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>144</v>
+      </c>
+      <c r="B87" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>145</v>
+      </c>
+      <c r="B88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>146</v>
+      </c>
+      <c r="B89" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>151</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>149</v>
+      </c>
+      <c r="B91" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>48</v>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>6</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B55" r:id="rId1"/>
-    <hyperlink ref="B65" r:id="rId2"/>
+    <hyperlink ref="B73" r:id="rId2"/>
+    <hyperlink ref="B90" r:id="rId3"/>
+    <hyperlink ref="B64" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="200">
   <si>
     <t>ITB/10000002</t>
   </si>
@@ -520,14 +520,127 @@
   </si>
   <si>
     <t>Went through the window</t>
+  </si>
+  <si>
+    <t>Fnol_PHDriverInjHospAttend</t>
+  </si>
+  <si>
+    <t>Fnol_PHDriverInjHospSearchName</t>
+  </si>
+  <si>
+    <t>QUEEN CHARLOTTES &amp; CHELSEA HOSPITAL</t>
+  </si>
+  <si>
+    <t>Fnol_PHDriverInjHospOvernight</t>
+  </si>
+  <si>
+    <t>Fnol_TPDriverInjHospAttend</t>
+  </si>
+  <si>
+    <t>Fnol_TPDriverInjHospSearchName</t>
+  </si>
+  <si>
+    <t>Fnol_TPDriverInjHospOvernight</t>
+  </si>
+  <si>
+    <t>Fnol_TPPassengerInjHospAttend</t>
+  </si>
+  <si>
+    <t>Fnol_TPPassengerInjHospSearchName</t>
+  </si>
+  <si>
+    <t>Fnol_TPPassengerInjHospOvernight</t>
+  </si>
+  <si>
+    <t>Fnol_PedestrianInjHospAttend</t>
+  </si>
+  <si>
+    <t>Fnol_PedestrianInjHospSearchName</t>
+  </si>
+  <si>
+    <t>Fnol_PedestrianInjHospOvernight</t>
+  </si>
+  <si>
+    <t>This is the full regression for FNOL and attempts to access all screens in the FNOL capture process</t>
+  </si>
+  <si>
+    <t>Common Fields</t>
+  </si>
+  <si>
+    <t>Step 1 Fields</t>
+  </si>
+  <si>
+    <t>Step 2 Fields</t>
+  </si>
+  <si>
+    <t>Step 3 Fields</t>
+  </si>
+  <si>
+    <t>Fnol_PHPassengerPrefix</t>
+  </si>
+  <si>
+    <t>Fnol_PHPassengerFirstName</t>
+  </si>
+  <si>
+    <t>Fnol_PHPassengerLastName</t>
+  </si>
+  <si>
+    <t>Fnol_PHPassengerrEmail</t>
+  </si>
+  <si>
+    <t>Fnol_PHPassengerInjured</t>
+  </si>
+  <si>
+    <t>Fnol_PHPassengerInjDesc</t>
+  </si>
+  <si>
+    <t>Fnol_PHPassengerInj1BodyArea</t>
+  </si>
+  <si>
+    <t>Fnol_PHPassengerInj1Detailed</t>
+  </si>
+  <si>
+    <t>Fnol_PHPassengerInjHospAttend</t>
+  </si>
+  <si>
+    <t>Fnol_PHPassengerInjHospSearchName</t>
+  </si>
+  <si>
+    <t>Fnol_PHPassengerInjHospOvernight</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>SideBottom</t>
+  </si>
+  <si>
+    <t>jbottom@gmail.com</t>
+  </si>
+  <si>
+    <t>Banged head against the dash</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROYAL ABERDEEN CHILDRENS HOSPITAL</t>
+  </si>
+  <si>
+    <t>JAMES COOK UNIVERSITY HOSPITAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -562,9 +675,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -572,7 +685,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -854,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B95"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -867,197 +982,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
+      <c r="A1" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
+      <c r="A2" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.29166666666666669</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="b">
-        <v>1</v>
-      </c>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>27</v>
+      <c r="A16" s="6" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="b">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
@@ -1065,71 +1152,63 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" t="b">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" t="b">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>105</v>
+      <c r="A34" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B34" t="b">
         <v>1</v>
@@ -1137,39 +1216,31 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" t="b">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>46</v>
+      <c r="A39" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
@@ -1177,207 +1248,194 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" t="s">
-        <v>75</v>
+        <v>54</v>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42">
-        <v>2017</v>
+        <v>57</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" t="s">
-        <v>82</v>
+        <v>105</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>110</v>
-      </c>
-      <c r="B48" t="s">
-        <v>89</v>
+        <v>165</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" t="b">
+        <v>168</v>
+      </c>
+      <c r="B50" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" t="s">
-        <v>71</v>
+      <c r="A52" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>72</v>
+        <v>185</v>
+      </c>
+      <c r="B55" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>100</v>
-      </c>
-      <c r="B56" t="b">
-        <v>1</v>
+        <v>186</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>130</v>
-      </c>
-      <c r="B57" t="s">
-        <v>131</v>
+        <v>187</v>
+      </c>
+      <c r="B57" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>53</v>
-      </c>
-      <c r="B60" t="b">
-        <v>1</v>
+        <v>190</v>
+      </c>
+      <c r="B60" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>153</v>
-      </c>
-      <c r="B61" t="s">
-        <v>71</v>
+        <v>191</v>
+      </c>
+      <c r="B61" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>154</v>
-      </c>
-      <c r="B62" t="s">
-        <v>161</v>
+        <v>192</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>155</v>
-      </c>
-      <c r="B63" t="s">
-        <v>162</v>
+        <v>193</v>
+      </c>
+      <c r="B63" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>156</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>163</v>
-      </c>
+      <c r="A64" s="6"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>157</v>
+      <c r="A65" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B65" t="b">
         <v>1</v>
@@ -1385,253 +1443,534 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>160</v>
-      </c>
-      <c r="B68" t="s">
-        <v>102</v>
+        <v>77</v>
+      </c>
+      <c r="B68">
+        <v>2017</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B69" t="b">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="B69" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>115</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>122</v>
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>125</v>
-      </c>
-      <c r="B74">
-        <v>1237771234</v>
+        <v>110</v>
+      </c>
+      <c r="B74" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>116</v>
-      </c>
-      <c r="B76" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>128</v>
-      </c>
-      <c r="B77" t="s">
-        <v>129</v>
+        <v>94</v>
+      </c>
+      <c r="B76" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>117</v>
-      </c>
-      <c r="B78" t="s">
-        <v>123</v>
+      <c r="A78" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="B79" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" t="b">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="B80" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="B81" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>136</v>
-      </c>
-      <c r="B82" t="s">
-        <v>137</v>
+        <v>73</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>138</v>
-      </c>
-      <c r="B83">
-        <v>4000</v>
+        <v>100</v>
+      </c>
+      <c r="B83" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B84" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="B85" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>143</v>
-      </c>
-      <c r="B86" t="b">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="B86" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>144</v>
-      </c>
-      <c r="B87" t="s">
-        <v>71</v>
+        <v>169</v>
+      </c>
+      <c r="B87" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="B88" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>146</v>
-      </c>
-      <c r="B89" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>151</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>152</v>
+        <v>171</v>
+      </c>
+      <c r="B89" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>149</v>
-      </c>
-      <c r="B91" t="s">
-        <v>150</v>
+      <c r="A91" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B91" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>47</v>
-      </c>
-      <c r="B92" t="b">
-        <v>0</v>
+        <v>153</v>
+      </c>
+      <c r="B92" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>49</v>
-      </c>
-      <c r="B93" t="b">
-        <v>0</v>
+        <v>154</v>
+      </c>
+      <c r="B93" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>48</v>
-      </c>
-      <c r="B94" t="b">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="B94" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
+        <v>156</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>157</v>
+      </c>
+      <c r="B96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>158</v>
+      </c>
+      <c r="B97" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>159</v>
+      </c>
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>160</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>172</v>
+      </c>
+      <c r="B100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>173</v>
+      </c>
+      <c r="B101" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>174</v>
+      </c>
+      <c r="B102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109">
+        <v>1237771234</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>126</v>
+      </c>
+      <c r="B110" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>128</v>
+      </c>
+      <c r="B112" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>175</v>
+      </c>
+      <c r="B115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>176</v>
+      </c>
+      <c r="B116" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>177</v>
+      </c>
+      <c r="B117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>134</v>
+      </c>
+      <c r="B120" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>136</v>
+      </c>
+      <c r="B121" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>138</v>
+      </c>
+      <c r="B122">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>139</v>
+      </c>
+      <c r="B123" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>141</v>
+      </c>
+      <c r="B124" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>143</v>
+      </c>
+      <c r="B125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>144</v>
+      </c>
+      <c r="B126" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>145</v>
+      </c>
+      <c r="B127" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>146</v>
+      </c>
+      <c r="B128" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>151</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>149</v>
+      </c>
+      <c r="B130" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B136" s="3" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B55" r:id="rId1"/>
-    <hyperlink ref="B73" r:id="rId2"/>
-    <hyperlink ref="B90" r:id="rId3"/>
-    <hyperlink ref="B64" r:id="rId4"/>
+    <hyperlink ref="B82" r:id="rId1"/>
+    <hyperlink ref="B108" r:id="rId2"/>
+    <hyperlink ref="B129" r:id="rId3"/>
+    <hyperlink ref="B95" r:id="rId4"/>
+    <hyperlink ref="B56" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="regression_set1" sheetId="1" r:id="rId1"/>
     <sheet name="backup" sheetId="2" r:id="rId2"/>
+    <sheet name="postfnol_set1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="262">
   <si>
     <t>ITB/10000002</t>
   </si>
@@ -210,21 +211,9 @@
     <t>Fnol_PHDriverLicenseType</t>
   </si>
   <si>
-    <t>TBB/40000001</t>
-  </si>
-  <si>
-    <t>s99sja</t>
-  </si>
-  <si>
-    <t>5 Windmill Way, Gateshead, NE8 1PJ</t>
-  </si>
-  <si>
     <t>15/01/2019</t>
   </si>
   <si>
-    <t>Fanta Tim</t>
-  </si>
-  <si>
     <t>Fnol_TPDriverFirstName</t>
   </si>
   <si>
@@ -625,6 +614,204 @@
   </si>
   <si>
     <t>JAMES COOK UNIVERSITY HOSPITAL</t>
+  </si>
+  <si>
+    <t>11 Dene Grove, Newcastle upon Tyne, Tyne and Wear, NE3 1PX</t>
+  </si>
+  <si>
+    <t>Fnol_PedestrianPostcodeSearch</t>
+  </si>
+  <si>
+    <t>Fnol_PedestrianPostcode</t>
+  </si>
+  <si>
+    <t>Fnol_PedestrianPostcodeAddress</t>
+  </si>
+  <si>
+    <t>Fnol_TPPassengerPostcodeSearch</t>
+  </si>
+  <si>
+    <t>Fnol_TPPassengerPostcode</t>
+  </si>
+  <si>
+    <t>Fnol_TPPassengerPostcodeAddress</t>
+  </si>
+  <si>
+    <t>21 Dene Grove, Newcastle upon Tyne, Tyne and Wear, NE3 1PX</t>
+  </si>
+  <si>
+    <t>Fnol_PHPassengerPostcodeSearch</t>
+  </si>
+  <si>
+    <t>Fnol_PHPassengerPostcode</t>
+  </si>
+  <si>
+    <t>Fnol_PHPassengerPostcodeAddress</t>
+  </si>
+  <si>
+    <t>23 Dene Grove, Newcastle upon Tyne, Tyne and Wear, NE3 1PX</t>
+  </si>
+  <si>
+    <t>Fnol_TPDriverPostcodeSearch</t>
+  </si>
+  <si>
+    <t>Fnol_TPDriverPostcode</t>
+  </si>
+  <si>
+    <t>Fnol_TPDriverPostcodeAddress</t>
+  </si>
+  <si>
+    <t>This is for testing post fnol stuff</t>
+  </si>
+  <si>
+    <t>Fnol_PoliceDateReported</t>
+  </si>
+  <si>
+    <t>16/01/2019</t>
+  </si>
+  <si>
+    <t>Fnol_PoliceTimeReported</t>
+  </si>
+  <si>
+    <t>Fnol_PoliceIncidentRef</t>
+  </si>
+  <si>
+    <t>Fnol_PoliceCrimeRef</t>
+  </si>
+  <si>
+    <t>Fnol_PoliceDateOfficerName</t>
+  </si>
+  <si>
+    <t>Fnol_PoliceBadgeNumber</t>
+  </si>
+  <si>
+    <t>Fnol_PoliceAttended</t>
+  </si>
+  <si>
+    <t>INC12345678</t>
+  </si>
+  <si>
+    <t>CR987654321</t>
+  </si>
+  <si>
+    <t>Officer Dibble</t>
+  </si>
+  <si>
+    <t>BDG689</t>
+  </si>
+  <si>
+    <t>Fnol_PoliceFutherAction</t>
+  </si>
+  <si>
+    <t>Fnol_PoliceApprehended</t>
+  </si>
+  <si>
+    <t>Further action will be required</t>
+  </si>
+  <si>
+    <t>Fnol_PoliceFutherActionDetails</t>
+  </si>
+  <si>
+    <t>Fnol_PoliceApprehendedDetails</t>
+  </si>
+  <si>
+    <t>The suspect has been caught</t>
+  </si>
+  <si>
+    <t>Fnol_PoliceForceSearchName</t>
+  </si>
+  <si>
+    <t>Avon and somerset</t>
+  </si>
+  <si>
+    <t>PostFnol_PoliceDateReported</t>
+  </si>
+  <si>
+    <t>PostFnol_PoliceTimeReported</t>
+  </si>
+  <si>
+    <t>PostFnol_PoliceIncidentRef</t>
+  </si>
+  <si>
+    <t>PostFnol_PoliceCrimeRef</t>
+  </si>
+  <si>
+    <t>PostFnol_PoliceDateOfficerName</t>
+  </si>
+  <si>
+    <t>PostFnol_PoliceBadgeNumber</t>
+  </si>
+  <si>
+    <t>PostFnol_PoliceAttended</t>
+  </si>
+  <si>
+    <t>PostFnol_PoliceFutherAction</t>
+  </si>
+  <si>
+    <t>PostFnol_PoliceApprehended</t>
+  </si>
+  <si>
+    <t>PostFnol_PoliceFutherActionDetails</t>
+  </si>
+  <si>
+    <t>PostFnol_PoliceApprehendedDetails</t>
+  </si>
+  <si>
+    <t>PostFnol_PoliceForceSearchName</t>
+  </si>
+  <si>
+    <t>000-00-000033</t>
+  </si>
+  <si>
+    <t>PostFnol_PropertyDesc</t>
+  </si>
+  <si>
+    <t>PostFnol_PropertyDamageDesc</t>
+  </si>
+  <si>
+    <t>PostFnol_PropertyLossEstimate</t>
+  </si>
+  <si>
+    <t>PostFnol_PropertyExtDamage</t>
+  </si>
+  <si>
+    <t>PostFnol_PropertyLocationDesc</t>
+  </si>
+  <si>
+    <t>PostFnol_PropertyNewOwner</t>
+  </si>
+  <si>
+    <t>PostFnol_PropertyNewOwnerPrefix</t>
+  </si>
+  <si>
+    <t>PostFnol_PropertyNewOwnerFirstName</t>
+  </si>
+  <si>
+    <t>PostFnol_PropertyNewOwnerLastName</t>
+  </si>
+  <si>
+    <t>PostFnol_PropertyNewOwnerEmail</t>
+  </si>
+  <si>
+    <t>PostFnol_PropertyNewOwnerLocationDesc</t>
+  </si>
+  <si>
+    <t>PostFnol_PropertyNewCompany</t>
+  </si>
+  <si>
+    <t>PostFnol_PropertyNewCompanyName</t>
+  </si>
+  <si>
+    <t>Quickfit</t>
+  </si>
+  <si>
+    <t>PostFnol_PropertyNewCompanyEmail</t>
+  </si>
+  <si>
+    <t>qfit@insrethebox.com</t>
+  </si>
+  <si>
+    <t>PostFnol_PropertyNewCompanyLocationDesc</t>
   </si>
 </sst>
 </file>
@@ -677,7 +864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -688,6 +875,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -969,26 +1157,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:B161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132:XFD142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -996,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1004,7 +1192,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1012,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1020,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1028,7 +1216,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B8" s="4"/>
     </row>
@@ -1037,7 +1225,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -1053,7 +1241,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B12" s="2"/>
     </row>
@@ -1075,7 +1263,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1208,7 +1396,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B34" t="b">
         <v>1</v>
@@ -1216,26 +1404,26 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -1280,7 +1468,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B44" t="b">
         <v>1</v>
@@ -1288,31 +1476,31 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B48" t="b">
         <v>1</v>
@@ -1320,15 +1508,15 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B50" t="b">
         <v>1</v>
@@ -1344,630 +1532,828 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B54" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B55" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>186</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>196</v>
+        <v>204</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>187</v>
-      </c>
-      <c r="B57" t="b">
-        <v>1</v>
+        <v>205</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="B58" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>189</v>
-      </c>
-      <c r="B59" t="s">
-        <v>101</v>
+        <v>182</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>190</v>
-      </c>
-      <c r="B60" t="s">
-        <v>102</v>
+        <v>183</v>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>191</v>
-      </c>
-      <c r="B61" t="b">
-        <v>1</v>
+        <v>184</v>
+      </c>
+      <c r="B61" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>192</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>198</v>
+        <v>185</v>
+      </c>
+      <c r="B62" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>193</v>
-      </c>
-      <c r="B63" t="b">
-        <v>1</v>
+        <v>186</v>
+      </c>
+      <c r="B63" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="6"/>
+      <c r="A64" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" t="b">
-        <v>1</v>
+      <c r="A65" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66" t="s">
-        <v>75</v>
+        <v>189</v>
+      </c>
+      <c r="B66" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>76</v>
-      </c>
-      <c r="B67" t="s">
-        <v>80</v>
-      </c>
+      <c r="A67" s="6"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68">
-        <v>2017</v>
+      <c r="A68" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71" t="s">
-        <v>84</v>
+        <v>73</v>
+      </c>
+      <c r="B71">
+        <v>2017</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>95</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B78" t="b">
-        <v>1</v>
+      <c r="A78" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>66</v>
-      </c>
-      <c r="B80" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>69</v>
-      </c>
-      <c r="B81" t="s">
-        <v>68</v>
+      <c r="A81" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>73</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="B82" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>100</v>
-      </c>
-      <c r="B83" t="b">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="B83" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="B84" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>103</v>
-      </c>
-      <c r="B85" t="s">
-        <v>101</v>
+        <v>208</v>
+      </c>
+      <c r="B85" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>169</v>
-      </c>
-      <c r="B87" t="b">
-        <v>1</v>
+        <v>210</v>
+      </c>
+      <c r="B87" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>170</v>
-      </c>
-      <c r="B88" t="s">
-        <v>199</v>
+        <v>69</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B91" t="b">
-        <v>1</v>
+      <c r="A91" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>154</v>
-      </c>
-      <c r="B93" t="s">
-        <v>161</v>
+        <v>165</v>
+      </c>
+      <c r="B93" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B94" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>156</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>157</v>
-      </c>
-      <c r="B96" t="b">
-        <v>1</v>
+        <v>167</v>
+      </c>
+      <c r="B95" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>158</v>
-      </c>
-      <c r="B97" t="s">
-        <v>164</v>
+      <c r="A97" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B97" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>172</v>
-      </c>
-      <c r="B100" t="b">
-        <v>1</v>
+        <v>151</v>
+      </c>
+      <c r="B100" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>173</v>
-      </c>
-      <c r="B101" t="s">
-        <v>167</v>
+        <v>200</v>
+      </c>
+      <c r="B101" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>174</v>
-      </c>
-      <c r="B102" t="b">
-        <v>0</v>
+        <v>201</v>
+      </c>
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B104" t="b">
-        <v>1</v>
+      <c r="A104" t="s">
+        <v>152</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>112</v>
-      </c>
-      <c r="B105" t="s">
-        <v>119</v>
+        <v>153</v>
+      </c>
+      <c r="B105" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="B106" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="B107" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>115</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>122</v>
+        <v>156</v>
+      </c>
+      <c r="B108" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>125</v>
-      </c>
-      <c r="B109">
-        <v>1237771234</v>
+        <v>168</v>
+      </c>
+      <c r="B109" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="B110" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="B111" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>128</v>
-      </c>
-      <c r="B112" t="s">
-        <v>129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>117</v>
-      </c>
-      <c r="B113" t="s">
-        <v>123</v>
+      <c r="A113" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>175</v>
-      </c>
-      <c r="B115" t="b">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="B115" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="B116" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>198</v>
+      </c>
+      <c r="B118" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B119" t="b">
-        <v>1</v>
+      <c r="A119" t="s">
+        <v>199</v>
+      </c>
+      <c r="B119" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>134</v>
-      </c>
-      <c r="B120" t="s">
-        <v>135</v>
+        <v>111</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>136</v>
-      </c>
-      <c r="B121" t="s">
-        <v>137</v>
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>1237771234</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>138</v>
-      </c>
-      <c r="B122">
-        <v>4000</v>
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>139</v>
-      </c>
-      <c r="B123" t="s">
-        <v>140</v>
+        <v>112</v>
+      </c>
+      <c r="B123" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>143</v>
-      </c>
-      <c r="B125" t="b">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="B125" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="B126" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>145</v>
-      </c>
-      <c r="B127" t="s">
-        <v>147</v>
+        <v>171</v>
+      </c>
+      <c r="B127" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="B128" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>151</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>149</v>
-      </c>
-      <c r="B130" t="s">
-        <v>150</v>
+        <v>173</v>
+      </c>
+      <c r="B129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B132" t="b">
-        <v>0</v>
+      <c r="A132" t="s">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B133" t="b">
-        <v>0</v>
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B134" t="b">
-        <v>1</v>
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>147</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="6"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B149" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B154" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B155" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B156" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B158" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B159" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="8"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
         <v>6</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>7</v>
+      <c r="B161" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B82" r:id="rId1"/>
-    <hyperlink ref="B108" r:id="rId2"/>
-    <hyperlink ref="B129" r:id="rId3"/>
-    <hyperlink ref="B95" r:id="rId4"/>
-    <hyperlink ref="B56" r:id="rId5"/>
+    <hyperlink ref="B88" r:id="rId1"/>
+    <hyperlink ref="B120" r:id="rId2"/>
+    <hyperlink ref="B141" r:id="rId3"/>
+    <hyperlink ref="B104" r:id="rId4"/>
+    <hyperlink ref="B59" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -1979,7 +2365,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2300,4 +2686,257 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>252</v>
+      </c>
+      <c r="B25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>253</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>255</v>
+      </c>
+      <c r="B28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>257</v>
+      </c>
+      <c r="B30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>259</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>261</v>
+      </c>
+      <c r="B32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B27" r:id="rId1"/>
+    <hyperlink ref="B31" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="regression_set1" sheetId="1" r:id="rId1"/>
@@ -1159,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B161"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132:XFD142"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="E127" sqref="E126:E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1623,7 +1623,7 @@
         <v>187</v>
       </c>
       <c r="B64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -1842,7 +1842,7 @@
         <v>165</v>
       </c>
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -1962,7 +1962,7 @@
         <v>168</v>
       </c>
       <c r="B109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -2098,7 +2098,7 @@
         <v>171</v>
       </c>
       <c r="B127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -2237,7 +2237,7 @@
         <v>48</v>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
@@ -2692,7 +2692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="332">
   <si>
     <t>ITB/10000002</t>
   </si>
@@ -211,9 +211,6 @@
     <t>Fnol_PHDriverLicenseType</t>
   </si>
   <si>
-    <t>15/01/2019</t>
-  </si>
-  <si>
     <t>Fnol_TPDriverFirstName</t>
   </si>
   <si>
@@ -812,6 +809,219 @@
   </si>
   <si>
     <t>PostFnol_PropertyNewCompanyLocationDesc</t>
+  </si>
+  <si>
+    <t>ITB/10000000</t>
+  </si>
+  <si>
+    <t>Ainsley Lamb</t>
+  </si>
+  <si>
+    <t>NL68OXW</t>
+  </si>
+  <si>
+    <t>18/01/2019</t>
+  </si>
+  <si>
+    <t>10 Shillhope Drive, Blyth, NE24 4SN</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>other examples</t>
+  </si>
+  <si>
+    <t>Vehicle Damaged By Fire</t>
+  </si>
+  <si>
+    <t>Arson attack</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleFireWhenDate</t>
+  </si>
+  <si>
+    <t>18/01/2018</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleFireWhenTime</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleFireGarage</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleFireGarageDetails</t>
+  </si>
+  <si>
+    <t>It was in the garage last week for repairs</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleFireOtherVehicle</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleFireOtherVehicleDetails</t>
+  </si>
+  <si>
+    <t>The car next to mine was burnt</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleFireSuspected</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleFireSuspectNewPerson</t>
+  </si>
+  <si>
+    <t>todo..</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleFireWhySuspect</t>
+  </si>
+  <si>
+    <t>I saw them with a petrol bomb</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleFireHowSuspectKnown</t>
+  </si>
+  <si>
+    <t>Unrelated</t>
+  </si>
+  <si>
+    <t>Theft</t>
+  </si>
+  <si>
+    <t>Theft Unrecovered</t>
+  </si>
+  <si>
+    <t>From locked garage</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTheftLastSeenDate</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTheftLastSeenTime</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTheftLossDate</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTheftLossTime</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTheftWindowsLocked</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTheftSecurityFitted</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTheftSecurityDetails</t>
+  </si>
+  <si>
+    <t>I have a crooklock</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTheftSecurityActive</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTheftKeysOnPurchase</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTheftKeysPossessed</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTheftKeyContactless</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTheftKeyLeftInVehicle</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTheftGarage</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTheftGarageDetails</t>
+  </si>
+  <si>
+    <t>It was in the garage last week for repairs AGAIN</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTheftSuspected</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTheftSuspectNewPerson</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTheftWhySuspect</t>
+  </si>
+  <si>
+    <t>I saw them with a crowbar</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTheftHowSuspectKnown</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTheftPoliceTreating</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTheftPoliceDetails</t>
+  </si>
+  <si>
+    <t>The police don’t believe it is stolen</t>
+  </si>
+  <si>
+    <t>I have just changedmy car in the last few weeks</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTheftVehicleChanged</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTheftVehicleChangedDetails</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleFinanceOnVehicle</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleFinanceMonthly</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleFinanceMonthsRemaining</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleFinancePayOff</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleRoadWorthy</t>
+  </si>
+  <si>
+    <t>Exhaust Mods</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleModificationType</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleModified</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleNormallyKept</t>
+  </si>
+  <si>
+    <t>Residential Car Park</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleCurrentLocation</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleMileage</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTLCVehicleAge</t>
+  </si>
+  <si>
+    <t>3-6 years old</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleCallTotalLossCalc</t>
   </si>
 </sst>
 </file>
@@ -864,7 +1074,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -876,6 +1086,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1157,26 +1369,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B161"/>
+  <dimension ref="A1:I205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="E127" sqref="E126:E127"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1184,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1192,7 +1405,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1200,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1208,7 +1421,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1216,7 +1429,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="4"/>
     </row>
@@ -1225,7 +1438,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -1241,7 +1454,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B12" s="2"/>
     </row>
@@ -1263,10 +1476,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1274,39 +1487,69 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="I19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
       <c r="B20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="I20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" t="s">
+        <v>288</v>
+      </c>
+      <c r="D21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="I21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1314,7 +1557,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1322,7 +1565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1330,7 +1573,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1338,7 +1581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1346,7 +1589,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1354,7 +1597,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1362,7 +1605,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1370,7 +1613,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1378,7 +1621,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1386,7 +1629,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -1396,79 +1639,87 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" t="s">
-        <v>87</v>
+      <c r="A35" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>92</v>
+      <c r="A36" s="8" t="s">
+        <v>322</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>93</v>
+      <c r="A37" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B38" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" t="b">
-        <v>1</v>
+      <c r="A39" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B39">
+        <v>17000</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" t="b">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" t="s">
-        <v>58</v>
+        <v>320</v>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>101</v>
+      <c r="A44" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="B44" t="b">
         <v>1</v>
@@ -1476,474 +1727,493 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>329</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" t="s">
-        <v>129</v>
+        <v>316</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47" t="s">
-        <v>104</v>
+        <v>317</v>
+      </c>
+      <c r="B47">
+        <v>125.66</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>161</v>
-      </c>
-      <c r="B48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+      <c r="B48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>162</v>
-      </c>
-      <c r="B49" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>164</v>
-      </c>
-      <c r="B50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
-        <v>51</v>
+        <v>319</v>
+      </c>
+      <c r="B49">
+        <v>2476.44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>272</v>
+      </c>
+      <c r="B51" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>273</v>
       </c>
       <c r="B52" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>180</v>
-      </c>
-      <c r="B54" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>181</v>
+        <v>277</v>
       </c>
       <c r="B55" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>204</v>
+        <v>279</v>
       </c>
       <c r="B56" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>205</v>
-      </c>
-      <c r="B57" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+      <c r="B57" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>206</v>
+        <v>282</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>182</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>183</v>
-      </c>
-      <c r="B60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+        <v>284</v>
+      </c>
+      <c r="B59" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>184</v>
-      </c>
-      <c r="B61" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+        <v>290</v>
+      </c>
+      <c r="B61" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>185</v>
-      </c>
-      <c r="B62" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>186</v>
-      </c>
-      <c r="B63" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+      <c r="B63" s="9">
+        <v>0.33680555555555558</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>187</v>
-      </c>
-      <c r="B64" t="b">
+        <v>293</v>
+      </c>
+      <c r="B64" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>188</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+      <c r="B65" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>189</v>
-      </c>
-      <c r="B66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="6"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+        <v>295</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>297</v>
+      </c>
+      <c r="B67" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>298</v>
+      </c>
+      <c r="B68" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+        <v>299</v>
+      </c>
+      <c r="B69" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+      <c r="B70" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+        <v>301</v>
+      </c>
+      <c r="B71" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+        <v>302</v>
+      </c>
+      <c r="B72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>303</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+        <v>314</v>
+      </c>
+      <c r="B74" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>315</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>82</v>
-      </c>
-      <c r="B76" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+        <v>305</v>
+      </c>
+      <c r="B76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>106</v>
-      </c>
-      <c r="B77" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+      <c r="B77" t="b">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>307</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>309</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>310</v>
+      </c>
+      <c r="B80" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B81" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>66</v>
-      </c>
-      <c r="B82" t="s">
-        <v>67</v>
+      <c r="A81" t="s">
+        <v>311</v>
+      </c>
+      <c r="B81" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>62</v>
-      </c>
-      <c r="B83" t="s">
-        <v>63</v>
+      <c r="A83" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>65</v>
-      </c>
-      <c r="B84" t="s">
-        <v>64</v>
+        <v>54</v>
+      </c>
+      <c r="B84" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>208</v>
-      </c>
-      <c r="B85" t="b">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="B85" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>209</v>
+        <v>57</v>
       </c>
       <c r="B86" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="B87" t="s">
-        <v>207</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>69</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>68</v>
+        <v>100</v>
+      </c>
+      <c r="B88" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>96</v>
-      </c>
-      <c r="B89" t="b">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="B89" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B90" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>100</v>
-      </c>
-      <c r="B92" t="s">
-        <v>98</v>
+        <v>160</v>
+      </c>
+      <c r="B92" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>165</v>
-      </c>
-      <c r="B93" t="b">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="B93" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>166</v>
-      </c>
-      <c r="B94" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>167</v>
-      </c>
-      <c r="B95" t="b">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B96" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B97" t="b">
-        <v>1</v>
+      <c r="A97" t="s">
+        <v>178</v>
+      </c>
+      <c r="B97" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="B98" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="B99" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>151</v>
-      </c>
-      <c r="B100" t="s">
-        <v>158</v>
+        <v>203</v>
+      </c>
+      <c r="B100" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>200</v>
-      </c>
-      <c r="B101" t="b">
-        <v>1</v>
+        <v>204</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B102" t="s">
-        <v>25</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>202</v>
-      </c>
-      <c r="B103" t="s">
-        <v>203</v>
+        <v>181</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>152</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>159</v>
+        <v>182</v>
+      </c>
+      <c r="B104" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>153</v>
-      </c>
-      <c r="B105" t="b">
-        <v>1</v>
+        <v>183</v>
+      </c>
+      <c r="B105" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="B106" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="B107" t="s">
         <v>97</v>
@@ -1951,409 +2221,740 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>156</v>
-      </c>
-      <c r="B108" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="B108" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>168</v>
-      </c>
-      <c r="B109" t="b">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>169</v>
-      </c>
-      <c r="B110" t="s">
-        <v>163</v>
+        <v>188</v>
+      </c>
+      <c r="B110" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>170</v>
-      </c>
-      <c r="B111" t="b">
-        <v>0</v>
+      <c r="A111" s="6"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B112" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B113" t="b">
-        <v>1</v>
+      <c r="A113" t="s">
+        <v>69</v>
+      </c>
+      <c r="B113" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>110</v>
-      </c>
-      <c r="B115" t="s">
-        <v>116</v>
+        <v>72</v>
+      </c>
+      <c r="B115">
+        <v>2017</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>197</v>
-      </c>
-      <c r="B117" t="b">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="B117" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="B118" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="B119" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>111</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>118</v>
+        <v>81</v>
+      </c>
+      <c r="B120" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>121</v>
-      </c>
-      <c r="B121">
-        <v>1237771234</v>
+        <v>105</v>
+      </c>
+      <c r="B121" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>112</v>
-      </c>
-      <c r="B123" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>124</v>
-      </c>
-      <c r="B124" t="s">
-        <v>125</v>
+        <v>89</v>
+      </c>
+      <c r="B123" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>113</v>
-      </c>
-      <c r="B125" t="s">
-        <v>119</v>
+      <c r="A125" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B125" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="B126" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>171</v>
-      </c>
-      <c r="B127" t="b">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="B127" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="B128" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>208</v>
+      </c>
+      <c r="B130" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B131" t="b">
-        <v>1</v>
+      <c r="A131" t="s">
+        <v>209</v>
+      </c>
+      <c r="B131" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>130</v>
-      </c>
-      <c r="B132" t="s">
-        <v>131</v>
+        <v>68</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>133</v>
+        <v>95</v>
+      </c>
+      <c r="B133" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>134</v>
-      </c>
-      <c r="B134">
-        <v>4000</v>
+        <v>125</v>
+      </c>
+      <c r="B134" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="B135" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="B136" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B138" t="s">
-        <v>67</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>141</v>
-      </c>
-      <c r="B139" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>142</v>
-      </c>
-      <c r="B140" t="s">
-        <v>144</v>
+        <v>166</v>
+      </c>
+      <c r="B139" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>147</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>148</v>
+      <c r="A141" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B141" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>146</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B144" t="b">
+      <c r="A144" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>199</v>
+      </c>
+      <c r="B145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>200</v>
+      </c>
+      <c r="B146" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>201</v>
+      </c>
+      <c r="B147" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>167</v>
+      </c>
+      <c r="B153" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B145" t="b">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>168</v>
+      </c>
+      <c r="B154" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>169</v>
+      </c>
+      <c r="B155" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" s="6"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B147" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B149" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B154" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B155" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B156" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>226</v>
+      <c r="A157" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" s="8" t="s">
-        <v>228</v>
+      <c r="A158" t="s">
+        <v>107</v>
       </c>
       <c r="B158" t="s">
-        <v>229</v>
+        <v>114</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" s="8" t="s">
-        <v>230</v>
+      <c r="A159" t="s">
+        <v>109</v>
       </c>
       <c r="B159" t="s">
-        <v>231</v>
+        <v>115</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" s="8"/>
+      <c r="A160" t="s">
+        <v>108</v>
+      </c>
+      <c r="B160" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
+        <v>196</v>
+      </c>
+      <c r="B161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>197</v>
+      </c>
+      <c r="B162" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>198</v>
+      </c>
+      <c r="B163" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>110</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>120</v>
+      </c>
+      <c r="B165">
+        <v>1237771234</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>121</v>
+      </c>
+      <c r="B166" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>111</v>
+      </c>
+      <c r="B167" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>123</v>
+      </c>
+      <c r="B168" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>112</v>
+      </c>
+      <c r="B169" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>113</v>
+      </c>
+      <c r="B170" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>129</v>
+      </c>
+      <c r="B176" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>131</v>
+      </c>
+      <c r="B177" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>133</v>
+      </c>
+      <c r="B178">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>134</v>
+      </c>
+      <c r="B179" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>136</v>
+      </c>
+      <c r="B180" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>138</v>
+      </c>
+      <c r="B181" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>139</v>
+      </c>
+      <c r="B182" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>140</v>
+      </c>
+      <c r="B183" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>141</v>
+      </c>
+      <c r="B184" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>146</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>144</v>
+      </c>
+      <c r="B186" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="6"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B193" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B198" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B199" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B200" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B202" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B203" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="8"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
         <v>6</v>
       </c>
-      <c r="B161" s="3" t="s">
-        <v>244</v>
+      <c r="B205" s="3" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B88" r:id="rId1"/>
-    <hyperlink ref="B120" r:id="rId2"/>
-    <hyperlink ref="B141" r:id="rId3"/>
-    <hyperlink ref="B104" r:id="rId4"/>
-    <hyperlink ref="B59" r:id="rId5"/>
+    <hyperlink ref="B132" r:id="rId1"/>
+    <hyperlink ref="B164" r:id="rId2"/>
+    <hyperlink ref="B185" r:id="rId3"/>
+    <hyperlink ref="B148" r:id="rId4"/>
+    <hyperlink ref="B103" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -2704,7 +3305,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -2712,20 +3313,20 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B6" s="2">
         <v>0.41666666666666669</v>
@@ -2733,39 +3334,39 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B11" s="3" t="b">
         <v>1</v>
@@ -2773,7 +3374,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B12" s="3" t="b">
         <v>1</v>
@@ -2781,7 +3382,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B13" s="3" t="b">
         <v>1</v>
@@ -2789,47 +3390,47 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B20">
         <v>4000</v>
@@ -2837,23 +3438,23 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -2861,47 +3462,47 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
@@ -2909,26 +3510,26 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B30" t="s">
         <v>257</v>
-      </c>
-      <c r="B30" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="409">
   <si>
     <t>ITB/10000002</t>
   </si>
@@ -820,9 +820,6 @@
     <t>NL68OXW</t>
   </si>
   <si>
-    <t>18/01/2019</t>
-  </si>
-  <si>
     <t>10 Shillhope Drive, Blyth, NE24 4SN</t>
   </si>
   <si>
@@ -841,9 +838,6 @@
     <t>Fnol_PHVehicleFireWhenDate</t>
   </si>
   <si>
-    <t>18/01/2018</t>
-  </si>
-  <si>
     <t>Fnol_PHVehicleFireWhenTime</t>
   </si>
   <si>
@@ -1022,6 +1016,243 @@
   </si>
   <si>
     <t>Fnol_PHVehicleCallTotalLossCalc</t>
+  </si>
+  <si>
+    <t>The following drive the main screens which are used in FNOL</t>
+  </si>
+  <si>
+    <t>Almost all claims will need this</t>
+  </si>
+  <si>
+    <t>The following will only be used if Fnol_Step3_PHVehicleRequired is TRUE</t>
+  </si>
+  <si>
+    <t>Determines if the PH vehicle Total Loss cal subscreen is invoked</t>
+  </si>
+  <si>
+    <t>The following will only be used as part of PH vehicle if Fnol_PHVehicleCallTotalLossCalc is TRUE</t>
+  </si>
+  <si>
+    <t>The Fire subsection will only be shown if it’s a Fire incident type</t>
+  </si>
+  <si>
+    <t>The Theft subsection will only be shown if it’s a Theft incident type</t>
+  </si>
+  <si>
+    <t>The following will only be used if Fnol_PHDriverRequired is TRUE</t>
+  </si>
+  <si>
+    <t>The following will only be used if Fnol_PHPassengerRequired is TRUE</t>
+  </si>
+  <si>
+    <t>The following will only be used if Fnol_Step3_TPVehicleRequired is TRUE</t>
+  </si>
+  <si>
+    <t>The following will only be used if Fnol_TPDriverRequired is TRUE</t>
+  </si>
+  <si>
+    <t>The following will only be used if Fnol_TPPassengerRequired is TRUE</t>
+  </si>
+  <si>
+    <t>The following will only be used if Fnol_Step3_PedestrianRequired is TRUE</t>
+  </si>
+  <si>
+    <t>The following will only be used if Fnol_Step3_PropertyRequired is TRUE</t>
+  </si>
+  <si>
+    <t>The following will only be used  if Fnol_Step3_WitnessRequired is TRUE</t>
+  </si>
+  <si>
+    <t>The following will only be used if Fnol_Step3_OfficialRequired is TRUE</t>
+  </si>
+  <si>
+    <t>The followign will only be used if Fnol_Step3_PoliceRequired is TRUE</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTLCAirbags</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTLCRollover</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTLCCosmetic</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTLCOver100k</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTLCLight</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTLCMedium</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTLCHeavy</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTLCVeryHeavy</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTLCBurnEngine</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTLCBurnInterior</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTLCDrivenWater</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTLCSubmerged</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTLCWaterInCompartment</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTLCWaterSeats</t>
+  </si>
+  <si>
+    <t>Fnol_PHVehicleTLCPointsTotal</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>21/01/2019</t>
+  </si>
+  <si>
+    <t>21/01/2018</t>
+  </si>
+  <si>
+    <t>Surveillance R us  - mr King 0777777788</t>
+  </si>
+  <si>
+    <t>Commercial Travelling</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_IncidentType</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_Cause</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_SubCause</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_FaulltRate</t>
+  </si>
+  <si>
+    <t>Fault</t>
+  </si>
+  <si>
+    <t>A Horse came round the corner</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_Circumstances</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_InsuredsLiability</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_IncUsingFor</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_IncPurpose</t>
+  </si>
+  <si>
+    <t>Had to get some files from work AGAIN</t>
+  </si>
+  <si>
+    <t>He WAS a friend of mine</t>
+  </si>
+  <si>
+    <t>61-70 MPH</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_IncKnowOtherDriver</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_IncNatureOfRel</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_IncSpeedImpact</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_IncWeather</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_IncRoadCond</t>
+  </si>
+  <si>
+    <t>Snow Covered</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_IncPhotos</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_IncCctv</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_IncCctvContact</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_IncPostcode</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_IncLocDesc</t>
+  </si>
+  <si>
+    <t>NE31UL</t>
+  </si>
+  <si>
+    <t>PostFnol_PedestrianPrefix</t>
+  </si>
+  <si>
+    <t>PostFnol_PedestrianFirstName</t>
+  </si>
+  <si>
+    <t>PostFnol_PedestrianLastName</t>
+  </si>
+  <si>
+    <t>PostFnol_PedestrianPostcodeSearch</t>
+  </si>
+  <si>
+    <t>PostFnol_PedestrianPostcode</t>
+  </si>
+  <si>
+    <t>PostFnol_PedestrianPostcodeAddress</t>
+  </si>
+  <si>
+    <t>PostFnol_PedestrianEmail</t>
+  </si>
+  <si>
+    <t>PostFnol_PedestrianMobile</t>
+  </si>
+  <si>
+    <t>PostFnol_PedestrianNotes</t>
+  </si>
+  <si>
+    <t>PostFnol_PedestrianInjured</t>
+  </si>
+  <si>
+    <t>PostFnol_PedestrianInjDesc</t>
+  </si>
+  <si>
+    <t>PostFnol_PedestrianInj1BodyArea</t>
+  </si>
+  <si>
+    <t>PostFnol_PedestrianInj1Detailed</t>
+  </si>
+  <si>
+    <t>PostFnol_PedestrianInjHospAttend</t>
+  </si>
+  <si>
+    <t>PostFnol_PedestrianInjHospSearchName</t>
+  </si>
+  <si>
+    <t>PostFnol_PedestrianInjHospOvernight</t>
   </si>
 </sst>
 </file>
@@ -1369,30 +1600,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I205"/>
+  <dimension ref="A1:I239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.1796875" customWidth="1"/>
     <col min="2" max="2" width="53.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1400,7 +1631,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1408,7 +1639,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1416,999 +1647,1077 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>284</v>
+      </c>
+      <c r="D35" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>285</v>
+      </c>
+      <c r="D36" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
         <v>286</v>
       </c>
-      <c r="D19" t="s">
-        <v>266</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="D37" t="s">
+        <v>268</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>287</v>
-      </c>
-      <c r="D20" t="s">
-        <v>268</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>288</v>
-      </c>
-      <c r="D21" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B52" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B53" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B54" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B55">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>318</v>
+      </c>
+      <c r="B58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>314</v>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>315</v>
+      </c>
+      <c r="B61">
+        <v>125.66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>316</v>
+      </c>
+      <c r="B62">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>317</v>
+      </c>
+      <c r="B63">
+        <v>2476.44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B36" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B37" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="B38" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="B39">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>320</v>
-      </c>
-      <c r="B42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="B44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>329</v>
-      </c>
-      <c r="B45" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>316</v>
-      </c>
-      <c r="B46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>317</v>
-      </c>
-      <c r="B47">
-        <v>125.66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>318</v>
-      </c>
-      <c r="B48">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>319</v>
-      </c>
-      <c r="B49">
-        <v>2476.44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>272</v>
-      </c>
-      <c r="B51" s="9">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>273</v>
-      </c>
-      <c r="B52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>274</v>
-      </c>
-      <c r="B53" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>276</v>
-      </c>
-      <c r="B54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>277</v>
-      </c>
-      <c r="B55" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>279</v>
-      </c>
-      <c r="B56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>280</v>
-      </c>
-      <c r="B57" t="b">
-        <v>0</v>
-      </c>
-      <c r="D57" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>282</v>
-      </c>
-      <c r="B58" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>284</v>
-      </c>
-      <c r="B59" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>290</v>
-      </c>
-      <c r="B61" s="9">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>291</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>292</v>
-      </c>
-      <c r="B63" s="9">
-        <v>0.33680555555555558</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>293</v>
-      </c>
-      <c r="B64" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>294</v>
-      </c>
-      <c r="B65" s="9" t="b">
-        <v>1</v>
+      <c r="B65" s="3" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>295</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>296</v>
+        <v>270</v>
+      </c>
+      <c r="B66" s="9">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>297</v>
-      </c>
-      <c r="B67" s="9" t="b">
+        <v>271</v>
+      </c>
+      <c r="B67" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>298</v>
-      </c>
-      <c r="B68" s="10">
-        <v>3</v>
+        <v>272</v>
+      </c>
+      <c r="B68" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>299</v>
-      </c>
-      <c r="B69" s="10">
-        <v>2</v>
+        <v>274</v>
+      </c>
+      <c r="B69" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>300</v>
-      </c>
-      <c r="B70" s="10" t="b">
-        <v>1</v>
+        <v>275</v>
+      </c>
+      <c r="B70" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>301</v>
-      </c>
-      <c r="B71" s="10" t="b">
-        <v>0</v>
+        <v>277</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="B72" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="B73" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>314</v>
-      </c>
-      <c r="B74" s="10" t="b">
-        <v>1</v>
+        <v>282</v>
+      </c>
+      <c r="B74" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>315</v>
-      </c>
-      <c r="B75" t="s">
-        <v>313</v>
+      <c r="A75" s="6" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>305</v>
-      </c>
-      <c r="B76" t="b">
-        <v>1</v>
+      <c r="A76" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>306</v>
-      </c>
-      <c r="B77" t="b">
-        <v>0</v>
-      </c>
-      <c r="D77" t="s">
-        <v>281</v>
+        <v>288</v>
+      </c>
+      <c r="B77" s="9">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>307</v>
-      </c>
-      <c r="B78" t="s">
-        <v>308</v>
+        <v>289</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>309</v>
-      </c>
-      <c r="B79" t="s">
-        <v>285</v>
+        <v>290</v>
+      </c>
+      <c r="B79" s="9">
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>291</v>
+      </c>
+      <c r="B80" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>292</v>
+      </c>
+      <c r="B81" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>293</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>295</v>
+      </c>
+      <c r="B83" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>296</v>
+      </c>
+      <c r="B84" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>297</v>
+      </c>
+      <c r="B85" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>298</v>
+      </c>
+      <c r="B86" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>299</v>
+      </c>
+      <c r="B87" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>300</v>
+      </c>
+      <c r="B88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>301</v>
+      </c>
+      <c r="B89" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>312</v>
+      </c>
+      <c r="B90" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>313</v>
+      </c>
+      <c r="B91" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>303</v>
+      </c>
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>304</v>
+      </c>
+      <c r="B93" t="b">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>305</v>
+      </c>
+      <c r="B94" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>307</v>
+      </c>
+      <c r="B95" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>308</v>
+      </c>
+      <c r="B96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>309</v>
+      </c>
+      <c r="B97" t="s">
         <v>310</v>
       </c>
-      <c r="B80" t="b">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>327</v>
+      </c>
+      <c r="B99" t="s">
+        <v>328</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>350</v>
+      </c>
+      <c r="B100" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>15</v>
+      </c>
+      <c r="D100" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>347</v>
+      </c>
+      <c r="B101" t="s">
+        <v>93</v>
+      </c>
+      <c r="C101">
+        <v>15</v>
+      </c>
+      <c r="D101" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>348</v>
+      </c>
+      <c r="B102" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>25</v>
+      </c>
+      <c r="D102" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>349</v>
+      </c>
+      <c r="B103" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>311</v>
-      </c>
-      <c r="B81" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B83" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>351</v>
+      </c>
+      <c r="B104" t="b">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>352</v>
+      </c>
+      <c r="B105" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>353</v>
+      </c>
+      <c r="B106" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>354</v>
+      </c>
+      <c r="B107" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>20</v>
+      </c>
+      <c r="D107" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>355</v>
+      </c>
+      <c r="B108" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>20</v>
+      </c>
+      <c r="D108" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>356</v>
+      </c>
+      <c r="B109" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>25</v>
+      </c>
+      <c r="D109" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>357</v>
+      </c>
+      <c r="B110" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>20</v>
+      </c>
+      <c r="D110" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>358</v>
+      </c>
+      <c r="B111" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>25</v>
+      </c>
+      <c r="D111" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>359</v>
+      </c>
+      <c r="B112" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>360</v>
+      </c>
+      <c r="B113" t="b">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>25</v>
+      </c>
+      <c r="D113" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>361</v>
+      </c>
+      <c r="B114">
+        <v>210</v>
+      </c>
+      <c r="C114">
+        <f>SUM(C99:C113)</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>54</v>
       </c>
-      <c r="B84" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="B117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>55</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B118" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>57</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B119" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>60</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B120" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>100</v>
       </c>
-      <c r="B88" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="B121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>101</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B122" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
         <v>127</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B123" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>104</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B124" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>160</v>
       </c>
-      <c r="B92" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="B125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
         <v>161</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B126" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>163</v>
       </c>
-      <c r="B94" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B96" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>178</v>
-      </c>
-      <c r="B97" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>179</v>
-      </c>
-      <c r="B98" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>180</v>
-      </c>
-      <c r="B99" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>203</v>
-      </c>
-      <c r="B100" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>204</v>
-      </c>
-      <c r="B101" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>205</v>
-      </c>
-      <c r="B102" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>181</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>182</v>
-      </c>
-      <c r="B104" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>183</v>
-      </c>
-      <c r="B105" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>184</v>
-      </c>
-      <c r="B106" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>185</v>
-      </c>
-      <c r="B107" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>186</v>
-      </c>
-      <c r="B108" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>187</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>188</v>
-      </c>
-      <c r="B110" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="6"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B112" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>69</v>
-      </c>
-      <c r="B113" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>71</v>
-      </c>
-      <c r="B114" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>72</v>
-      </c>
-      <c r="B115">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>73</v>
-      </c>
-      <c r="B116" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>74</v>
-      </c>
-      <c r="B117" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>78</v>
-      </c>
-      <c r="B118" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>80</v>
-      </c>
-      <c r="B119" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>81</v>
-      </c>
-      <c r="B120" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>105</v>
-      </c>
-      <c r="B121" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>88</v>
-      </c>
-      <c r="B122" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>89</v>
-      </c>
-      <c r="B123" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B125" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>65</v>
-      </c>
-      <c r="B126" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>61</v>
-      </c>
-      <c r="B127" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>64</v>
-      </c>
-      <c r="B128" t="s">
-        <v>63</v>
+      <c r="B127" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>207</v>
-      </c>
-      <c r="B129" t="b">
-        <v>1</v>
+      <c r="A129" s="6" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="B130" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="B131" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>68</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>67</v>
+        <v>180</v>
+      </c>
+      <c r="B132" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="B133" t="b">
         <v>1</v>
@@ -2416,545 +2725,775 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="B134" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="B135" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>99</v>
-      </c>
-      <c r="B136" t="s">
-        <v>97</v>
+        <v>181</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B138" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>166</v>
-      </c>
-      <c r="B139" t="b">
+        <v>184</v>
+      </c>
+      <c r="B139" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>185</v>
+      </c>
+      <c r="B140" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>186</v>
+      </c>
+      <c r="B141" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B141" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>148</v>
-      </c>
-      <c r="B142" t="s">
-        <v>66</v>
+        <v>187</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>149</v>
-      </c>
-      <c r="B143" t="s">
-        <v>156</v>
+        <v>188</v>
+      </c>
+      <c r="B143" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>150</v>
-      </c>
-      <c r="B144" t="s">
-        <v>157</v>
-      </c>
+      <c r="A144" s="6"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>199</v>
-      </c>
-      <c r="B145" t="b">
-        <v>1</v>
+      <c r="A145" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="B146" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>201</v>
+        <v>71</v>
       </c>
       <c r="B147" t="s">
-        <v>202</v>
+        <v>75</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>151</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>158</v>
+        <v>72</v>
+      </c>
+      <c r="B148">
+        <v>2017</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>152</v>
-      </c>
-      <c r="B149" t="b">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="B149" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="B150" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="B151" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="B152" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>167</v>
-      </c>
-      <c r="B153" t="b">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="B153" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="B154" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>169</v>
-      </c>
-      <c r="B155" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B157" t="b">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="B155" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>89</v>
+      </c>
+      <c r="B156" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>107</v>
-      </c>
-      <c r="B158" t="s">
-        <v>114</v>
+      <c r="A158" s="6" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="B159" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="B160" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>196</v>
-      </c>
-      <c r="B161" t="b">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="B161" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>197</v>
-      </c>
-      <c r="B162" t="s">
-        <v>25</v>
+        <v>207</v>
+      </c>
+      <c r="B162" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B163" t="s">
-        <v>195</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>110</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>117</v>
+        <v>209</v>
+      </c>
+      <c r="B164" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>120</v>
-      </c>
-      <c r="B165">
-        <v>1237771234</v>
+        <v>68</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>121</v>
-      </c>
-      <c r="B166" t="s">
-        <v>122</v>
+        <v>95</v>
+      </c>
+      <c r="B166" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>111</v>
-      </c>
-      <c r="B167" t="b">
-        <v>1</v>
+        <v>125</v>
+      </c>
+      <c r="B167" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="B168" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B169" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>113</v>
-      </c>
-      <c r="B170" t="s">
-        <v>119</v>
+        <v>164</v>
+      </c>
+      <c r="B170" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>170</v>
-      </c>
-      <c r="B171" t="b">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="B171" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>171</v>
-      </c>
-      <c r="B172" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>172</v>
-      </c>
-      <c r="B173" t="b">
+        <v>166</v>
+      </c>
+      <c r="B172" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B175" t="b">
-        <v>1</v>
+      <c r="A175" t="s">
+        <v>148</v>
+      </c>
+      <c r="B175" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="B176" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B177" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>133</v>
-      </c>
-      <c r="B178">
-        <v>4000</v>
+        <v>199</v>
+      </c>
+      <c r="B178" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="B179" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="B180" t="s">
-        <v>137</v>
+        <v>202</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>138</v>
-      </c>
-      <c r="B181" t="b">
-        <v>1</v>
+        <v>151</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>139</v>
-      </c>
-      <c r="B182" t="s">
-        <v>66</v>
+        <v>152</v>
+      </c>
+      <c r="B182" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B183" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B184" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>146</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>147</v>
+        <v>155</v>
+      </c>
+      <c r="B185" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>144</v>
-      </c>
-      <c r="B186" t="s">
-        <v>145</v>
+        <v>167</v>
+      </c>
+      <c r="B186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>168</v>
+      </c>
+      <c r="B187" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" s="6" t="s">
-        <v>47</v>
+      <c r="A188" t="s">
+        <v>169</v>
       </c>
       <c r="B188" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B189" t="b">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>107</v>
+      </c>
+      <c r="B191" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>109</v>
+      </c>
+      <c r="B192" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>108</v>
+      </c>
+      <c r="B193" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>196</v>
+      </c>
+      <c r="B194" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>197</v>
+      </c>
+      <c r="B195" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>198</v>
+      </c>
+      <c r="B196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>110</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>120</v>
+      </c>
+      <c r="B198">
+        <v>1237771234</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>121</v>
+      </c>
+      <c r="B199" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>111</v>
+      </c>
+      <c r="B200" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>123</v>
+      </c>
+      <c r="B201" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>112</v>
+      </c>
+      <c r="B202" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>113</v>
+      </c>
+      <c r="B203" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>170</v>
+      </c>
+      <c r="B204" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" s="6"/>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B191" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B193" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A195" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B198" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B199" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B200" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A201" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A202" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B202" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B203" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" s="8"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
+        <v>171</v>
+      </c>
+      <c r="B205" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>172</v>
+      </c>
+      <c r="B206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>129</v>
+      </c>
+      <c r="B209" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>131</v>
+      </c>
+      <c r="B210" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>133</v>
+      </c>
+      <c r="B211">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>134</v>
+      </c>
+      <c r="B212" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>136</v>
+      </c>
+      <c r="B213" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>138</v>
+      </c>
+      <c r="B214" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>139</v>
+      </c>
+      <c r="B215" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>140</v>
+      </c>
+      <c r="B216" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>141</v>
+      </c>
+      <c r="B217" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>146</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>144</v>
+      </c>
+      <c r="B219" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" s="6"/>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="6"/>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B227" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B232" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B233" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B234" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B236" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B237" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="8"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
         <v>6</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B239" s="3" t="s">
         <v>243</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B132" r:id="rId1"/>
-    <hyperlink ref="B164" r:id="rId2"/>
-    <hyperlink ref="B185" r:id="rId3"/>
-    <hyperlink ref="B148" r:id="rId4"/>
-    <hyperlink ref="B103" r:id="rId5"/>
+    <hyperlink ref="B165" r:id="rId1"/>
+    <hyperlink ref="B197" r:id="rId2"/>
+    <hyperlink ref="B218" r:id="rId3"/>
+    <hyperlink ref="B181" r:id="rId4"/>
+    <hyperlink ref="B136" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -3291,24 +3830,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="39.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3316,228 +3855,531 @@
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B12" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="B13" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>241</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>376</v>
+      </c>
+      <c r="B13" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>380</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>381</v>
       </c>
       <c r="B15" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>242</v>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>382</v>
       </c>
       <c r="B16" t="s">
-        <v>230</v>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>383</v>
+      </c>
+      <c r="B17" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>244</v>
+        <v>384</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>245</v>
+        <v>387</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>246</v>
-      </c>
-      <c r="B20">
-        <v>4000</v>
+        <v>388</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>247</v>
+        <v>389</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>248</v>
-      </c>
-      <c r="B22" t="s">
-        <v>137</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>249</v>
-      </c>
-      <c r="B23" t="b">
-        <v>1</v>
+        <v>390</v>
+      </c>
+      <c r="B23" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>391</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B33" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B34" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B37" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>245</v>
+      </c>
+      <c r="B40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>246</v>
+      </c>
+      <c r="B41">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>247</v>
+      </c>
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>248</v>
+      </c>
+      <c r="B43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>249</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>250</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>251</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B46" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>252</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B47" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>253</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>254</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B49" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>255</v>
       </c>
-      <c r="B29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>256</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B51" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>258</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B52" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>260</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B53" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>393</v>
+      </c>
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>394</v>
+      </c>
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>395</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>396</v>
+      </c>
+      <c r="B58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>397</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>398</v>
+      </c>
+      <c r="B60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>399</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>400</v>
+      </c>
+      <c r="B62">
+        <v>1237771234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>401</v>
+      </c>
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>402</v>
+      </c>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>403</v>
+      </c>
+      <c r="B65" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>404</v>
+      </c>
+      <c r="B66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>405</v>
+      </c>
+      <c r="B67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>406</v>
+      </c>
+      <c r="B68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>407</v>
+      </c>
+      <c r="B69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>408</v>
+      </c>
+      <c r="B70" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B27" r:id="rId1"/>
-    <hyperlink ref="B31" r:id="rId2"/>
+    <hyperlink ref="B48" r:id="rId1"/>
+    <hyperlink ref="B52" r:id="rId2"/>
+    <hyperlink ref="B61" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="412">
   <si>
     <t>ITB/10000002</t>
   </si>
@@ -757,9 +757,6 @@
     <t>PostFnol_PoliceForceSearchName</t>
   </si>
   <si>
-    <t>000-00-000033</t>
-  </si>
-  <si>
     <t>PostFnol_PropertyDesc</t>
   </si>
   <si>
@@ -1253,6 +1250,18 @@
   </si>
   <si>
     <t>PostFnol_PedestrianInjHospOvernight</t>
+  </si>
+  <si>
+    <t>000-00-000032</t>
+  </si>
+  <si>
+    <t>Fnol_Step2_AlertNotified</t>
+  </si>
+  <si>
+    <t>Fnol_Step2_AlertId</t>
+  </si>
+  <si>
+    <t>TBX59595959</t>
   </si>
 </sst>
 </file>
@@ -1600,10 +1609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I239"/>
+  <dimension ref="A1:I241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1628,7 +1637,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1636,7 +1645,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1644,7 +1653,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1652,7 +1661,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1660,7 +1669,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B8" s="4"/>
     </row>
@@ -1672,18 +1681,18 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B10" s="4" t="b">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1786,7 +1795,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1822,95 +1831,95 @@
         <v>19</v>
       </c>
     </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>409</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
+      <c r="A32" t="s">
+        <v>410</v>
+      </c>
+      <c r="B32" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>284</v>
-      </c>
-      <c r="D35" t="s">
-        <v>265</v>
-      </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" t="s">
-        <v>284</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>285</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>267</v>
-      </c>
-      <c r="E36" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D37" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I37" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>284</v>
+      </c>
+      <c r="D38" t="s">
+        <v>266</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>285</v>
+      </c>
+      <c r="D39" t="s">
+        <v>267</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -1923,148 +1932,148 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" t="b">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>44</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="B51" t="b">
-        <v>1</v>
-      </c>
-    </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B52" t="s">
-        <v>319</v>
+      <c r="A52" s="6" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B53" t="s">
-        <v>323</v>
+        <v>320</v>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B54" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="B55">
+        <v>321</v>
+      </c>
+      <c r="B55" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B56" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B57">
         <v>17000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>106</v>
-      </c>
-      <c r="B56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>91</v>
-      </c>
-      <c r="B57" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>318</v>
-      </c>
-      <c r="B58" t="b">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="B58" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B60" t="b">
         <v>1</v>
@@ -2072,68 +2081,68 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>315</v>
-      </c>
-      <c r="B61">
-        <v>125.66</v>
+        <v>92</v>
+      </c>
+      <c r="B61" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>316</v>
-      </c>
-      <c r="B62">
-        <v>13</v>
+        <v>313</v>
+      </c>
+      <c r="B62" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B63">
+        <v>125.66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>315</v>
+      </c>
+      <c r="B64">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>316</v>
+      </c>
+      <c r="B65">
         <v>2476.44</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>270</v>
-      </c>
-      <c r="B66" s="9">
-        <v>0.33333333333333331</v>
+      <c r="A66" s="6" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>271</v>
-      </c>
-      <c r="B67" t="b">
-        <v>1</v>
+      <c r="A67" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>272</v>
-      </c>
-      <c r="B68" t="s">
-        <v>273</v>
+        <v>269</v>
+      </c>
+      <c r="B68" s="9">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B69" t="b">
         <v>1</v>
@@ -2141,15 +2150,15 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B70" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B71" t="b">
         <v>1</v>
@@ -2157,95 +2166,95 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>278</v>
-      </c>
-      <c r="B72" t="b">
-        <v>0</v>
-      </c>
-      <c r="D72" t="s">
-        <v>279</v>
+        <v>274</v>
+      </c>
+      <c r="B72" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>280</v>
-      </c>
-      <c r="B73" t="s">
-        <v>281</v>
+        <v>276</v>
+      </c>
+      <c r="B73" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>277</v>
+      </c>
+      <c r="B74" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>279</v>
+      </c>
+      <c r="B75" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>281</v>
+      </c>
+      <c r="B76" t="s">
         <v>282</v>
       </c>
-      <c r="B74" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>364</v>
-      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>288</v>
-      </c>
-      <c r="B77" s="9">
-        <v>0.33333333333333331</v>
+      <c r="A77" s="6" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>289</v>
+      <c r="A78" s="8" t="s">
+        <v>286</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B79" s="9">
-        <v>0.33680555555555558</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>291</v>
-      </c>
-      <c r="B80" s="9" t="b">
-        <v>0</v>
+        <v>288</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>292</v>
-      </c>
-      <c r="B81" s="9" t="b">
-        <v>1</v>
+        <v>289</v>
+      </c>
+      <c r="B81" s="9">
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>293</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>294</v>
+        <v>290</v>
+      </c>
+      <c r="B82" s="9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B83" s="9" t="b">
         <v>1</v>
@@ -2253,211 +2262,199 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>296</v>
-      </c>
-      <c r="B84" s="10">
-        <v>3</v>
+        <v>292</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>297</v>
-      </c>
-      <c r="B85" s="10">
-        <v>2</v>
+        <v>294</v>
+      </c>
+      <c r="B85" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>298</v>
-      </c>
-      <c r="B86" s="10" t="b">
-        <v>1</v>
+        <v>295</v>
+      </c>
+      <c r="B86" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>299</v>
-      </c>
-      <c r="B87" s="10" t="b">
-        <v>0</v>
+        <v>296</v>
+      </c>
+      <c r="B87" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>300</v>
-      </c>
-      <c r="B88" t="b">
+        <v>297</v>
+      </c>
+      <c r="B88" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>301</v>
-      </c>
-      <c r="B89" t="s">
-        <v>302</v>
+        <v>298</v>
+      </c>
+      <c r="B89" s="10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>312</v>
-      </c>
-      <c r="B90" s="10" t="b">
+        <v>299</v>
+      </c>
+      <c r="B90" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="B91" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>303</v>
-      </c>
-      <c r="B92" t="b">
+        <v>311</v>
+      </c>
+      <c r="B92" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>304</v>
-      </c>
-      <c r="B93" t="b">
-        <v>0</v>
-      </c>
-      <c r="D93" t="s">
-        <v>279</v>
+        <v>312</v>
+      </c>
+      <c r="B93" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>305</v>
-      </c>
-      <c r="B94" t="s">
-        <v>306</v>
+        <v>302</v>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>307</v>
-      </c>
-      <c r="B95" t="s">
-        <v>283</v>
+        <v>303</v>
+      </c>
+      <c r="B95" t="b">
+        <v>0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>308</v>
-      </c>
-      <c r="B96" t="b">
-        <v>0</v>
+        <v>304</v>
+      </c>
+      <c r="B96" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B97" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="6" t="s">
-        <v>334</v>
+      <c r="A98" t="s">
+        <v>307</v>
+      </c>
+      <c r="B98" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="B99" t="s">
-        <v>328</v>
-      </c>
-      <c r="C99">
-        <v>5</v>
-      </c>
-      <c r="D99" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>350</v>
-      </c>
-      <c r="B100" t="b">
-        <v>1</v>
-      </c>
-      <c r="C100">
-        <v>15</v>
-      </c>
-      <c r="D100" t="s">
-        <v>362</v>
+      <c r="A100" s="6" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="B101" t="s">
-        <v>93</v>
+        <v>327</v>
       </c>
       <c r="C101">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B102" t="b">
         <v>1</v>
       </c>
       <c r="C102">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>349</v>
-      </c>
-      <c r="B103" t="b">
-        <v>0</v>
+        <v>346</v>
+      </c>
+      <c r="B103" t="s">
+        <v>93</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D104" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B105" t="b">
         <v>0</v>
@@ -2466,12 +2463,12 @@
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B106" t="b">
         <v>0</v>
@@ -2480,54 +2477,54 @@
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B109" t="b">
         <v>1</v>
       </c>
       <c r="C109">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D109" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B110" t="b">
         <v>1</v>
@@ -2536,12 +2533,12 @@
         <v>20</v>
       </c>
       <c r="D110" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B111" t="b">
         <v>1</v>
@@ -2550,26 +2547,26 @@
         <v>25</v>
       </c>
       <c r="D111" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B112" t="b">
         <v>1</v>
       </c>
       <c r="C112">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D112" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B113" t="b">
         <v>1</v>
@@ -2578,798 +2575,818 @@
         <v>25</v>
       </c>
       <c r="D113" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
+        <v>358</v>
+      </c>
+      <c r="B114" t="b">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
         <v>361</v>
       </c>
-      <c r="B114">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>359</v>
+      </c>
+      <c r="B115" t="b">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>25</v>
+      </c>
+      <c r="D115" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>360</v>
+      </c>
+      <c r="B116">
         <v>210</v>
       </c>
-      <c r="C114">
-        <f>SUM(C99:C113)</f>
+      <c r="C116">
+        <f>SUM(C101:C115)</f>
         <v>210</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>54</v>
-      </c>
-      <c r="B117" t="b">
-        <v>1</v>
-      </c>
-    </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>55</v>
-      </c>
-      <c r="B118" t="s">
-        <v>56</v>
+      <c r="A118" s="6" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>57</v>
-      </c>
-      <c r="B119" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="B119" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B120" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>100</v>
-      </c>
-      <c r="B121" t="b">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="B121" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B122" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>127</v>
-      </c>
-      <c r="B123" t="s">
-        <v>128</v>
+        <v>100</v>
+      </c>
+      <c r="B123" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B124" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>160</v>
-      </c>
-      <c r="B125" t="b">
-        <v>1</v>
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="B126" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>160</v>
+      </c>
+      <c r="B127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>161</v>
+      </c>
+      <c r="B128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>163</v>
       </c>
-      <c r="B127" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>178</v>
-      </c>
-      <c r="B130" t="s">
-        <v>66</v>
+      <c r="B129" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>179</v>
-      </c>
-      <c r="B131" t="s">
-        <v>189</v>
+      <c r="A131" s="6" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B132" t="s">
-        <v>190</v>
+        <v>66</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>203</v>
-      </c>
-      <c r="B133" t="b">
-        <v>1</v>
+        <v>179</v>
+      </c>
+      <c r="B133" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B134" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>205</v>
-      </c>
-      <c r="B135" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="B135" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>181</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>191</v>
+        <v>204</v>
+      </c>
+      <c r="B136" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>182</v>
-      </c>
-      <c r="B137" t="b">
-        <v>1</v>
+        <v>205</v>
+      </c>
+      <c r="B137" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>183</v>
-      </c>
-      <c r="B138" t="s">
-        <v>192</v>
+        <v>181</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>184</v>
-      </c>
-      <c r="B139" t="s">
-        <v>96</v>
+        <v>182</v>
+      </c>
+      <c r="B139" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B140" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>186</v>
-      </c>
-      <c r="B141" t="b">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="B141" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>187</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>193</v>
+        <v>185</v>
+      </c>
+      <c r="B142" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
+        <v>186</v>
+      </c>
+      <c r="B143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>187</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
         <v>188</v>
       </c>
-      <c r="B143" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" s="6"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" s="6" t="s">
-        <v>339</v>
+      <c r="B145" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>69</v>
-      </c>
-      <c r="B146" t="s">
-        <v>70</v>
-      </c>
+      <c r="A146" s="6"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>71</v>
-      </c>
-      <c r="B147" t="s">
-        <v>75</v>
+      <c r="A147" s="6" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>72</v>
-      </c>
-      <c r="B148">
-        <v>2017</v>
+        <v>69</v>
+      </c>
+      <c r="B148" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B149" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>74</v>
-      </c>
-      <c r="B150" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="B150">
+        <v>2017</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B151" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B152" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B153" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="B154" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B155" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
+        <v>105</v>
+      </c>
+      <c r="B156" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>88</v>
+      </c>
+      <c r="B157" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
         <v>89</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B158" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>65</v>
-      </c>
-      <c r="B159" t="s">
-        <v>66</v>
-      </c>
-    </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>61</v>
-      </c>
-      <c r="B160" t="s">
-        <v>62</v>
+      <c r="A160" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B161" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>207</v>
-      </c>
-      <c r="B162" t="b">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="B162" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>208</v>
+        <v>64</v>
       </c>
       <c r="B163" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>209</v>
-      </c>
-      <c r="B164" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="B164" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>68</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>67</v>
+        <v>208</v>
+      </c>
+      <c r="B165" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>95</v>
-      </c>
-      <c r="B166" t="b">
-        <v>1</v>
+        <v>209</v>
+      </c>
+      <c r="B166" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>125</v>
-      </c>
-      <c r="B167" t="s">
-        <v>126</v>
+        <v>68</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>98</v>
-      </c>
-      <c r="B168" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="B168" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="B169" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>164</v>
-      </c>
-      <c r="B170" t="b">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="B170" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="B171" t="s">
-        <v>194</v>
+        <v>97</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B172" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>165</v>
+      </c>
+      <c r="B173" t="s">
+        <v>194</v>
+      </c>
+    </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>148</v>
-      </c>
-      <c r="B175" t="s">
-        <v>66</v>
+      <c r="A174" t="s">
+        <v>166</v>
+      </c>
+      <c r="B174" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>149</v>
-      </c>
-      <c r="B176" t="s">
-        <v>156</v>
+      <c r="A176" s="6" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B177" t="s">
-        <v>157</v>
+        <v>66</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>199</v>
-      </c>
-      <c r="B178" t="b">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="B178" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B179" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>201</v>
-      </c>
-      <c r="B180" t="s">
-        <v>202</v>
+        <v>199</v>
+      </c>
+      <c r="B180" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>151</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>158</v>
+        <v>200</v>
+      </c>
+      <c r="B181" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>152</v>
-      </c>
-      <c r="B182" t="b">
-        <v>1</v>
+        <v>201</v>
+      </c>
+      <c r="B182" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>153</v>
-      </c>
-      <c r="B183" t="s">
-        <v>159</v>
+        <v>151</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>154</v>
-      </c>
-      <c r="B184" t="s">
-        <v>96</v>
+        <v>152</v>
+      </c>
+      <c r="B184" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B185" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>167</v>
-      </c>
-      <c r="B186" t="b">
-        <v>0</v>
+        <v>154</v>
+      </c>
+      <c r="B186" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B187" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B188" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>168</v>
+      </c>
+      <c r="B189" t="s">
+        <v>162</v>
+      </c>
+    </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>107</v>
-      </c>
-      <c r="B191" t="s">
-        <v>114</v>
+      <c r="A190" t="s">
+        <v>169</v>
+      </c>
+      <c r="B190" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>109</v>
-      </c>
-      <c r="B192" t="s">
-        <v>115</v>
+      <c r="A192" s="6" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B193" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>196</v>
-      </c>
-      <c r="B194" t="b">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="B194" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="B195" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>198</v>
-      </c>
-      <c r="B196" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="B196" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>110</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>117</v>
+        <v>197</v>
+      </c>
+      <c r="B197" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>120</v>
-      </c>
-      <c r="B198">
-        <v>1237771234</v>
+        <v>198</v>
+      </c>
+      <c r="B198" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>121</v>
-      </c>
-      <c r="B199" t="s">
-        <v>122</v>
+        <v>110</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>111</v>
-      </c>
-      <c r="B200" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="B200">
+        <v>1237771234</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B201" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>112</v>
-      </c>
-      <c r="B202" t="s">
-        <v>118</v>
+        <v>111</v>
+      </c>
+      <c r="B202" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B203" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>170</v>
-      </c>
-      <c r="B204" t="b">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="B204" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="B205" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B206" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>171</v>
+      </c>
+      <c r="B207" t="s">
+        <v>162</v>
+      </c>
+    </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
-        <v>129</v>
-      </c>
-      <c r="B209" t="s">
-        <v>130</v>
+      <c r="A208" t="s">
+        <v>172</v>
+      </c>
+      <c r="B208" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
-        <v>131</v>
-      </c>
-      <c r="B210" t="s">
-        <v>132</v>
+      <c r="A210" s="6" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>133</v>
-      </c>
-      <c r="B211">
-        <v>4000</v>
+        <v>129</v>
+      </c>
+      <c r="B211" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B212" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>136</v>
-      </c>
-      <c r="B213" t="s">
-        <v>137</v>
+        <v>133</v>
+      </c>
+      <c r="B213">
+        <v>4000</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>138</v>
-      </c>
-      <c r="B214" t="b">
-        <v>1</v>
+        <v>134</v>
+      </c>
+      <c r="B214" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B215" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>140</v>
-      </c>
-      <c r="B216" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="B216" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B217" t="s">
-        <v>143</v>
+        <v>66</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>146</v>
-      </c>
-      <c r="B218" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="B218" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
+        <v>141</v>
+      </c>
+      <c r="B219" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>146</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
         <v>144</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B221" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A221" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A222" s="6"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
@@ -3377,76 +3394,68 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A226" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>212</v>
-      </c>
+      <c r="A226" s="6"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A227" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B227" s="2">
-        <v>0.41666666666666669</v>
+      <c r="A227" s="6" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
+      </c>
+      <c r="B229" s="2">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B232" s="3" t="b">
-        <v>1</v>
+        <v>216</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B233" s="3" t="b">
-        <v>1</v>
+        <v>217</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B234" s="3" t="b">
         <v>1</v>
@@ -3454,46 +3463,62 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
+      </c>
+      <c r="B235" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B236" t="s">
-        <v>228</v>
+        <v>224</v>
+      </c>
+      <c r="B236" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B238" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B239" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A238" s="8"/>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="8"/>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
         <v>6</v>
       </c>
-      <c r="B239" s="3" t="s">
-        <v>243</v>
+      <c r="B241" s="3" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B165" r:id="rId1"/>
-    <hyperlink ref="B197" r:id="rId2"/>
-    <hyperlink ref="B218" r:id="rId3"/>
-    <hyperlink ref="B181" r:id="rId4"/>
-    <hyperlink ref="B136" r:id="rId5"/>
+    <hyperlink ref="B167" r:id="rId1"/>
+    <hyperlink ref="B199" r:id="rId2"/>
+    <hyperlink ref="B220" r:id="rId3"/>
+    <hyperlink ref="B183" r:id="rId4"/>
+    <hyperlink ref="B138" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -3832,8 +3857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3852,7 +3877,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>243</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -3860,74 +3885,74 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" t="s">
         <v>370</v>
-      </c>
-      <c r="B9" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B10">
         <v>75</v>
@@ -3935,23 +3960,23 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>375</v>
+      </c>
+      <c r="B13" t="s">
         <v>376</v>
-      </c>
-      <c r="B13" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -3959,39 +3984,39 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>383</v>
+      </c>
+      <c r="B18" t="s">
         <v>384</v>
-      </c>
-      <c r="B18" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -3999,7 +4024,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
@@ -4007,23 +4032,23 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -4034,7 +4059,7 @@
         <v>231</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -4127,7 +4152,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B39" t="s">
         <v>130</v>
@@ -4135,7 +4160,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B40" t="s">
         <v>132</v>
@@ -4143,7 +4168,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B41">
         <v>4000</v>
@@ -4151,7 +4176,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s">
         <v>135</v>
@@ -4159,7 +4184,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B43" t="s">
         <v>137</v>
@@ -4167,7 +4192,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B44" t="b">
         <v>1</v>
@@ -4175,7 +4200,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B45" t="s">
         <v>66</v>
@@ -4183,7 +4208,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B46" t="s">
         <v>142</v>
@@ -4191,7 +4216,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B47" t="s">
         <v>143</v>
@@ -4199,7 +4224,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>147</v>
@@ -4207,7 +4232,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B49" t="s">
         <v>145</v>
@@ -4215,7 +4240,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B50" t="b">
         <v>1</v>
@@ -4223,23 +4248,23 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>255</v>
+      </c>
+      <c r="B51" t="s">
         <v>256</v>
-      </c>
-      <c r="B51" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>257</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B53" t="s">
         <v>145</v>
@@ -4247,7 +4272,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B55" t="s">
         <v>114</v>
@@ -4255,7 +4280,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B56" t="s">
         <v>115</v>
@@ -4263,7 +4288,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B57" t="s">
         <v>116</v>
@@ -4271,7 +4296,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B58" t="b">
         <v>1</v>
@@ -4279,7 +4304,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B59" t="s">
         <v>25</v>
@@ -4287,7 +4312,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B60" t="s">
         <v>195</v>
@@ -4295,7 +4320,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>117</v>
@@ -4303,7 +4328,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B62">
         <v>1237771234</v>
@@ -4311,7 +4336,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B63" t="s">
         <v>122</v>
@@ -4319,7 +4344,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B64" t="b">
         <v>1</v>
@@ -4327,7 +4352,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B65" t="s">
         <v>124</v>
@@ -4335,7 +4360,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B66" t="s">
         <v>118</v>
@@ -4343,7 +4368,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B67" t="s">
         <v>119</v>
@@ -4351,7 +4376,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B68" t="b">
         <v>1</v>
@@ -4359,7 +4384,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B69" t="s">
         <v>162</v>
@@ -4367,7 +4392,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B70" t="b">
         <v>0</v>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="regression_set1" sheetId="1" r:id="rId1"/>
     <sheet name="backup" sheetId="2" r:id="rId2"/>
     <sheet name="postfnol_set1" sheetId="4" r:id="rId3"/>
+    <sheet name="autoexposure_set1" sheetId="5" r:id="rId4"/>
+    <sheet name="autoexposure_set2" sheetId="6" r:id="rId5"/>
+    <sheet name="autoexposure_set3" sheetId="7" r:id="rId6"/>
+    <sheet name="autoexposure_set4" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="444">
   <si>
     <t>ITB/10000002</t>
   </si>
@@ -1117,9 +1121,6 @@
     <t>21/01/2019</t>
   </si>
   <si>
-    <t>21/01/2018</t>
-  </si>
-  <si>
     <t>Surveillance R us  - mr King 0777777788</t>
   </si>
   <si>
@@ -1262,6 +1263,105 @@
   </si>
   <si>
     <t>TBX59595959</t>
+  </si>
+  <si>
+    <t>4 Windmill Way, Gateshead, NE8 1PJ</t>
+  </si>
+  <si>
+    <t>s99sja</t>
+  </si>
+  <si>
+    <t>Test Sprint5</t>
+  </si>
+  <si>
+    <t>TBB/40000000</t>
+  </si>
+  <si>
+    <t>23/01/2019</t>
+  </si>
+  <si>
+    <t>23/01/2018</t>
+  </si>
+  <si>
+    <t>This  is to test some of the auto exposure creation in FNOL</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>TST</t>
+  </si>
+  <si>
+    <t>Only MIMINAL fields are used</t>
+  </si>
+  <si>
+    <t>Fnol_LossDate</t>
+  </si>
+  <si>
+    <t>Fnol_Step2_ReportedBy</t>
+  </si>
+  <si>
+    <t>Collision At Roundabout</t>
+  </si>
+  <si>
+    <t>Collided with nearside of third party vehicle whilst negotiating a roundabout</t>
+  </si>
+  <si>
+    <t>This is a split liability screnario dataset</t>
+  </si>
+  <si>
+    <t>The following drive the main screens which are used in FNOL for auto exposure generation</t>
+  </si>
+  <si>
+    <t>This  is to test some of the auto exposure creation in FNOL (TC1,TC3,tc5,tc8,TC9,TC11,TC13)</t>
+  </si>
+  <si>
+    <t>This  is to test some of the auto exposure creation in FNOL (TC2,4,6,10,12,16))</t>
+  </si>
+  <si>
+    <t>This is a "Fault" screnario dataset</t>
+  </si>
+  <si>
+    <t>Entering roundabout collided with third party vehicle from right</t>
+  </si>
+  <si>
+    <t>Fnol_TPDriverFullName</t>
+  </si>
+  <si>
+    <t>Roy Racer</t>
+  </si>
+  <si>
+    <t>Fnol_PHDriverFullName</t>
+  </si>
+  <si>
+    <t>Fnol_PedestrianFullName</t>
+  </si>
+  <si>
+    <t>Joy Walker</t>
+  </si>
+  <si>
+    <t>Simon Hitchhiker</t>
+  </si>
+  <si>
+    <t>Fnol_TPPassengerFullName</t>
+  </si>
+  <si>
+    <t>Fnol_PHPassengerFullName</t>
+  </si>
+  <si>
+    <t>John SideBottom</t>
+  </si>
+  <si>
+    <t>Fnol_PropertyNewOwnerFullName</t>
+  </si>
+  <si>
+    <t>Dora AceLandlord</t>
+  </si>
+  <si>
+    <t>Theft From Vehicle</t>
+  </si>
+  <si>
+    <t>Audio from locked vehicle</t>
   </si>
 </sst>
 </file>
@@ -1293,12 +1393,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1314,7 +1420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1328,6 +1434,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1609,10 +1723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I241"/>
+  <dimension ref="A1:I249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1622,474 +1736,489 @@
     <col min="4" max="4" width="21.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B9" t="b">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B12" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="B13" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="B14" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+      <c r="B15" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="b">
-        <v>0</v>
+      <c r="B16" s="12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="b">
+        <v>53</v>
+      </c>
+      <c r="B17" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="b">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="b">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="B19" s="12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
+      <c r="A21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="4"/>
+      <c r="A22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="4"/>
+      <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="B27" s="11" t="str">
+        <f>B7</f>
+        <v>23/01/2019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B28" s="2">
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <f>B4</f>
+        <v>Test Sprint5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>408</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>409</v>
       </c>
-      <c r="B31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="B34" t="s">
         <v>410</v>
       </c>
-      <c r="B32" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>283</v>
-      </c>
-      <c r="D37" t="s">
-        <v>264</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" t="s">
-        <v>283</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>284</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>266</v>
-      </c>
-      <c r="E38" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" t="s">
-        <v>285</v>
+        <v>22</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="D39" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I39" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D40" t="s">
+        <v>266</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="D41" t="s">
+        <v>267</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>27</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" t="b">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>44</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="6" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="B54" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="B55" t="s">
-        <v>322</v>
+        <v>320</v>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B56" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B57" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B58" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B57">
+      <c r="B59">
         <v>17000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>106</v>
-      </c>
-      <c r="B58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>91</v>
-      </c>
-      <c r="B59" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>317</v>
-      </c>
-      <c r="B60" t="b">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="B60" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B62" t="b">
         <v>1</v>
@@ -2097,68 +2226,69 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>314</v>
-      </c>
-      <c r="B63">
-        <v>125.66</v>
+        <v>92</v>
+      </c>
+      <c r="B63" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>315</v>
-      </c>
-      <c r="B64">
-        <v>13</v>
+        <v>313</v>
+      </c>
+      <c r="B64" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>314</v>
+      </c>
+      <c r="B65">
+        <v>125.66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>315</v>
+      </c>
+      <c r="B66">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>316</v>
       </c>
-      <c r="B65">
+      <c r="B67">
         <v>2476.44</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="6" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="6" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="8" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>269</v>
-      </c>
-      <c r="B68" s="9">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>270</v>
-      </c>
-      <c r="B69" t="b">
-        <v>1</v>
+      <c r="B69" s="1" t="str">
+        <f>B7</f>
+        <v>23/01/2019</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>271</v>
-      </c>
-      <c r="B70" t="s">
-        <v>272</v>
+        <v>269</v>
+      </c>
+      <c r="B70" s="9">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B71" t="b">
         <v>1</v>
@@ -2166,15 +2296,15 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B72" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B73" t="b">
         <v>1</v>
@@ -2182,257 +2312,247 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>277</v>
-      </c>
-      <c r="B74" t="b">
-        <v>0</v>
-      </c>
-      <c r="D74" t="s">
-        <v>278</v>
+        <v>274</v>
+      </c>
+      <c r="B74" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>279</v>
-      </c>
-      <c r="B75" t="s">
-        <v>280</v>
+        <v>276</v>
+      </c>
+      <c r="B75" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>277</v>
+      </c>
+      <c r="B76" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>279</v>
+      </c>
+      <c r="B77" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>281</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B78" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="6" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="8" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="B80" s="1" t="str">
+        <f>B7</f>
+        <v>23/01/2019</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>287</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B81" s="9">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>288</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="B82" s="1" t="str">
+        <f>B7</f>
+        <v>23/01/2019</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>289</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B83" s="9">
         <v>0.33680555555555558</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>290</v>
       </c>
-      <c r="B82" s="9" t="b">
+      <c r="B84" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>291</v>
       </c>
-      <c r="B83" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="B85" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>292</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B86" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>294</v>
       </c>
-      <c r="B85" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="B87" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>295</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B88" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>296</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B89" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>297</v>
       </c>
-      <c r="B88" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="B90" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>298</v>
       </c>
-      <c r="B89" s="10" t="b">
+      <c r="B91" s="10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>299</v>
       </c>
-      <c r="B90" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>300</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B93" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>311</v>
       </c>
-      <c r="B92" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="B94" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>312</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B95" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>302</v>
       </c>
-      <c r="B94" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>303</v>
-      </c>
-      <c r="B95" t="b">
-        <v>0</v>
-      </c>
-      <c r="D95" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>304</v>
-      </c>
-      <c r="B96" t="s">
-        <v>305</v>
+      <c r="B96" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>306</v>
-      </c>
-      <c r="B97" t="s">
-        <v>282</v>
+        <v>303</v>
+      </c>
+      <c r="B97" t="b">
+        <v>0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>307</v>
-      </c>
-      <c r="B98" t="b">
-        <v>0</v>
+        <v>304</v>
+      </c>
+      <c r="B98" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B99" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="6" t="s">
-        <v>333</v>
+      <c r="A100" t="s">
+        <v>307</v>
+      </c>
+      <c r="B100" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="B101" t="s">
-        <v>327</v>
-      </c>
-      <c r="C101">
-        <v>5</v>
-      </c>
-      <c r="D101" t="s">
-        <v>361</v>
+        <v>309</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>349</v>
-      </c>
-      <c r="B102" t="b">
-        <v>1</v>
-      </c>
-      <c r="C102">
-        <v>15</v>
-      </c>
-      <c r="D102" t="s">
-        <v>361</v>
+      <c r="A102" s="6" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="B103" t="s">
-        <v>93</v>
+        <v>327</v>
       </c>
       <c r="C103">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D103" t="s">
         <v>361</v>
@@ -2440,13 +2560,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B104" t="b">
         <v>1</v>
       </c>
       <c r="C104">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D104" t="s">
         <v>361</v>
@@ -2454,13 +2574,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>348</v>
-      </c>
-      <c r="B105" t="b">
-        <v>0</v>
+        <v>346</v>
+      </c>
+      <c r="B105" t="s">
+        <v>93</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
         <v>361</v>
@@ -2468,13 +2588,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D106" t="s">
         <v>361</v>
@@ -2482,7 +2602,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B107" t="b">
         <v>0</v>
@@ -2496,7 +2616,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B108" t="b">
         <v>0</v>
@@ -2510,13 +2630,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D109" t="s">
         <v>361</v>
@@ -2524,13 +2644,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D110" t="s">
         <v>361</v>
@@ -2538,13 +2658,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B111" t="b">
         <v>1</v>
       </c>
       <c r="C111">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D111" t="s">
         <v>361</v>
@@ -2552,7 +2672,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B112" t="b">
         <v>1</v>
@@ -2566,7 +2686,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B113" t="b">
         <v>1</v>
@@ -2580,13 +2700,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B114" t="b">
         <v>1</v>
       </c>
       <c r="C114">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D114" t="s">
         <v>361</v>
@@ -2594,7 +2714,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B115" t="b">
         <v>1</v>
@@ -2608,173 +2728,186 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
+        <v>358</v>
+      </c>
+      <c r="B116" t="b">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>359</v>
+      </c>
+      <c r="B117" t="b">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>25</v>
+      </c>
+      <c r="D117" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>360</v>
       </c>
-      <c r="B116">
+      <c r="B118">
         <v>210</v>
       </c>
-      <c r="C116">
-        <f>SUM(C101:C115)</f>
+      <c r="C118">
+        <f>SUM(C103:C117)</f>
         <v>210</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="6" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="6" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>54</v>
-      </c>
-      <c r="B119" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>55</v>
-      </c>
-      <c r="B120" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>57</v>
-      </c>
-      <c r="B121" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="B121" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>60</v>
-      </c>
-      <c r="B122" t="s">
-        <v>59</v>
+        <v>433</v>
+      </c>
+      <c r="B122" t="str">
+        <f>B4</f>
+        <v>Test Sprint5</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>100</v>
-      </c>
-      <c r="B123" t="b">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="B123" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="B124" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="B125" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>104</v>
-      </c>
-      <c r="B126" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="B126" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>160</v>
-      </c>
-      <c r="B127" t="b">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="B127" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>163</v>
-      </c>
-      <c r="B129" t="b">
+        <v>104</v>
+      </c>
+      <c r="B129" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>160</v>
+      </c>
+      <c r="B130" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="6" t="s">
-        <v>337</v>
+      <c r="A131" t="s">
+        <v>161</v>
+      </c>
+      <c r="B131" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>178</v>
-      </c>
-      <c r="B132" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>179</v>
-      </c>
-      <c r="B133" t="s">
-        <v>189</v>
+        <v>163</v>
+      </c>
+      <c r="B132" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>180</v>
-      </c>
-      <c r="B134" t="s">
-        <v>190</v>
+      <c r="A134" s="6" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>203</v>
-      </c>
-      <c r="B135" t="b">
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="B135" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="B136" t="s">
-        <v>25</v>
+        <v>189</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="B137" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>181</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>191</v>
+        <v>438</v>
+      </c>
+      <c r="B138" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="B139" t="b">
         <v>1</v>
@@ -2782,743 +2915,807 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="B140" t="s">
-        <v>192</v>
+        <v>25</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="B141" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>185</v>
-      </c>
-      <c r="B142" t="s">
-        <v>97</v>
+        <v>181</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>187</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
+      </c>
+      <c r="B144" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>188</v>
-      </c>
-      <c r="B145" t="b">
-        <v>1</v>
+        <v>184</v>
+      </c>
+      <c r="B145" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" s="6"/>
+      <c r="A146" t="s">
+        <v>185</v>
+      </c>
+      <c r="B146" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" s="6" t="s">
-        <v>338</v>
+      <c r="A147" t="s">
+        <v>186</v>
+      </c>
+      <c r="B147" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>69</v>
-      </c>
-      <c r="B148" t="s">
-        <v>70</v>
+        <v>187</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>71</v>
-      </c>
-      <c r="B149" t="s">
-        <v>75</v>
+        <v>188</v>
+      </c>
+      <c r="B149" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>72</v>
-      </c>
-      <c r="B150">
-        <v>2017</v>
-      </c>
+      <c r="A150" s="6"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>73</v>
-      </c>
-      <c r="B151" t="s">
-        <v>76</v>
+      <c r="A151" s="6" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B152" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B153" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>80</v>
-      </c>
-      <c r="B154" t="s">
-        <v>82</v>
+        <v>72</v>
+      </c>
+      <c r="B154">
+        <v>2017</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B155" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B156" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B157" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B158" t="s">
-        <v>90</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>81</v>
+      </c>
+      <c r="B159" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" s="6" t="s">
-        <v>339</v>
+      <c r="A160" t="s">
+        <v>105</v>
+      </c>
+      <c r="B160" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B161" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="B162" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>64</v>
-      </c>
-      <c r="B163" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>207</v>
-      </c>
-      <c r="B164" t="b">
-        <v>1</v>
+      <c r="A164" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>208</v>
+        <v>65</v>
       </c>
       <c r="B165" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>209</v>
+        <v>61</v>
       </c>
       <c r="B166" t="s">
-        <v>206</v>
+        <v>62</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>68</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="B167" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>95</v>
-      </c>
-      <c r="B168" t="b">
-        <v>1</v>
+        <v>431</v>
+      </c>
+      <c r="B168" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>125</v>
-      </c>
-      <c r="B169" t="s">
-        <v>126</v>
+        <v>207</v>
+      </c>
+      <c r="B169" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>98</v>
+        <v>208</v>
       </c>
       <c r="B170" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>99</v>
+        <v>209</v>
       </c>
       <c r="B171" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>164</v>
-      </c>
-      <c r="B172" t="b">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>165</v>
-      </c>
-      <c r="B173" t="s">
-        <v>194</v>
+        <v>95</v>
+      </c>
+      <c r="B173" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>166</v>
-      </c>
-      <c r="B174" t="b">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="B174" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>98</v>
+      </c>
+      <c r="B175" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" s="6" t="s">
-        <v>340</v>
+      <c r="A176" t="s">
+        <v>99</v>
+      </c>
+      <c r="B176" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>148</v>
-      </c>
-      <c r="B177" t="s">
-        <v>66</v>
+        <v>164</v>
+      </c>
+      <c r="B177" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B178" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>150</v>
-      </c>
-      <c r="B179" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>199</v>
-      </c>
-      <c r="B180" t="b">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="B179" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>200</v>
-      </c>
-      <c r="B181" t="s">
-        <v>25</v>
+      <c r="A181" s="6" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="B182" t="s">
-        <v>202</v>
+        <v>66</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>151</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>158</v>
+        <v>149</v>
+      </c>
+      <c r="B183" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>152</v>
-      </c>
-      <c r="B184" t="b">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="B184" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>153</v>
+        <v>437</v>
       </c>
       <c r="B185" t="s">
-        <v>159</v>
+        <v>436</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>154</v>
-      </c>
-      <c r="B186" t="s">
-        <v>96</v>
+        <v>199</v>
+      </c>
+      <c r="B186" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="B187" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>167</v>
-      </c>
-      <c r="B188" t="b">
-        <v>0</v>
+        <v>201</v>
+      </c>
+      <c r="B188" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>168</v>
-      </c>
-      <c r="B189" t="s">
-        <v>162</v>
+        <v>151</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>153</v>
+      </c>
+      <c r="B191" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" s="6" t="s">
-        <v>341</v>
+      <c r="A192" t="s">
+        <v>154</v>
+      </c>
+      <c r="B192" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="B193" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>109</v>
-      </c>
-      <c r="B194" t="s">
-        <v>115</v>
+        <v>167</v>
+      </c>
+      <c r="B194" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="B195" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>197</v>
-      </c>
-      <c r="B197" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>198</v>
-      </c>
-      <c r="B198" t="s">
-        <v>195</v>
+      <c r="A198" s="6" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>110</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>117</v>
+        <v>107</v>
+      </c>
+      <c r="B199" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>120</v>
-      </c>
-      <c r="B200">
-        <v>1237771234</v>
+        <v>109</v>
+      </c>
+      <c r="B200" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B201" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>111</v>
-      </c>
-      <c r="B202" t="b">
-        <v>1</v>
+        <v>434</v>
+      </c>
+      <c r="B202" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>123</v>
-      </c>
-      <c r="B203" t="s">
-        <v>124</v>
+        <v>196</v>
+      </c>
+      <c r="B203" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="B204" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>113</v>
+        <v>198</v>
       </c>
       <c r="B205" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>170</v>
-      </c>
-      <c r="B206" t="b">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>171</v>
-      </c>
-      <c r="B207" t="s">
-        <v>162</v>
+        <v>120</v>
+      </c>
+      <c r="B207">
+        <v>1237771234</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>172</v>
-      </c>
-      <c r="B208" t="b">
-        <v>0</v>
+        <v>121</v>
+      </c>
+      <c r="B208" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>111</v>
+      </c>
+      <c r="B209" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A210" s="6" t="s">
-        <v>342</v>
+      <c r="A210" t="s">
+        <v>123</v>
+      </c>
+      <c r="B210" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B211" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B212" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>133</v>
-      </c>
-      <c r="B213">
-        <v>4000</v>
+        <v>170</v>
+      </c>
+      <c r="B213" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="B214" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>136</v>
-      </c>
-      <c r="B215" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
-        <v>138</v>
-      </c>
-      <c r="B216" t="b">
-        <v>1</v>
+        <v>172</v>
+      </c>
+      <c r="B215" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
-        <v>139</v>
-      </c>
-      <c r="B217" t="s">
-        <v>66</v>
+      <c r="A217" s="6" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B218" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B219" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>146</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
+      </c>
+      <c r="B220">
+        <v>4000</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
+        <v>134</v>
+      </c>
+      <c r="B221" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>136</v>
+      </c>
+      <c r="B222" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>138</v>
+      </c>
+      <c r="B223" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>139</v>
+      </c>
+      <c r="B224" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>140</v>
+      </c>
+      <c r="B225" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>141</v>
+      </c>
+      <c r="B226" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>440</v>
+      </c>
+      <c r="B227" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>146</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
         <v>144</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B229" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A223" s="6" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" s="6" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A224" s="6"/>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A225" s="6" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="6"/>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="6" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A226" s="6"/>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A227" s="6" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="6"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="6" t="s">
         <v>345</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A228" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A229" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B229" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A230" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A231" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A232" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A233" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A234" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B234" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A235" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B235" s="3" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B236" s="3" t="b">
-        <v>1</v>
+        <v>211</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>225</v>
+        <v>213</v>
+      </c>
+      <c r="B237" s="2">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B238" t="s">
-        <v>228</v>
+        <v>214</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B242" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B243" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B244" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B246" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B247" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A240" s="8"/>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="8"/>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
         <v>6</v>
       </c>
-      <c r="B241" s="3" t="s">
-        <v>408</v>
+      <c r="B249" s="3" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B167" r:id="rId1"/>
-    <hyperlink ref="B199" r:id="rId2"/>
-    <hyperlink ref="B220" r:id="rId3"/>
-    <hyperlink ref="B183" r:id="rId4"/>
-    <hyperlink ref="B138" r:id="rId5"/>
+    <hyperlink ref="B172" r:id="rId1"/>
+    <hyperlink ref="B206" r:id="rId2"/>
+    <hyperlink ref="B228" r:id="rId3"/>
+    <hyperlink ref="B189" r:id="rId4"/>
+    <hyperlink ref="B142" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -3857,7 +4054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3877,7 +4074,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -3885,15 +4082,15 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B6" t="s">
         <v>264</v>
@@ -3910,7 +4107,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s">
         <v>266</v>
@@ -3927,7 +4124,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B8" t="s">
         <v>267</v>
@@ -3944,15 +4141,15 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B9" t="s">
         <v>369</v>
-      </c>
-      <c r="B9" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B10">
         <v>75</v>
@@ -3960,23 +4157,23 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>374</v>
+      </c>
+      <c r="B13" t="s">
         <v>375</v>
-      </c>
-      <c r="B13" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -3984,39 +4181,39 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>382</v>
+      </c>
+      <c r="B18" t="s">
         <v>383</v>
-      </c>
-      <c r="B18" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -4024,7 +4221,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
@@ -4032,23 +4229,23 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -4272,7 +4469,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B55" t="s">
         <v>114</v>
@@ -4280,7 +4477,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B56" t="s">
         <v>115</v>
@@ -4288,7 +4485,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B57" t="s">
         <v>116</v>
@@ -4296,7 +4493,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B58" t="b">
         <v>1</v>
@@ -4304,7 +4501,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B59" t="s">
         <v>25</v>
@@ -4312,7 +4509,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B60" t="s">
         <v>195</v>
@@ -4320,7 +4517,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>117</v>
@@ -4328,7 +4525,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B62">
         <v>1237771234</v>
@@ -4336,7 +4533,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B63" t="s">
         <v>122</v>
@@ -4344,7 +4541,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B64" t="b">
         <v>1</v>
@@ -4352,7 +4549,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B65" t="s">
         <v>124</v>
@@ -4360,7 +4557,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B66" t="s">
         <v>118</v>
@@ -4368,7 +4565,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B67" t="s">
         <v>119</v>
@@ -4376,7 +4573,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B68" t="b">
         <v>1</v>
@@ -4384,7 +4581,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B69" t="s">
         <v>162</v>
@@ -4392,7 +4589,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B70" t="b">
         <v>0</v>
@@ -4407,4 +4604,4442 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I147"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="80.1796875" customWidth="1"/>
+    <col min="2" max="2" width="65.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.36328125" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>B8</f>
+        <v>23/01/2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <f>B5</f>
+        <v>Test Sprint5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>408</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>264</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="D40" t="s">
+        <v>266</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="D41" t="s">
+        <v>267</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>269</v>
+      </c>
+      <c r="B47" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>287</v>
+      </c>
+      <c r="B50" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>295</v>
+      </c>
+      <c r="B51" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>296</v>
+      </c>
+      <c r="B52" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>433</v>
+      </c>
+      <c r="B56" t="str">
+        <f>B5</f>
+        <v>Test Sprint5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>179</v>
+      </c>
+      <c r="B67" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>438</v>
+      </c>
+      <c r="B69" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>204</v>
+      </c>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>205</v>
+      </c>
+      <c r="B72" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>181</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>184</v>
+      </c>
+      <c r="B76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B77" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="6"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>65</v>
+      </c>
+      <c r="B89" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>61</v>
+      </c>
+      <c r="B90" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>64</v>
+      </c>
+      <c r="B91" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>431</v>
+      </c>
+      <c r="B92" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>207</v>
+      </c>
+      <c r="B93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>208</v>
+      </c>
+      <c r="B94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>209</v>
+      </c>
+      <c r="B95" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>125</v>
+      </c>
+      <c r="B98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>148</v>
+      </c>
+      <c r="B103" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>149</v>
+      </c>
+      <c r="B104" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>437</v>
+      </c>
+      <c r="B106" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>199</v>
+      </c>
+      <c r="B107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>200</v>
+      </c>
+      <c r="B108" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>201</v>
+      </c>
+      <c r="B109" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>151</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>152</v>
+      </c>
+      <c r="B111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>153</v>
+      </c>
+      <c r="B112" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>154</v>
+      </c>
+      <c r="B113" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>155</v>
+      </c>
+      <c r="B114" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>107</v>
+      </c>
+      <c r="B117" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>109</v>
+      </c>
+      <c r="B118" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>108</v>
+      </c>
+      <c r="B119" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>434</v>
+      </c>
+      <c r="B120" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>196</v>
+      </c>
+      <c r="B121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>197</v>
+      </c>
+      <c r="B122" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>198</v>
+      </c>
+      <c r="B123" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>110</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>120</v>
+      </c>
+      <c r="B125">
+        <v>1237771234</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>121</v>
+      </c>
+      <c r="B126" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>111</v>
+      </c>
+      <c r="B127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>123</v>
+      </c>
+      <c r="B128" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>112</v>
+      </c>
+      <c r="B129" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>113</v>
+      </c>
+      <c r="B130" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>171</v>
+      </c>
+      <c r="B132" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>172</v>
+      </c>
+      <c r="B133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>129</v>
+      </c>
+      <c r="B136" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>131</v>
+      </c>
+      <c r="B137" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>133</v>
+      </c>
+      <c r="B138">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>134</v>
+      </c>
+      <c r="B139" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>138</v>
+      </c>
+      <c r="B141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>140</v>
+      </c>
+      <c r="B143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>141</v>
+      </c>
+      <c r="B144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>440</v>
+      </c>
+      <c r="B145" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>144</v>
+      </c>
+      <c r="B147" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B96" r:id="rId1"/>
+    <hyperlink ref="B124" r:id="rId2"/>
+    <hyperlink ref="B146" r:id="rId3"/>
+    <hyperlink ref="B110" r:id="rId4"/>
+    <hyperlink ref="B73" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E147"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="80.1796875" customWidth="1"/>
+    <col min="2" max="2" width="65.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.36328125" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>B8</f>
+        <v>23/01/2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <f>B5</f>
+        <v>Test Sprint5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>408</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>269</v>
+      </c>
+      <c r="B47" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>287</v>
+      </c>
+      <c r="B50" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>295</v>
+      </c>
+      <c r="B51" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>296</v>
+      </c>
+      <c r="B52" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>433</v>
+      </c>
+      <c r="B56" t="str">
+        <f>B5</f>
+        <v>Test Sprint5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>179</v>
+      </c>
+      <c r="B67" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>438</v>
+      </c>
+      <c r="B69" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>204</v>
+      </c>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>205</v>
+      </c>
+      <c r="B72" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>181</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>184</v>
+      </c>
+      <c r="B76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B77" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="6"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>65</v>
+      </c>
+      <c r="B89" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>61</v>
+      </c>
+      <c r="B90" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>64</v>
+      </c>
+      <c r="B91" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>431</v>
+      </c>
+      <c r="B92" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>207</v>
+      </c>
+      <c r="B93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>208</v>
+      </c>
+      <c r="B94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>209</v>
+      </c>
+      <c r="B95" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>125</v>
+      </c>
+      <c r="B98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>148</v>
+      </c>
+      <c r="B103" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>149</v>
+      </c>
+      <c r="B104" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>437</v>
+      </c>
+      <c r="B106" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>199</v>
+      </c>
+      <c r="B107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>200</v>
+      </c>
+      <c r="B108" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>201</v>
+      </c>
+      <c r="B109" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>151</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>152</v>
+      </c>
+      <c r="B111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>153</v>
+      </c>
+      <c r="B112" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>154</v>
+      </c>
+      <c r="B113" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>155</v>
+      </c>
+      <c r="B114" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>107</v>
+      </c>
+      <c r="B117" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>109</v>
+      </c>
+      <c r="B118" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>108</v>
+      </c>
+      <c r="B119" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>434</v>
+      </c>
+      <c r="B120" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>196</v>
+      </c>
+      <c r="B121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>197</v>
+      </c>
+      <c r="B122" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>198</v>
+      </c>
+      <c r="B123" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>110</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>120</v>
+      </c>
+      <c r="B125">
+        <v>1237771234</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>121</v>
+      </c>
+      <c r="B126" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>111</v>
+      </c>
+      <c r="B127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>123</v>
+      </c>
+      <c r="B128" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>112</v>
+      </c>
+      <c r="B129" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>113</v>
+      </c>
+      <c r="B130" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>171</v>
+      </c>
+      <c r="B132" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>172</v>
+      </c>
+      <c r="B133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>129</v>
+      </c>
+      <c r="B136" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>131</v>
+      </c>
+      <c r="B137" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>133</v>
+      </c>
+      <c r="B138">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>134</v>
+      </c>
+      <c r="B139" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>138</v>
+      </c>
+      <c r="B141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>140</v>
+      </c>
+      <c r="B143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>141</v>
+      </c>
+      <c r="B144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>440</v>
+      </c>
+      <c r="B145" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>144</v>
+      </c>
+      <c r="B147" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B96" r:id="rId1"/>
+    <hyperlink ref="B124" r:id="rId2"/>
+    <hyperlink ref="B146" r:id="rId3"/>
+    <hyperlink ref="B110" r:id="rId4"/>
+    <hyperlink ref="B73" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E147"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="80.1796875" customWidth="1"/>
+    <col min="2" max="2" width="65.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.36328125" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>B8</f>
+        <v>23/01/2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <f>B5</f>
+        <v>Test Sprint5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>408</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>269</v>
+      </c>
+      <c r="B47" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>287</v>
+      </c>
+      <c r="B50" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>295</v>
+      </c>
+      <c r="B51" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>296</v>
+      </c>
+      <c r="B52" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>433</v>
+      </c>
+      <c r="B56" t="str">
+        <f>B5</f>
+        <v>Test Sprint5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>179</v>
+      </c>
+      <c r="B67" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>438</v>
+      </c>
+      <c r="B69" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>204</v>
+      </c>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>205</v>
+      </c>
+      <c r="B72" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>181</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>184</v>
+      </c>
+      <c r="B76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B77" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="6"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>65</v>
+      </c>
+      <c r="B89" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>61</v>
+      </c>
+      <c r="B90" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>64</v>
+      </c>
+      <c r="B91" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>431</v>
+      </c>
+      <c r="B92" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>207</v>
+      </c>
+      <c r="B93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>208</v>
+      </c>
+      <c r="B94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>209</v>
+      </c>
+      <c r="B95" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>125</v>
+      </c>
+      <c r="B98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>148</v>
+      </c>
+      <c r="B103" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>149</v>
+      </c>
+      <c r="B104" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>437</v>
+      </c>
+      <c r="B106" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>199</v>
+      </c>
+      <c r="B107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>200</v>
+      </c>
+      <c r="B108" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>201</v>
+      </c>
+      <c r="B109" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>151</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>152</v>
+      </c>
+      <c r="B111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>153</v>
+      </c>
+      <c r="B112" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>154</v>
+      </c>
+      <c r="B113" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>155</v>
+      </c>
+      <c r="B114" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>107</v>
+      </c>
+      <c r="B117" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>109</v>
+      </c>
+      <c r="B118" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>108</v>
+      </c>
+      <c r="B119" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>434</v>
+      </c>
+      <c r="B120" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>196</v>
+      </c>
+      <c r="B121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>197</v>
+      </c>
+      <c r="B122" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>198</v>
+      </c>
+      <c r="B123" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>110</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>120</v>
+      </c>
+      <c r="B125">
+        <v>1237771234</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>121</v>
+      </c>
+      <c r="B126" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>111</v>
+      </c>
+      <c r="B127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>123</v>
+      </c>
+      <c r="B128" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>112</v>
+      </c>
+      <c r="B129" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>113</v>
+      </c>
+      <c r="B130" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>171</v>
+      </c>
+      <c r="B132" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>172</v>
+      </c>
+      <c r="B133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>129</v>
+      </c>
+      <c r="B136" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>131</v>
+      </c>
+      <c r="B137" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>133</v>
+      </c>
+      <c r="B138">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>134</v>
+      </c>
+      <c r="B139" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>138</v>
+      </c>
+      <c r="B141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>140</v>
+      </c>
+      <c r="B143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>141</v>
+      </c>
+      <c r="B144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>440</v>
+      </c>
+      <c r="B145" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>144</v>
+      </c>
+      <c r="B147" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B96" r:id="rId1"/>
+    <hyperlink ref="B124" r:id="rId2"/>
+    <hyperlink ref="B146" r:id="rId3"/>
+    <hyperlink ref="B110" r:id="rId4"/>
+    <hyperlink ref="B73" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E147"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="80.1796875" customWidth="1"/>
+    <col min="2" max="2" width="65.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.36328125" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>B8</f>
+        <v>23/01/2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <f>B5</f>
+        <v>Test Sprint5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>408</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>269</v>
+      </c>
+      <c r="B47" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>287</v>
+      </c>
+      <c r="B50" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>295</v>
+      </c>
+      <c r="B51" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>296</v>
+      </c>
+      <c r="B52" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>433</v>
+      </c>
+      <c r="B56" t="str">
+        <f>B5</f>
+        <v>Test Sprint5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>179</v>
+      </c>
+      <c r="B67" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>438</v>
+      </c>
+      <c r="B69" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>204</v>
+      </c>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>205</v>
+      </c>
+      <c r="B72" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>181</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>184</v>
+      </c>
+      <c r="B76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B77" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="6"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>65</v>
+      </c>
+      <c r="B89" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>61</v>
+      </c>
+      <c r="B90" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>64</v>
+      </c>
+      <c r="B91" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>431</v>
+      </c>
+      <c r="B92" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>207</v>
+      </c>
+      <c r="B93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>208</v>
+      </c>
+      <c r="B94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>209</v>
+      </c>
+      <c r="B95" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>125</v>
+      </c>
+      <c r="B98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>148</v>
+      </c>
+      <c r="B103" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>149</v>
+      </c>
+      <c r="B104" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>437</v>
+      </c>
+      <c r="B106" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>199</v>
+      </c>
+      <c r="B107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>200</v>
+      </c>
+      <c r="B108" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>201</v>
+      </c>
+      <c r="B109" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>151</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>152</v>
+      </c>
+      <c r="B111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>153</v>
+      </c>
+      <c r="B112" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>154</v>
+      </c>
+      <c r="B113" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>155</v>
+      </c>
+      <c r="B114" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>107</v>
+      </c>
+      <c r="B117" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>109</v>
+      </c>
+      <c r="B118" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>108</v>
+      </c>
+      <c r="B119" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>434</v>
+      </c>
+      <c r="B120" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>196</v>
+      </c>
+      <c r="B121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>197</v>
+      </c>
+      <c r="B122" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>198</v>
+      </c>
+      <c r="B123" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>110</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>120</v>
+      </c>
+      <c r="B125">
+        <v>1237771234</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>121</v>
+      </c>
+      <c r="B126" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>111</v>
+      </c>
+      <c r="B127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>123</v>
+      </c>
+      <c r="B128" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>112</v>
+      </c>
+      <c r="B129" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>113</v>
+      </c>
+      <c r="B130" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>171</v>
+      </c>
+      <c r="B132" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>172</v>
+      </c>
+      <c r="B133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>129</v>
+      </c>
+      <c r="B136" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>131</v>
+      </c>
+      <c r="B137" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>133</v>
+      </c>
+      <c r="B138">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>134</v>
+      </c>
+      <c r="B139" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>138</v>
+      </c>
+      <c r="B141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>140</v>
+      </c>
+      <c r="B143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>141</v>
+      </c>
+      <c r="B144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>440</v>
+      </c>
+      <c r="B145" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>144</v>
+      </c>
+      <c r="B147" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B96" r:id="rId1"/>
+    <hyperlink ref="B124" r:id="rId2"/>
+    <hyperlink ref="B146" r:id="rId3"/>
+    <hyperlink ref="B110" r:id="rId4"/>
+    <hyperlink ref="B73" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+</worksheet>
 </file>
--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="regression_set1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="483">
   <si>
     <t>ITB/10000002</t>
   </si>
@@ -1362,6 +1362,123 @@
   </si>
   <si>
     <t>Audio from locked vehicle</t>
+  </si>
+  <si>
+    <t>Fnol_TPVehicleCreditHire</t>
+  </si>
+  <si>
+    <t>Fnol_Step2_ReportedByNewPerson</t>
+  </si>
+  <si>
+    <t>Fnol_Step2_ReportedByNewPersonRelation</t>
+  </si>
+  <si>
+    <t>Third Party</t>
+  </si>
+  <si>
+    <t>Fnol_ClaimReporterPrefix</t>
+  </si>
+  <si>
+    <t>Fnol_ClaimReporterFirstName</t>
+  </si>
+  <si>
+    <t>Gill</t>
+  </si>
+  <si>
+    <t>Fnol_ClaimReporterLastName</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Fnol_ClaimReporterEmail</t>
+  </si>
+  <si>
+    <t>gJohn@yahoo.com</t>
+  </si>
+  <si>
+    <t>Fnol_ClaimReporterLocationDesc</t>
+  </si>
+  <si>
+    <t>Somewhere local</t>
+  </si>
+  <si>
+    <t>Fnol_Step2_ReportedByNewCompanyRelation</t>
+  </si>
+  <si>
+    <t>Fnol_Step2_ReportedByNewCompany</t>
+  </si>
+  <si>
+    <t>Fnol_ClaimReporterCompanyname</t>
+  </si>
+  <si>
+    <t>Fnol_ClaimReporterCompanyWorkphone</t>
+  </si>
+  <si>
+    <t>Fnol_ClaimReporterCompanyEmail</t>
+  </si>
+  <si>
+    <t>achme@gmail.com</t>
+  </si>
+  <si>
+    <t>5 Lodore Road</t>
+  </si>
+  <si>
+    <t>Fnol_ClaimReporterCompanyAddressLine1</t>
+  </si>
+  <si>
+    <t>Fnol_ClaimReporterCompanyNotes</t>
+  </si>
+  <si>
+    <t>A short note about the company</t>
+  </si>
+  <si>
+    <t>Fnol_Step2_Confirm_Workphone</t>
+  </si>
+  <si>
+    <t>Fnol_Step2_Confirm_PhoneType</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Acme Tools Inc</t>
+  </si>
+  <si>
+    <t>Fnol_Step2_MainContactSamePerson</t>
+  </si>
+  <si>
+    <t>Fnol_ClaimMainContactPrefix</t>
+  </si>
+  <si>
+    <t>Fnol_ClaimMainContactFirstName</t>
+  </si>
+  <si>
+    <t>Fnol_ClaimMainContactLastName</t>
+  </si>
+  <si>
+    <t>Fnol_ClaimMainContactEmail</t>
+  </si>
+  <si>
+    <t>Fnol_ClaimMainContactLocationDesc</t>
+  </si>
+  <si>
+    <t>Third Party Passenger</t>
+  </si>
+  <si>
+    <t>I live nearby</t>
+  </si>
+  <si>
+    <t>Joanna</t>
+  </si>
+  <si>
+    <t>Tripper</t>
+  </si>
+  <si>
+    <t>jtrip@yahoo.com</t>
+  </si>
+  <si>
+    <t>Fnol_Step2_MainContactNewPersonRelation</t>
   </si>
 </sst>
 </file>
@@ -1723,10 +1840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I249"/>
+  <dimension ref="A1:I275"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1968,812 +2085,713 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+      <c r="A32" t="s">
+        <v>445</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>448</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>449</v>
+      </c>
+      <c r="B34" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>451</v>
+      </c>
+      <c r="B35" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>453</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>455</v>
+      </c>
+      <c r="B37" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>446</v>
+      </c>
+      <c r="B38" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>458</v>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>459</v>
+      </c>
+      <c r="B40" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B41">
+        <v>1912450444</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>461</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>464</v>
+      </c>
+      <c r="B43" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>465</v>
+      </c>
+      <c r="B44" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>457</v>
+      </c>
+      <c r="B45" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="B32" s="2" t="str">
+      <c r="B46" s="2" t="str">
         <f>B4</f>
         <v>Test Sprint5</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B47">
+        <v>1912859999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B48" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>408</v>
       </c>
-      <c r="B33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>409</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B50" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>471</v>
+      </c>
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>472</v>
+      </c>
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>473</v>
+      </c>
+      <c r="B53" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>474</v>
+      </c>
+      <c r="B54" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>475</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>476</v>
+      </c>
+      <c r="B56" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>482</v>
+      </c>
+      <c r="B57" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>26</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B62" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>23</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B63" t="s">
         <v>24</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D63" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B64" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D64" t="s">
         <v>264</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E64" t="s">
         <v>9</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I64" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B65" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D65" t="s">
         <v>266</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E65" t="s">
         <v>11</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I65" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B66" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D66" t="s">
         <v>267</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E66" t="s">
         <v>13</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I66" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B67" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>29</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B68" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>27</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B69" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>31</v>
       </c>
-      <c r="B45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>32</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B71" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>34</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B72" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>35</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B73" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>36</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B74" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>37</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B75" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>42</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B76" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>44</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B77" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="6" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="8" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="B55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="8" t="s">
+      <c r="B80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B81" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="8" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B82" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="8" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B83" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="8" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B59">
+      <c r="B84">
         <v>17000</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>106</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B85" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>91</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B86" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>317</v>
       </c>
-      <c r="B62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="B87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>92</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B88" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>313</v>
       </c>
-      <c r="B64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="B89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>314</v>
       </c>
-      <c r="B65">
+      <c r="B90">
         <v>125.66</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>315</v>
       </c>
-      <c r="B66">
+      <c r="B91">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>316</v>
       </c>
-      <c r="B67">
+      <c r="B92">
         <v>2476.44</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="6" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="6" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="8" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B69" s="1" t="str">
+      <c r="B94" s="1" t="str">
         <f>B7</f>
         <v>23/01/2019</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>269</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B95" s="9">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>270</v>
       </c>
-      <c r="B71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="B96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>271</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B97" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>273</v>
       </c>
-      <c r="B73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="B98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>274</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B99" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>276</v>
       </c>
-      <c r="B75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="B100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>277</v>
       </c>
-      <c r="B76" t="b">
+      <c r="B101" t="b">
         <v>0</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D101" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>279</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B102" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>281</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B103" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="6" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="8" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B80" s="1" t="str">
+      <c r="B105" s="1" t="str">
         <f>B7</f>
         <v>23/01/2019</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>287</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B106" s="9">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>288</v>
       </c>
-      <c r="B82" s="1" t="str">
+      <c r="B107" s="1" t="str">
         <f>B7</f>
         <v>23/01/2019</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>289</v>
-      </c>
-      <c r="B83" s="9">
-        <v>0.33680555555555558</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>290</v>
-      </c>
-      <c r="B84" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>291</v>
-      </c>
-      <c r="B85" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>292</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>294</v>
-      </c>
-      <c r="B87" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>295</v>
-      </c>
-      <c r="B88" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>296</v>
-      </c>
-      <c r="B89" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>297</v>
-      </c>
-      <c r="B90" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>298</v>
-      </c>
-      <c r="B91" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>299</v>
-      </c>
-      <c r="B92" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>300</v>
-      </c>
-      <c r="B93" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>311</v>
-      </c>
-      <c r="B94" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>312</v>
-      </c>
-      <c r="B95" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>302</v>
-      </c>
-      <c r="B96" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>303</v>
-      </c>
-      <c r="B97" t="b">
-        <v>0</v>
-      </c>
-      <c r="D97" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>304</v>
-      </c>
-      <c r="B98" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>306</v>
-      </c>
-      <c r="B99" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>307</v>
-      </c>
-      <c r="B100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>308</v>
-      </c>
-      <c r="B101" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>326</v>
-      </c>
-      <c r="B103" t="s">
-        <v>327</v>
-      </c>
-      <c r="C103">
-        <v>5</v>
-      </c>
-      <c r="D103" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>349</v>
-      </c>
-      <c r="B104" t="b">
-        <v>1</v>
-      </c>
-      <c r="C104">
-        <v>15</v>
-      </c>
-      <c r="D104" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>346</v>
-      </c>
-      <c r="B105" t="s">
-        <v>93</v>
-      </c>
-      <c r="C105">
-        <v>15</v>
-      </c>
-      <c r="D105" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>347</v>
-      </c>
-      <c r="B106" t="b">
-        <v>1</v>
-      </c>
-      <c r="C106">
-        <v>25</v>
-      </c>
-      <c r="D106" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>348</v>
-      </c>
-      <c r="B107" t="b">
-        <v>0</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107" t="s">
-        <v>361</v>
-      </c>
-    </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>350</v>
-      </c>
-      <c r="B108" t="b">
-        <v>0</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108" t="s">
-        <v>361</v>
+        <v>289</v>
+      </c>
+      <c r="B108" s="9">
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>351</v>
-      </c>
-      <c r="B109" t="b">
+        <v>290</v>
+      </c>
+      <c r="B109" s="9" t="b">
         <v>0</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>352</v>
-      </c>
-      <c r="B110" t="b">
-        <v>0</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110" t="s">
-        <v>361</v>
+        <v>291</v>
+      </c>
+      <c r="B110" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>353</v>
-      </c>
-      <c r="B111" t="b">
-        <v>1</v>
-      </c>
-      <c r="C111">
-        <v>20</v>
-      </c>
-      <c r="D111" t="s">
-        <v>361</v>
+        <v>292</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>354</v>
-      </c>
-      <c r="B112" t="b">
-        <v>1</v>
-      </c>
-      <c r="C112">
-        <v>20</v>
-      </c>
-      <c r="D112" t="s">
-        <v>361</v>
+        <v>294</v>
+      </c>
+      <c r="B112" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>355</v>
-      </c>
-      <c r="B113" t="b">
-        <v>1</v>
-      </c>
-      <c r="C113">
-        <v>25</v>
-      </c>
-      <c r="D113" t="s">
-        <v>361</v>
+        <v>295</v>
+      </c>
+      <c r="B113" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>356</v>
-      </c>
-      <c r="B114" t="b">
-        <v>1</v>
-      </c>
-      <c r="C114">
-        <v>20</v>
-      </c>
-      <c r="D114" t="s">
-        <v>361</v>
+        <v>296</v>
+      </c>
+      <c r="B114" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>357</v>
-      </c>
-      <c r="B115" t="b">
-        <v>1</v>
-      </c>
-      <c r="C115">
-        <v>25</v>
-      </c>
-      <c r="D115" t="s">
-        <v>361</v>
+        <v>297</v>
+      </c>
+      <c r="B115" s="10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>358</v>
-      </c>
-      <c r="B116" t="b">
-        <v>1</v>
-      </c>
-      <c r="C116">
-        <v>15</v>
-      </c>
-      <c r="D116" t="s">
-        <v>361</v>
+        <v>298</v>
+      </c>
+      <c r="B116" s="10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>359</v>
+        <v>299</v>
       </c>
       <c r="B117" t="b">
         <v>1</v>
-      </c>
-      <c r="C117">
-        <v>25</v>
-      </c>
-      <c r="D117" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>360</v>
-      </c>
-      <c r="B118">
-        <v>210</v>
-      </c>
-      <c r="C118">
-        <f>SUM(C103:C117)</f>
-        <v>210</v>
+        <v>300</v>
+      </c>
+      <c r="B118" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>311</v>
+      </c>
+      <c r="B119" s="10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="6" t="s">
-        <v>336</v>
+      <c r="A120" t="s">
+        <v>312</v>
+      </c>
+      <c r="B120" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>54</v>
+        <v>302</v>
       </c>
       <c r="B121" t="b">
         <v>1</v>
@@ -2781,944 +2799,1238 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
+        <v>303</v>
+      </c>
+      <c r="B122" t="b">
+        <v>0</v>
+      </c>
+      <c r="D122" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>304</v>
+      </c>
+      <c r="B123" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>306</v>
+      </c>
+      <c r="B124" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>307</v>
+      </c>
+      <c r="B125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>308</v>
+      </c>
+      <c r="B126" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>326</v>
+      </c>
+      <c r="B128" t="s">
+        <v>327</v>
+      </c>
+      <c r="C128">
+        <v>5</v>
+      </c>
+      <c r="D128" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>349</v>
+      </c>
+      <c r="B129" t="b">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>346</v>
+      </c>
+      <c r="B130" t="s">
+        <v>93</v>
+      </c>
+      <c r="C130">
+        <v>15</v>
+      </c>
+      <c r="D130" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>347</v>
+      </c>
+      <c r="B131" t="b">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>25</v>
+      </c>
+      <c r="D131" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>348</v>
+      </c>
+      <c r="B132" t="b">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>350</v>
+      </c>
+      <c r="B133" t="b">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>351</v>
+      </c>
+      <c r="B134" t="b">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>352</v>
+      </c>
+      <c r="B135" t="b">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>353</v>
+      </c>
+      <c r="B136" t="b">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>20</v>
+      </c>
+      <c r="D136" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>354</v>
+      </c>
+      <c r="B137" t="b">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>20</v>
+      </c>
+      <c r="D137" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>355</v>
+      </c>
+      <c r="B138" t="b">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>25</v>
+      </c>
+      <c r="D138" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>356</v>
+      </c>
+      <c r="B139" t="b">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>20</v>
+      </c>
+      <c r="D139" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>357</v>
+      </c>
+      <c r="B140" t="b">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>25</v>
+      </c>
+      <c r="D140" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>358</v>
+      </c>
+      <c r="B141" t="b">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>359</v>
+      </c>
+      <c r="B142" t="b">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>25</v>
+      </c>
+      <c r="D142" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>360</v>
+      </c>
+      <c r="B143">
+        <v>210</v>
+      </c>
+      <c r="C143">
+        <f>SUM(C128:C142)</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>54</v>
+      </c>
+      <c r="B146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
         <v>433</v>
       </c>
-      <c r="B122" t="str">
+      <c r="B147" t="str">
         <f>B4</f>
         <v>Test Sprint5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>55</v>
-      </c>
-      <c r="B123" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>57</v>
-      </c>
-      <c r="B124" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>60</v>
-      </c>
-      <c r="B125" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>100</v>
-      </c>
-      <c r="B126" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>101</v>
-      </c>
-      <c r="B127" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>127</v>
-      </c>
-      <c r="B128" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>104</v>
-      </c>
-      <c r="B129" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>160</v>
-      </c>
-      <c r="B130" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>161</v>
-      </c>
-      <c r="B131" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>163</v>
-      </c>
-      <c r="B132" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>178</v>
-      </c>
-      <c r="B135" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>179</v>
-      </c>
-      <c r="B136" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>180</v>
-      </c>
-      <c r="B137" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>438</v>
-      </c>
-      <c r="B138" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>203</v>
-      </c>
-      <c r="B139" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>204</v>
-      </c>
-      <c r="B140" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>205</v>
-      </c>
-      <c r="B141" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>181</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>182</v>
-      </c>
-      <c r="B143" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>183</v>
-      </c>
-      <c r="B144" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>184</v>
-      </c>
-      <c r="B145" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>185</v>
-      </c>
-      <c r="B146" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>186</v>
-      </c>
-      <c r="B147" t="b">
-        <v>0</v>
-      </c>
-    </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>187</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>193</v>
+        <v>55</v>
+      </c>
+      <c r="B148" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>188</v>
-      </c>
-      <c r="B149" t="b">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="B149" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="6"/>
+      <c r="A150" t="s">
+        <v>60</v>
+      </c>
+      <c r="B150" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="6" t="s">
-        <v>338</v>
+      <c r="A151" t="s">
+        <v>100</v>
+      </c>
+      <c r="B151" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="B152" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="B153" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>72</v>
-      </c>
-      <c r="B154">
-        <v>2017</v>
+        <v>104</v>
+      </c>
+      <c r="B154" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>73</v>
-      </c>
-      <c r="B155" t="s">
-        <v>76</v>
+        <v>160</v>
+      </c>
+      <c r="B155" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="B156" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>78</v>
-      </c>
-      <c r="B157" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>80</v>
-      </c>
-      <c r="B158" t="s">
-        <v>82</v>
+        <v>163</v>
+      </c>
+      <c r="B157" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>81</v>
-      </c>
-      <c r="B159" t="s">
-        <v>83</v>
+      <c r="A159" s="6" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="B160" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="B161" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="B162" t="s">
-        <v>90</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>438</v>
+      </c>
+      <c r="B163" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" s="6" t="s">
-        <v>339</v>
+      <c r="A164" t="s">
+        <v>203</v>
+      </c>
+      <c r="B164" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="B165" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>61</v>
+        <v>205</v>
       </c>
       <c r="B166" t="s">
-        <v>62</v>
+        <v>202</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>64</v>
-      </c>
-      <c r="B167" t="s">
-        <v>63</v>
+        <v>181</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>431</v>
-      </c>
-      <c r="B168" t="s">
-        <v>432</v>
+        <v>182</v>
+      </c>
+      <c r="B168" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>207</v>
-      </c>
-      <c r="B169" t="b">
-        <v>1</v>
+        <v>183</v>
+      </c>
+      <c r="B169" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="B170" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="B171" t="s">
-        <v>206</v>
+        <v>97</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>68</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>67</v>
+        <v>186</v>
+      </c>
+      <c r="B172" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>95</v>
-      </c>
-      <c r="B173" t="b">
-        <v>1</v>
+        <v>187</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>125</v>
-      </c>
-      <c r="B174" t="s">
-        <v>126</v>
+        <v>188</v>
+      </c>
+      <c r="B174" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>98</v>
-      </c>
-      <c r="B175" t="s">
-        <v>96</v>
-      </c>
+      <c r="A175" s="6"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>99</v>
-      </c>
-      <c r="B176" t="s">
-        <v>97</v>
+      <c r="A176" s="6" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>164</v>
-      </c>
-      <c r="B177" t="b">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="B177" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="B178" t="s">
-        <v>194</v>
+        <v>75</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>166</v>
-      </c>
-      <c r="B179" t="b">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="B179">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>73</v>
+      </c>
+      <c r="B180" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" s="6" t="s">
-        <v>340</v>
+      <c r="A181" t="s">
+        <v>74</v>
+      </c>
+      <c r="B181" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="B182" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="B183" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="B184" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>437</v>
+        <v>105</v>
       </c>
       <c r="B185" t="s">
-        <v>436</v>
+        <v>84</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>199</v>
-      </c>
-      <c r="B186" t="b">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="B186" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="B187" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>201</v>
-      </c>
-      <c r="B188" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>151</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>158</v>
+        <v>444</v>
+      </c>
+      <c r="B188" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>152</v>
-      </c>
-      <c r="B190" t="b">
-        <v>1</v>
+      <c r="A190" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="B191" t="s">
-        <v>159</v>
+        <v>66</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="B192" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="B193" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>167</v>
-      </c>
-      <c r="B194" t="b">
-        <v>0</v>
+        <v>431</v>
+      </c>
+      <c r="B194" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>168</v>
-      </c>
-      <c r="B195" t="s">
-        <v>162</v>
+        <v>207</v>
+      </c>
+      <c r="B195" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>169</v>
-      </c>
-      <c r="B196" t="b">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="B196" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>209</v>
+      </c>
+      <c r="B197" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198" s="6" t="s">
-        <v>341</v>
+      <c r="A198" t="s">
+        <v>68</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>107</v>
-      </c>
-      <c r="B199" t="s">
-        <v>114</v>
+        <v>95</v>
+      </c>
+      <c r="B199" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B200" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B201" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>434</v>
+        <v>99</v>
       </c>
       <c r="B202" t="s">
-        <v>435</v>
+        <v>97</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="B203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="B204" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>198</v>
-      </c>
-      <c r="B205" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
-        <v>110</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>117</v>
+        <v>166</v>
+      </c>
+      <c r="B205" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
-        <v>120</v>
-      </c>
-      <c r="B207">
-        <v>1237771234</v>
+      <c r="A207" s="6" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="B208" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>111</v>
-      </c>
-      <c r="B209" t="b">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="B209" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B210" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>112</v>
+        <v>437</v>
       </c>
       <c r="B211" t="s">
-        <v>118</v>
+        <v>436</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>113</v>
-      </c>
-      <c r="B212" t="s">
-        <v>119</v>
+        <v>199</v>
+      </c>
+      <c r="B212" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>170</v>
-      </c>
-      <c r="B213" t="b">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="B213" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="B214" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>172</v>
-      </c>
-      <c r="B215" t="b">
-        <v>0</v>
+        <v>151</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>152</v>
+      </c>
+      <c r="B216" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217" s="6" t="s">
-        <v>342</v>
+      <c r="A217" t="s">
+        <v>153</v>
+      </c>
+      <c r="B217" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="B218" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="B219" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>133</v>
-      </c>
-      <c r="B220">
-        <v>4000</v>
+        <v>167</v>
+      </c>
+      <c r="B220" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="B221" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>136</v>
-      </c>
-      <c r="B222" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
-        <v>138</v>
-      </c>
-      <c r="B223" t="b">
-        <v>1</v>
+        <v>169</v>
+      </c>
+      <c r="B222" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
-        <v>139</v>
-      </c>
-      <c r="B224" t="s">
-        <v>66</v>
+      <c r="A224" s="6" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="B225" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="B226" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>440</v>
+        <v>108</v>
       </c>
       <c r="B227" t="s">
-        <v>441</v>
+        <v>116</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>146</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>147</v>
+        <v>434</v>
+      </c>
+      <c r="B228" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>144</v>
-      </c>
-      <c r="B229" t="s">
-        <v>145</v>
+        <v>196</v>
+      </c>
+      <c r="B229" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>197</v>
+      </c>
+      <c r="B230" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A231" s="6" t="s">
-        <v>343</v>
+      <c r="A231" t="s">
+        <v>198</v>
+      </c>
+      <c r="B231" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A232" s="6"/>
+      <c r="A232" t="s">
+        <v>110</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A233" s="6" t="s">
-        <v>344</v>
+      <c r="A233" t="s">
+        <v>120</v>
+      </c>
+      <c r="B233">
+        <v>1237771234</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A234" s="6"/>
+      <c r="A234" t="s">
+        <v>121</v>
+      </c>
+      <c r="B234" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A235" s="6" t="s">
-        <v>345</v>
+      <c r="A235" t="s">
+        <v>111</v>
+      </c>
+      <c r="B235" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A236" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>212</v>
+      <c r="A236" t="s">
+        <v>123</v>
+      </c>
+      <c r="B236" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A237" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B237" s="2">
-        <v>0.41666666666666669</v>
+      <c r="A237" t="s">
+        <v>112</v>
+      </c>
+      <c r="B237" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A238" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>219</v>
+      <c r="A238" t="s">
+        <v>113</v>
+      </c>
+      <c r="B238" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A239" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>220</v>
+      <c r="A239" t="s">
+        <v>170</v>
+      </c>
+      <c r="B239" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A240" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>221</v>
+      <c r="A240" t="s">
+        <v>171</v>
+      </c>
+      <c r="B240" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A241" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A242" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B242" s="3" t="b">
-        <v>1</v>
+      <c r="A241" t="s">
+        <v>172</v>
+      </c>
+      <c r="B241" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A243" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B243" s="3" t="b">
-        <v>1</v>
+      <c r="A243" s="6" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A244" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B244" s="3" t="b">
-        <v>1</v>
+      <c r="A244" t="s">
+        <v>129</v>
+      </c>
+      <c r="B244" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A245" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>225</v>
+      <c r="A245" t="s">
+        <v>131</v>
+      </c>
+      <c r="B245" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A246" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B246" t="s">
-        <v>228</v>
+      <c r="A246" t="s">
+        <v>133</v>
+      </c>
+      <c r="B246">
+        <v>4000</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A247" s="8" t="s">
-        <v>229</v>
+      <c r="A247" t="s">
+        <v>134</v>
       </c>
       <c r="B247" t="s">
-        <v>230</v>
+        <v>135</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A248" s="8"/>
+      <c r="A248" t="s">
+        <v>136</v>
+      </c>
+      <c r="B248" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
+        <v>138</v>
+      </c>
+      <c r="B249" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>139</v>
+      </c>
+      <c r="B250" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>140</v>
+      </c>
+      <c r="B251" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>141</v>
+      </c>
+      <c r="B252" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>440</v>
+      </c>
+      <c r="B253" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>146</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>144</v>
+      </c>
+      <c r="B255" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" s="6"/>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" s="6"/>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B263" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B268" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B269" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B270" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B272" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B273" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" s="8"/>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
         <v>6</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B275" s="3" t="s">
         <v>407</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B172" r:id="rId1"/>
-    <hyperlink ref="B206" r:id="rId2"/>
-    <hyperlink ref="B228" r:id="rId3"/>
-    <hyperlink ref="B189" r:id="rId4"/>
-    <hyperlink ref="B142" r:id="rId5"/>
+    <hyperlink ref="B198" r:id="rId1"/>
+    <hyperlink ref="B232" r:id="rId2"/>
+    <hyperlink ref="B254" r:id="rId3"/>
+    <hyperlink ref="B215" r:id="rId4"/>
+    <hyperlink ref="B167" r:id="rId5"/>
+    <hyperlink ref="B36" r:id="rId6"/>
+    <hyperlink ref="B42" r:id="rId7"/>
+    <hyperlink ref="B55" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -4608,10 +4920,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:B41"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5281,456 +5593,464 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="6" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>444</v>
+      </c>
+      <c r="B87" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="6" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>65</v>
-      </c>
-      <c r="B89" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B90" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B91" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>431</v>
+        <v>64</v>
       </c>
       <c r="B92" t="s">
-        <v>432</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>207</v>
-      </c>
-      <c r="B93" t="b">
-        <v>1</v>
+        <v>431</v>
+      </c>
+      <c r="B93" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>208</v>
-      </c>
-      <c r="B94" t="s">
-        <v>25</v>
+        <v>207</v>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B95" t="s">
-        <v>206</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>67</v>
+        <v>209</v>
+      </c>
+      <c r="B96" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97" t="b">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>125</v>
-      </c>
-      <c r="B98" t="s">
-        <v>126</v>
+        <v>95</v>
+      </c>
+      <c r="B98" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B99" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="6" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="6" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>148</v>
-      </c>
-      <c r="B103" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B104" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B105" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>437</v>
+        <v>150</v>
       </c>
       <c r="B106" t="s">
-        <v>436</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>199</v>
-      </c>
-      <c r="B107" t="b">
-        <v>1</v>
+        <v>437</v>
+      </c>
+      <c r="B107" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>200</v>
-      </c>
-      <c r="B108" t="s">
-        <v>25</v>
+        <v>199</v>
+      </c>
+      <c r="B108" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B109" t="s">
-        <v>202</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>151</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>158</v>
+        <v>201</v>
+      </c>
+      <c r="B110" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>152</v>
-      </c>
-      <c r="B111" t="b">
-        <v>1</v>
+        <v>151</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>153</v>
-      </c>
-      <c r="B112" t="s">
-        <v>159</v>
+        <v>152</v>
+      </c>
+      <c r="B112" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B113" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
+        <v>154</v>
+      </c>
+      <c r="B114" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>155</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="6" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="6" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>107</v>
-      </c>
-      <c r="B117" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B118" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>434</v>
+        <v>108</v>
       </c>
       <c r="B120" t="s">
-        <v>435</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>196</v>
-      </c>
-      <c r="B121" t="b">
-        <v>1</v>
+        <v>434</v>
+      </c>
+      <c r="B121" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>197</v>
-      </c>
-      <c r="B122" t="s">
-        <v>25</v>
+        <v>196</v>
+      </c>
+      <c r="B122" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B123" t="s">
-        <v>195</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>110</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>117</v>
+        <v>198</v>
+      </c>
+      <c r="B124" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>120</v>
-      </c>
-      <c r="B125">
-        <v>1237771234</v>
+        <v>110</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>121</v>
-      </c>
-      <c r="B126" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="B126">
+        <v>1237771234</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>111</v>
-      </c>
-      <c r="B127" t="b">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="B127" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>123</v>
-      </c>
-      <c r="B128" t="s">
-        <v>124</v>
+        <v>111</v>
+      </c>
+      <c r="B128" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B129" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B130" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>170</v>
-      </c>
-      <c r="B131" t="b">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="B131" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>171</v>
-      </c>
-      <c r="B132" t="s">
-        <v>162</v>
+        <v>170</v>
+      </c>
+      <c r="B132" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
+        <v>171</v>
+      </c>
+      <c r="B133" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>172</v>
       </c>
-      <c r="B133" t="b">
+      <c r="B134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="6" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="6" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>129</v>
-      </c>
-      <c r="B136" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B137" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>133</v>
-      </c>
-      <c r="B138">
-        <v>4000</v>
+        <v>131</v>
+      </c>
+      <c r="B138" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>134</v>
-      </c>
-      <c r="B139" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="B139">
+        <v>4000</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B140" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>138</v>
-      </c>
-      <c r="B141" t="b">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="B141" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>139</v>
-      </c>
-      <c r="B142" t="s">
-        <v>66</v>
+        <v>138</v>
+      </c>
+      <c r="B142" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>440</v>
+        <v>141</v>
       </c>
       <c r="B145" t="s">
-        <v>441</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>146</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>147</v>
+        <v>440</v>
+      </c>
+      <c r="B146" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
         <v>144</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B148" t="s">
         <v>145</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B96" r:id="rId1"/>
-    <hyperlink ref="B124" r:id="rId2"/>
-    <hyperlink ref="B146" r:id="rId3"/>
-    <hyperlink ref="B110" r:id="rId4"/>
+    <hyperlink ref="B97" r:id="rId1"/>
+    <hyperlink ref="B125" r:id="rId2"/>
+    <hyperlink ref="B147" r:id="rId3"/>
+    <hyperlink ref="B111" r:id="rId4"/>
     <hyperlink ref="B73" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5740,10 +6060,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E147"/>
+  <dimension ref="A1:E148"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:B41"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6383,456 +6703,464 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="6" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>444</v>
+      </c>
+      <c r="B87" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="6" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>65</v>
-      </c>
-      <c r="B89" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B90" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B91" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>431</v>
+        <v>64</v>
       </c>
       <c r="B92" t="s">
-        <v>432</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>207</v>
-      </c>
-      <c r="B93" t="b">
-        <v>1</v>
+        <v>431</v>
+      </c>
+      <c r="B93" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>208</v>
-      </c>
-      <c r="B94" t="s">
-        <v>25</v>
+        <v>207</v>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B95" t="s">
-        <v>206</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>67</v>
+        <v>209</v>
+      </c>
+      <c r="B96" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97" t="b">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>125</v>
-      </c>
-      <c r="B98" t="s">
-        <v>126</v>
+        <v>95</v>
+      </c>
+      <c r="B98" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B99" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="6" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="6" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>148</v>
-      </c>
-      <c r="B103" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B104" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B105" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>437</v>
+        <v>150</v>
       </c>
       <c r="B106" t="s">
-        <v>436</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>199</v>
-      </c>
-      <c r="B107" t="b">
-        <v>1</v>
+        <v>437</v>
+      </c>
+      <c r="B107" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>200</v>
-      </c>
-      <c r="B108" t="s">
-        <v>25</v>
+        <v>199</v>
+      </c>
+      <c r="B108" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B109" t="s">
-        <v>202</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>151</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>158</v>
+        <v>201</v>
+      </c>
+      <c r="B110" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>152</v>
-      </c>
-      <c r="B111" t="b">
-        <v>1</v>
+        <v>151</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>153</v>
-      </c>
-      <c r="B112" t="s">
-        <v>159</v>
+        <v>152</v>
+      </c>
+      <c r="B112" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B113" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
+        <v>154</v>
+      </c>
+      <c r="B114" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>155</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="6" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="6" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>107</v>
-      </c>
-      <c r="B117" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B118" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>434</v>
+        <v>108</v>
       </c>
       <c r="B120" t="s">
-        <v>435</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>196</v>
-      </c>
-      <c r="B121" t="b">
-        <v>1</v>
+        <v>434</v>
+      </c>
+      <c r="B121" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>197</v>
-      </c>
-      <c r="B122" t="s">
-        <v>25</v>
+        <v>196</v>
+      </c>
+      <c r="B122" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B123" t="s">
-        <v>195</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>110</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>117</v>
+        <v>198</v>
+      </c>
+      <c r="B124" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>120</v>
-      </c>
-      <c r="B125">
-        <v>1237771234</v>
+        <v>110</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>121</v>
-      </c>
-      <c r="B126" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="B126">
+        <v>1237771234</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>111</v>
-      </c>
-      <c r="B127" t="b">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="B127" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>123</v>
-      </c>
-      <c r="B128" t="s">
-        <v>124</v>
+        <v>111</v>
+      </c>
+      <c r="B128" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B129" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B130" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>170</v>
-      </c>
-      <c r="B131" t="b">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="B131" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>171</v>
-      </c>
-      <c r="B132" t="s">
-        <v>162</v>
+        <v>170</v>
+      </c>
+      <c r="B132" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
+        <v>171</v>
+      </c>
+      <c r="B133" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>172</v>
       </c>
-      <c r="B133" t="b">
+      <c r="B134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="6" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="6" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>129</v>
-      </c>
-      <c r="B136" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B137" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>133</v>
-      </c>
-      <c r="B138">
-        <v>4000</v>
+        <v>131</v>
+      </c>
+      <c r="B138" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>134</v>
-      </c>
-      <c r="B139" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="B139">
+        <v>4000</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B140" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>138</v>
-      </c>
-      <c r="B141" t="b">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="B141" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>139</v>
-      </c>
-      <c r="B142" t="s">
-        <v>66</v>
+        <v>138</v>
+      </c>
+      <c r="B142" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>440</v>
+        <v>141</v>
       </c>
       <c r="B145" t="s">
-        <v>441</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>146</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>147</v>
+        <v>440</v>
+      </c>
+      <c r="B146" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
         <v>144</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B148" t="s">
         <v>145</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B96" r:id="rId1"/>
-    <hyperlink ref="B124" r:id="rId2"/>
-    <hyperlink ref="B146" r:id="rId3"/>
-    <hyperlink ref="B110" r:id="rId4"/>
+    <hyperlink ref="B97" r:id="rId1"/>
+    <hyperlink ref="B125" r:id="rId2"/>
+    <hyperlink ref="B147" r:id="rId3"/>
+    <hyperlink ref="B111" r:id="rId4"/>
     <hyperlink ref="B73" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7946,7 +8274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="489">
   <si>
     <t>ITB/10000002</t>
   </si>
@@ -1479,6 +1479,24 @@
   </si>
   <si>
     <t>Fnol_Step2_MainContactNewPersonRelation</t>
+  </si>
+  <si>
+    <t>Fnol_Step2_ReportedByInsured</t>
+  </si>
+  <si>
+    <t>Fnol_Step2_Confirm_Homephone</t>
+  </si>
+  <si>
+    <t>Fnol_Step2_Confirm_Mobile</t>
+  </si>
+  <si>
+    <t>ivechanged@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>Fnol_Step2_Confirm_Email</t>
+  </si>
+  <si>
+    <t>Fnol_Step2_Confirm_HasChanges</t>
   </si>
 </sst>
 </file>
@@ -1510,7 +1528,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1523,8 +1541,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1532,12 +1574,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1556,15 +1697,137 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="18" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="18" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1840,10 +2103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I275"/>
+  <dimension ref="A1:I279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1929,7 +2192,7 @@
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="b">
+      <c r="B10" s="25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1937,7 +2200,7 @@
       <c r="A11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="12" t="b">
+      <c r="B11" s="25" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="s">
@@ -1948,7 +2211,7 @@
       <c r="A12" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B12" s="14" t="b">
+      <c r="B12" s="38" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="s">
@@ -1959,7 +2222,7 @@
       <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="12" t="b">
+      <c r="B13" s="25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1967,7 +2230,7 @@
       <c r="A14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="12" t="b">
+      <c r="B14" s="25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1975,7 +2238,7 @@
       <c r="A15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="12" t="b">
+      <c r="B15" s="25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1983,7 +2246,7 @@
       <c r="A16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="12" t="b">
+      <c r="B16" s="25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1991,7 +2254,7 @@
       <c r="A17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="12" t="b">
+      <c r="B17" s="25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1999,7 +2262,7 @@
       <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="12" t="b">
+      <c r="B18" s="25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2007,7 +2270,7 @@
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="12" t="b">
+      <c r="B19" s="25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2015,7 +2278,7 @@
       <c r="A20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B20" t="b">
+      <c r="B20" s="25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2023,7 +2286,7 @@
       <c r="A21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B21" t="b">
+      <c r="B21" s="25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2031,7 +2294,7 @@
       <c r="A22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B22" t="b">
+      <c r="B22" s="25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2085,543 +2348,543 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="B32" t="b">
-        <v>1</v>
+      <c r="B32" s="17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="17" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="17" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="17" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="18" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" s="17" t="s">
         <v>455</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="17" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="17" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="B39" t="b">
+      <c r="B39" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="15" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="15">
         <v>1912450444</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="16" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" s="15" t="s">
         <v>464</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="15" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="15" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="15" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="B46" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="B46" s="2" t="str">
+      <c r="B47" s="20" t="str">
         <f>B4</f>
         <v>Test Sprint5</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="8" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="B48" s="42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="22" t="s">
         <v>467</v>
       </c>
-      <c r="B47">
+      <c r="B49" s="15">
         <v>1912859999</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="8" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="B50" s="15">
+        <v>1912840399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="B51" s="16">
+        <v>7771234567</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="22" t="s">
         <v>468</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B52" s="15" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="B49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="B54" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B55" s="17" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="B51" t="b">
+      <c r="B56" s="15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B57" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B58" s="15" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B59" s="15" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B60" s="16" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B61" s="15" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B62" s="15" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="6" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="6" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>22</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="D64" t="s">
-        <v>264</v>
-      </c>
-      <c r="E64" t="s">
-        <v>9</v>
-      </c>
-      <c r="I64" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="D65" t="s">
-        <v>266</v>
-      </c>
-      <c r="E65" t="s">
-        <v>11</v>
-      </c>
-      <c r="I65" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="D66" t="s">
-        <v>267</v>
-      </c>
-      <c r="E66" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="D68" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>27</v>
-      </c>
-      <c r="B69" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="B69" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="D69" t="s">
+        <v>264</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="I69" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>31</v>
-      </c>
-      <c r="B70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="B70" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="D70" t="s">
+        <v>266</v>
+      </c>
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>32</v>
-      </c>
-      <c r="B71" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="D71" t="s">
+        <v>267</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>34</v>
-      </c>
-      <c r="B72" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>36</v>
-      </c>
-      <c r="B74" t="s">
-        <v>40</v>
+      <c r="A74" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" s="15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>37</v>
-      </c>
-      <c r="B75" t="s">
-        <v>41</v>
+      <c r="A75" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B81" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="6" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="8" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="B80" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="8" t="s">
+      <c r="B84" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B85" s="15" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="8" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B86" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="8" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B87" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="8" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B84">
+      <c r="B88">
         <v>17000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>106</v>
-      </c>
-      <c r="B85" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>317</v>
-      </c>
-      <c r="B87" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>313</v>
-      </c>
-      <c r="B89" t="b">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="B89" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>314</v>
-      </c>
-      <c r="B90">
-        <v>125.66</v>
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>315</v>
-      </c>
-      <c r="B91">
-        <v>13</v>
+        <v>317</v>
+      </c>
+      <c r="B91" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="B93" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="B94" s="15">
+        <v>125.66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B95" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="B92">
+      <c r="B96" s="15">
         <v>2476.44</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="6" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="6" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="8" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B94" s="1" t="str">
+      <c r="B98" s="1" t="str">
         <f>B7</f>
         <v>23/01/2019</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>269</v>
-      </c>
-      <c r="B95" s="9">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>270</v>
-      </c>
-      <c r="B96" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>271</v>
-      </c>
-      <c r="B97" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>273</v>
-      </c>
-      <c r="B98" t="b">
-        <v>1</v>
-      </c>
-    </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>274</v>
-      </c>
-      <c r="B99" t="s">
-        <v>275</v>
+        <v>269</v>
+      </c>
+      <c r="B99" s="9">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B100" t="b">
         <v>1</v>
@@ -2629,153 +2892,153 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>277</v>
-      </c>
-      <c r="B101" t="b">
-        <v>0</v>
-      </c>
-      <c r="D101" t="s">
-        <v>278</v>
+        <v>271</v>
+      </c>
+      <c r="B101" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>279</v>
-      </c>
-      <c r="B102" t="s">
-        <v>280</v>
+        <v>273</v>
+      </c>
+      <c r="B102" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
+        <v>274</v>
+      </c>
+      <c r="B103" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B104" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B105" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B107" s="15" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="6" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="8" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B105" s="1" t="str">
+      <c r="B109" s="1" t="str">
         <f>B7</f>
         <v>23/01/2019</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>287</v>
       </c>
-      <c r="B106" s="9">
+      <c r="B110" s="9">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>288</v>
       </c>
-      <c r="B107" s="1" t="str">
+      <c r="B111" s="1" t="str">
         <f>B7</f>
         <v>23/01/2019</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>289</v>
-      </c>
-      <c r="B108" s="9">
-        <v>0.33680555555555558</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>290</v>
-      </c>
-      <c r="B109" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>291</v>
-      </c>
-      <c r="B110" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>292</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>294</v>
-      </c>
-      <c r="B112" s="9" t="b">
-        <v>1</v>
+        <v>289</v>
+      </c>
+      <c r="B112" s="9">
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>295</v>
-      </c>
-      <c r="B113" s="10">
-        <v>3</v>
+        <v>290</v>
+      </c>
+      <c r="B113" s="9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>296</v>
-      </c>
-      <c r="B114" s="10">
-        <v>2</v>
+      <c r="A114" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B114" s="23" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>297</v>
-      </c>
-      <c r="B115" s="10" t="b">
-        <v>1</v>
+      <c r="A115" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>298</v>
-      </c>
-      <c r="B116" s="10" t="b">
-        <v>0</v>
+      <c r="A116" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B116" s="23" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>299</v>
-      </c>
-      <c r="B117" t="b">
-        <v>1</v>
+        <v>295</v>
+      </c>
+      <c r="B117" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>300</v>
-      </c>
-      <c r="B118" t="s">
-        <v>301</v>
+        <v>296</v>
+      </c>
+      <c r="B118" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B119" s="10" t="b">
         <v>1</v>
@@ -2783,133 +3046,109 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
+        <v>298</v>
+      </c>
+      <c r="B120" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B121" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B123" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B124" s="14" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="B121" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+      <c r="B125" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="B122" t="b">
+      <c r="B126" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D126" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B127" s="15" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B128" s="15" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="B125" t="b">
+      <c r="B129" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B130" s="14" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="6" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="6" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>326</v>
-      </c>
-      <c r="B128" t="s">
-        <v>327</v>
-      </c>
-      <c r="C128">
-        <v>5</v>
-      </c>
-      <c r="D128" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>349</v>
-      </c>
-      <c r="B129" t="b">
-        <v>1</v>
-      </c>
-      <c r="C129">
-        <v>15</v>
-      </c>
-      <c r="D129" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>346</v>
-      </c>
-      <c r="B130" t="s">
-        <v>93</v>
-      </c>
-      <c r="C130">
-        <v>15</v>
-      </c>
-      <c r="D130" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>347</v>
-      </c>
-      <c r="B131" t="b">
-        <v>1</v>
-      </c>
-      <c r="C131">
-        <v>25</v>
-      </c>
-      <c r="D131" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>348</v>
-      </c>
-      <c r="B132" t="b">
-        <v>0</v>
+        <v>326</v>
+      </c>
+      <c r="B132" t="s">
+        <v>327</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D132" t="s">
         <v>361</v>
@@ -2917,13 +3156,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D133" t="s">
         <v>361</v>
@@ -2931,13 +3170,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>351</v>
-      </c>
-      <c r="B134" t="b">
-        <v>0</v>
+        <v>346</v>
+      </c>
+      <c r="B134" t="s">
+        <v>93</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D134" t="s">
         <v>361</v>
@@ -2945,13 +3184,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D135" t="s">
         <v>361</v>
@@ -2959,13 +3198,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D136" t="s">
         <v>361</v>
@@ -2973,13 +3212,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D137" t="s">
         <v>361</v>
@@ -2987,13 +3226,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D138" t="s">
         <v>361</v>
@@ -3001,13 +3240,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D139" t="s">
         <v>361</v>
@@ -3015,13 +3254,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B140" t="b">
         <v>1</v>
       </c>
       <c r="C140">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D140" t="s">
         <v>361</v>
@@ -3029,13 +3268,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B141" t="b">
         <v>1</v>
       </c>
       <c r="C141">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D141" t="s">
         <v>361</v>
@@ -3043,7 +3282,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B142" t="b">
         <v>1</v>
@@ -3057,980 +3296,1049 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
+        <v>356</v>
+      </c>
+      <c r="B143" t="b">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>20</v>
+      </c>
+      <c r="D143" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>357</v>
+      </c>
+      <c r="B144" t="b">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>25</v>
+      </c>
+      <c r="D144" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>358</v>
+      </c>
+      <c r="B145" t="b">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>359</v>
+      </c>
+      <c r="B146" t="b">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>25</v>
+      </c>
+      <c r="D146" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
         <v>360</v>
       </c>
-      <c r="B143">
+      <c r="B147">
         <v>210</v>
       </c>
-      <c r="C143">
-        <f>SUM(C128:C142)</f>
+      <c r="C147">
+        <f>SUM(C132:C146)</f>
         <v>210</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" s="6" t="s">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="6" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B146" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
+      <c r="B150" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="B147" t="str">
+      <c r="B151" s="15" t="str">
         <f>B4</f>
         <v>Test Sprint5</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
         <v>55</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B152" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
         <v>57</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B153" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
+    <row r="154" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
         <v>60</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B154" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B151" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
+      <c r="B155" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B156" s="29" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B157" s="29" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B158" s="29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="B155" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
+      <c r="B159" s="31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B160" s="31" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
+    <row r="161" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A161" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="B157" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" s="6" t="s">
+      <c r="B161" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="6" t="s">
         <v>337</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>178</v>
-      </c>
-      <c r="B160" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>179</v>
-      </c>
-      <c r="B161" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>180</v>
-      </c>
-      <c r="B162" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>438</v>
-      </c>
-      <c r="B163" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>203</v>
-      </c>
-      <c r="B164" t="b">
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="B164" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="B165" t="s">
-        <v>25</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="B166" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
+        <v>438</v>
+      </c>
+      <c r="B167" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B168" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B169" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B170" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A171" t="s">
         <v>181</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B171" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B168" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
+      <c r="B172" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B173" s="29" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B174" s="29" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B175" s="29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="B172" t="b">
+      <c r="B176" s="31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B177" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
+    <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A178" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="B174" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" s="6"/>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" s="6" t="s">
+      <c r="B178" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="6"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="6" t="s">
         <v>338</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>69</v>
-      </c>
-      <c r="B177" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>71</v>
-      </c>
-      <c r="B178" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>72</v>
-      </c>
-      <c r="B179">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>73</v>
-      </c>
-      <c r="B180" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B181" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B182" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>80</v>
-      </c>
-      <c r="B183" t="s">
-        <v>82</v>
+        <v>72</v>
+      </c>
+      <c r="B183">
+        <v>2017</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B184" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B185" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B186" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B187" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>444</v>
-      </c>
-      <c r="B188" t="b">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="B188" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>105</v>
+      </c>
+      <c r="B189" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" s="6" t="s">
-        <v>339</v>
+      <c r="A190" t="s">
+        <v>88</v>
+      </c>
+      <c r="B190" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B191" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>61</v>
-      </c>
-      <c r="B192" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>64</v>
-      </c>
-      <c r="B193" t="s">
-        <v>63</v>
+        <v>444</v>
+      </c>
+      <c r="B192" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>431</v>
-      </c>
-      <c r="B194" t="s">
-        <v>432</v>
+      <c r="A194" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>207</v>
-      </c>
-      <c r="B195" t="b">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="B195" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="B196" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>209</v>
+        <v>64</v>
       </c>
       <c r="B197" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
+        <v>431</v>
+      </c>
+      <c r="B198" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B199" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B200" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B201" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A202" t="s">
         <v>68</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="B202" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B199" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
+      <c r="B203" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B204" s="29" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B205" s="29" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B206" s="29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="B203" t="b">
+      <c r="B207" s="31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B208" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
+    <row r="209" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A209" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="B205" t="b">
+      <c r="B209" s="33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" s="6" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="6" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
-        <v>148</v>
-      </c>
-      <c r="B208" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
-        <v>149</v>
-      </c>
-      <c r="B209" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
-        <v>150</v>
-      </c>
-      <c r="B210" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
-        <v>437</v>
-      </c>
-      <c r="B211" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>199</v>
-      </c>
-      <c r="B212" t="b">
-        <v>1</v>
+        <v>148</v>
+      </c>
+      <c r="B212" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="B213" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="B214" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
+        <v>437</v>
+      </c>
+      <c r="B215" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B216" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B217" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B218" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A219" t="s">
         <v>151</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="B219" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B216" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
+      <c r="B220" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B221" s="29" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B222" s="29" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B223" s="29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="B220" t="b">
+      <c r="B224" s="31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B225" s="31" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
+    <row r="226" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A226" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="B222" t="b">
+      <c r="B226" s="33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A224" s="6" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="6" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
-        <v>107</v>
-      </c>
-      <c r="B225" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
-        <v>109</v>
-      </c>
-      <c r="B226" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
-        <v>108</v>
-      </c>
-      <c r="B227" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
-        <v>434</v>
-      </c>
-      <c r="B228" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>196</v>
-      </c>
-      <c r="B229" t="b">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="B229" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>197</v>
+        <v>109</v>
       </c>
       <c r="B230" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="B231" t="s">
-        <v>195</v>
+        <v>116</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>110</v>
-      </c>
-      <c r="B232" s="5" t="s">
-        <v>117</v>
+        <v>434</v>
+      </c>
+      <c r="B232" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
-        <v>120</v>
-      </c>
-      <c r="B233">
-        <v>1237771234</v>
+      <c r="A233" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B233" s="14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
-        <v>121</v>
-      </c>
-      <c r="B234" t="s">
-        <v>122</v>
+      <c r="A234" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B234" s="14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
-        <v>111</v>
-      </c>
-      <c r="B235" t="b">
-        <v>1</v>
+      <c r="A235" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B235" s="14" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>123</v>
-      </c>
-      <c r="B236" t="s">
-        <v>124</v>
+        <v>110</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
+        <v>120</v>
+      </c>
+      <c r="B237">
+        <v>1237771234</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A238" t="s">
+        <v>121</v>
+      </c>
+      <c r="B238" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B239" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B240" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B241" s="29" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B242" s="29" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="B239" t="b">
+      <c r="B243" s="31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B244" s="31" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
+    <row r="245" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A245" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="B241" t="b">
+      <c r="B245" s="33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A243" s="6" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="6" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
-        <v>129</v>
-      </c>
-      <c r="B244" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
-        <v>131</v>
-      </c>
-      <c r="B245" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
-        <v>133</v>
-      </c>
-      <c r="B246">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
-        <v>134</v>
-      </c>
-      <c r="B247" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B248" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>138</v>
-      </c>
-      <c r="B249" t="b">
-        <v>1</v>
+        <v>131</v>
+      </c>
+      <c r="B249" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>139</v>
-      </c>
-      <c r="B250" t="s">
-        <v>66</v>
+        <v>133</v>
+      </c>
+      <c r="B250">
+        <v>4000</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B251" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
+        <v>136</v>
+      </c>
+      <c r="B252" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B253" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B254" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B255" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B256" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B257" s="15" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A254" t="s">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B254" s="5" t="s">
+      <c r="B258" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B259" s="15" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A257" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A258" s="6"/>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A259" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A260" s="6"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" s="6"/>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" s="6"/>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" s="6" t="s">
         <v>345</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A262" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A263" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B263" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A264" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A265" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>222</v>
+        <v>213</v>
+      </c>
+      <c r="B267" s="2">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B268" s="3" t="b">
-        <v>1</v>
+        <v>214</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B269" s="3" t="b">
-        <v>1</v>
+        <v>215</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B270" s="3" t="b">
-        <v>1</v>
+        <v>216</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="8" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B272" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B273" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B274" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="B275" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B276" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A273" s="8" t="s">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B277" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A274" s="8"/>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A275" t="s">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" s="8"/>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
         <v>6</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B279" s="3" t="s">
         <v>407</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B198" r:id="rId1"/>
-    <hyperlink ref="B232" r:id="rId2"/>
-    <hyperlink ref="B254" r:id="rId3"/>
-    <hyperlink ref="B215" r:id="rId4"/>
-    <hyperlink ref="B167" r:id="rId5"/>
+    <hyperlink ref="B202" r:id="rId1"/>
+    <hyperlink ref="B236" r:id="rId2"/>
+    <hyperlink ref="B258" r:id="rId3"/>
+    <hyperlink ref="B219" r:id="rId4"/>
+    <hyperlink ref="B171" r:id="rId5"/>
     <hyperlink ref="B36" r:id="rId6"/>
     <hyperlink ref="B42" r:id="rId7"/>
-    <hyperlink ref="B55" r:id="rId8"/>
+    <hyperlink ref="B60" r:id="rId8"/>
+    <hyperlink ref="B51" r:id="rId9" display="ivechanged@yahoo.co.uk"/>
+    <hyperlink ref="B53" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -2105,8 +2105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="regression_set1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="autoexposure_set3" sheetId="7" r:id="rId6"/>
     <sheet name="autoexposure_set4" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="529">
   <si>
     <t>ITB/10000002</t>
   </si>
@@ -1136,9 +1136,6 @@
     <t>PostFnol_LossDetails_SubCause</t>
   </si>
   <si>
-    <t>PostFnol_LossDetails_FaulltRate</t>
-  </si>
-  <si>
     <t>Fault</t>
   </si>
   <si>
@@ -1196,15 +1193,6 @@
     <t>PostFnol_LossDetails_IncCctvContact</t>
   </si>
   <si>
-    <t>PostFnol_LossDetails_IncPostcode</t>
-  </si>
-  <si>
-    <t>PostFnol_LossDetails_IncLocDesc</t>
-  </si>
-  <si>
-    <t>NE31UL</t>
-  </si>
-  <si>
     <t>PostFnol_PedestrianPrefix</t>
   </si>
   <si>
@@ -1497,6 +1485,138 @@
   </si>
   <si>
     <t>Fnol_Step2_Confirm_HasChanges</t>
+  </si>
+  <si>
+    <t>000-00-000107</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_FaultRate</t>
+  </si>
+  <si>
+    <t>ENABLED?</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_HowReported</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_ReportedByName</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_ReportedByRelation</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_MainContactSame</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_AlertNotified</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_AlertId</t>
+  </si>
+  <si>
+    <t>TBX039393939</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_MainContactRelation</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_MainContactPrefix</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_MainContactFirstName</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_MainContactLastName</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_MainContactEmail</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_MainContactLocationDesc</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_MainContactNewPerson</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_ReportedByNewPerson</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_ReporterPrefix</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_ReporterFirstName</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_ReporterLastName</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_ReporterEmail</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_ReporterLocationDesc</t>
+  </si>
+  <si>
+    <t>Fnol_Step3_IncidentCircumstances</t>
+  </si>
+  <si>
+    <t>I was just kinding my own business, when someone crashed into me</t>
+  </si>
+  <si>
+    <t>PostFnol_Insured_Address</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_Postcode</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_PostcodeAddress</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_AddressLine1</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_AddressLine2</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_AddressLine3</t>
+  </si>
+  <si>
+    <t>5 The way</t>
+  </si>
+  <si>
+    <t>of the Bay</t>
+  </si>
+  <si>
+    <t>By the Dock</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_City</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_LocationDesc</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_LocationCode</t>
+  </si>
+  <si>
+    <t>PostFnol_LossDetails_AddressLocation</t>
+  </si>
+  <si>
+    <t>New</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1648,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1562,6 +1682,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,7 +1804,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1730,6 +1856,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1757,9 +1887,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -1769,7 +1911,16 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -1779,53 +1930,17 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2103,16 +2218,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I279"/>
+  <dimension ref="A1:I280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="B236" sqref="B236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="80.1796875" customWidth="1"/>
-    <col min="2" max="2" width="53.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2131,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D3" t="s">
         <v>260</v>
@@ -2142,7 +2257,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D4" t="s">
         <v>261</v>
@@ -2153,7 +2268,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D5" t="s">
         <v>262</v>
@@ -2164,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>263</v>
@@ -2172,10 +2287,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -2349,7 +2464,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B32" s="17" t="b">
         <v>0</v>
@@ -2357,7 +2472,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>114</v>
@@ -2365,47 +2480,47 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B39" s="15" t="b">
         <v>0</v>
@@ -2413,15 +2528,15 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B41" s="15">
         <v>1912450444</v>
@@ -2429,39 +2544,39 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="15" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B46" s="17" t="b">
         <v>1</v>
@@ -2469,7 +2584,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="19" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B47" s="20" t="str">
         <f>B4</f>
@@ -2478,7 +2593,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="22" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B48" s="42" t="b">
         <v>0</v>
@@ -2486,7 +2601,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B49" s="15">
         <v>1912859999</v>
@@ -2494,7 +2609,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="22" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B50" s="15">
         <v>1912840399</v>
@@ -2502,7 +2617,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="22" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B51" s="16">
         <v>7771234567</v>
@@ -2510,23 +2625,23 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="22" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="22" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B54" s="17" t="b">
         <v>1</v>
@@ -2534,15 +2649,15 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B56" s="15" t="b">
         <v>0</v>
@@ -2550,7 +2665,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>114</v>
@@ -2558,42 +2673,42 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="15" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="15" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="15" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="15" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -2609,7 +2724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -2620,549 +2735,543 @@
         <v>265</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>22</v>
-      </c>
-      <c r="B69" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="D69" t="s">
-        <v>264</v>
-      </c>
-      <c r="E69" t="s">
-        <v>9</v>
-      </c>
-      <c r="I69" t="s">
-        <v>283</v>
+        <v>512</v>
+      </c>
+      <c r="B69" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="D70" t="s">
+        <v>264</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="I70" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="40" t="s">
+      <c r="B71" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>266</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>11</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I71" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
+    <row r="72" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="41" t="s">
+      <c r="B72" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>267</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E72" t="s">
         <v>13</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I72" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>27</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>29</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B74" s="15" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B76" s="15" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>34</v>
-      </c>
-      <c r="B76" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>37</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B82" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="6" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="6" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="B84" s="15" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="B85" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B86" s="15" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="B86" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B87" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B88" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B88">
+      <c r="B89">
         <v>17000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>106</v>
-      </c>
-      <c r="B89" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>317</v>
-      </c>
-      <c r="B91" t="b">
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
+        <v>317</v>
+      </c>
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>92</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="B93" s="15" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="B94" s="15">
-        <v>125.66</v>
+        <v>313</v>
+      </c>
+      <c r="B94" s="15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B95" s="15">
-        <v>13</v>
+        <v>125.66</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B96" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="B96" s="15">
+      <c r="B97" s="15">
         <v>2476.44</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="6" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="6" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="8" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B98" s="1" t="str">
+      <c r="B99" s="1" t="str">
         <f>B7</f>
         <v>23/01/2019</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>269</v>
-      </c>
-      <c r="B99" s="9">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>270</v>
-      </c>
-      <c r="B100" t="b">
-        <v>1</v>
+        <v>269</v>
+      </c>
+      <c r="B100" s="9">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>271</v>
-      </c>
-      <c r="B101" t="s">
-        <v>272</v>
+        <v>270</v>
+      </c>
+      <c r="B101" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>273</v>
-      </c>
-      <c r="B102" t="b">
-        <v>1</v>
+        <v>271</v>
+      </c>
+      <c r="B102" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
+        <v>273</v>
+      </c>
+      <c r="B103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>274</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="B104" s="15" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B105" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D105" t="s">
-        <v>278</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
+      </c>
+      <c r="B106" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B108" s="15" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="6" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="8" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B109" s="1" t="str">
+      <c r="B110" s="1" t="str">
         <f>B7</f>
         <v>23/01/2019</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>287</v>
-      </c>
-      <c r="B110" s="9">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
+        <v>287</v>
+      </c>
+      <c r="B111" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>288</v>
       </c>
-      <c r="B111" s="1" t="str">
+      <c r="B112" s="1" t="str">
         <f>B7</f>
         <v>23/01/2019</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>289</v>
-      </c>
-      <c r="B112" s="9">
-        <v>0.33680555555555558</v>
-      </c>
-    </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>289</v>
+      </c>
+      <c r="B113" s="9">
+        <v>0.33680555555555558</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>290</v>
       </c>
-      <c r="B113" s="9" t="b">
+      <c r="B114" s="9" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="B114" s="23" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="B115" s="23" t="s">
-        <v>293</v>
+        <v>291</v>
+      </c>
+      <c r="B115" s="23" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B116" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="B116" s="23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>295</v>
-      </c>
-      <c r="B117" s="10">
-        <v>3</v>
+      <c r="B117" s="23" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B118" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>297</v>
-      </c>
-      <c r="B119" s="10" t="b">
-        <v>1</v>
+        <v>296</v>
+      </c>
+      <c r="B119" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
+        <v>297</v>
+      </c>
+      <c r="B120" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>298</v>
       </c>
-      <c r="B120" s="10" t="b">
+      <c r="B121" s="10" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="B121" s="15" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B122" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="B122" s="15" t="s">
+      <c r="B123" s="15" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="B123" s="24" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B124" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B125" s="14" t="s">
         <v>310</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="B125" s="15" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B126" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D126" t="s">
-        <v>278</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
+      </c>
+      <c r="B127" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D127" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="B129" s="15" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="B129" s="14" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B130" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B130" s="14" t="s">
+      <c r="B131" s="14" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="6" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="6" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>326</v>
-      </c>
-      <c r="B132" t="s">
-        <v>327</v>
-      </c>
-      <c r="C132">
-        <v>5</v>
-      </c>
-      <c r="D132" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>349</v>
-      </c>
-      <c r="B133" t="b">
-        <v>1</v>
+        <v>326</v>
+      </c>
+      <c r="B133" t="s">
+        <v>327</v>
       </c>
       <c r="C133">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D133" t="s">
         <v>361</v>
@@ -3170,10 +3279,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>346</v>
-      </c>
-      <c r="B134" t="s">
-        <v>93</v>
+        <v>349</v>
+      </c>
+      <c r="B134" t="b">
+        <v>1</v>
       </c>
       <c r="C134">
         <v>15</v>
@@ -3184,13 +3293,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>347</v>
-      </c>
-      <c r="B135" t="b">
-        <v>1</v>
+        <v>346</v>
+      </c>
+      <c r="B135" t="s">
+        <v>93</v>
       </c>
       <c r="C135">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D135" t="s">
         <v>361</v>
@@ -3198,13 +3307,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D136" t="s">
         <v>361</v>
@@ -3212,7 +3321,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B137" t="b">
         <v>0</v>
@@ -3226,7 +3335,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B138" t="b">
         <v>0</v>
@@ -3240,7 +3349,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B139" t="b">
         <v>0</v>
@@ -3254,13 +3363,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D140" t="s">
         <v>361</v>
@@ -3268,7 +3377,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B141" t="b">
         <v>1</v>
@@ -3282,13 +3391,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B142" t="b">
         <v>1</v>
       </c>
       <c r="C142">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D142" t="s">
         <v>361</v>
@@ -3296,13 +3405,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B143" t="b">
         <v>1</v>
       </c>
       <c r="C143">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D143" t="s">
         <v>361</v>
@@ -3310,13 +3419,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B144" t="b">
         <v>1</v>
       </c>
       <c r="C144">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D144" t="s">
         <v>361</v>
@@ -3324,13 +3433,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B145" t="b">
         <v>1</v>
       </c>
       <c r="C145">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D145" t="s">
         <v>361</v>
@@ -3338,13 +3447,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B146" t="b">
         <v>1</v>
       </c>
       <c r="C146">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D146" t="s">
         <v>361</v>
@@ -3352,985 +3461,999 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
+        <v>359</v>
+      </c>
+      <c r="B147" t="b">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>25</v>
+      </c>
+      <c r="D147" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
         <v>360</v>
       </c>
-      <c r="B147">
+      <c r="B148">
         <v>210</v>
       </c>
-      <c r="C147">
-        <f>SUM(C132:C146)</f>
+      <c r="C148">
+        <f>SUM(C133:C147)</f>
         <v>210</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" s="6" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" s="6" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A150" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B150" s="15" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="B151" s="15" t="str">
+        <v>54</v>
+      </c>
+      <c r="B151" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="B152" s="15" t="str">
         <f>B4</f>
         <v>Test Sprint5</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>55</v>
-      </c>
-      <c r="B152" t="s">
-        <v>56</v>
-      </c>
-    </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
+        <v>55</v>
+      </c>
+      <c r="B153" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
         <v>57</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B154" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A154" t="s">
+    <row r="155" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A155" t="s">
         <v>60</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B155" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="26" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B155" s="27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B156" s="29" t="s">
-        <v>102</v>
+      <c r="B156" s="27" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="28" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B157" s="29" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B158" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B158" s="29" t="s">
+      <c r="B159" s="29" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B159" s="31" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" s="31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="B160" s="31" t="s">
+      <c r="B161" s="31" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A161" s="32" t="s">
+    <row r="162" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A162" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="B161" s="33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" s="6" t="s">
+      <c r="B162" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="6" t="s">
         <v>337</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>178</v>
-      </c>
-      <c r="B164" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B165" t="s">
-        <v>189</v>
+        <v>66</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B166" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>438</v>
+        <v>180</v>
       </c>
       <c r="B167" t="s">
-        <v>439</v>
+        <v>190</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B168" s="14" t="b">
-        <v>1</v>
+      <c r="A168" t="s">
+        <v>434</v>
+      </c>
+      <c r="B168" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="B169" s="14" t="s">
-        <v>25</v>
+        <v>203</v>
+      </c>
+      <c r="B169" s="14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B170" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="B170" s="14" t="s">
+      <c r="B171" s="14" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A171" t="s">
+    <row r="172" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
         <v>181</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B172" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" s="26" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B172" s="27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="B173" s="29" t="s">
-        <v>192</v>
+      <c r="B173" s="27" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B174" s="29" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B175" s="29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="B175" s="29" t="s">
+      <c r="B176" s="29" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B176" s="31" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B177" s="31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="B177" s="34" t="s">
+      <c r="B178" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A178" s="32" t="s">
+    <row r="179" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A179" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="B178" s="33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" s="6"/>
+      <c r="B179" s="33" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" s="6" t="s">
+      <c r="A180" s="6"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="6" t="s">
         <v>338</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>69</v>
-      </c>
-      <c r="B181" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B182" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>72</v>
-      </c>
-      <c r="B183">
-        <v>2017</v>
+        <v>71</v>
+      </c>
+      <c r="B183" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>73</v>
-      </c>
-      <c r="B184" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="B184">
+        <v>2017</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B185" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B186" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B187" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B188" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B189" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B190" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B191" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>444</v>
-      </c>
-      <c r="B192" t="b">
+        <v>89</v>
+      </c>
+      <c r="B192" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>440</v>
+      </c>
+      <c r="B193" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" s="6" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="6" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>65</v>
-      </c>
-      <c r="B195" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B196" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B197" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>431</v>
+        <v>64</v>
       </c>
       <c r="B198" t="s">
-        <v>432</v>
+        <v>63</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="B199" s="14" t="b">
-        <v>1</v>
+      <c r="A199" t="s">
+        <v>427</v>
+      </c>
+      <c r="B199" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B200" s="14" t="s">
-        <v>25</v>
+        <v>207</v>
+      </c>
+      <c r="B200" s="14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B201" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="B201" s="14" t="s">
+      <c r="B202" s="14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A202" t="s">
+    <row r="203" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A203" t="s">
         <v>68</v>
       </c>
-      <c r="B202" s="5" t="s">
+      <c r="B203" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" s="26" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B203" s="27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B204" s="29" t="s">
-        <v>126</v>
+      <c r="B204" s="27" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="28" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B205" s="29" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B206" s="29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B206" s="29" t="s">
+      <c r="B207" s="29" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="B207" s="31" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B208" s="31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B208" s="31" t="s">
+      <c r="B209" s="31" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A209" s="32" t="s">
+    <row r="210" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A210" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="B209" s="33" t="b">
+      <c r="B210" s="33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A211" s="6" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="6" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
-        <v>148</v>
-      </c>
-      <c r="B212" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B213" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B214" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>437</v>
+        <v>150</v>
       </c>
       <c r="B215" t="s">
-        <v>436</v>
+        <v>157</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A216" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B216" s="14" t="b">
-        <v>1</v>
+      <c r="A216" t="s">
+        <v>433</v>
+      </c>
+      <c r="B216" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="B217" s="14" t="s">
-        <v>25</v>
+        <v>199</v>
+      </c>
+      <c r="B217" s="14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B218" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="B218" s="14" t="s">
+      <c r="B219" s="14" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A219" t="s">
+    <row r="220" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A220" t="s">
         <v>151</v>
       </c>
-      <c r="B219" s="5" t="s">
+      <c r="B220" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A220" s="26" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B220" s="27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A221" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="B221" s="29" t="s">
-        <v>159</v>
+      <c r="B221" s="27" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B222" s="29" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B223" s="29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="B223" s="29" t="s">
+      <c r="B224" s="29" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A224" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B224" s="31" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B225" s="31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="B225" s="31" t="s">
+      <c r="B226" s="31" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A226" s="32" t="s">
+    <row r="227" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A227" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="B226" s="33" t="b">
+      <c r="B227" s="33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A228" s="6" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="6" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
-        <v>107</v>
-      </c>
-      <c r="B229" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B230" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B231" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>434</v>
+        <v>108</v>
       </c>
       <c r="B232" t="s">
-        <v>435</v>
+        <v>116</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A233" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B233" s="14" t="b">
-        <v>1</v>
+      <c r="A233" t="s">
+        <v>430</v>
+      </c>
+      <c r="B233" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="B234" s="14" t="s">
-        <v>25</v>
+        <v>196</v>
+      </c>
+      <c r="B234" s="14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B235" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B235" s="14" t="s">
+      <c r="B236" s="14" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
-        <v>110</v>
-      </c>
-      <c r="B236" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
+        <v>110</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
         <v>120</v>
       </c>
-      <c r="B237">
+      <c r="B238">
         <v>1237771234</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A238" t="s">
+    <row r="239" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A239" t="s">
         <v>121</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B239" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A239" s="26" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B239" s="27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A240" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="B240" s="29" t="s">
-        <v>124</v>
+      <c r="B240" s="27" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="28" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B241" s="29" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B242" s="29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B242" s="29" t="s">
+      <c r="B243" s="29" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A243" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="B243" s="31" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B244" s="31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="B244" s="31" t="s">
+      <c r="B245" s="31" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A245" s="32" t="s">
+    <row r="246" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A246" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="B245" s="33" t="b">
+      <c r="B246" s="33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A247" s="6" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="6" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
-        <v>129</v>
-      </c>
-      <c r="B248" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B249" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>133</v>
-      </c>
-      <c r="B250">
-        <v>4000</v>
+        <v>131</v>
+      </c>
+      <c r="B250" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>134</v>
-      </c>
-      <c r="B251" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="B251">
+        <v>4000</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
+        <v>134</v>
+      </c>
+      <c r="B252" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
         <v>136</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B253" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A253" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B253" s="15" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B254" s="15" t="s">
-        <v>66</v>
+        <v>138</v>
+      </c>
+      <c r="B254" s="15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="15" t="s">
-        <v>440</v>
+        <v>141</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>441</v>
+        <v>143</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B258" s="16" t="s">
-        <v>147</v>
+        <v>436</v>
+      </c>
+      <c r="B258" s="15" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B259" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B259" s="15" t="s">
+      <c r="B260" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A261" s="6" t="s">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" s="6" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A262" s="6"/>
-    </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A263" s="6" t="s">
+      <c r="A263" s="6"/>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" s="6" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A264" s="6"/>
-    </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A265" s="6" t="s">
+      <c r="A265" s="6"/>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" s="6" t="s">
         <v>345</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A266" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B267" s="2">
-        <v>0.41666666666666669</v>
+        <v>211</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
+      </c>
+      <c r="B268" s="2">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B272" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A273" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="B273" s="35" t="b">
+      <c r="B273" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B274" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="B274" s="35" t="s">
+      <c r="B275" s="35" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A275" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="B275" s="37" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="B276" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="B276" s="14" t="s">
+      <c r="B277" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A277" s="8" t="s">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B278" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A278" s="8"/>
-    </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A279" t="s">
+      <c r="A279" s="8"/>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
         <v>6</v>
       </c>
-      <c r="B279" s="3" t="s">
-        <v>407</v>
+      <c r="B280" s="3" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B202" r:id="rId1"/>
-    <hyperlink ref="B236" r:id="rId2"/>
-    <hyperlink ref="B258" r:id="rId3"/>
-    <hyperlink ref="B219" r:id="rId4"/>
-    <hyperlink ref="B171" r:id="rId5"/>
+    <hyperlink ref="B203" r:id="rId1"/>
+    <hyperlink ref="B237" r:id="rId2"/>
+    <hyperlink ref="B259" r:id="rId3"/>
+    <hyperlink ref="B220" r:id="rId4"/>
+    <hyperlink ref="B172" r:id="rId5"/>
     <hyperlink ref="B36" r:id="rId6"/>
     <hyperlink ref="B42" r:id="rId7"/>
     <hyperlink ref="B60" r:id="rId8"/>
@@ -4672,16 +4795,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -4689,540 +4814,931 @@
         <v>210</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C2" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="3"/>
+      <c r="C4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>371</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>365</v>
-      </c>
       <c r="B6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D6" t="s">
-        <v>264</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>283</v>
+        <v>369</v>
+      </c>
+      <c r="C6" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>366</v>
-      </c>
-      <c r="B7" t="s">
-        <v>266</v>
+        <v>365</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" t="s">
+        <v>488</v>
       </c>
       <c r="D7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" t="s">
+        <v>488</v>
+      </c>
+      <c r="D8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>367</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
+        <v>488</v>
+      </c>
+      <c r="D9" t="s">
         <v>267</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>368</v>
-      </c>
-      <c r="B9" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>372</v>
-      </c>
-      <c r="B10">
+        <v>486</v>
+      </c>
+      <c r="B10" t="s">
+        <v>368</v>
+      </c>
+      <c r="C10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11">
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>373</v>
-      </c>
-      <c r="B12" t="s">
-        <v>364</v>
+      <c r="C11" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B13" t="s">
-        <v>375</v>
+        <v>364</v>
+      </c>
+      <c r="C13" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>373</v>
+      </c>
+      <c r="B14" t="s">
+        <v>374</v>
+      </c>
+      <c r="C14" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B15" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="B14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B16" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>379</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="C17" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>380</v>
-      </c>
-      <c r="B16" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>381</v>
-      </c>
-      <c r="B17" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>382</v>
       </c>
       <c r="B18" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>382</v>
+      </c>
+      <c r="C19" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>387</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C20" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>388</v>
-      </c>
-      <c r="B23" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>389</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C22" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="25" t="s">
+        <v>527</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>521</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>525</v>
+      </c>
+      <c r="B31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+      <c r="C31" s="25" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>526</v>
+      </c>
+      <c r="B32">
+        <v>12345</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>490</v>
+      </c>
+      <c r="B34" t="s">
+        <v>491</v>
+      </c>
+      <c r="C34" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>492</v>
+      </c>
+      <c r="C35" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="B36" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>493</v>
+      </c>
+      <c r="B42" t="s">
+        <v>494</v>
+      </c>
+      <c r="C42" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="B43" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="B44" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="B51" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="43" t="s">
+        <v>497</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B55" s="2">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B32" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
+      <c r="B60" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B33" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
+      <c r="B61" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B34" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
+      <c r="B62" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B64" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B65" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>243</v>
-      </c>
-      <c r="B39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>244</v>
-      </c>
-      <c r="B40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>245</v>
-      </c>
-      <c r="B41">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>246</v>
-      </c>
-      <c r="B42" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>247</v>
-      </c>
-      <c r="B43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>248</v>
-      </c>
-      <c r="B44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>249</v>
-      </c>
-      <c r="B45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>250</v>
-      </c>
-      <c r="B46" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>251</v>
-      </c>
-      <c r="B47" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>252</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>253</v>
-      </c>
-      <c r="B49" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>254</v>
-      </c>
-      <c r="B50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>255</v>
-      </c>
-      <c r="B51" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>257</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>259</v>
-      </c>
-      <c r="B53" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>391</v>
-      </c>
-      <c r="B55" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>392</v>
-      </c>
-      <c r="B56" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>393</v>
-      </c>
-      <c r="B57" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>394</v>
-      </c>
-      <c r="B58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>395</v>
-      </c>
-      <c r="B59" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>396</v>
-      </c>
-      <c r="B60" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>397</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>398</v>
-      </c>
-      <c r="B62">
-        <v>1237771234</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>399</v>
-      </c>
-      <c r="B63" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>400</v>
-      </c>
-      <c r="B64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>401</v>
-      </c>
-      <c r="B65" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>402</v>
-      </c>
-      <c r="B66" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>403</v>
+        <v>243</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>404</v>
-      </c>
-      <c r="B68" t="b">
-        <v>1</v>
+        <v>244</v>
+      </c>
+      <c r="B68" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>405</v>
-      </c>
-      <c r="B69" t="s">
-        <v>162</v>
+        <v>245</v>
+      </c>
+      <c r="B69">
+        <v>4000</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>406</v>
-      </c>
-      <c r="B70" t="b">
+        <v>246</v>
+      </c>
+      <c r="B70" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>247</v>
+      </c>
+      <c r="B71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>248</v>
+      </c>
+      <c r="B72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>249</v>
+      </c>
+      <c r="B73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>250</v>
+      </c>
+      <c r="B74" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>251</v>
+      </c>
+      <c r="B75" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>252</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>253</v>
+      </c>
+      <c r="B77" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>254</v>
+      </c>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>255</v>
+      </c>
+      <c r="B79" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>257</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>259</v>
+      </c>
+      <c r="B81" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>387</v>
+      </c>
+      <c r="B83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>388</v>
+      </c>
+      <c r="B84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>389</v>
+      </c>
+      <c r="B85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>390</v>
+      </c>
+      <c r="B86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>391</v>
+      </c>
+      <c r="B87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>392</v>
+      </c>
+      <c r="B88" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>393</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>394</v>
+      </c>
+      <c r="B90">
+        <v>1237771234</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>395</v>
+      </c>
+      <c r="B91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>396</v>
+      </c>
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>397</v>
+      </c>
+      <c r="B93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>398</v>
+      </c>
+      <c r="B94" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>399</v>
+      </c>
+      <c r="B95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>400</v>
+      </c>
+      <c r="B96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>401</v>
+      </c>
+      <c r="B97" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>402</v>
+      </c>
+      <c r="B98" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B45:B49">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:B41">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B48" r:id="rId1"/>
-    <hyperlink ref="B52" r:id="rId2"/>
-    <hyperlink ref="B61" r:id="rId3"/>
+    <hyperlink ref="B76" r:id="rId1"/>
+    <hyperlink ref="B80" r:id="rId2"/>
+    <hyperlink ref="B89" r:id="rId3"/>
+    <hyperlink ref="B48" r:id="rId4"/>
+    <hyperlink ref="B40" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -5230,7 +5746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
@@ -5244,12 +5760,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -5257,10 +5773,10 @@
         <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -5268,13 +5784,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D4" t="s">
         <v>260</v>
       </c>
       <c r="E4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -5282,13 +5798,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D5" t="s">
         <v>261</v>
       </c>
       <c r="E5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -5296,13 +5812,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D6" t="s">
         <v>262</v>
       </c>
       <c r="E6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5310,21 +5826,21 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>263</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -5335,7 +5851,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B10" s="4"/>
     </row>
@@ -5492,7 +6008,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B32" s="2" t="str">
         <f>B5</f>
@@ -5501,7 +6017,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -5533,7 +6049,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -5558,7 +6074,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D40" t="s">
         <v>266</v>
@@ -5575,7 +6091,7 @@
         <v>12</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D41" t="s">
         <v>267</v>
@@ -5610,7 +6126,7 @@
         <v>268</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -5631,7 +6147,7 @@
         <v>286</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -5673,7 +6189,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B56" t="str">
         <f>B5</f>
@@ -5767,10 +6283,10 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B69" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -5903,7 +6419,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B87" s="12" t="b">
         <v>1</v>
@@ -5940,10 +6456,10 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B93" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -6041,10 +6557,10 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B107" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -6142,10 +6658,10 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B121" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -6331,10 +6847,10 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B146" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -6384,12 +6900,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -6397,10 +6913,10 @@
         <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -6408,13 +6924,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D4" t="s">
         <v>260</v>
       </c>
       <c r="E4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -6422,13 +6938,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D5" t="s">
         <v>261</v>
       </c>
       <c r="E5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -6436,13 +6952,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D6" t="s">
         <v>262</v>
       </c>
       <c r="E6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6450,21 +6966,21 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>263</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -6475,7 +6991,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B10" s="4"/>
     </row>
@@ -6632,7 +7148,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B32" s="2" t="str">
         <f>B5</f>
@@ -6641,7 +7157,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -6670,7 +7186,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -6686,7 +7202,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -6694,7 +7210,7 @@
         <v>12</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -6720,7 +7236,7 @@
         <v>268</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -6741,7 +7257,7 @@
         <v>286</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -6783,7 +7299,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B56" t="str">
         <f>B5</f>
@@ -6877,10 +7393,10 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B69" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -7013,7 +7529,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B87" s="12" t="b">
         <v>1</v>
@@ -7050,10 +7566,10 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B93" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -7151,10 +7667,10 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B107" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -7252,10 +7768,10 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B121" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -7441,10 +7957,10 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B146" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -7494,12 +8010,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -7507,10 +8023,10 @@
         <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -7518,13 +8034,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D4" t="s">
         <v>260</v>
       </c>
       <c r="E4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -7532,13 +8048,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D5" t="s">
         <v>261</v>
       </c>
       <c r="E5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -7546,13 +8062,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D6" t="s">
         <v>262</v>
       </c>
       <c r="E6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7560,21 +8076,21 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>263</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -7585,7 +8101,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B10" s="4"/>
     </row>
@@ -7742,7 +8258,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B32" s="2" t="str">
         <f>B5</f>
@@ -7751,7 +8267,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -7780,7 +8296,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -7830,7 +8346,7 @@
         <v>268</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -7851,7 +8367,7 @@
         <v>286</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -7893,7 +8409,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B56" t="str">
         <f>B5</f>
@@ -7987,10 +8503,10 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B69" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -8152,10 +8668,10 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B92" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -8253,10 +8769,10 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B106" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -8354,10 +8870,10 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B120" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -8543,10 +9059,10 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B145" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -8596,12 +9112,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -8609,10 +9125,10 @@
         <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -8620,13 +9136,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D4" t="s">
         <v>260</v>
       </c>
       <c r="E4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -8634,13 +9150,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D5" t="s">
         <v>261</v>
       </c>
       <c r="E5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -8648,13 +9164,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D6" t="s">
         <v>262</v>
       </c>
       <c r="E6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8662,21 +9178,21 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>263</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -8687,7 +9203,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B10" s="4"/>
     </row>
@@ -8844,7 +9360,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B32" s="2" t="str">
         <f>B5</f>
@@ -8853,7 +9369,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -8882,7 +9398,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -8898,7 +9414,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -8906,7 +9422,7 @@
         <v>12</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -8932,7 +9448,7 @@
         <v>268</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -8953,7 +9469,7 @@
         <v>286</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -8995,7 +9511,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B56" t="str">
         <f>B5</f>
@@ -9089,10 +9605,10 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B69" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -9254,10 +9770,10 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B92" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -9355,10 +9871,10 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B106" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -9456,10 +9972,10 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B120" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -9645,10 +10161,10 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B145" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="637">
   <si>
     <t>ITB/10000002</t>
   </si>
@@ -1487,9 +1487,6 @@
     <t>Fnol_Step2_Confirm_HasChanges</t>
   </si>
   <si>
-    <t>000-00-000107</t>
-  </si>
-  <si>
     <t>PostFnol_LossDetails_FaultRate</t>
   </si>
   <si>
@@ -1617,6 +1614,333 @@
   </si>
   <si>
     <t>New</t>
+  </si>
+  <si>
+    <t>This is for new police details</t>
+  </si>
+  <si>
+    <t>This is for New property details</t>
+  </si>
+  <si>
+    <t>This is for new pedestrian details</t>
+  </si>
+  <si>
+    <t>These are the main fields on the loss details screen</t>
+  </si>
+  <si>
+    <t>This is for change fields when editing pedestrian</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>Walkering</t>
+  </si>
+  <si>
+    <t>This person was just ambling along the road</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PedestrianPrefix</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PedestrianFirstName</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PedestrianLastName</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PedestrianPostcodeSearch</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PedestrianPostcode</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PedestrianPostcodeAddress</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PedestrianEmail</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PedestrianMobile</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PedestrianNotes</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PedestrianInjured</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PedestrianInjDesc</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PedestrianInj1BodyArea</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PedestrianInj1Detailed</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PedestrianInjHospAttend</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PedestrianInjHospSearchName</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PedestrianInjHospOvernight</t>
+  </si>
+  <si>
+    <t>28/01/2019</t>
+  </si>
+  <si>
+    <t>carl robertson</t>
+  </si>
+  <si>
+    <t>1 Bowes Gardens, Springwell, Gateshead, NE9 7NZ</t>
+  </si>
+  <si>
+    <t>000-00-000005</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Spinal Damage</t>
+  </si>
+  <si>
+    <t>suffered sever trauma</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>PostFnol_Name</t>
+  </si>
+  <si>
+    <t>These are notes for the main driver which have been amended</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverIsInsuredPerson</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverFullName</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverEmail</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverMobile</t>
+  </si>
+  <si>
+    <t>crobertson@gmail.com</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverNotes</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverOccupation</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverLicenseType</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverInjured</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverInj1BodyArea</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverInjDesc</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverInj1Detailed</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverInjHospAttend</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverInjHospSearchName</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverInjHospOvernight</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHPassengerPrefix</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHPassengerFirstName</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHPassengerLastName</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHPassengerFullName</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHPassengerPostcodeSearch</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHPassengerPostcode</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHPassengerPostcodeAddress</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHPassengerrEmail</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHPassengerInjured</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHPassengerInjDesc</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHPassengerInj1BodyArea</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHPassengerInj1Detailed</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHPassengerInjHospAttend</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHPassengerInjHospSearchName</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHPassengerInjHospOvernight</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverPrefix</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverFirstName</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverMiddleName</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverLastName</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverGender</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverDob</t>
+  </si>
+  <si>
+    <t>01/01/2000</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>Robertson</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverWorkPhone</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverHomePhone</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverAltEmail</t>
+  </si>
+  <si>
+    <t>someone@gmail.com</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverNiNo</t>
+  </si>
+  <si>
+    <t>WB017988B</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverLicenseNo</t>
+  </si>
+  <si>
+    <t>DL123456789</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHDriverPrimaryPhone</t>
+  </si>
+  <si>
+    <t>PH Driver edit details</t>
+  </si>
+  <si>
+    <t>TP driver edit details</t>
+  </si>
+  <si>
+    <t>EditPostFnol_TPDriverPrefix</t>
+  </si>
+  <si>
+    <t>EditPostFnol_TPDriverFirstName</t>
+  </si>
+  <si>
+    <t>EditPostFnol_TPDriverMiddleName</t>
+  </si>
+  <si>
+    <t>EditPostFnol_TPDriverLastName</t>
+  </si>
+  <si>
+    <t>EditPostFnol_TPDriverGender</t>
+  </si>
+  <si>
+    <t>EditPostFnol_TPDriverDob</t>
+  </si>
+  <si>
+    <t>EditPostFnol_TPDriverWorkPhone</t>
+  </si>
+  <si>
+    <t>EditPostFnol_TPDriverHomePhone</t>
+  </si>
+  <si>
+    <t>EditPostFnol_TPDriverEmail</t>
+  </si>
+  <si>
+    <t>EditPostFnol_TPDriverMobile</t>
+  </si>
+  <si>
+    <t>EditPostFnol_TPDriverPrimaryPhone</t>
+  </si>
+  <si>
+    <t>EditPostFnol_TPDriverAltEmail</t>
+  </si>
+  <si>
+    <t>EditPostFnol_TPDriverNiNo</t>
+  </si>
+  <si>
+    <t>EditPostFnol_TPDriverLicenseNo</t>
+  </si>
+  <si>
+    <t>EditPostFnol_TPDriverNotes</t>
+  </si>
+  <si>
+    <t>EditPostFnol_TPDriverInjured</t>
+  </si>
+  <si>
+    <t>EditPostFnol_TPDriverInj1BodyArea</t>
+  </si>
+  <si>
+    <t>EditPostFnol_TPDriverInjDesc</t>
+  </si>
+  <si>
+    <t>EditPostFnol_TPDriverInj1Detailed</t>
+  </si>
+  <si>
+    <t>EditPostFnol_TPDriverInjHospAttend</t>
+  </si>
+  <si>
+    <t>EditPostFnol_TPDriverInjHospSearchName</t>
+  </si>
+  <si>
+    <t>EditPostFnol_TPDriverInjHospOvernight</t>
   </si>
 </sst>
 </file>
@@ -1804,7 +2128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1860,12 +2184,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2220,8 +2606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I280"/>
   <sheetViews>
-    <sheetView topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="B236" sqref="B236"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153:XFD153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2245,8 +2631,8 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>410</v>
+      <c r="B3" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="D3" t="s">
         <v>260</v>
@@ -2257,7 +2643,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>409</v>
+        <v>553</v>
       </c>
       <c r="D4" t="s">
         <v>261</v>
@@ -2279,7 +2665,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>407</v>
+        <v>554</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>263</v>
@@ -2290,7 +2676,7 @@
         <v>417</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>411</v>
+        <v>552</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -2434,7 +2820,7 @@
       </c>
       <c r="B27" s="11" t="str">
         <f>B7</f>
-        <v>23/01/2019</v>
+        <v>28/01/2019</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -2588,7 +2974,7 @@
       </c>
       <c r="B47" s="20" t="str">
         <f>B4</f>
-        <v>Test Sprint5</v>
+        <v>carl robertson</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -2737,10 +3123,10 @@
     </row>
     <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
+        <v>511</v>
+      </c>
+      <c r="B69" t="s">
         <v>512</v>
-      </c>
-      <c r="B69" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -2994,7 +3380,7 @@
       </c>
       <c r="B99" s="1" t="str">
         <f>B7</f>
-        <v>23/01/2019</v>
+        <v>28/01/2019</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -3083,7 +3469,7 @@
       </c>
       <c r="B110" s="1" t="str">
         <f>B7</f>
-        <v>23/01/2019</v>
+        <v>28/01/2019</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -3100,7 +3486,7 @@
       </c>
       <c r="B112" s="1" t="str">
         <f>B7</f>
-        <v>23/01/2019</v>
+        <v>28/01/2019</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -3504,7 +3890,7 @@
       </c>
       <c r="B152" s="15" t="str">
         <f>B4</f>
-        <v>Test Sprint5</v>
+        <v>carl robertson</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -4438,13 +4824,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4795,10 +5181,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4816,7 +5202,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C2" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -4824,921 +5210,2026 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>407</v>
+        <v>554</v>
       </c>
       <c r="C4" t="s">
-        <v>489</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>263</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="A5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>370</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>369</v>
       </c>
-      <c r="C6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="C8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>365</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B9" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="C7" t="s">
-        <v>488</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C9" t="s">
+        <v>487</v>
+      </c>
+      <c r="D9" t="s">
         <v>264</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I9" t="s">
         <v>283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>366</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="C8" t="s">
-        <v>488</v>
-      </c>
-      <c r="D8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>367</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="C9" t="s">
-        <v>488</v>
-      </c>
-      <c r="D9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>486</v>
-      </c>
-      <c r="B10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" t="s">
+        <v>487</v>
+      </c>
+      <c r="D10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" t="s">
+        <v>487</v>
+      </c>
+      <c r="D11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>485</v>
+      </c>
+      <c r="B12" t="s">
         <v>368</v>
       </c>
-      <c r="C10" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>371</v>
-      </c>
-      <c r="B11">
-        <v>75</v>
-      </c>
-      <c r="C11" t="s">
-        <v>488</v>
+      <c r="C12" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>371</v>
+      </c>
+      <c r="B13">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>372</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>364</v>
       </c>
-      <c r="C13" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="C15" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>373</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>374</v>
       </c>
-      <c r="C14" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
+      <c r="C16" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="B15" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
+      <c r="B17" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>379</v>
-      </c>
-      <c r="B17" t="s">
-        <v>376</v>
-      </c>
-      <c r="C17" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>380</v>
-      </c>
-      <c r="B18" t="s">
-        <v>383</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C18" s="15" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B19" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>380</v>
+      </c>
+      <c r="B20" t="s">
+        <v>383</v>
+      </c>
+      <c r="C20" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>381</v>
+      </c>
+      <c r="B21" t="s">
+        <v>382</v>
+      </c>
+      <c r="C21" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>384</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="C20" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
+      <c r="C22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>488</v>
+      <c r="C23" s="15" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="B25" s="15" t="s">
+      <c r="B27" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="25" t="s">
+      <c r="C27" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>528</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="25" t="s">
-        <v>517</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="25" t="s">
-        <v>518</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>522</v>
-      </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="15" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="B29" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="B29" s="25" t="s">
-        <v>521</v>
-      </c>
       <c r="C29" s="25" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>521</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="B32" s="25" t="s">
         <v>523</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="C32" s="25" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>524</v>
       </c>
-      <c r="C30" s="25" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>525</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="25" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>526</v>
-      </c>
-      <c r="B32">
-        <v>12345</v>
-      </c>
-      <c r="C32" s="25" t="s">
+      <c r="C33" s="25" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>525</v>
+      </c>
+      <c r="B34">
+        <v>12345</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>489</v>
+      </c>
+      <c r="B36" t="s">
         <v>490</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C36" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>491</v>
       </c>
-      <c r="C34" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>492</v>
-      </c>
-      <c r="C35" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="B36" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>489</v>
+      <c r="C37" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>446</v>
+        <v>505</v>
+      </c>
+      <c r="B38" s="15" t="b">
+        <v>1</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>448</v>
+        <v>114</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="s">
-        <v>510</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>450</v>
+        <v>507</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>446</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>493</v>
-      </c>
-      <c r="B42" t="s">
-        <v>494</v>
-      </c>
-      <c r="C42" t="s">
-        <v>489</v>
+      <c r="A42" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="B43" s="15" t="b">
-        <v>0</v>
+        <v>510</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>452</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="B44" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>489</v>
+      <c r="A44" t="s">
+        <v>492</v>
+      </c>
+      <c r="B44" t="s">
+        <v>493</v>
+      </c>
+      <c r="C44" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="15" t="s">
-        <v>500</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>114</v>
+        <v>494</v>
+      </c>
+      <c r="B45" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>475</v>
+        <v>504</v>
+      </c>
+      <c r="B46" s="15" t="b">
+        <v>1</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>476</v>
+        <v>114</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="B49" s="15" t="s">
+      <c r="B51" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="25" t="s">
-        <v>499</v>
-      </c>
-      <c r="B50" s="25" t="s">
+      <c r="C51" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="B52" s="25" t="s">
         <v>443</v>
       </c>
-      <c r="C50" s="25" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="43" t="s">
+      <c r="C52" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="43" t="s">
+        <v>495</v>
+      </c>
+      <c r="B53" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="43" t="s">
         <v>496</v>
       </c>
-      <c r="B51" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="C51" s="43" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="43" t="s">
+      <c r="B54" s="43" t="s">
         <v>497</v>
       </c>
-      <c r="B52" s="43" t="s">
-        <v>498</v>
-      </c>
-      <c r="C52" s="43" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="8" t="s">
+      <c r="C54" s="43" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="49" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="B57" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="B58" s="15" t="str">
+        <f>B5</f>
+        <v>carl robertson</v>
+      </c>
+      <c r="C58" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>592</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>593</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>601</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>594</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>595</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>596</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>598</v>
+      </c>
+      <c r="B64" s="48" t="s">
+        <v>599</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>604</v>
+      </c>
+      <c r="B65" s="48">
+        <v>1919996666</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>605</v>
+      </c>
+      <c r="B66" s="25">
+        <v>7771438976</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>564</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C67" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>565</v>
+      </c>
+      <c r="B68">
+        <v>1237771299</v>
+      </c>
+      <c r="C68" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>612</v>
+      </c>
+      <c r="B69" t="s">
+        <v>465</v>
+      </c>
+      <c r="C69" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>606</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="C70" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>608</v>
+      </c>
+      <c r="B71" t="s">
+        <v>609</v>
+      </c>
+      <c r="C71" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>610</v>
+      </c>
+      <c r="B72" t="s">
+        <v>611</v>
+      </c>
+      <c r="C72" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>567</v>
+      </c>
+      <c r="B73" t="s">
+        <v>561</v>
+      </c>
+      <c r="C73" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>568</v>
+      </c>
+      <c r="B74" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>569</v>
+      </c>
+      <c r="B75" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="B76" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="28" t="s">
+        <v>571</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="28" t="s">
+        <v>573</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="B80" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="B82" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="50"/>
+      <c r="B83" s="50"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="51" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>615</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>616</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>601</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>617</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>618</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>619</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>620</v>
+      </c>
+      <c r="B90" s="48" t="s">
+        <v>599</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>621</v>
+      </c>
+      <c r="B91" s="48">
+        <v>1919996666</v>
+      </c>
+      <c r="C91" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>622</v>
+      </c>
+      <c r="B92" s="25">
+        <v>7771438976</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>623</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C93" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>624</v>
+      </c>
+      <c r="B94">
+        <v>1237771299</v>
+      </c>
+      <c r="C94" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>625</v>
+      </c>
+      <c r="B95" t="s">
+        <v>465</v>
+      </c>
+      <c r="C95" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>626</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="C96" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>627</v>
+      </c>
+      <c r="B97" t="s">
+        <v>609</v>
+      </c>
+      <c r="C97" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>628</v>
+      </c>
+      <c r="B98" t="s">
+        <v>611</v>
+      </c>
+      <c r="C98" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>629</v>
+      </c>
+      <c r="B99" t="s">
+        <v>561</v>
+      </c>
+      <c r="C99" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="B100" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="28" t="s">
+        <v>631</v>
+      </c>
+      <c r="B101" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B102" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C102" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="B103" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="30" t="s">
+        <v>634</v>
+      </c>
+      <c r="B104" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="30" t="s">
+        <v>635</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="32" t="s">
+        <v>636</v>
+      </c>
+      <c r="B106" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="50"/>
+      <c r="B107" s="50"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>577</v>
+      </c>
+      <c r="B108" t="s">
+        <v>66</v>
+      </c>
+      <c r="C108" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>578</v>
+      </c>
+      <c r="B109" t="s">
+        <v>189</v>
+      </c>
+      <c r="C109" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>579</v>
+      </c>
+      <c r="B110" t="s">
+        <v>190</v>
+      </c>
+      <c r="C110" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>580</v>
+      </c>
+      <c r="B111" t="s">
+        <v>435</v>
+      </c>
+      <c r="C111" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="B112" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C114" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>584</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C115" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="B116" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="B117" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C117" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="B118" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C118" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="28" t="s">
+        <v>588</v>
+      </c>
+      <c r="B119" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C119" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="30" t="s">
+        <v>589</v>
+      </c>
+      <c r="B120" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="B121" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C121" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="32" t="s">
+        <v>591</v>
+      </c>
+      <c r="B122" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="47"/>
+      <c r="B123" s="47"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>243</v>
+      </c>
+      <c r="B125" t="s">
+        <v>130</v>
+      </c>
+      <c r="C125" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>244</v>
+      </c>
+      <c r="B126" t="s">
+        <v>132</v>
+      </c>
+      <c r="C126" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>245</v>
+      </c>
+      <c r="B127">
+        <v>4000</v>
+      </c>
+      <c r="C127" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>246</v>
+      </c>
+      <c r="B128" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>247</v>
+      </c>
+      <c r="B129" t="s">
+        <v>137</v>
+      </c>
+      <c r="C129" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>248</v>
+      </c>
+      <c r="B130" t="b">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>249</v>
+      </c>
+      <c r="B131" t="s">
+        <v>66</v>
+      </c>
+      <c r="C131" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>250</v>
+      </c>
+      <c r="B132" t="s">
+        <v>142</v>
+      </c>
+      <c r="C132" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>251</v>
+      </c>
+      <c r="B133" t="s">
+        <v>143</v>
+      </c>
+      <c r="C133" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>252</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C134" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>253</v>
+      </c>
+      <c r="B135" t="s">
+        <v>145</v>
+      </c>
+      <c r="C135" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>254</v>
+      </c>
+      <c r="B136" t="b">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>255</v>
+      </c>
+      <c r="B137" t="s">
+        <v>256</v>
+      </c>
+      <c r="C137" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>257</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C138" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>259</v>
+      </c>
+      <c r="B139" t="s">
+        <v>145</v>
+      </c>
+      <c r="C139" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>387</v>
+      </c>
+      <c r="B142" t="s">
+        <v>114</v>
+      </c>
+      <c r="C142" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>388</v>
+      </c>
+      <c r="B143" t="s">
+        <v>115</v>
+      </c>
+      <c r="C143" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>389</v>
+      </c>
+      <c r="B144" t="s">
+        <v>116</v>
+      </c>
+      <c r="C144" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>390</v>
+      </c>
+      <c r="B145" t="b">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>391</v>
+      </c>
+      <c r="B146" t="s">
+        <v>25</v>
+      </c>
+      <c r="C146" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>392</v>
+      </c>
+      <c r="B147" t="s">
+        <v>195</v>
+      </c>
+      <c r="C147" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>393</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C148" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>394</v>
+      </c>
+      <c r="B149">
+        <v>1237771234</v>
+      </c>
+      <c r="C149" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>395</v>
+      </c>
+      <c r="B150" t="s">
+        <v>122</v>
+      </c>
+      <c r="C150" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>396</v>
+      </c>
+      <c r="B151" t="b">
+        <v>1</v>
+      </c>
+      <c r="C151" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>397</v>
+      </c>
+      <c r="B152" t="s">
+        <v>124</v>
+      </c>
+      <c r="C152" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>398</v>
+      </c>
+      <c r="B153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C153" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>399</v>
+      </c>
+      <c r="B154" t="s">
+        <v>119</v>
+      </c>
+      <c r="C154" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>400</v>
+      </c>
+      <c r="B155" t="b">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>401</v>
+      </c>
+      <c r="B156" t="s">
+        <v>162</v>
+      </c>
+      <c r="C156" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>402</v>
+      </c>
+      <c r="B157" t="b">
+        <v>0</v>
+      </c>
+      <c r="C157" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C158" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>536</v>
+      </c>
+      <c r="B159" t="s">
+        <v>114</v>
+      </c>
+      <c r="C159" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>537</v>
+      </c>
+      <c r="B160" t="s">
+        <v>533</v>
+      </c>
+      <c r="C160" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>538</v>
+      </c>
+      <c r="B161" t="s">
+        <v>534</v>
+      </c>
+      <c r="C161" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="B162" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C162" s="15" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="B163" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C163" s="15" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C164" s="15" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>542</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C165" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>543</v>
+      </c>
+      <c r="B166">
+        <v>1237771234</v>
+      </c>
+      <c r="C166" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>544</v>
+      </c>
+      <c r="B167" t="s">
+        <v>535</v>
+      </c>
+      <c r="C167" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>545</v>
+      </c>
+      <c r="B168" t="b">
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>546</v>
+      </c>
+      <c r="B169" t="s">
+        <v>558</v>
+      </c>
+      <c r="C169" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>547</v>
+      </c>
+      <c r="B170" t="s">
+        <v>556</v>
+      </c>
+      <c r="C170" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>548</v>
+      </c>
+      <c r="B171" t="s">
+        <v>557</v>
+      </c>
+      <c r="C171" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>549</v>
+      </c>
+      <c r="B172" t="b">
+        <v>0</v>
+      </c>
+      <c r="C172" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>550</v>
+      </c>
+      <c r="B173" t="s">
+        <v>162</v>
+      </c>
+      <c r="C173" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>551</v>
+      </c>
+      <c r="B174" t="b">
+        <v>0</v>
+      </c>
+      <c r="C174" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C176" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B177" s="3" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="8" t="s">
+      <c r="C177" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B178" s="2">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="8" t="s">
+      <c r="C178" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B179" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="8" t="s">
+      <c r="C179" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B180" s="3" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="8" t="s">
+      <c r="C180" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B181" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="8" t="s">
+      <c r="C181" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B182" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="8" t="s">
+      <c r="C182" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B60" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="8" t="s">
+      <c r="B183" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C183" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B61" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="8" t="s">
+      <c r="B184" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C184" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B62" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="8" t="s">
+      <c r="B185" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B186" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="8" t="s">
+      <c r="C186" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B187" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="8" t="s">
+      <c r="C187" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B188" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>243</v>
-      </c>
-      <c r="B67" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>244</v>
-      </c>
-      <c r="B68" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>245</v>
-      </c>
-      <c r="B69">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>246</v>
-      </c>
-      <c r="B70" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>247</v>
-      </c>
-      <c r="B71" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>248</v>
-      </c>
-      <c r="B72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>249</v>
-      </c>
-      <c r="B73" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>250</v>
-      </c>
-      <c r="B74" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>251</v>
-      </c>
-      <c r="B75" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>252</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>253</v>
-      </c>
-      <c r="B77" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>254</v>
-      </c>
-      <c r="B78" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>255</v>
-      </c>
-      <c r="B79" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>257</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>259</v>
-      </c>
-      <c r="B81" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>387</v>
-      </c>
-      <c r="B83" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>388</v>
-      </c>
-      <c r="B84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>389</v>
-      </c>
-      <c r="B85" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>390</v>
-      </c>
-      <c r="B86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>391</v>
-      </c>
-      <c r="B87" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>392</v>
-      </c>
-      <c r="B88" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>393</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>394</v>
-      </c>
-      <c r="B90">
-        <v>1237771234</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>395</v>
-      </c>
-      <c r="B91" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>396</v>
-      </c>
-      <c r="B92" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>397</v>
-      </c>
-      <c r="B93" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>398</v>
-      </c>
-      <c r="B94" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>399</v>
-      </c>
-      <c r="B95" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>400</v>
-      </c>
-      <c r="B96" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>401</v>
-      </c>
-      <c r="B97" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>402</v>
-      </c>
-      <c r="B98" t="b">
-        <v>0</v>
+      <c r="C188" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B45:B49">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+  <conditionalFormatting sqref="B47:B51 B73:B83 B61:B66 B85:B86 B99:B107">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:B41">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+  <conditionalFormatting sqref="B38:B43">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="B4:B5">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57:B60">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B108:B123">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B87:B92">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B76" r:id="rId1"/>
-    <hyperlink ref="B80" r:id="rId2"/>
-    <hyperlink ref="B89" r:id="rId3"/>
-    <hyperlink ref="B48" r:id="rId4"/>
-    <hyperlink ref="B40" r:id="rId5"/>
+    <hyperlink ref="B134" r:id="rId1"/>
+    <hyperlink ref="B138" r:id="rId2"/>
+    <hyperlink ref="B148" r:id="rId3"/>
+    <hyperlink ref="B50" r:id="rId4"/>
+    <hyperlink ref="B42" r:id="rId5"/>
+    <hyperlink ref="B165" r:id="rId6"/>
+    <hyperlink ref="B67" r:id="rId7"/>
+    <hyperlink ref="B115" r:id="rId8"/>
+    <hyperlink ref="B70" r:id="rId9"/>
+    <hyperlink ref="B93" r:id="rId10"/>
+    <hyperlink ref="B96" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="648">
   <si>
     <t>ITB/10000002</t>
   </si>
@@ -1688,15 +1688,6 @@
     <t>EditPostFnol_PedestrianInjHospOvernight</t>
   </si>
   <si>
-    <t>28/01/2019</t>
-  </si>
-  <si>
-    <t>carl robertson</t>
-  </si>
-  <si>
-    <t>1 Bowes Gardens, Springwell, Gateshead, NE9 7NZ</t>
-  </si>
-  <si>
     <t>000-00-000005</t>
   </si>
   <si>
@@ -1941,6 +1932,48 @@
   </si>
   <si>
     <t>EditPostFnol_TPDriverInjHospOvernight</t>
+  </si>
+  <si>
+    <t>ITB/11000002</t>
+  </si>
+  <si>
+    <t>steve anderson</t>
+  </si>
+  <si>
+    <t>7 Fieldside, Sunderland, SR6 7LA</t>
+  </si>
+  <si>
+    <t>30/01/2019</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHPassengerAddMoj</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHPassengerMojType</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHPassengerMojCreateDate</t>
+  </si>
+  <si>
+    <t>MOJ Stage 3 Settled Infant Approval</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHPassengerMojInsuredLiabilityPerc</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHPassengerMojClaimantLiabilityPerc</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHPassengerMojOtherLiabilityPerc</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHPassengerMojLowDamages</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHPassengerMojHighDamages</t>
+  </si>
+  <si>
+    <t>EditPostFnol_PHPassengerMojOfferDamages</t>
   </si>
 </sst>
 </file>
@@ -1972,7 +2005,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2012,6 +2045,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2128,7 +2167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -2184,11 +2223,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2606,8 +2647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I280"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153:XFD153"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2632,7 +2673,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>260</v>
+        <v>634</v>
       </c>
       <c r="D3" t="s">
         <v>260</v>
@@ -2643,7 +2684,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>553</v>
+        <v>635</v>
       </c>
       <c r="D4" t="s">
         <v>261</v>
@@ -2665,7 +2706,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>554</v>
+        <v>636</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>263</v>
@@ -2676,7 +2717,7 @@
         <v>417</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>552</v>
+        <v>637</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -2820,7 +2861,7 @@
       </c>
       <c r="B27" s="11" t="str">
         <f>B7</f>
-        <v>28/01/2019</v>
+        <v>30/01/2019</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -2974,7 +3015,7 @@
       </c>
       <c r="B47" s="20" t="str">
         <f>B4</f>
-        <v>carl robertson</v>
+        <v>steve anderson</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -3380,7 +3421,7 @@
       </c>
       <c r="B99" s="1" t="str">
         <f>B7</f>
-        <v>28/01/2019</v>
+        <v>30/01/2019</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -3469,7 +3510,7 @@
       </c>
       <c r="B110" s="1" t="str">
         <f>B7</f>
-        <v>28/01/2019</v>
+        <v>30/01/2019</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -3486,7 +3527,7 @@
       </c>
       <c r="B112" s="1" t="str">
         <f>B7</f>
-        <v>28/01/2019</v>
+        <v>30/01/2019</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -3890,7 +3931,7 @@
       </c>
       <c r="B152" s="15" t="str">
         <f>B4</f>
-        <v>carl robertson</v>
+        <v>steve anderson</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -5181,15 +5222,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:I197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.36328125" bestFit="1" customWidth="1"/>
@@ -5210,7 +5251,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -5218,7 +5259,7 @@
         <v>513</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>554</v>
+        <v>636</v>
       </c>
       <c r="C4" t="s">
         <v>488</v>
@@ -5227,10 +5268,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>553</v>
+        <v>635</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -5759,12 +5800,12 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="49" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B57" s="15" t="b">
         <v>1</v>
@@ -5775,11 +5816,11 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="15" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B58" s="15" t="str">
         <f>B5</f>
-        <v>carl robertson</v>
+        <v>steve anderson</v>
       </c>
       <c r="C58" t="s">
         <v>488</v>
@@ -5787,10 +5828,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C59" s="25" t="s">
         <v>488</v>
@@ -5798,10 +5839,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C60" s="25" t="s">
         <v>488</v>
@@ -5809,10 +5850,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C61" s="25" t="s">
         <v>488</v>
@@ -5820,10 +5861,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C62" s="25" t="s">
         <v>488</v>
@@ -5831,10 +5872,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C63" s="25" t="s">
         <v>488</v>
@@ -5842,10 +5883,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B64" s="48" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>488</v>
@@ -5853,7 +5894,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B65" s="48">
         <v>1919996666</v>
@@ -5864,7 +5905,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B66" s="25">
         <v>7771438976</v>
@@ -5875,10 +5916,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C67" t="s">
         <v>488</v>
@@ -5886,7 +5927,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B68">
         <v>1237771299</v>
@@ -5897,7 +5938,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B69" t="s">
         <v>465</v>
@@ -5908,10 +5949,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C70" t="s">
         <v>488</v>
@@ -5919,10 +5960,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B71" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C71" t="s">
         <v>488</v>
@@ -5930,10 +5971,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B72" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C72" t="s">
         <v>488</v>
@@ -5941,10 +5982,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B73" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C73" t="s">
         <v>488</v>
@@ -5952,7 +5993,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B74" t="s">
         <v>58</v>
@@ -5963,7 +6004,7 @@
     </row>
     <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B75" t="s">
         <v>59</v>
@@ -5974,7 +6015,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="26" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B76" s="27" t="b">
         <v>1</v>
@@ -5985,7 +6026,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="28" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B77" s="29" t="s">
         <v>102</v>
@@ -5996,7 +6037,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="28" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B78" s="29" t="s">
         <v>128</v>
@@ -6007,7 +6048,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="28" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B79" s="29" t="s">
         <v>103</v>
@@ -6018,7 +6059,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="30" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B80" s="31" t="b">
         <v>1</v>
@@ -6029,7 +6070,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="30" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B81" s="31" t="s">
         <v>162</v>
@@ -6040,7 +6081,7 @@
     </row>
     <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="32" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B82" s="33" t="b">
         <v>1</v>
@@ -6055,15 +6096,15 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="51" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C85" s="25" t="s">
         <v>488</v>
@@ -6071,10 +6112,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C86" s="25" t="s">
         <v>488</v>
@@ -6082,10 +6123,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C87" s="25" t="s">
         <v>488</v>
@@ -6093,10 +6134,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C88" s="25" t="s">
         <v>488</v>
@@ -6104,10 +6145,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C89" s="25" t="s">
         <v>488</v>
@@ -6115,10 +6156,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B90" s="48" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C90" s="25" t="s">
         <v>488</v>
@@ -6126,7 +6167,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B91" s="48">
         <v>1919996666</v>
@@ -6137,7 +6178,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B92" s="25">
         <v>7771438976</v>
@@ -6148,10 +6189,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C93" t="s">
         <v>488</v>
@@ -6159,7 +6200,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B94">
         <v>1237771299</v>
@@ -6170,7 +6211,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B95" t="s">
         <v>465</v>
@@ -6181,10 +6222,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C96" t="s">
         <v>488</v>
@@ -6192,10 +6233,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B97" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C97" t="s">
         <v>488</v>
@@ -6203,10 +6244,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B98" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C98" t="s">
         <v>488</v>
@@ -6214,10 +6255,10 @@
     </row>
     <row r="99" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B99" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C99" t="s">
         <v>488</v>
@@ -6225,7 +6266,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="26" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B100" s="27" t="b">
         <v>1</v>
@@ -6236,7 +6277,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="28" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B101" s="29" t="s">
         <v>102</v>
@@ -6247,7 +6288,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="28" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B102" s="29" t="s">
         <v>128</v>
@@ -6258,7 +6299,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="28" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B103" s="29" t="s">
         <v>103</v>
@@ -6269,7 +6310,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="30" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B104" s="31" t="b">
         <v>1</v>
@@ -6280,7 +6321,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="30" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B105" s="31" t="s">
         <v>162</v>
@@ -6291,7 +6332,7 @@
     </row>
     <row r="106" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="32" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B106" s="33" t="b">
         <v>1</v>
@@ -6306,7 +6347,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B108" t="s">
         <v>66</v>
@@ -6317,7 +6358,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B109" t="s">
         <v>189</v>
@@ -6328,7 +6369,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B110" t="s">
         <v>190</v>
@@ -6339,7 +6380,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B111" t="s">
         <v>435</v>
@@ -6350,7 +6391,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="14" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B112" s="14" t="b">
         <v>1</v>
@@ -6361,7 +6402,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="14" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B113" s="14" t="s">
         <v>25</v>
@@ -6372,7 +6413,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="14" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>202</v>
@@ -6383,7 +6424,7 @@
     </row>
     <row r="115" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>191</v>
@@ -6394,7 +6435,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="26" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B116" s="27" t="b">
         <v>1</v>
@@ -6405,7 +6446,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="28" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B117" s="29" t="s">
         <v>192</v>
@@ -6416,7 +6457,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="28" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B118" s="29" t="s">
         <v>96</v>
@@ -6427,7 +6468,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="28" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B119" s="29" t="s">
         <v>97</v>
@@ -6438,7 +6479,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="30" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B120" s="31" t="b">
         <v>0</v>
@@ -6449,7 +6490,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="30" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B121" s="34" t="s">
         <v>193</v>
@@ -6460,7 +6501,7 @@
     </row>
     <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="32" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B122" s="33" t="b">
         <v>1</v>
@@ -6469,120 +6510,120 @@
         <v>488</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" s="47"/>
-      <c r="B123" s="47"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" s="6" t="s">
+    <row r="123" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="47" t="s">
+        <v>638</v>
+      </c>
+      <c r="B123" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="C123" s="25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="47" t="s">
+        <v>639</v>
+      </c>
+      <c r="B124" s="52" t="s">
+        <v>641</v>
+      </c>
+      <c r="C124" s="50" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="47" t="s">
+        <v>640</v>
+      </c>
+      <c r="B125" s="53" t="s">
+        <v>637</v>
+      </c>
+      <c r="C125" s="50" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>642</v>
+      </c>
+      <c r="B126" s="50">
+        <v>50</v>
+      </c>
+      <c r="C126" s="50" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>643</v>
+      </c>
+      <c r="B127" s="50">
+        <v>25</v>
+      </c>
+      <c r="C127" s="50" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>644</v>
+      </c>
+      <c r="B128" s="50">
+        <v>25</v>
+      </c>
+      <c r="C128" s="50" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>645</v>
+      </c>
+      <c r="B129" s="50">
+        <v>1000</v>
+      </c>
+      <c r="C129" s="50" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>646</v>
+      </c>
+      <c r="B130" s="50">
+        <v>2000</v>
+      </c>
+      <c r="C130" s="50" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>647</v>
+      </c>
+      <c r="B131" s="50">
+        <v>1500</v>
+      </c>
+      <c r="C131" s="50" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="50"/>
+      <c r="B132" s="50"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="6" t="s">
         <v>529</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>243</v>
-      </c>
-      <c r="B125" t="s">
-        <v>130</v>
-      </c>
-      <c r="C125" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>244</v>
-      </c>
-      <c r="B126" t="s">
-        <v>132</v>
-      </c>
-      <c r="C126" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>245</v>
-      </c>
-      <c r="B127">
-        <v>4000</v>
-      </c>
-      <c r="C127" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>246</v>
-      </c>
-      <c r="B128" t="s">
-        <v>135</v>
-      </c>
-      <c r="C128" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>247</v>
-      </c>
-      <c r="B129" t="s">
-        <v>137</v>
-      </c>
-      <c r="C129" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>248</v>
-      </c>
-      <c r="B130" t="b">
-        <v>1</v>
-      </c>
-      <c r="C130" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>249</v>
-      </c>
-      <c r="B131" t="s">
-        <v>66</v>
-      </c>
-      <c r="C131" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>250</v>
-      </c>
-      <c r="B132" t="s">
-        <v>142</v>
-      </c>
-      <c r="C132" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>251</v>
-      </c>
-      <c r="B133" t="s">
-        <v>143</v>
-      </c>
-      <c r="C133" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>252</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>147</v>
+        <v>243</v>
+      </c>
+      <c r="B134" t="s">
+        <v>130</v>
       </c>
       <c r="C134" t="s">
         <v>488</v>
@@ -6590,10 +6631,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B135" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C135" t="s">
         <v>488</v>
@@ -6601,10 +6642,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>254</v>
-      </c>
-      <c r="B136" t="b">
-        <v>1</v>
+        <v>245</v>
+      </c>
+      <c r="B136">
+        <v>4000</v>
       </c>
       <c r="C136" t="s">
         <v>488</v>
@@ -6612,10 +6653,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B137" t="s">
-        <v>256</v>
+        <v>135</v>
       </c>
       <c r="C137" t="s">
         <v>488</v>
@@ -6623,10 +6664,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>257</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>258</v>
+        <v>247</v>
+      </c>
+      <c r="B138" t="s">
+        <v>137</v>
       </c>
       <c r="C138" t="s">
         <v>488</v>
@@ -6634,26 +6675,43 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>259</v>
-      </c>
-      <c r="B139" t="s">
-        <v>145</v>
+        <v>248</v>
+      </c>
+      <c r="B139" t="b">
+        <v>1</v>
       </c>
       <c r="C139" t="s">
         <v>488</v>
       </c>
     </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>249</v>
+      </c>
+      <c r="B140" t="s">
+        <v>66</v>
+      </c>
+      <c r="C140" t="s">
+        <v>488</v>
+      </c>
+    </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" s="6" t="s">
-        <v>530</v>
+      <c r="A141" t="s">
+        <v>250</v>
+      </c>
+      <c r="B141" t="s">
+        <v>142</v>
+      </c>
+      <c r="C141" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>387</v>
+        <v>251</v>
       </c>
       <c r="B142" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="C142" t="s">
         <v>488</v>
@@ -6661,10 +6719,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>388</v>
-      </c>
-      <c r="B143" t="s">
-        <v>115</v>
+        <v>252</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="C143" t="s">
         <v>488</v>
@@ -6672,10 +6730,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>389</v>
+        <v>253</v>
       </c>
       <c r="B144" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C144" t="s">
         <v>488</v>
@@ -6683,7 +6741,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>390</v>
+        <v>254</v>
       </c>
       <c r="B145" t="b">
         <v>1</v>
@@ -6694,10 +6752,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>391</v>
+        <v>255</v>
       </c>
       <c r="B146" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="C146" t="s">
         <v>488</v>
@@ -6705,10 +6763,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>392</v>
-      </c>
-      <c r="B147" t="s">
-        <v>195</v>
+        <v>257</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="C147" t="s">
         <v>488</v>
@@ -6716,43 +6774,26 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>393</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>117</v>
+        <v>259</v>
+      </c>
+      <c r="B148" t="s">
+        <v>145</v>
       </c>
       <c r="C148" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>394</v>
-      </c>
-      <c r="B149">
-        <v>1237771234</v>
-      </c>
-      <c r="C149" t="s">
-        <v>488</v>
-      </c>
-    </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>395</v>
-      </c>
-      <c r="B150" t="s">
-        <v>122</v>
-      </c>
-      <c r="C150" t="s">
-        <v>488</v>
+      <c r="A150" s="6" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>396</v>
-      </c>
-      <c r="B151" t="b">
-        <v>1</v>
+        <v>387</v>
+      </c>
+      <c r="B151" t="s">
+        <v>114</v>
       </c>
       <c r="C151" t="s">
         <v>488</v>
@@ -6760,10 +6801,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B152" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C152" t="s">
         <v>488</v>
@@ -6771,10 +6812,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B153" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C153" t="s">
         <v>488</v>
@@ -6782,10 +6823,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>399</v>
-      </c>
-      <c r="B154" t="s">
-        <v>119</v>
+        <v>390</v>
+      </c>
+      <c r="B154" t="b">
+        <v>1</v>
       </c>
       <c r="C154" t="s">
         <v>488</v>
@@ -6793,10 +6834,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>400</v>
-      </c>
-      <c r="B155" t="b">
-        <v>1</v>
+        <v>391</v>
+      </c>
+      <c r="B155" t="s">
+        <v>25</v>
       </c>
       <c r="C155" t="s">
         <v>488</v>
@@ -6804,10 +6845,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B156" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="C156" t="s">
         <v>488</v>
@@ -6815,29 +6856,32 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>402</v>
-      </c>
-      <c r="B157" t="b">
-        <v>0</v>
+        <v>393</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="C157" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A158" s="6" t="s">
-        <v>532</v>
+      <c r="A158" t="s">
+        <v>394</v>
+      </c>
+      <c r="B158">
+        <v>1237771234</v>
       </c>
       <c r="C158" t="s">
-        <v>559</v>
+        <v>488</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>536</v>
+        <v>395</v>
       </c>
       <c r="B159" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C159" t="s">
         <v>488</v>
@@ -6845,10 +6889,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>537</v>
-      </c>
-      <c r="B160" t="s">
-        <v>533</v>
+        <v>396</v>
+      </c>
+      <c r="B160" t="b">
+        <v>1</v>
       </c>
       <c r="C160" t="s">
         <v>488</v>
@@ -6856,54 +6900,54 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>538</v>
+        <v>397</v>
       </c>
       <c r="B161" t="s">
-        <v>534</v>
+        <v>124</v>
       </c>
       <c r="C161" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="B162" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="C162" s="15" t="s">
-        <v>487</v>
+      <c r="A162" t="s">
+        <v>398</v>
+      </c>
+      <c r="B162" t="s">
+        <v>118</v>
+      </c>
+      <c r="C162" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" s="15" t="s">
-        <v>540</v>
-      </c>
-      <c r="B163" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C163" s="15" t="s">
-        <v>487</v>
+      <c r="A163" t="s">
+        <v>399</v>
+      </c>
+      <c r="B163" t="s">
+        <v>119</v>
+      </c>
+      <c r="C163" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" s="15" t="s">
-        <v>541</v>
-      </c>
-      <c r="B164" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="C164" s="15" t="s">
-        <v>487</v>
+      <c r="A164" t="s">
+        <v>400</v>
+      </c>
+      <c r="B164" t="b">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>542</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>117</v>
+        <v>401</v>
+      </c>
+      <c r="B165" t="s">
+        <v>162</v>
       </c>
       <c r="C165" t="s">
         <v>488</v>
@@ -6911,32 +6955,29 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>543</v>
-      </c>
-      <c r="B166">
-        <v>1237771234</v>
+        <v>402</v>
+      </c>
+      <c r="B166" t="b">
+        <v>0</v>
       </c>
       <c r="C166" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>544</v>
-      </c>
-      <c r="B167" t="s">
-        <v>535</v>
+      <c r="A167" s="6" t="s">
+        <v>532</v>
       </c>
       <c r="C167" t="s">
-        <v>488</v>
+        <v>556</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>545</v>
-      </c>
-      <c r="B168" t="b">
-        <v>1</v>
+        <v>536</v>
+      </c>
+      <c r="B168" t="s">
+        <v>114</v>
       </c>
       <c r="C168" t="s">
         <v>488</v>
@@ -6944,10 +6985,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B169" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="C169" t="s">
         <v>488</v>
@@ -6955,161 +6996,161 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B170" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="C170" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>548</v>
-      </c>
-      <c r="B171" t="s">
-        <v>557</v>
-      </c>
-      <c r="C171" t="s">
-        <v>488</v>
+      <c r="A171" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="B171" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C171" s="15" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>549</v>
-      </c>
-      <c r="B172" t="b">
-        <v>0</v>
-      </c>
-      <c r="C172" t="s">
-        <v>488</v>
+      <c r="A172" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="B172" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C172" s="15" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>550</v>
-      </c>
-      <c r="B173" t="s">
-        <v>162</v>
-      </c>
-      <c r="C173" t="s">
-        <v>488</v>
+      <c r="A173" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="B173" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C173" s="15" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
+        <v>542</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C174" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>543</v>
+      </c>
+      <c r="B175">
+        <v>1237771234</v>
+      </c>
+      <c r="C175" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>544</v>
+      </c>
+      <c r="B176" t="s">
+        <v>535</v>
+      </c>
+      <c r="C176" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>545</v>
+      </c>
+      <c r="B177" t="b">
+        <v>1</v>
+      </c>
+      <c r="C177" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>546</v>
+      </c>
+      <c r="B178" t="s">
+        <v>555</v>
+      </c>
+      <c r="C178" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>547</v>
+      </c>
+      <c r="B179" t="s">
+        <v>553</v>
+      </c>
+      <c r="C179" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>548</v>
+      </c>
+      <c r="B180" t="s">
+        <v>554</v>
+      </c>
+      <c r="C180" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>549</v>
+      </c>
+      <c r="B181" t="b">
+        <v>0</v>
+      </c>
+      <c r="C181" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>550</v>
+      </c>
+      <c r="B182" t="s">
+        <v>162</v>
+      </c>
+      <c r="C182" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
         <v>551</v>
       </c>
-      <c r="B174" t="b">
+      <c r="B183" t="b">
         <v>0</v>
       </c>
-      <c r="C174" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" s="6" t="s">
+      <c r="C183" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" s="6" t="s">
         <v>528</v>
-      </c>
-      <c r="C176" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C177" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A178" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B178" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C178" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C179" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A180" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C180" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C181" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C182" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A183" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B183" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C183" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B184" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C184" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A185" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="B185" s="3" t="b">
-        <v>1</v>
       </c>
       <c r="C185" t="s">
         <v>488</v>
@@ -7117,10 +7158,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="8" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>225</v>
+        <v>362</v>
       </c>
       <c r="C186" t="s">
         <v>488</v>
@@ -7128,10 +7169,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B187" t="s">
-        <v>228</v>
+        <v>232</v>
+      </c>
+      <c r="B187" s="2">
+        <v>0.41666666666666669</v>
       </c>
       <c r="C187" t="s">
         <v>488</v>
@@ -7139,12 +7180,111 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C188" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C189" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C190" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C191" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B192" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C192" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B193" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B194" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C195" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B196" t="s">
+        <v>228</v>
+      </c>
+      <c r="C196" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B197" t="s">
         <v>230</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C197" t="s">
         <v>488</v>
       </c>
     </row>
@@ -7193,7 +7333,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B108:B123">
+  <conditionalFormatting sqref="B108:B132">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -7216,12 +7356,12 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B134" r:id="rId1"/>
-    <hyperlink ref="B138" r:id="rId2"/>
-    <hyperlink ref="B148" r:id="rId3"/>
+    <hyperlink ref="B143" r:id="rId1"/>
+    <hyperlink ref="B147" r:id="rId2"/>
+    <hyperlink ref="B157" r:id="rId3"/>
     <hyperlink ref="B50" r:id="rId4"/>
     <hyperlink ref="B42" r:id="rId5"/>
-    <hyperlink ref="B165" r:id="rId6"/>
+    <hyperlink ref="B174" r:id="rId6"/>
     <hyperlink ref="B67" r:id="rId7"/>
     <hyperlink ref="B115" r:id="rId8"/>
     <hyperlink ref="B70" r:id="rId9"/>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="policydata" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="698">
   <si>
     <t>Fnol_PolicyNumber</t>
   </si>
@@ -2039,13 +2039,6 @@
     <t>This is where the policy data info is picked up from by the rest of the sheets</t>
   </si>
   <si>
-    <t>ITB/12000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-carl robertson</t>
-  </si>
-  <si>
     <t>000-00-000007</t>
   </si>
   <si>
@@ -2077,6 +2070,63 @@
   </si>
   <si>
     <t>Hit in rear by third party vehicle whilst waiting to enter roundabout</t>
+  </si>
+  <si>
+    <t>ITB/12000006</t>
+  </si>
+  <si>
+    <t>simon fells</t>
+  </si>
+  <si>
+    <t>30 Baden Powell Street, Gateshead, NE9 5LD</t>
+  </si>
+  <si>
+    <t>10/02/2019</t>
+  </si>
+  <si>
+    <t>Fnol_Step4_OtherServiceRequired</t>
+  </si>
+  <si>
+    <t>Fnol_Step4_OtherServiceRelatedTo</t>
+  </si>
+  <si>
+    <t>Claim</t>
+  </si>
+  <si>
+    <t>Fnol_Step4_OtherServiceRequestType</t>
+  </si>
+  <si>
+    <t>Perform Service</t>
+  </si>
+  <si>
+    <t>Fnol_Step4_OtherServiceToPerformFilter</t>
+  </si>
+  <si>
+    <t>Car Rental</t>
+  </si>
+  <si>
+    <t>Fnol_Step4_OtherServiceAddInstructions</t>
+  </si>
+  <si>
+    <t>Can you rent a car to this person</t>
+  </si>
+  <si>
+    <t>Fnol_Step4_OtherServiceRequestedCompletionDate</t>
+  </si>
+  <si>
+    <t>11/03/2019</t>
+  </si>
+  <si>
+    <t>Fnol_Step4_OtherServiceCustomerContact</t>
+  </si>
+  <si>
+    <t>Fnol_Step4_OtherServiceAddress</t>
+  </si>
+  <si>
+    <t>enterprise rent-a-car</t>
+  </si>
+  <si>
+    <t>Fnol_Step4_OtherServiceVendorSearch</t>
   </si>
 </sst>
 </file>
@@ -6420,7 +6470,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6456,18 +6506,18 @@
         <v>660</v>
       </c>
       <c r="B5" s="98" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="C5" s="98" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>661</v>
       </c>
       <c r="B6" s="98" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="C6" s="98" t="s">
         <v>634</v>
@@ -6489,7 +6539,7 @@
         <v>663</v>
       </c>
       <c r="B8" s="98" t="s">
-        <v>536</v>
+        <v>681</v>
       </c>
       <c r="C8" s="98" t="s">
         <v>635</v>
@@ -6500,7 +6550,7 @@
         <v>664</v>
       </c>
       <c r="B9" s="101" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="C9" s="101" t="s">
         <v>666</v>
@@ -6550,7 +6600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A163" workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
@@ -6564,7 +6614,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -6572,7 +6622,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -6612,14 +6662,14 @@
       </c>
       <c r="B8" s="56" t="str">
         <f>IF(B4="DEV",D8,E8)</f>
-        <v>ITB/12000000</v>
+        <v>ITB/12000006</v>
       </c>
       <c r="C8" t="s">
         <v>644</v>
       </c>
       <c r="D8" s="85" t="str">
         <f>policydata!B5</f>
-        <v>ITB/12000000</v>
+        <v>ITB/12000006</v>
       </c>
       <c r="E8" s="82" t="str">
         <f>policydata!C5</f>
@@ -6632,16 +6682,14 @@
       </c>
       <c r="B9" s="82" t="str">
         <f>IF(B4="DEV",D9,E9)</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
       <c r="C9" t="s">
         <v>643</v>
       </c>
       <c r="D9" s="85" t="str">
         <f>policydata!B6</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
       <c r="E9" s="82" t="str">
         <f>policydata!C6</f>
@@ -6674,14 +6722,14 @@
       </c>
       <c r="B11" s="82" t="str">
         <f>IF(B4="DEV",D11,E11)</f>
-        <v>1 Bowes Gardens, Springwell, Gateshead, NE9 7NZ</v>
+        <v>30 Baden Powell Street, Gateshead, NE9 5LD</v>
       </c>
       <c r="C11" t="s">
         <v>644</v>
       </c>
       <c r="D11" s="85" t="str">
         <f>policydata!B8</f>
-        <v>1 Bowes Gardens, Springwell, Gateshead, NE9 7NZ</v>
+        <v>30 Baden Powell Street, Gateshead, NE9 5LD</v>
       </c>
       <c r="E11" s="82" t="str">
         <f>policydata!C8</f>
@@ -6694,14 +6742,14 @@
       </c>
       <c r="B12" s="83" t="str">
         <f>IF(B4="DEV",D12,E12)</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
       <c r="C12" t="s">
         <v>644</v>
       </c>
       <c r="D12" s="85" t="str">
         <f>policydata!B9</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
       <c r="E12" s="82" t="str">
         <f>policydata!C9</f>
@@ -6852,7 +6900,7 @@
       </c>
       <c r="B32" s="80" t="str">
         <f>B12</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6878,8 +6926,7 @@
       </c>
       <c r="B36" s="81" t="str">
         <f>B9</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -6982,7 +7029,7 @@
         <v>8</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D48" t="s">
         <v>258</v>
@@ -7037,7 +7084,7 @@
       </c>
       <c r="B55" s="80" t="str">
         <f>B12</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -7060,7 +7107,7 @@
       </c>
       <c r="B58" s="80" t="str">
         <f>B12</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -7108,8 +7155,7 @@
       </c>
       <c r="B65" s="84" t="str">
         <f>B9</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -7813,13 +7859,13 @@
     <row r="159" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="59" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B160" s="60"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="29" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B161" s="30" t="b">
         <v>1</v>
@@ -7827,7 +7873,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="29" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B162" s="30" t="b">
         <v>0</v>
@@ -7835,7 +7881,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B163" s="30" t="b">
         <v>0</v>
@@ -7843,7 +7889,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="29" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B164" s="30" t="b">
         <v>0</v>
@@ -7851,7 +7897,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="29" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B165" s="30" t="b">
         <v>0</v>
@@ -7859,7 +7905,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="29" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B166" s="30" t="b">
         <v>0</v>
@@ -7867,7 +7913,7 @@
     </row>
     <row r="167" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="31" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B167" s="32" t="b">
         <v>0</v>
@@ -8196,10 +8242,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I292"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="A285" sqref="A285:XFD292"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="A301" sqref="A301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8221,7 +8267,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -8256,11 +8302,11 @@
       </c>
       <c r="B7" s="98" t="str">
         <f>IF(B4="DEV",D7,E7)</f>
-        <v>ITB/12000000</v>
+        <v>ITB/12000006</v>
       </c>
       <c r="D7" s="100" t="str">
         <f>policydata!B5</f>
-        <v>ITB/12000000</v>
+        <v>ITB/12000006</v>
       </c>
       <c r="E7" s="98" t="str">
         <f>policydata!C5</f>
@@ -8273,13 +8319,11 @@
       </c>
       <c r="B8" s="98" t="str">
         <f>IF(B4="DEV",D8,E8)</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
       <c r="D8" s="98" t="str">
         <f>policydata!B6</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
       <c r="E8" s="98" t="str">
         <f>policydata!C6</f>
@@ -8309,11 +8353,11 @@
       </c>
       <c r="B10" s="98" t="str">
         <f>IF(B4="DEV",D10,E10)</f>
-        <v>1 Bowes Gardens, Springwell, Gateshead, NE9 7NZ</v>
+        <v>30 Baden Powell Street, Gateshead, NE9 5LD</v>
       </c>
       <c r="D10" s="98" t="str">
         <f>policydata!B8</f>
-        <v>1 Bowes Gardens, Springwell, Gateshead, NE9 7NZ</v>
+        <v>30 Baden Powell Street, Gateshead, NE9 5LD</v>
       </c>
       <c r="E10" s="98" t="str">
         <f>policydata!C8</f>
@@ -8326,11 +8370,11 @@
       </c>
       <c r="B11" s="99" t="str">
         <f>IF(B4="DEV",D11,E11)</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
       <c r="D11" s="98" t="str">
         <f>policydata!B9</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
       <c r="E11" s="98" t="str">
         <f>policydata!C9</f>
@@ -8454,7 +8498,7 @@
         <v>43</v>
       </c>
       <c r="B26" s="24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -8478,7 +8522,7 @@
       </c>
       <c r="B31" s="11" t="str">
         <f>B11</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -8632,8 +8676,7 @@
       </c>
       <c r="B51" s="19" t="str">
         <f>B8</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -9039,7 +9082,7 @@
       </c>
       <c r="B103" s="1" t="str">
         <f>B11</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -9128,7 +9171,7 @@
       </c>
       <c r="B114" s="1" t="str">
         <f>B11</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -9145,7 +9188,7 @@
       </c>
       <c r="B116" s="1" t="str">
         <f>B11</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -9549,8 +9592,7 @@
       </c>
       <c r="B156" s="14" t="str">
         <f>B8</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
@@ -10484,12 +10526,12 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="14" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B286" s="14" t="b">
         <v>1</v>
@@ -10497,7 +10539,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="14" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B287" s="14" t="b">
         <v>1</v>
@@ -10505,7 +10547,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="14" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B288" s="14" t="b">
         <v>1</v>
@@ -10513,7 +10555,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="14" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B289" s="14" t="b">
         <v>1</v>
@@ -10521,7 +10563,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="14" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B290" s="14" t="b">
         <v>1</v>
@@ -10529,7 +10571,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="14" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B291" s="14" t="b">
         <v>1</v>
@@ -10537,10 +10579,84 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="14" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B292" s="14" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="B293" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="B294" s="13" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="B295" s="13" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="B296" s="13" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="B297" s="13" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="B298" s="36" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="B299" s="13" t="str">
+        <f>B8</f>
+        <v>simon fells</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="B300" s="13" t="str">
+        <f>B10</f>
+        <v>30 Baden Powell Street, Gateshead, NE9 5LD</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="B301" s="13" t="s">
+        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -10658,7 +10774,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -12806,7 +12922,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -12846,14 +12962,14 @@
       </c>
       <c r="B8" s="56" t="str">
         <f>IF(B4="DEV",D8,E8)</f>
-        <v>ITB/12000000</v>
+        <v>ITB/12000006</v>
       </c>
       <c r="C8" t="s">
         <v>644</v>
       </c>
       <c r="D8" s="85" t="str">
         <f>policydata!B5</f>
-        <v>ITB/12000000</v>
+        <v>ITB/12000006</v>
       </c>
       <c r="E8" s="82" t="str">
         <f>policydata!C5</f>
@@ -12866,16 +12982,14 @@
       </c>
       <c r="B9" s="82" t="str">
         <f>IF(B4="DEV",D9,E9)</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
       <c r="C9" t="s">
         <v>643</v>
       </c>
       <c r="D9" s="85" t="str">
         <f>policydata!B6</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
       <c r="E9" s="82" t="str">
         <f>policydata!C6</f>
@@ -12908,14 +13022,14 @@
       </c>
       <c r="B11" s="82" t="str">
         <f>IF(B4="DEV",D11,E11)</f>
-        <v>1 Bowes Gardens, Springwell, Gateshead, NE9 7NZ</v>
+        <v>30 Baden Powell Street, Gateshead, NE9 5LD</v>
       </c>
       <c r="C11" t="s">
         <v>644</v>
       </c>
       <c r="D11" s="85" t="str">
         <f>policydata!B8</f>
-        <v>1 Bowes Gardens, Springwell, Gateshead, NE9 7NZ</v>
+        <v>30 Baden Powell Street, Gateshead, NE9 5LD</v>
       </c>
       <c r="E11" s="82" t="str">
         <f>policydata!C8</f>
@@ -12928,14 +13042,14 @@
       </c>
       <c r="B12" s="83" t="str">
         <f>IF(B4="DEV",D12,E12)</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
       <c r="C12" t="s">
         <v>644</v>
       </c>
       <c r="D12" s="85" t="str">
         <f>policydata!B9</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
       <c r="E12" s="82" t="str">
         <f>policydata!C9</f>
@@ -13086,7 +13200,7 @@
       </c>
       <c r="B32" s="80" t="str">
         <f>B12</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13112,8 +13226,7 @@
       </c>
       <c r="B36" s="81" t="str">
         <f>B9</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -13271,7 +13384,7 @@
       </c>
       <c r="B55" s="80" t="str">
         <f>B12</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -13294,7 +13407,7 @@
       </c>
       <c r="B58" s="80" t="str">
         <f>B12</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -13342,8 +13455,7 @@
       </c>
       <c r="B65" s="84" t="str">
         <f>B9</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -14047,13 +14159,13 @@
     <row r="159" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="59" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B160" s="60"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="29" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B161" s="30" t="b">
         <v>1</v>
@@ -14061,7 +14173,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="29" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B162" s="30" t="b">
         <v>0</v>
@@ -14069,7 +14181,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B163" s="30" t="b">
         <v>0</v>
@@ -14077,7 +14189,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="29" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B164" s="30" t="b">
         <v>0</v>
@@ -14085,7 +14197,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="29" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B165" s="30" t="b">
         <v>0</v>
@@ -14093,7 +14205,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="29" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B166" s="30" t="b">
         <v>0</v>
@@ -14101,7 +14213,7 @@
     </row>
     <row r="167" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="31" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B167" s="32" t="b">
         <v>0</v>
@@ -14483,11 +14595,11 @@
       </c>
       <c r="B6" s="82" t="str">
         <f>IF(B2="DEV",D6,E6)</f>
-        <v>ITB/12000000</v>
+        <v>ITB/12000006</v>
       </c>
       <c r="D6" s="85" t="str">
         <f>policydata!B5</f>
-        <v>ITB/12000000</v>
+        <v>ITB/12000006</v>
       </c>
       <c r="E6" s="82" t="str">
         <f>policydata!C5</f>
@@ -14500,13 +14612,11 @@
       </c>
       <c r="B7" s="82" t="str">
         <f>IF(B2="DEV",D7,E7)</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
       <c r="D7" s="85" t="str">
         <f>policydata!B6</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
       <c r="E7" s="82" t="str">
         <f>policydata!C6</f>
@@ -14536,11 +14646,11 @@
       </c>
       <c r="B9" s="82" t="str">
         <f>IF(B2="DEV",D9,E9)</f>
-        <v>1 Bowes Gardens, Springwell, Gateshead, NE9 7NZ</v>
+        <v>30 Baden Powell Street, Gateshead, NE9 5LD</v>
       </c>
       <c r="D9" s="85" t="str">
         <f>policydata!B8</f>
-        <v>1 Bowes Gardens, Springwell, Gateshead, NE9 7NZ</v>
+        <v>30 Baden Powell Street, Gateshead, NE9 5LD</v>
       </c>
       <c r="E9" s="82" t="str">
         <f>policydata!C8</f>
@@ -14553,11 +14663,11 @@
       </c>
       <c r="B10" s="83" t="str">
         <f>IF(B2="DEV",D10,E10)</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
       <c r="D10" s="85" t="str">
         <f>policydata!B9</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
       <c r="E10" s="82" t="str">
         <f>policydata!C9</f>
@@ -14698,7 +14808,7 @@
       </c>
       <c r="B28" s="80" t="str">
         <f>B10</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -14724,8 +14834,7 @@
       </c>
       <c r="B32" s="81" t="str">
         <f>B7</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -14856,7 +14965,7 @@
       </c>
       <c r="B51" s="90" t="str">
         <f>B10</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -14879,7 +14988,7 @@
       </c>
       <c r="B54" s="90" t="str">
         <f>B10</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -14930,8 +15039,7 @@
       </c>
       <c r="B62" s="62" t="str">
         <f>B7</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -15582,8 +15690,7 @@
       </c>
       <c r="B149" s="91" t="str">
         <f>B7</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
       <c r="C149" t="s">
         <v>653</v>
@@ -15651,13 +15758,13 @@
     <row r="157" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="59" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B158" s="60"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="29" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B159" s="30" t="b">
         <v>1</v>
@@ -15665,7 +15772,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="29" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B160" s="30" t="b">
         <v>0</v>
@@ -15673,7 +15780,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B161" s="30" t="b">
         <v>0</v>
@@ -15681,7 +15788,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="29" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B162" s="30" t="b">
         <v>0</v>
@@ -15689,7 +15796,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="29" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B163" s="30" t="b">
         <v>0</v>
@@ -15697,7 +15804,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="29" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B164" s="30" t="b">
         <v>0</v>
@@ -15705,7 +15812,7 @@
     </row>
     <row r="165" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="31" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B165" s="32" t="b">
         <v>0</v>
@@ -16057,11 +16164,11 @@
       </c>
       <c r="B7" s="93" t="str">
         <f>IF(B3="DEV",D7,E7)</f>
-        <v>ITB/12000000</v>
+        <v>ITB/12000006</v>
       </c>
       <c r="D7" s="95" t="str">
         <f>policydata!B5</f>
-        <v>ITB/12000000</v>
+        <v>ITB/12000006</v>
       </c>
       <c r="E7" s="93" t="str">
         <f>policydata!C5</f>
@@ -16074,13 +16181,11 @@
       </c>
       <c r="B8" s="93" t="str">
         <f>IF(B3="DEV",D8,E8)</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
       <c r="D8" s="95" t="str">
         <f>policydata!B6</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
       <c r="E8" s="93" t="str">
         <f>policydata!C6</f>
@@ -16110,11 +16215,11 @@
       </c>
       <c r="B10" s="93" t="str">
         <f>IF(B3="DEV",D10,E10)</f>
-        <v>1 Bowes Gardens, Springwell, Gateshead, NE9 7NZ</v>
+        <v>30 Baden Powell Street, Gateshead, NE9 5LD</v>
       </c>
       <c r="D10" s="95" t="str">
         <f>policydata!B8</f>
-        <v>1 Bowes Gardens, Springwell, Gateshead, NE9 7NZ</v>
+        <v>30 Baden Powell Street, Gateshead, NE9 5LD</v>
       </c>
       <c r="E10" s="93" t="str">
         <f>policydata!C8</f>
@@ -16127,11 +16232,11 @@
       </c>
       <c r="B11" s="94" t="str">
         <f>IF(B3="DEV",D11,E11)</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
       <c r="D11" s="95" t="str">
         <f>policydata!B9</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
       <c r="E11" s="93" t="str">
         <f>policydata!C9</f>
@@ -16279,7 +16384,7 @@
       </c>
       <c r="B31" s="96" t="str">
         <f>B11</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -16305,8 +16410,7 @@
       </c>
       <c r="B35" s="97" t="str">
         <f>B8</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -16437,7 +16541,7 @@
       </c>
       <c r="B54" s="96" t="str">
         <f>B11</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -16460,7 +16564,7 @@
       </c>
       <c r="B57" s="96" t="str">
         <f>B11</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -16508,8 +16612,7 @@
       </c>
       <c r="B64" s="28" t="str">
         <f>B8</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -17207,13 +17310,13 @@
     <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="59" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B159" s="60"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="29" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B160" s="30" t="b">
         <v>1</v>
@@ -17221,7 +17324,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="29" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B161" s="30" t="b">
         <v>0</v>
@@ -17229,7 +17332,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B162" s="30" t="b">
         <v>0</v>
@@ -17237,7 +17340,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="29" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B163" s="30" t="b">
         <v>0</v>
@@ -17245,7 +17348,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="29" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B164" s="30" t="b">
         <v>0</v>
@@ -17253,7 +17356,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="29" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B165" s="30" t="b">
         <v>0</v>
@@ -17261,7 +17364,7 @@
     </row>
     <row r="166" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="31" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B166" s="32" t="b">
         <v>0</v>
@@ -17591,11 +17694,11 @@
       </c>
       <c r="B7" s="98" t="str">
         <f>IF(B3="DEV",D7,E7)</f>
-        <v>ITB/12000000</v>
+        <v>ITB/12000006</v>
       </c>
       <c r="D7" s="100" t="str">
         <f>policydata!B5</f>
-        <v>ITB/12000000</v>
+        <v>ITB/12000006</v>
       </c>
       <c r="E7" s="98" t="str">
         <f>policydata!C5</f>
@@ -17608,13 +17711,11 @@
       </c>
       <c r="B8" s="98" t="str">
         <f>IF(B3="DEV",D8,E8)</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
       <c r="D8" s="100" t="str">
         <f>policydata!B6</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
       <c r="E8" s="98" t="str">
         <f>policydata!C6</f>
@@ -17644,11 +17745,11 @@
       </c>
       <c r="B10" s="98" t="str">
         <f>IF(B3="DEV",D10,E10)</f>
-        <v>1 Bowes Gardens, Springwell, Gateshead, NE9 7NZ</v>
+        <v>30 Baden Powell Street, Gateshead, NE9 5LD</v>
       </c>
       <c r="D10" s="100" t="str">
         <f>policydata!B8</f>
-        <v>1 Bowes Gardens, Springwell, Gateshead, NE9 7NZ</v>
+        <v>30 Baden Powell Street, Gateshead, NE9 5LD</v>
       </c>
       <c r="E10" s="98" t="str">
         <f>policydata!C8</f>
@@ -17661,11 +17762,11 @@
       </c>
       <c r="B11" s="99" t="str">
         <f>IF(B3="DEV",D11,E11)</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
       <c r="D11" s="100" t="str">
         <f>policydata!B9</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
       <c r="E11" s="98" t="str">
         <f>policydata!C9</f>
@@ -17813,7 +17914,7 @@
       </c>
       <c r="B31" s="96" t="str">
         <f>B11</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -17839,8 +17940,7 @@
       </c>
       <c r="B35" s="97" t="str">
         <f>B8</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -17971,7 +18071,7 @@
       </c>
       <c r="B54" s="96" t="str">
         <f>B11</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -17994,7 +18094,7 @@
       </c>
       <c r="B57" s="96" t="str">
         <f>B11</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -18042,8 +18142,7 @@
       </c>
       <c r="B64" s="28" t="str">
         <f>B8</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -18741,13 +18840,13 @@
     <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="59" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B159" s="60"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="29" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B160" s="30" t="b">
         <v>1</v>
@@ -18755,7 +18854,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="29" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B161" s="30" t="b">
         <v>0</v>
@@ -18763,7 +18862,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B162" s="30" t="b">
         <v>0</v>
@@ -18771,7 +18870,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="29" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B163" s="30" t="b">
         <v>0</v>
@@ -18779,7 +18878,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="29" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B164" s="30" t="b">
         <v>0</v>
@@ -18787,7 +18886,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="29" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B165" s="30" t="b">
         <v>0</v>
@@ -18795,7 +18894,7 @@
     </row>
     <row r="166" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="31" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B166" s="32" t="b">
         <v>0</v>
@@ -19133,11 +19232,11 @@
       </c>
       <c r="B6" s="98" t="str">
         <f>IF(B2="DEV",D6,E6)</f>
-        <v>ITB/12000000</v>
+        <v>ITB/12000006</v>
       </c>
       <c r="D6" s="100" t="str">
         <f>policydata!B5</f>
-        <v>ITB/12000000</v>
+        <v>ITB/12000006</v>
       </c>
       <c r="E6" s="98" t="str">
         <f>policydata!C5</f>
@@ -19150,13 +19249,11 @@
       </c>
       <c r="B7" s="98" t="str">
         <f>IF(B2="DEV",D7,E7)</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
       <c r="D7" s="100" t="str">
         <f>policydata!B6</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
       <c r="E7" s="98" t="str">
         <f>policydata!C6</f>
@@ -19186,11 +19283,11 @@
       </c>
       <c r="B9" s="98" t="str">
         <f>IF(B2="DEV",D9,E9)</f>
-        <v>1 Bowes Gardens, Springwell, Gateshead, NE9 7NZ</v>
+        <v>30 Baden Powell Street, Gateshead, NE9 5LD</v>
       </c>
       <c r="D9" s="100" t="str">
         <f>policydata!B8</f>
-        <v>1 Bowes Gardens, Springwell, Gateshead, NE9 7NZ</v>
+        <v>30 Baden Powell Street, Gateshead, NE9 5LD</v>
       </c>
       <c r="E9" s="98" t="str">
         <f>policydata!C8</f>
@@ -19203,11 +19300,11 @@
       </c>
       <c r="B10" s="99" t="str">
         <f>IF(B2="DEV",D10,E10)</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
       <c r="D10" s="100" t="str">
         <f>policydata!B9</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
       <c r="E10" s="98" t="str">
         <f>policydata!C9</f>
@@ -19345,7 +19442,7 @@
       </c>
       <c r="B28" s="96" t="str">
         <f>B10</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -19371,8 +19468,7 @@
       </c>
       <c r="B32" s="97" t="str">
         <f>B7</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -19503,7 +19599,7 @@
       </c>
       <c r="B51" s="96" t="str">
         <f>B10</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -19526,7 +19622,7 @@
       </c>
       <c r="B54" s="96" t="str">
         <f>B10</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -19577,8 +19673,7 @@
       </c>
       <c r="B62" s="28" t="str">
         <f>B7</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -20284,13 +20379,13 @@
     <row r="157" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="59" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B158" s="60"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="29" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B159" s="30" t="b">
         <v>1</v>
@@ -20298,7 +20393,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="29" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B160" s="30" t="b">
         <v>0</v>
@@ -20306,7 +20401,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B161" s="30" t="b">
         <v>0</v>
@@ -20314,7 +20409,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="29" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B162" s="30" t="b">
         <v>0</v>
@@ -20322,7 +20417,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="29" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B163" s="30" t="b">
         <v>0</v>
@@ -20330,7 +20425,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="29" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B164" s="30" t="b">
         <v>0</v>
@@ -20338,7 +20433,7 @@
     </row>
     <row r="165" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="31" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B165" s="32" t="b">
         <v>0</v>
@@ -20709,11 +20804,11 @@
       </c>
       <c r="B6" s="98" t="str">
         <f>IF(B2="DEV",D6,E6)</f>
-        <v>ITB/12000000</v>
+        <v>ITB/12000006</v>
       </c>
       <c r="D6" s="100" t="str">
         <f>policydata!B5</f>
-        <v>ITB/12000000</v>
+        <v>ITB/12000006</v>
       </c>
       <c r="E6" s="98" t="str">
         <f>policydata!C5</f>
@@ -20726,13 +20821,11 @@
       </c>
       <c r="B7" s="98" t="str">
         <f>IF(B2="DEV",D7,E7)</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
       <c r="D7" s="100" t="str">
         <f>policydata!B6</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
       <c r="E7" s="98" t="str">
         <f>policydata!C6</f>
@@ -20762,11 +20855,11 @@
       </c>
       <c r="B9" s="98" t="str">
         <f>IF(B2="DEV",D9,E9)</f>
-        <v>1 Bowes Gardens, Springwell, Gateshead, NE9 7NZ</v>
+        <v>30 Baden Powell Street, Gateshead, NE9 5LD</v>
       </c>
       <c r="D9" s="100" t="str">
         <f>policydata!B8</f>
-        <v>1 Bowes Gardens, Springwell, Gateshead, NE9 7NZ</v>
+        <v>30 Baden Powell Street, Gateshead, NE9 5LD</v>
       </c>
       <c r="E9" s="98" t="str">
         <f>policydata!C8</f>
@@ -20779,11 +20872,11 @@
       </c>
       <c r="B10" s="99" t="str">
         <f>IF(B2="DEV",D10,E10)</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
       <c r="D10" s="100" t="str">
         <f>policydata!B9</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
       <c r="E10" s="98" t="str">
         <f>policydata!C9</f>
@@ -20921,7 +21014,7 @@
       </c>
       <c r="B28" s="96" t="str">
         <f>B10</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -20947,8 +21040,7 @@
       </c>
       <c r="B32" s="97" t="str">
         <f>B7</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -21079,7 +21171,7 @@
       </c>
       <c r="B51" s="96" t="str">
         <f>B10</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -21102,7 +21194,7 @@
       </c>
       <c r="B54" s="96" t="str">
         <f>B10</f>
-        <v>07/02/2019</v>
+        <v>10/02/2019</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -21153,8 +21245,7 @@
       </c>
       <c r="B62" s="28" t="str">
         <f>B7</f>
-        <v xml:space="preserve"> 
-carl robertson</v>
+        <v>simon fells</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -21860,13 +21951,13 @@
     <row r="157" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="59" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B158" s="60"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="29" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B159" s="30" t="b">
         <v>1</v>
@@ -21874,7 +21965,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="29" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B160" s="30" t="b">
         <v>1</v>
@@ -21882,7 +21973,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B161" s="30" t="b">
         <v>1</v>
@@ -21890,7 +21981,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="29" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B162" s="30" t="b">
         <v>1</v>
@@ -21898,7 +21989,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="29" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B163" s="30" t="b">
         <v>1</v>
@@ -21906,7 +21997,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="29" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B164" s="30" t="b">
         <v>1</v>
@@ -21914,7 +22005,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B165" s="30" t="b">
         <v>1</v>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="730">
   <si>
     <t>Fnol_PolicyNumber</t>
   </si>
@@ -2114,9 +2114,6 @@
     <t>Fnol_Step4_OtherServiceVendorSearch</t>
   </si>
   <si>
-    <t>000-00-000124</t>
-  </si>
-  <si>
     <t>TBB/44000000</t>
   </si>
   <si>
@@ -2220,6 +2217,12 @@
   </si>
   <si>
     <t>Medium</t>
+  </si>
+  <si>
+    <t>not used currently</t>
+  </si>
+  <si>
+    <t>000-00-000109</t>
   </si>
 </sst>
 </file>
@@ -7634,7 +7637,7 @@
         <v>659</v>
       </c>
       <c r="B5" s="94" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C5" s="94" t="s">
         <v>630</v>
@@ -7645,7 +7648,7 @@
         <v>660</v>
       </c>
       <c r="B6" s="94" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C6" s="94" t="s">
         <v>634</v>
@@ -7667,7 +7670,7 @@
         <v>662</v>
       </c>
       <c r="B8" s="94" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C8" s="94" t="s">
         <v>635</v>
@@ -7678,7 +7681,7 @@
         <v>663</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C9" s="97" t="s">
         <v>665</v>
@@ -8107,7 +8110,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -8171,10 +8174,10 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B49" s="105" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -9057,12 +9060,12 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="45" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B171" s="14" t="s">
         <v>472</v>
@@ -9070,21 +9073,21 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="B172" s="100" t="s">
         <v>700</v>
-      </c>
-      <c r="B172" s="100" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B173" s="100"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="13" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B174" s="13" t="s">
         <v>471</v>
@@ -9092,21 +9095,21 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B175" s="104"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="B176" s="104" t="s">
         <v>705</v>
-      </c>
-      <c r="B176" s="104" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B177" s="14" t="s">
         <v>472</v>
@@ -9114,21 +9117,21 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B178" s="100" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B179" s="100"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B180" s="13" t="s">
         <v>471</v>
@@ -9136,21 +9139,21 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="13" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B181" s="104"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="B182" s="104" t="s">
         <v>713</v>
-      </c>
-      <c r="B182" s="104" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B183" s="14" t="s">
         <v>472</v>
@@ -9158,21 +9161,21 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B184" s="100" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B185" s="100"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B186" s="13" t="s">
         <v>471</v>
@@ -9180,16 +9183,16 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="13" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B187" s="104"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B188" s="104" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -9594,8 +9597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="B325" sqref="B325"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9617,7 +9620,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>693</v>
+        <v>729</v>
+      </c>
+      <c r="C2" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -10234,7 +10240,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B77" s="105" t="s">
         <v>359</v>
@@ -12028,12 +12034,12 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="45" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B305" s="14" t="s">
         <v>472</v>
@@ -12041,21 +12047,21 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="B306" s="100" t="s">
         <v>700</v>
-      </c>
-      <c r="B306" s="100" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B307" s="100"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="13" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B308" s="13" t="s">
         <v>471</v>
@@ -12063,21 +12069,21 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B309" s="104"/>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="B310" s="104" t="s">
         <v>705</v>
-      </c>
-      <c r="B310" s="104" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B311" s="14" t="s">
         <v>472</v>
@@ -12085,21 +12091,21 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B312" s="100" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B313" s="100"/>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B314" s="13" t="s">
         <v>471</v>
@@ -12107,21 +12113,21 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="13" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B315" s="104"/>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="B316" s="104" t="s">
         <v>713</v>
-      </c>
-      <c r="B316" s="104" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B317" s="14" t="s">
         <v>472</v>
@@ -12129,21 +12135,21 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B318" s="100" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B319" s="100"/>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B320" s="13" t="s">
         <v>472</v>
@@ -12151,15 +12157,15 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="13" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B321" s="104" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B322" s="104"/>
     </row>
@@ -14459,7 +14465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I188"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A133" workbookViewId="0">
       <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
@@ -14902,10 +14908,10 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B49" s="105" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -15788,12 +15794,12 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="45" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B171" s="14" t="s">
         <v>472</v>
@@ -15801,21 +15807,21 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="B172" s="100" t="s">
         <v>700</v>
-      </c>
-      <c r="B172" s="100" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B173" s="100"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="13" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B174" s="13" t="s">
         <v>471</v>
@@ -15823,21 +15829,21 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B175" s="104"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="B176" s="104" t="s">
         <v>705</v>
-      </c>
-      <c r="B176" s="104" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B177" s="14" t="s">
         <v>472</v>
@@ -15845,21 +15851,21 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B178" s="100" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B179" s="100"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B180" s="13" t="s">
         <v>471</v>
@@ -15867,21 +15873,21 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="13" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B181" s="104"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="B182" s="104" t="s">
         <v>713</v>
-      </c>
-      <c r="B182" s="104" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B183" s="14" t="s">
         <v>472</v>
@@ -15889,21 +15895,21 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B184" s="100" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B185" s="100"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B186" s="13" t="s">
         <v>471</v>
@@ -15911,16 +15917,16 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="13" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B187" s="104"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B188" s="104" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -16325,8 +16331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16705,7 +16711,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B45" s="105" t="s">
         <v>359</v>
@@ -17609,12 +17615,12 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="45" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B169" s="14" t="s">
         <v>472</v>
@@ -17622,21 +17628,21 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="B170" s="100" t="s">
         <v>700</v>
-      </c>
-      <c r="B170" s="100" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B171" s="100"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="13" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B172" s="13" t="s">
         <v>471</v>
@@ -17644,21 +17650,21 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B173" s="104"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="B174" s="104" t="s">
         <v>705</v>
-      </c>
-      <c r="B174" s="104" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B175" s="14" t="s">
         <v>472</v>
@@ -17666,21 +17672,21 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B176" s="100" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B177" s="100"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B178" s="13" t="s">
         <v>471</v>
@@ -17688,21 +17694,21 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="13" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B179" s="104"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="B180" s="104" t="s">
         <v>713</v>
-      </c>
-      <c r="B180" s="104" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B181" s="14" t="s">
         <v>472</v>
@@ -17710,21 +17716,21 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B182" s="100" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B183" s="100"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B184" s="13" t="s">
         <v>471</v>
@@ -17732,16 +17738,16 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="13" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B185" s="104"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B186" s="104" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -18503,7 +18509,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B48" s="105" t="s">
         <v>359</v>
@@ -19383,12 +19389,12 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="45" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B170" s="14" t="s">
         <v>472</v>
@@ -19396,21 +19402,21 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="B171" s="100" t="s">
         <v>700</v>
-      </c>
-      <c r="B171" s="100" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B172" s="100"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="13" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B173" s="13" t="s">
         <v>471</v>
@@ -19418,21 +19424,21 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B174" s="104"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="B175" s="104" t="s">
         <v>705</v>
-      </c>
-      <c r="B175" s="104" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B176" s="14" t="s">
         <v>472</v>
@@ -19440,21 +19446,21 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B177" s="100" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B178" s="100"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B179" s="13" t="s">
         <v>471</v>
@@ -19462,21 +19468,21 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="13" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B180" s="104"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="B181" s="104" t="s">
         <v>713</v>
-      </c>
-      <c r="B181" s="104" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B182" s="14" t="s">
         <v>472</v>
@@ -19484,21 +19490,21 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B183" s="100" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B184" s="100"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B185" s="13" t="s">
         <v>471</v>
@@ -19506,16 +19512,16 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="13" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B186" s="104"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B187" s="104" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -20255,7 +20261,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B48" s="105" t="s">
         <v>359</v>
@@ -21135,12 +21141,12 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="45" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B170" s="14" t="s">
         <v>472</v>
@@ -21148,21 +21154,21 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="B171" s="100" t="s">
         <v>700</v>
-      </c>
-      <c r="B171" s="100" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B172" s="100"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="13" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B173" s="13" t="s">
         <v>471</v>
@@ -21170,21 +21176,21 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B174" s="104"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="B175" s="104" t="s">
         <v>705</v>
-      </c>
-      <c r="B175" s="104" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B176" s="14" t="s">
         <v>472</v>
@@ -21192,21 +21198,21 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B177" s="100" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B178" s="100"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B179" s="13" t="s">
         <v>471</v>
@@ -21214,21 +21220,21 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="13" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B180" s="104"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="B181" s="104" t="s">
         <v>713</v>
-      </c>
-      <c r="B181" s="104" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B182" s="14" t="s">
         <v>472</v>
@@ -21236,21 +21242,21 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B183" s="100" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B184" s="100"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B185" s="13" t="s">
         <v>471</v>
@@ -21258,16 +21264,16 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="13" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B186" s="104"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B187" s="104" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -22005,10 +22011,10 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B45" s="105" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -22896,12 +22902,12 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="45" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B169" s="14" t="s">
         <v>472</v>
@@ -22909,21 +22915,21 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="B170" s="100" t="s">
         <v>700</v>
-      </c>
-      <c r="B170" s="100" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B171" s="100"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="13" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B172" s="13" t="s">
         <v>471</v>
@@ -22931,21 +22937,21 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B173" s="104"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="B174" s="104" t="s">
         <v>705</v>
-      </c>
-      <c r="B174" s="104" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B175" s="14" t="s">
         <v>472</v>
@@ -22953,21 +22959,21 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B176" s="100" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B177" s="100"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B178" s="13" t="s">
         <v>471</v>
@@ -22975,21 +22981,21 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="13" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B179" s="104"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="B180" s="104" t="s">
         <v>713</v>
-      </c>
-      <c r="B180" s="104" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B181" s="14" t="s">
         <v>472</v>
@@ -22997,21 +23003,21 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B182" s="100" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B183" s="100"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B184" s="13" t="s">
         <v>471</v>
@@ -23019,16 +23025,16 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="13" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B185" s="104"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B186" s="104" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -23799,10 +23805,10 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B45" s="105" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -24694,12 +24700,12 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="45" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B171" s="14" t="s">
         <v>472</v>
@@ -24707,21 +24713,21 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="B172" s="100" t="s">
         <v>700</v>
-      </c>
-      <c r="B172" s="100" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B173" s="100"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="13" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B174" s="13" t="s">
         <v>471</v>
@@ -24729,21 +24735,21 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B175" s="104"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="B176" s="104" t="s">
         <v>705</v>
-      </c>
-      <c r="B176" s="104" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B177" s="14" t="s">
         <v>472</v>
@@ -24751,21 +24757,21 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B178" s="100" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B179" s="100"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B180" s="13" t="s">
         <v>471</v>
@@ -24773,21 +24779,21 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="13" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B181" s="104"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="B182" s="104" t="s">
         <v>713</v>
-      </c>
-      <c r="B182" s="104" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B183" s="14" t="s">
         <v>472</v>
@@ -24795,21 +24801,21 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B184" s="100" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B185" s="100"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B186" s="13" t="s">
         <v>471</v>
@@ -24817,16 +24823,16 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="13" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B187" s="104"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B188" s="104" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="761">
   <si>
     <t>Fnol_PolicyNumber</t>
   </si>
@@ -1922,9 +1922,6 @@
     <t>EditPostFnol_PHPassengerMojOfferDamages</t>
   </si>
   <si>
-    <t>I was just minding my own business, when someone crashed into me</t>
-  </si>
-  <si>
     <t>DGT/71010000</t>
   </si>
   <si>
@@ -2123,9 +2120,6 @@
     <t>2 Elmsford Grove, Newcastle upon Tyne, NE12 8HT</t>
   </si>
   <si>
-    <t>13/02/2019</t>
-  </si>
-  <si>
     <t>Step4 TP capture fields</t>
   </si>
   <si>
@@ -2223,6 +2217,105 @@
   </si>
   <si>
     <t>000-00-000109</t>
+  </si>
+  <si>
+    <t>18/02/2019</t>
+  </si>
+  <si>
+    <t>Regression test 19/2/2019 - I was just minding my own business, when someone crashed into me</t>
+  </si>
+  <si>
+    <t>Fnol_TPVehicleOwner</t>
+  </si>
+  <si>
+    <t>Fnol_TPVehicleForeign</t>
+  </si>
+  <si>
+    <t>Fnol_TPVehicleForeignDetails</t>
+  </si>
+  <si>
+    <t>I brought this car from abroad</t>
+  </si>
+  <si>
+    <t>Fnol_TPVehicleMileage</t>
+  </si>
+  <si>
+    <t>Fnol_TPVehicleWhereNow</t>
+  </si>
+  <si>
+    <t>Incident Location</t>
+  </si>
+  <si>
+    <t>Fnol_TPVehicleRoadworthy</t>
+  </si>
+  <si>
+    <t>Fnol_PropertyEstimateReceived</t>
+  </si>
+  <si>
+    <t>Fnol_PropertyEstimateCost</t>
+  </si>
+  <si>
+    <t>Fnol_PropertyEstimateRepairTime</t>
+  </si>
+  <si>
+    <t>1 week</t>
+  </si>
+  <si>
+    <t>Fnol_PropertyAlreadyRepaired</t>
+  </si>
+  <si>
+    <t>Landlord</t>
+  </si>
+  <si>
+    <t>Dora Landlord</t>
+  </si>
+  <si>
+    <t>Fnol_PropertyAddress1</t>
+  </si>
+  <si>
+    <t>5 The Edge</t>
+  </si>
+  <si>
+    <t>Fnol_PropertyAddress2</t>
+  </si>
+  <si>
+    <t>Gateshead</t>
+  </si>
+  <si>
+    <t>The Way</t>
+  </si>
+  <si>
+    <t>Fnol_PropertyCity</t>
+  </si>
+  <si>
+    <t>landlord@insurethebox.com</t>
+  </si>
+  <si>
+    <t>Fnol_PropertyNewOwnerAddress1</t>
+  </si>
+  <si>
+    <t>247 Sea View</t>
+  </si>
+  <si>
+    <t>Fnol_PropertyNewOwnerAddress2</t>
+  </si>
+  <si>
+    <t>Foreshore</t>
+  </si>
+  <si>
+    <t>Fnol_PropertyNewOwnerCity</t>
+  </si>
+  <si>
+    <t>Whitley Bay</t>
+  </si>
+  <si>
+    <t>Fnol_PropertyNewOwnerAddressType</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Lives near the seafront</t>
   </si>
 </sst>
 </file>
@@ -2571,7 +2664,102 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="750">
+  <dxfs count="765">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7601,7 +7789,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7614,7 +7802,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -7626,99 +7814,99 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="51" t="s">
+        <v>630</v>
+      </c>
+      <c r="C4" s="51" t="s">
         <v>631</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B5" s="94" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C5" s="94" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B6" s="94" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C6" s="94" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B7" s="96" t="s">
         <v>397</v>
       </c>
       <c r="C7" s="96" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B8" s="94" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C8" s="94" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>696</v>
+        <v>728</v>
       </c>
       <c r="C9" s="97" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E9" s="53"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:C9">
-    <cfRule type="cellIs" dxfId="749" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="748" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="764" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="763" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="747" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="762" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="746" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="745" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="761" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="760" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="744" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="759" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="743" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="742" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="758" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="757" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="741" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="756" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7745,7 +7933,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -7753,7 +7941,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -7761,7 +7949,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B4" s="42" t="s">
         <v>399</v>
@@ -7781,10 +7969,10 @@
       </c>
       <c r="B7" s="39"/>
       <c r="D7" s="51" t="s">
+        <v>630</v>
+      </c>
+      <c r="E7" s="51" t="s">
         <v>631</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -7796,7 +7984,7 @@
         <v>TBB/44000000</v>
       </c>
       <c r="C8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D8" s="81" t="str">
         <f>POLICYDATA!B5</f>
@@ -7816,7 +8004,7 @@
         <v>Jen Jam</v>
       </c>
       <c r="C9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D9" s="81" t="str">
         <f>POLICYDATA!B6</f>
@@ -7836,7 +8024,7 @@
         <v>s99sja</v>
       </c>
       <c r="C10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D10" s="81" t="str">
         <f>POLICYDATA!B7</f>
@@ -7856,7 +8044,7 @@
         <v>2 Elmsford Grove, Newcastle upon Tyne, NE12 8HT</v>
       </c>
       <c r="C11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D11" s="81" t="str">
         <f>POLICYDATA!B8</f>
@@ -7873,14 +8061,14 @@
       </c>
       <c r="B12" s="79" t="str">
         <f>IF(B4="DEV",D12,E12)</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
       <c r="C12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D12" s="81" t="str">
         <f>POLICYDATA!B9</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
       <c r="E12" s="78" t="str">
         <f>POLICYDATA!C9</f>
@@ -7983,7 +8171,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -8031,7 +8219,7 @@
       </c>
       <c r="B32" s="76" t="str">
         <f>B12</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8110,7 +8298,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -8118,7 +8306,7 @@
         <v>495</v>
       </c>
       <c r="B45" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -8160,7 +8348,7 @@
         <v>8</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D48" t="s">
         <v>258</v>
@@ -8174,10 +8362,10 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B49" s="105" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -8223,7 +8411,7 @@
       </c>
       <c r="B56" s="76" t="str">
         <f>B12</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -8246,7 +8434,7 @@
       </c>
       <c r="B59" s="76" t="str">
         <f>B12</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -8529,18 +8717,18 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="60" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B98" s="61" t="b">
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -8998,13 +9186,13 @@
     <row r="160" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="55" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B161" s="56"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B162" s="29" t="b">
         <v>1</v>
@@ -9012,7 +9200,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B163" s="29" t="b">
         <v>0</v>
@@ -9020,7 +9208,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="28" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B164" s="29" t="b">
         <v>0</v>
@@ -9028,7 +9216,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B165" s="29" t="b">
         <v>0</v>
@@ -9036,7 +9224,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="28" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B166" s="29" t="b">
         <v>0</v>
@@ -9044,7 +9232,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B167" s="29" t="b">
         <v>0</v>
@@ -9052,7 +9240,7 @@
     </row>
     <row r="168" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B168" s="31" t="b">
         <v>0</v>
@@ -9060,12 +9248,12 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="45" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B171" s="14" t="s">
         <v>472</v>
@@ -9073,21 +9261,21 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B172" s="100" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B173" s="100"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B174" s="13" t="s">
         <v>471</v>
@@ -9095,21 +9283,21 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B175" s="104"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B176" s="104" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B177" s="14" t="s">
         <v>472</v>
@@ -9117,21 +9305,21 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="B178" s="100" t="s">
         <v>707</v>
-      </c>
-      <c r="B178" s="100" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B179" s="100"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="13" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B180" s="13" t="s">
         <v>471</v>
@@ -9139,21 +9327,21 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="13" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B181" s="104"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="13" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B182" s="104" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="14" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B183" s="14" t="s">
         <v>472</v>
@@ -9161,21 +9349,21 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="B184" s="100" t="s">
         <v>715</v>
-      </c>
-      <c r="B184" s="100" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="14" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B185" s="100"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="13" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B186" s="13" t="s">
         <v>471</v>
@@ -9183,16 +9371,16 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="13" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B187" s="104"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="13" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B188" s="104" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -9595,10 +9783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I322"/>
+  <dimension ref="A1:I339"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9620,10 +9808,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -9631,7 +9819,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B4" t="s">
         <v>399</v>
@@ -9646,10 +9834,10 @@
       </c>
       <c r="B6" s="39"/>
       <c r="D6" s="51" t="s">
+        <v>630</v>
+      </c>
+      <c r="E6" s="51" t="s">
         <v>631</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -9726,11 +9914,11 @@
       </c>
       <c r="B11" s="95" t="str">
         <f>IF(B4="DEV",D11,E11)</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
       <c r="D11" s="94" t="str">
         <f>POLICYDATA!B9</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
       <c r="E11" s="94" t="str">
         <f>POLICYDATA!C9</f>
@@ -9771,7 +9959,7 @@
         <v>319</v>
       </c>
       <c r="B16" s="36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>323</v>
@@ -9789,40 +9977,40 @@
       <c r="A18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="23" t="b">
-        <v>1</v>
+      <c r="B18" s="36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="23" t="b">
-        <v>1</v>
+      <c r="B19" s="36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="23" t="b">
-        <v>1</v>
+      <c r="B20" s="36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="23" t="b">
-        <v>1</v>
+      <c r="B21" s="36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="23" t="b">
-        <v>1</v>
+      <c r="B22" s="36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -9878,7 +10066,7 @@
       </c>
       <c r="B31" s="11" t="str">
         <f>B11</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -10184,7 +10372,7 @@
         <v>495</v>
       </c>
       <c r="B73" t="s">
-        <v>629</v>
+        <v>729</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -10240,7 +10428,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B77" s="105" t="s">
         <v>359</v>
@@ -10455,7 +10643,7 @@
       </c>
       <c r="B104" s="1" t="str">
         <f>B11</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -10544,7 +10732,7 @@
       </c>
       <c r="B115" s="1" t="str">
         <f>B11</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -10561,7 +10749,7 @@
       </c>
       <c r="B117" s="1" t="str">
         <f>B11</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -11247,952 +11435,1144 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>100</v>
-      </c>
-      <c r="B195" t="s">
-        <v>79</v>
+        <v>731</v>
+      </c>
+      <c r="B195" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>83</v>
+        <v>732</v>
       </c>
       <c r="B196" t="s">
-        <v>82</v>
+        <v>733</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>84</v>
+        <v>735</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>85</v>
+        <v>736</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>424</v>
-      </c>
-      <c r="B198" t="b">
-        <v>1</v>
+        <v>734</v>
+      </c>
+      <c r="B198">
+        <v>27000</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>641</v>
-      </c>
-      <c r="B199" t="b">
+        <v>100</v>
+      </c>
+      <c r="B199" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>83</v>
+      </c>
+      <c r="B200" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>737</v>
+      </c>
+      <c r="B201" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A201" s="6" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>56</v>
-      </c>
-      <c r="B203" t="s">
-        <v>57</v>
+        <v>424</v>
+      </c>
+      <c r="B203" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>59</v>
-      </c>
-      <c r="B204" t="s">
-        <v>58</v>
+        <v>640</v>
+      </c>
+      <c r="B204" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
+        <v>730</v>
+      </c>
+      <c r="B205" s="6" t="str">
+        <f>B211</f>
+        <v>Roy Racer</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>60</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>56</v>
+      </c>
+      <c r="B209" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>59</v>
+      </c>
+      <c r="B210" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
         <v>411</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="B211" s="6" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" s="13" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="B206" s="13" t="b">
+      <c r="B212" s="13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" s="13" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="B207" s="13" t="s">
+      <c r="B213" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" s="13" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="B208" s="104" t="s">
+      <c r="B214" s="104" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A209" t="s">
+    <row r="215" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A215" t="s">
         <v>63</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="B215" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A210" s="24" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B210" s="25" t="b">
+      <c r="B216" s="25" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A211" s="26" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B211" s="27" t="s">
+      <c r="B217" s="27" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A212" s="26" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B212" s="103" t="s">
+      <c r="B218" s="103" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A213" s="26" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B213" s="103" t="s">
+      <c r="B219" s="103" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A214" s="28" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="B214" s="29" t="b">
+      <c r="B220" s="29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A215" s="28" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="B215" s="29" t="s">
+      <c r="B221" s="29" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A216" s="30" t="s">
+    <row r="222" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A222" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="B216" s="31" t="b">
+      <c r="B222" s="31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A218" s="6" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
         <v>143</v>
       </c>
-      <c r="B219" s="6" t="s">
+      <c r="B225" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
         <v>144</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B226" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
         <v>145</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B227" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
         <v>417</v>
       </c>
-      <c r="B222" s="6" t="s">
+      <c r="B228" s="6" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A223" s="13" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="B223" s="13" t="b">
+      <c r="B229" s="13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A224" s="13" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="B224" s="13" t="s">
+      <c r="B230" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A225" s="13" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B225" s="104" t="s">
+      <c r="B231" s="104" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A226" t="s">
+    <row r="232" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A232" t="s">
         <v>146</v>
       </c>
-      <c r="B226" s="5" t="s">
+      <c r="B232" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A227" s="24" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B227" s="25" t="b">
+      <c r="B233" s="25" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A228" s="26" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="B228" s="27" t="s">
+      <c r="B234" s="27" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A229" s="26" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="B229" s="103" t="s">
+      <c r="B235" s="103" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A230" s="26" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="B230" s="103" t="s">
+      <c r="B236" s="103" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A231" s="28" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B231" s="29" t="b">
+      <c r="B237" s="29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A232" s="28" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="B232" s="29" t="s">
+      <c r="B238" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A233" s="30" t="s">
+    <row r="239" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A239" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="B233" s="31" t="b">
+      <c r="B239" s="31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A235" s="6" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
         <v>102</v>
       </c>
-      <c r="B236" s="6" t="s">
+      <c r="B242" s="6" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
-        <v>104</v>
-      </c>
-      <c r="B237" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
-        <v>103</v>
-      </c>
-      <c r="B238" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
-        <v>414</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A240" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B240" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A241" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="B241" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A242" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B242" s="104" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>105</v>
-      </c>
-      <c r="B243" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
+      </c>
+      <c r="B243" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
+        <v>103</v>
+      </c>
+      <c r="B244" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>414</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B246" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B247" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B248" s="104" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>105</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
         <v>115</v>
       </c>
-      <c r="B244">
+      <c r="B250">
         <v>1237771234</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A245" t="s">
+    <row r="251" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A251" t="s">
         <v>116</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B251" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A246" s="24" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B246" s="25" t="b">
+      <c r="B252" s="25" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A247" s="26" t="s">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B247" s="27" t="s">
+      <c r="B253" s="27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A248" s="26" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B248" s="103" t="s">
+      <c r="B254" s="103" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A249" s="26" t="s">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B249" s="103" t="s">
+      <c r="B255" s="103" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A250" s="28" t="s">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="B250" s="29" t="b">
+      <c r="B256" s="29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A251" s="28" t="s">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="B251" s="29" t="s">
+      <c r="B257" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A252" s="30" t="s">
+    <row r="258" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A258" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="B252" s="31" t="b">
+      <c r="B258" s="31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A254" s="6" t="s">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" s="6" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
         <v>124</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B261" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
         <v>126</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B262" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
         <v>128</v>
       </c>
-      <c r="B257">
+      <c r="B263">
         <v>4000</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
         <v>129</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B264" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
         <v>131</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B265" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A260" s="14" t="s">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>745</v>
+      </c>
+      <c r="B266" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B267" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>750</v>
+      </c>
+      <c r="B268" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B260" s="14" t="b">
+      <c r="B269" s="14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A261" s="14" t="s">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B261" s="100" t="s">
+      <c r="B270" s="100" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A262" s="14" t="s">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B262" s="14" t="s">
+      <c r="B271" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A263" s="14" t="s">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B263" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A264" s="14" t="s">
+      <c r="B272" s="14" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="B264" s="100" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A265" s="14" t="s">
+      <c r="B273" s="100" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B265" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A266" s="14" t="s">
+      <c r="B274" s="14" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" s="14" t="s">
+        <v>752</v>
+      </c>
+      <c r="B275" s="14" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" s="14" t="s">
+        <v>754</v>
+      </c>
+      <c r="B276" s="14" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" s="14" t="s">
+        <v>756</v>
+      </c>
+      <c r="B277" s="14" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" s="14" t="s">
+        <v>758</v>
+      </c>
+      <c r="B278" s="100" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B266" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A268" s="6" t="s">
+      <c r="B279" s="14" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="B280" s="104" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="B281" s="34">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="B282" s="34" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" s="23" t="s">
+        <v>742</v>
+      </c>
+      <c r="B283" s="54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" s="6" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A269" s="6"/>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A270" s="6" t="s">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" s="6"/>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A271" s="6"/>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A272" s="6" t="s">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" s="6"/>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" s="6" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A273" s="8" t="s">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B290" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A274" s="8" t="s">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B274" s="2">
+      <c r="B291" s="2">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A275" s="8" t="s">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B292" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A276" s="8" t="s">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B293" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A277" s="8" t="s">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="B294" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A278" s="8" t="s">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B295" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A279" s="8" t="s">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B279" s="3" t="b">
+      <c r="B296" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A280" s="20" t="s">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="B280" s="33" t="b">
+      <c r="B297" s="33" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A281" s="20" t="s">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="B281" s="33" t="s">
+      <c r="B298" s="33" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A282" s="34" t="s">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="B282" s="35" t="b">
+      <c r="B299" s="35" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A283" s="34" t="s">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="B283" s="13" t="s">
+      <c r="B300" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A284" s="8" t="s">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B301" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A285" s="8"/>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A286" s="6" t="s">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302" s="8"/>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303" s="6" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304" s="14" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A287" s="14" t="s">
+      <c r="B304" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305" s="14" t="s">
         <v>669</v>
       </c>
-      <c r="B287" s="14" t="b">
+      <c r="B305" s="14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A288" s="14" t="s">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306" s="14" t="s">
         <v>670</v>
       </c>
-      <c r="B288" s="14" t="b">
+      <c r="B306" s="14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A289" s="14" t="s">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A307" s="14" t="s">
         <v>671</v>
       </c>
-      <c r="B289" s="14" t="b">
+      <c r="B307" s="14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A290" s="14" t="s">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A308" s="14" t="s">
         <v>672</v>
       </c>
-      <c r="B290" s="14" t="b">
+      <c r="B308" s="14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A291" s="14" t="s">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A309" s="14" t="s">
         <v>673</v>
       </c>
-      <c r="B291" s="14" t="b">
+      <c r="B309" s="14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A292" s="14" t="s">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A310" s="14" t="s">
         <v>674</v>
       </c>
-      <c r="B292" s="14" t="b">
+      <c r="B310" s="14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A293" s="14" t="s">
-        <v>675</v>
-      </c>
-      <c r="B293" s="14" t="b">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A311" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="B311" s="13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A294" s="13" t="s">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A312" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="B294" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A295" s="13" t="s">
+      <c r="B312" s="104" t="s">
         <v>679</v>
       </c>
-      <c r="B295" s="104" t="s">
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A313" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="B313" s="13" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A314" s="13" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A296" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="B296" s="13" t="s">
+      <c r="B314" s="104" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A315" s="13" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A297" s="13" t="s">
-        <v>681</v>
-      </c>
-      <c r="B297" s="104" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A298" s="13" t="s">
+      <c r="B315" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="B298" s="13" t="s">
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A316" s="13" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A299" s="13" t="s">
+      <c r="B316" s="35" t="s">
         <v>687</v>
       </c>
-      <c r="B299" s="35" t="s">
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A317" s="13" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A300" s="13" t="s">
-        <v>689</v>
-      </c>
-      <c r="B300" s="104" t="str">
+      <c r="B317" s="104" t="str">
         <f>B8</f>
         <v>Jen Jam</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A301" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="B301" s="104" t="str">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A318" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="B318" s="104" t="str">
         <f>B10</f>
         <v>2 Elmsford Grove, Newcastle upon Tyne, NE12 8HT</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A302" s="13" t="s">
-        <v>692</v>
-      </c>
-      <c r="B302" s="104" t="s">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A319" s="13" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A304" s="45" t="s">
+      <c r="B319" s="104" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321" s="45" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="B322" s="14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323" s="14" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A305" s="14" t="s">
+      <c r="B323" s="100" t="s">
         <v>698</v>
       </c>
-      <c r="B305" s="14" t="s">
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="B324" s="100"/>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="B325" s="13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="B326" s="104"/>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="B327" s="104" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="B328" s="14" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A306" s="14" t="s">
-        <v>699</v>
-      </c>
-      <c r="B306" s="100" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A307" s="14" t="s">
-        <v>701</v>
-      </c>
-      <c r="B307" s="100"/>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A308" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="B308" s="13" t="s">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A329" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="B329" s="100" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A330" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="B330" s="100"/>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A331" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="B331" s="13" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A309" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="B309" s="104"/>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A310" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="B310" s="104" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A311" s="14" t="s">
-        <v>706</v>
-      </c>
-      <c r="B311" s="14" t="s">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A332" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="B332" s="104"/>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A333" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="B333" s="104" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A334" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="B334" s="14" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A312" s="14" t="s">
-        <v>707</v>
-      </c>
-      <c r="B312" s="100" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A313" s="14" t="s">
-        <v>708</v>
-      </c>
-      <c r="B313" s="100"/>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A314" s="13" t="s">
-        <v>710</v>
-      </c>
-      <c r="B314" s="13" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A315" s="13" t="s">
-        <v>711</v>
-      </c>
-      <c r="B315" s="104"/>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A316" s="13" t="s">
-        <v>712</v>
-      </c>
-      <c r="B316" s="104" t="s">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A335" s="14" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A317" s="14" t="s">
+      <c r="B335" s="100" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A336" s="14" t="s">
         <v>714</v>
       </c>
-      <c r="B317" s="14" t="s">
+      <c r="B336" s="100"/>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A337" s="13" t="s">
+        <v>716</v>
+      </c>
+      <c r="B337" s="13" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A318" s="14" t="s">
-        <v>715</v>
-      </c>
-      <c r="B318" s="100" t="s">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A338" s="13" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A319" s="14" t="s">
-        <v>716</v>
-      </c>
-      <c r="B319" s="100"/>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A320" s="13" t="s">
-        <v>718</v>
-      </c>
-      <c r="B320" s="13" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A321" s="13" t="s">
-        <v>719</v>
-      </c>
-      <c r="B321" s="104" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A322" s="13" t="s">
-        <v>722</v>
-      </c>
-      <c r="B322" s="104"/>
+      <c r="B338" s="104" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A339" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="B339" s="104"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B12:B198 B200:B285 B1:B10 B294:B307 B323:B1048576">
-    <cfRule type="cellIs" dxfId="740" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="739" priority="35" operator="equal">
+  <conditionalFormatting sqref="B206:B265 B1:B10 B311:B324 B340:B1048576 B284:B302 B269:B279 B12:B203">
+    <cfRule type="cellIs" dxfId="755" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="754" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="738" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="753" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E11">
-    <cfRule type="cellIs" dxfId="737" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="736" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="752" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="751" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="735" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D11">
+    <cfRule type="cellIs" dxfId="749" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="748" priority="38" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="747" priority="39" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B204:B205">
+    <cfRule type="cellIs" dxfId="746" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="745" priority="35" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="744" priority="36" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B303:B310">
+    <cfRule type="cellIs" dxfId="743" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="742" priority="32" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="741" priority="33" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B325:B327">
+    <cfRule type="cellIs" dxfId="740" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="739" priority="29" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="738" priority="30" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B328:B330">
+    <cfRule type="cellIs" dxfId="737" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="736" priority="26" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="735" priority="27" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B331:B333">
     <cfRule type="cellIs" dxfId="734" priority="22" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -12203,7 +12583,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B199">
+  <conditionalFormatting sqref="B334:B336">
     <cfRule type="cellIs" dxfId="731" priority="19" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -12214,7 +12594,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B286:B293">
+  <conditionalFormatting sqref="B337:B339">
     <cfRule type="cellIs" dxfId="728" priority="16" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -12225,7 +12605,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B308:B310">
+  <conditionalFormatting sqref="B280">
     <cfRule type="cellIs" dxfId="725" priority="13" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -12236,7 +12616,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B311:B313">
+  <conditionalFormatting sqref="B281">
     <cfRule type="cellIs" dxfId="722" priority="10" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -12247,7 +12627,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B314:B316">
+  <conditionalFormatting sqref="B282">
     <cfRule type="cellIs" dxfId="719" priority="7" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -12258,7 +12638,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B317:B319">
+  <conditionalFormatting sqref="B283">
     <cfRule type="cellIs" dxfId="716" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -12269,7 +12649,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B320:B322">
+  <conditionalFormatting sqref="B266:B268">
     <cfRule type="cellIs" dxfId="713" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -12281,10 +12661,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B209" r:id="rId1"/>
-    <hyperlink ref="B243" r:id="rId2"/>
-    <hyperlink ref="B265" r:id="rId3"/>
-    <hyperlink ref="B226" r:id="rId4"/>
+    <hyperlink ref="B215" r:id="rId1"/>
+    <hyperlink ref="B249" r:id="rId2"/>
+    <hyperlink ref="B274" r:id="rId3"/>
+    <hyperlink ref="B232" r:id="rId4"/>
     <hyperlink ref="B177" r:id="rId5"/>
     <hyperlink ref="B40" r:id="rId6"/>
     <hyperlink ref="B46" r:id="rId7"/>
@@ -12323,7 +12703,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B3" t="s">
         <v>399</v>
@@ -12339,7 +12719,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -14487,7 +14867,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -14495,7 +14875,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B4" s="42" t="s">
         <v>399</v>
@@ -14515,10 +14895,10 @@
       </c>
       <c r="B7" s="39"/>
       <c r="D7" s="51" t="s">
+        <v>630</v>
+      </c>
+      <c r="E7" s="51" t="s">
         <v>631</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -14530,7 +14910,7 @@
         <v>TBB/44000000</v>
       </c>
       <c r="C8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D8" s="81" t="str">
         <f>POLICYDATA!B5</f>
@@ -14550,7 +14930,7 @@
         <v>Jen Jam</v>
       </c>
       <c r="C9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D9" s="81" t="str">
         <f>POLICYDATA!B6</f>
@@ -14570,7 +14950,7 @@
         <v>s99sja</v>
       </c>
       <c r="C10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D10" s="81" t="str">
         <f>POLICYDATA!B7</f>
@@ -14590,7 +14970,7 @@
         <v>2 Elmsford Grove, Newcastle upon Tyne, NE12 8HT</v>
       </c>
       <c r="C11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D11" s="81" t="str">
         <f>POLICYDATA!B8</f>
@@ -14607,14 +14987,14 @@
       </c>
       <c r="B12" s="79" t="str">
         <f>IF(B4="DEV",D12,E12)</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
       <c r="C12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D12" s="81" t="str">
         <f>POLICYDATA!B9</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
       <c r="E12" s="78" t="str">
         <f>POLICYDATA!C9</f>
@@ -14717,7 +15097,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -14765,7 +15145,7 @@
       </c>
       <c r="B32" s="76" t="str">
         <f>B12</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -14852,7 +15232,7 @@
         <v>495</v>
       </c>
       <c r="B45" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -14908,10 +15288,10 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>719</v>
+      </c>
+      <c r="B49" s="105" t="s">
         <v>721</v>
-      </c>
-      <c r="B49" s="105" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -14957,7 +15337,7 @@
       </c>
       <c r="B56" s="76" t="str">
         <f>B12</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -14980,7 +15360,7 @@
       </c>
       <c r="B59" s="76" t="str">
         <f>B12</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -15263,18 +15643,18 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="60" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B98" s="61" t="b">
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -15732,13 +16112,13 @@
     <row r="160" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="55" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B161" s="56"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B162" s="29" t="b">
         <v>1</v>
@@ -15746,7 +16126,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B163" s="29" t="b">
         <v>0</v>
@@ -15754,7 +16134,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="28" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B164" s="29" t="b">
         <v>0</v>
@@ -15762,7 +16142,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B165" s="29" t="b">
         <v>0</v>
@@ -15770,7 +16150,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="28" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B166" s="29" t="b">
         <v>0</v>
@@ -15778,7 +16158,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B167" s="29" t="b">
         <v>0</v>
@@ -15786,7 +16166,7 @@
     </row>
     <row r="168" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B168" s="31" t="b">
         <v>0</v>
@@ -15794,12 +16174,12 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="45" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B171" s="14" t="s">
         <v>472</v>
@@ -15807,21 +16187,21 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B172" s="100" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B173" s="100"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B174" s="13" t="s">
         <v>471</v>
@@ -15829,21 +16209,21 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B175" s="104"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B176" s="104" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B177" s="14" t="s">
         <v>472</v>
@@ -15851,21 +16231,21 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="B178" s="100" t="s">
         <v>707</v>
-      </c>
-      <c r="B178" s="100" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B179" s="100"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="13" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B180" s="13" t="s">
         <v>471</v>
@@ -15873,21 +16253,21 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="13" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B181" s="104"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="13" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B182" s="104" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="14" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B183" s="14" t="s">
         <v>472</v>
@@ -15895,21 +16275,21 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="B184" s="100" t="s">
         <v>715</v>
-      </c>
-      <c r="B184" s="100" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="14" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B185" s="100"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="13" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B186" s="13" t="s">
         <v>471</v>
@@ -15917,16 +16297,16 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="13" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B187" s="104"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="13" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B188" s="104" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -16350,7 +16730,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>399</v>
@@ -16370,10 +16750,10 @@
       </c>
       <c r="B5" s="82"/>
       <c r="D5" s="83" t="s">
+        <v>630</v>
+      </c>
+      <c r="E5" s="83" t="s">
         <v>631</v>
-      </c>
-      <c r="E5" s="83" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -16450,11 +16830,11 @@
       </c>
       <c r="B10" s="79" t="str">
         <f>IF(B2="DEV",D10,E10)</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
       <c r="D10" s="81" t="str">
         <f>POLICYDATA!B9</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
       <c r="E10" s="78" t="str">
         <f>POLICYDATA!C9</f>
@@ -16547,7 +16927,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -16595,7 +16975,7 @@
       </c>
       <c r="B28" s="76" t="str">
         <f>B10</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -16682,7 +17062,7 @@
         <v>495</v>
       </c>
       <c r="B41" s="58" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -16711,7 +17091,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B45" s="105" t="s">
         <v>359</v>
@@ -16760,7 +17140,7 @@
       </c>
       <c r="B52" s="86" t="str">
         <f>B10</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -16783,7 +17163,7 @@
       </c>
       <c r="B55" s="86" t="str">
         <f>B10</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -17069,18 +17449,18 @@
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="60" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B95" s="61" t="b">
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -17481,14 +17861,14 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="57" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B150" s="87" t="str">
         <f>B7</f>
         <v>Jen Jam</v>
       </c>
       <c r="C150" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
@@ -17499,7 +17879,7 @@
         <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
@@ -17553,13 +17933,13 @@
     <row r="158" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="55" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B159" s="56"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B160" s="29" t="b">
         <v>1</v>
@@ -17567,7 +17947,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B161" s="29" t="b">
         <v>0</v>
@@ -17575,7 +17955,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="28" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B162" s="29" t="b">
         <v>0</v>
@@ -17583,7 +17963,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B163" s="29" t="b">
         <v>0</v>
@@ -17591,7 +17971,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="28" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B164" s="29" t="b">
         <v>0</v>
@@ -17599,7 +17979,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B165" s="29" t="b">
         <v>0</v>
@@ -17607,7 +17987,7 @@
     </row>
     <row r="166" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B166" s="31" t="b">
         <v>0</v>
@@ -17615,12 +17995,12 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="45" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B169" s="14" t="s">
         <v>472</v>
@@ -17628,21 +18008,21 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B170" s="100" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B171" s="100"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B172" s="13" t="s">
         <v>471</v>
@@ -17650,21 +18030,21 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B173" s="104"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B174" s="104" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B175" s="14" t="s">
         <v>472</v>
@@ -17672,21 +18052,21 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="B176" s="100" t="s">
         <v>707</v>
-      </c>
-      <c r="B176" s="100" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B177" s="100"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="13" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B178" s="13" t="s">
         <v>471</v>
@@ -17694,21 +18074,21 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="13" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B179" s="104"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="13" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B180" s="104" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="14" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B181" s="14" t="s">
         <v>472</v>
@@ -17716,21 +18096,21 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="B182" s="100" t="s">
         <v>715</v>
-      </c>
-      <c r="B182" s="100" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="14" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B183" s="100"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="13" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B184" s="13" t="s">
         <v>471</v>
@@ -17738,16 +18118,16 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="13" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B185" s="104"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="13" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B186" s="104" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -18141,7 +18521,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B3" s="48" t="s">
         <v>399</v>
@@ -18161,10 +18541,10 @@
       </c>
       <c r="B6" s="88"/>
       <c r="D6" s="51" t="s">
+        <v>630</v>
+      </c>
+      <c r="E6" s="51" t="s">
         <v>631</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -18241,11 +18621,11 @@
       </c>
       <c r="B11" s="90" t="str">
         <f>IF(B3="DEV",D11,E11)</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
       <c r="D11" s="91" t="str">
         <f>POLICYDATA!B9</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
       <c r="E11" s="89" t="str">
         <f>POLICYDATA!C9</f>
@@ -18393,7 +18773,7 @@
       </c>
       <c r="B31" s="92" t="str">
         <f>B11</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -18474,7 +18854,7 @@
         <v>495</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -18509,7 +18889,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B48" s="105" t="s">
         <v>359</v>
@@ -18558,7 +18938,7 @@
       </c>
       <c r="B55" s="92" t="str">
         <f>B11</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -18581,7 +18961,7 @@
       </c>
       <c r="B58" s="92" t="str">
         <f>B11</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -18866,7 +19246,7 @@
     </row>
     <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="60" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B97" s="61" t="b">
         <v>1</v>
@@ -19327,13 +19707,13 @@
     <row r="159" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="55" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B160" s="56"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B161" s="29" t="b">
         <v>1</v>
@@ -19341,7 +19721,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B162" s="29" t="b">
         <v>0</v>
@@ -19349,7 +19729,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="28" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B163" s="29" t="b">
         <v>0</v>
@@ -19357,7 +19737,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B164" s="29" t="b">
         <v>0</v>
@@ -19365,7 +19745,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="28" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B165" s="29" t="b">
         <v>0</v>
@@ -19373,7 +19753,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B166" s="29" t="b">
         <v>0</v>
@@ -19381,7 +19761,7 @@
     </row>
     <row r="167" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B167" s="31" t="b">
         <v>0</v>
@@ -19389,12 +19769,12 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="45" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B170" s="14" t="s">
         <v>472</v>
@@ -19402,21 +19782,21 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B171" s="100" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B172" s="100"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B173" s="13" t="s">
         <v>471</v>
@@ -19424,21 +19804,21 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B174" s="104"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B175" s="104" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B176" s="14" t="s">
         <v>472</v>
@@ -19446,21 +19826,21 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="B177" s="100" t="s">
         <v>707</v>
-      </c>
-      <c r="B177" s="100" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B178" s="100"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="13" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B179" s="13" t="s">
         <v>471</v>
@@ -19468,21 +19848,21 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="13" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B180" s="104"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="13" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B181" s="104" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="14" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B182" s="14" t="s">
         <v>472</v>
@@ -19490,21 +19870,21 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="B183" s="100" t="s">
         <v>715</v>
-      </c>
-      <c r="B183" s="100" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="14" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B184" s="100"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="13" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B185" s="13" t="s">
         <v>471</v>
@@ -19512,16 +19892,16 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="13" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B186" s="104"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="13" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B187" s="104" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -19893,7 +20273,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>399</v>
@@ -19913,10 +20293,10 @@
       </c>
       <c r="B6" s="39"/>
       <c r="D6" s="51" t="s">
+        <v>630</v>
+      </c>
+      <c r="E6" s="51" t="s">
         <v>631</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -19993,11 +20373,11 @@
       </c>
       <c r="B11" s="95" t="str">
         <f>IF(B3="DEV",D11,E11)</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
       <c r="D11" s="96" t="str">
         <f>POLICYDATA!B9</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
       <c r="E11" s="94" t="str">
         <f>POLICYDATA!C9</f>
@@ -20145,7 +20525,7 @@
       </c>
       <c r="B31" s="92" t="str">
         <f>B11</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -20226,7 +20606,7 @@
         <v>495</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -20261,7 +20641,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B48" s="105" t="s">
         <v>359</v>
@@ -20310,7 +20690,7 @@
       </c>
       <c r="B55" s="92" t="str">
         <f>B11</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -20333,7 +20713,7 @@
       </c>
       <c r="B58" s="92" t="str">
         <f>B11</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -20618,7 +20998,7 @@
     </row>
     <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="60" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B97" s="61" t="b">
         <v>1</v>
@@ -21079,13 +21459,13 @@
     <row r="159" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="55" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B160" s="56"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B161" s="29" t="b">
         <v>1</v>
@@ -21093,7 +21473,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B162" s="29" t="b">
         <v>0</v>
@@ -21101,7 +21481,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="28" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B163" s="29" t="b">
         <v>0</v>
@@ -21109,7 +21489,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B164" s="29" t="b">
         <v>0</v>
@@ -21117,7 +21497,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="28" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B165" s="29" t="b">
         <v>0</v>
@@ -21125,7 +21505,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B166" s="29" t="b">
         <v>0</v>
@@ -21133,7 +21513,7 @@
     </row>
     <row r="167" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B167" s="31" t="b">
         <v>0</v>
@@ -21141,12 +21521,12 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="45" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B170" s="14" t="s">
         <v>472</v>
@@ -21154,21 +21534,21 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B171" s="100" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B172" s="100"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B173" s="13" t="s">
         <v>471</v>
@@ -21176,21 +21556,21 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B174" s="104"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B175" s="104" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B176" s="14" t="s">
         <v>472</v>
@@ -21198,21 +21578,21 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="B177" s="100" t="s">
         <v>707</v>
-      </c>
-      <c r="B177" s="100" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B178" s="100"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="13" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B179" s="13" t="s">
         <v>471</v>
@@ -21220,21 +21600,21 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="13" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B180" s="104"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="13" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B181" s="104" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="14" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B182" s="14" t="s">
         <v>472</v>
@@ -21242,21 +21622,21 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="B183" s="100" t="s">
         <v>715</v>
-      </c>
-      <c r="B183" s="100" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="14" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B184" s="100"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="13" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B185" s="13" t="s">
         <v>471</v>
@@ -21264,16 +21644,16 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="13" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B186" s="104"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="13" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B187" s="104" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -21648,12 +22028,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>399</v>
@@ -21673,10 +22053,10 @@
       </c>
       <c r="B5" s="39"/>
       <c r="D5" s="51" t="s">
+        <v>630</v>
+      </c>
+      <c r="E5" s="51" t="s">
         <v>631</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -21753,11 +22133,11 @@
       </c>
       <c r="B10" s="95" t="str">
         <f>IF(B2="DEV",D10,E10)</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
       <c r="D10" s="96" t="str">
         <f>POLICYDATA!B9</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
       <c r="E10" s="94" t="str">
         <f>POLICYDATA!C9</f>
@@ -21895,7 +22275,7 @@
       </c>
       <c r="B28" s="92" t="str">
         <f>B10</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -21982,7 +22362,7 @@
         <v>495</v>
       </c>
       <c r="B41" s="58" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -21990,7 +22370,7 @@
         <v>17</v>
       </c>
       <c r="B42" s="84" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -21998,7 +22378,7 @@
         <v>6</v>
       </c>
       <c r="B43" s="84" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -22006,15 +22386,15 @@
         <v>8</v>
       </c>
       <c r="B44" s="84" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B45" s="105" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -22060,7 +22440,7 @@
       </c>
       <c r="B52" s="92" t="str">
         <f>B10</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -22083,7 +22463,7 @@
       </c>
       <c r="B55" s="92" t="str">
         <f>B10</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -22379,7 +22759,7 @@
     </row>
     <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="60" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B96" s="61" t="b">
         <v>1</v>
@@ -22840,13 +23220,13 @@
     <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="55" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B159" s="56"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B160" s="29" t="b">
         <v>1</v>
@@ -22854,7 +23234,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B161" s="29" t="b">
         <v>0</v>
@@ -22862,7 +23242,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="28" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B162" s="29" t="b">
         <v>0</v>
@@ -22870,7 +23250,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B163" s="29" t="b">
         <v>0</v>
@@ -22878,7 +23258,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="28" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B164" s="29" t="b">
         <v>0</v>
@@ -22886,7 +23266,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B165" s="29" t="b">
         <v>0</v>
@@ -22894,7 +23274,7 @@
     </row>
     <row r="166" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B166" s="31" t="b">
         <v>0</v>
@@ -22902,12 +23282,12 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="45" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B169" s="14" t="s">
         <v>472</v>
@@ -22915,21 +23295,21 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B170" s="100" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B171" s="100"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B172" s="13" t="s">
         <v>471</v>
@@ -22937,21 +23317,21 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B173" s="104"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B174" s="104" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B175" s="14" t="s">
         <v>472</v>
@@ -22959,21 +23339,21 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="B176" s="100" t="s">
         <v>707</v>
-      </c>
-      <c r="B176" s="100" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B177" s="100"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="13" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B178" s="13" t="s">
         <v>471</v>
@@ -22981,21 +23361,21 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="13" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B179" s="104"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="13" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B180" s="104" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="14" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B181" s="14" t="s">
         <v>472</v>
@@ -23003,21 +23383,21 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="B182" s="100" t="s">
         <v>715</v>
-      </c>
-      <c r="B182" s="100" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="14" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B183" s="100"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="13" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B184" s="13" t="s">
         <v>471</v>
@@ -23025,16 +23405,16 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="13" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B185" s="104"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="13" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B186" s="104" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -23442,12 +23822,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>399</v>
@@ -23467,10 +23847,10 @@
       </c>
       <c r="B5" s="39"/>
       <c r="D5" s="51" t="s">
+        <v>630</v>
+      </c>
+      <c r="E5" s="51" t="s">
         <v>631</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -23547,11 +23927,11 @@
       </c>
       <c r="B10" s="95" t="str">
         <f>IF(B2="DEV",D10,E10)</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
       <c r="D10" s="96" t="str">
         <f>POLICYDATA!B9</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
       <c r="E10" s="94" t="str">
         <f>POLICYDATA!C9</f>
@@ -23689,7 +24069,7 @@
       </c>
       <c r="B28" s="92" t="str">
         <f>B10</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -23776,7 +24156,7 @@
         <v>495</v>
       </c>
       <c r="B41" s="58" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -23784,7 +24164,7 @@
         <v>17</v>
       </c>
       <c r="B42" s="84" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -23792,7 +24172,7 @@
         <v>6</v>
       </c>
       <c r="B43" s="84" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -23800,15 +24180,15 @@
         <v>8</v>
       </c>
       <c r="B44" s="84" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B45" s="105" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -23854,7 +24234,7 @@
       </c>
       <c r="B52" s="92" t="str">
         <f>B10</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -23877,7 +24257,7 @@
       </c>
       <c r="B55" s="92" t="str">
         <f>B10</f>
-        <v>13/02/2019</v>
+        <v>18/02/2019</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -24173,7 +24553,7 @@
     </row>
     <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="60" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B96" s="61" t="b">
         <v>1</v>
@@ -24634,13 +25014,13 @@
     <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="55" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B159" s="56"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B160" s="29" t="b">
         <v>1</v>
@@ -24648,7 +25028,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B161" s="29" t="b">
         <v>1</v>
@@ -24656,7 +25036,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="28" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B162" s="29" t="b">
         <v>1</v>
@@ -24664,7 +25044,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B163" s="29" t="b">
         <v>1</v>
@@ -24672,7 +25052,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="28" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B164" s="29" t="b">
         <v>1</v>
@@ -24680,7 +25060,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B165" s="29" t="b">
         <v>1</v>
@@ -24688,7 +25068,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="28" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B166" s="29" t="b">
         <v>1</v>
@@ -24700,12 +25080,12 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="45" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B171" s="14" t="s">
         <v>472</v>
@@ -24713,21 +25093,21 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B172" s="100" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B173" s="100"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B174" s="13" t="s">
         <v>471</v>
@@ -24735,21 +25115,21 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B175" s="104"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B176" s="104" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B177" s="14" t="s">
         <v>472</v>
@@ -24757,21 +25137,21 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="B178" s="100" t="s">
         <v>707</v>
-      </c>
-      <c r="B178" s="100" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B179" s="100"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="13" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B180" s="13" t="s">
         <v>471</v>
@@ -24779,21 +25159,21 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="13" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B181" s="104"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="13" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B182" s="104" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="14" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B183" s="14" t="s">
         <v>472</v>
@@ -24801,21 +25181,21 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="B184" s="100" t="s">
         <v>715</v>
-      </c>
-      <c r="B184" s="100" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="14" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B185" s="100"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="13" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B186" s="13" t="s">
         <v>471</v>
@@ -24823,16 +25203,16 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="13" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B187" s="104"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="13" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B188" s="104" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5581" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5572" uniqueCount="831">
   <si>
     <t>Fnol_PolicyNumber</t>
   </si>
@@ -2377,9 +2377,6 @@
     <t>9 Elmsford Grove, Newcastle upon Tyne, NE12 8HT</t>
   </si>
   <si>
-    <t>21/02/2019</t>
-  </si>
-  <si>
     <t>Currently Under Investigations with SIU</t>
   </si>
   <si>
@@ -2527,7 +2524,13 @@
     <t>Non fault</t>
   </si>
   <si>
-    <t>000-00-000158</t>
+    <t>vrn lookup now</t>
+  </si>
+  <si>
+    <t>25/02/2019</t>
+  </si>
+  <si>
+    <t>000-00-000226</t>
   </si>
 </sst>
 </file>
@@ -9566,7 +9569,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9646,7 +9649,7 @@
         <v>660</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>779</v>
+        <v>829</v>
       </c>
       <c r="C9" s="96" t="s">
         <v>662</v>
@@ -9815,11 +9818,11 @@
       </c>
       <c r="B10" s="78" t="str">
         <f>IF(B2="DEV",D10,E10)</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="D10" s="80" t="str">
         <f>POLICYDATA!B9</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="E10" s="77" t="str">
         <f>POLICYDATA!C9</f>
@@ -9960,7 +9963,7 @@
       </c>
       <c r="B28" s="75" t="str">
         <f>B10</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10125,7 +10128,7 @@
       </c>
       <c r="B52" s="85" t="str">
         <f>B10</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -10148,7 +10151,7 @@
       </c>
       <c r="B55" s="85" t="str">
         <f>B10</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -11606,11 +11609,11 @@
       </c>
       <c r="B11" s="89" t="str">
         <f>IF(B3="DEV",D11,E11)</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="D11" s="90" t="str">
         <f>POLICYDATA!B9</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="E11" s="88" t="str">
         <f>POLICYDATA!C9</f>
@@ -11758,7 +11761,7 @@
       </c>
       <c r="B31" s="91" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11923,7 +11926,7 @@
       </c>
       <c r="B55" s="91" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -11946,7 +11949,7 @@
       </c>
       <c r="B58" s="91" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -13358,11 +13361,11 @@
       </c>
       <c r="B11" s="94" t="str">
         <f>IF(B3="DEV",D11,E11)</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="D11" s="95" t="str">
         <f>POLICYDATA!B9</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="E11" s="93" t="str">
         <f>POLICYDATA!C9</f>
@@ -13510,7 +13513,7 @@
       </c>
       <c r="B31" s="91" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13675,7 +13678,7 @@
       </c>
       <c r="B55" s="91" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -13698,7 +13701,7 @@
       </c>
       <c r="B58" s="91" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -15118,11 +15121,11 @@
       </c>
       <c r="B10" s="94" t="str">
         <f>IF(B2="DEV",D10,E10)</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="D10" s="95" t="str">
         <f>POLICYDATA!B9</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="E10" s="93" t="str">
         <f>POLICYDATA!C9</f>
@@ -15260,7 +15263,7 @@
       </c>
       <c r="B28" s="91" t="str">
         <f>B10</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -15425,7 +15428,7 @@
       </c>
       <c r="B52" s="91" t="str">
         <f>B10</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -15448,7 +15451,7 @@
       </c>
       <c r="B55" s="91" t="str">
         <f>B10</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -16912,11 +16915,11 @@
       </c>
       <c r="B10" s="94" t="str">
         <f>IF(B2="DEV",D10,E10)</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="D10" s="95" t="str">
         <f>POLICYDATA!B9</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="E10" s="93" t="str">
         <f>POLICYDATA!C9</f>
@@ -17054,7 +17057,7 @@
       </c>
       <c r="B28" s="91" t="str">
         <f>B10</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -17219,7 +17222,7 @@
       </c>
       <c r="B52" s="91" t="str">
         <f>B10</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -17242,7 +17245,7 @@
       </c>
       <c r="B55" s="91" t="str">
         <f>B10</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -18733,14 +18736,14 @@
       </c>
       <c r="B12" s="78" t="str">
         <f>IF(B4="DEV",D12,E12)</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="C12" t="s">
         <v>640</v>
       </c>
       <c r="D12" s="80" t="str">
         <f>POLICYDATA!B9</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="E12" s="77" t="str">
         <f>POLICYDATA!C9</f>
@@ -18891,7 +18894,7 @@
       </c>
       <c r="B32" s="75" t="str">
         <f>B12</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -19083,7 +19086,7 @@
       </c>
       <c r="B56" s="75" t="str">
         <f>B12</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -19106,7 +19109,7 @@
       </c>
       <c r="B59" s="75" t="str">
         <f>B12</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -20458,7 +20461,7 @@
   <dimension ref="A1:I354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20472,7 +20475,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -20480,7 +20483,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C2" t="s">
         <v>721</v>
@@ -20586,11 +20589,11 @@
       </c>
       <c r="B11" s="94" t="str">
         <f>IF(B4="DEV",D11,E11)</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="D11" s="93" t="str">
         <f>POLICYDATA!B9</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="E11" s="93" t="str">
         <f>POLICYDATA!C9</f>
@@ -20738,7 +20741,7 @@
       </c>
       <c r="B31" s="11" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -21044,7 +21047,7 @@
         <v>493</v>
       </c>
       <c r="B73" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -21069,7 +21072,7 @@
         <v>6</v>
       </c>
       <c r="B75" s="106" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D75" t="s">
         <v>255</v>
@@ -21103,7 +21106,7 @@
         <v>714</v>
       </c>
       <c r="B77" s="104" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D77" t="s">
         <v>357</v>
@@ -21152,7 +21155,7 @@
         <v>29</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -21315,7 +21318,7 @@
       </c>
       <c r="B104" s="1" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -21404,7 +21407,7 @@
       </c>
       <c r="B115" s="1" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -21421,7 +21424,7 @@
       </c>
       <c r="B117" s="1" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -21969,7 +21972,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -21977,7 +21980,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="24" t="s">
         <v>175</v>
       </c>
@@ -21985,7 +21988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="26" t="s">
         <v>176</v>
       </c>
@@ -21993,7 +21996,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="26" t="s">
         <v>177</v>
       </c>
@@ -22001,7 +22004,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="26" t="s">
         <v>178</v>
       </c>
@@ -22009,7 +22012,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="28" t="s">
         <v>179</v>
       </c>
@@ -22017,7 +22020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="28" t="s">
         <v>180</v>
       </c>
@@ -22025,7 +22028,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="30" t="s">
         <v>181</v>
       </c>
@@ -22033,15 +22036,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="6"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="6" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>63</v>
       </c>
@@ -22049,61 +22052,46 @@
         <v>64</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>65</v>
       </c>
       <c r="B188" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C188" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>66</v>
       </c>
-      <c r="B189">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>67</v>
       </c>
-      <c r="B190" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>68</v>
       </c>
-      <c r="B191" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>72</v>
-      </c>
-      <c r="B192" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>74</v>
       </c>
-      <c r="B193" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>75</v>
       </c>
-      <c r="B194" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
@@ -23238,7 +23226,7 @@
         <v>705</v>
       </c>
       <c r="B348" s="103" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
@@ -23484,8 +23472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I354"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23499,7 +23487,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -23613,11 +23601,11 @@
       </c>
       <c r="B11" s="94" t="str">
         <f>IF(B4="DEV",D11,E11)</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="D11" s="93" t="str">
         <f>POLICYDATA!B9</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="E11" s="93" t="str">
         <f>POLICYDATA!C9</f>
@@ -23765,7 +23753,7 @@
       </c>
       <c r="B31" s="11" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -24071,7 +24059,7 @@
         <v>493</v>
       </c>
       <c r="B73" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -24096,7 +24084,7 @@
         <v>6</v>
       </c>
       <c r="B75" s="106" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D75" t="s">
         <v>255</v>
@@ -24113,7 +24101,7 @@
         <v>8</v>
       </c>
       <c r="B76" s="107" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D76" t="s">
         <v>256</v>
@@ -24130,7 +24118,7 @@
         <v>714</v>
       </c>
       <c r="B77" s="104" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D77" t="s">
         <v>357</v>
@@ -24179,7 +24167,7 @@
         <v>29</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -24342,7 +24330,7 @@
       </c>
       <c r="B104" s="1" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -24431,7 +24419,7 @@
       </c>
       <c r="B115" s="1" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -24448,7 +24436,7 @@
       </c>
       <c r="B117" s="1" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -25088,49 +25076,31 @@
       <c r="A189" t="s">
         <v>66</v>
       </c>
-      <c r="B189">
-        <v>2017</v>
-      </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>67</v>
       </c>
-      <c r="B190" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>68</v>
       </c>
-      <c r="B191" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>72</v>
       </c>
-      <c r="B192" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>74</v>
       </c>
-      <c r="B193" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>75</v>
       </c>
-      <c r="B194" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
@@ -26265,7 +26235,7 @@
         <v>705</v>
       </c>
       <c r="B348" s="103" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
@@ -26511,7 +26481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I354"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
@@ -26526,7 +26496,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -26632,11 +26602,11 @@
       </c>
       <c r="B11" s="94" t="str">
         <f>IF(B4="DEV",D11,E11)</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="D11" s="93" t="str">
         <f>POLICYDATA!B9</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="E11" s="93" t="str">
         <f>POLICYDATA!C9</f>
@@ -26691,7 +26661,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -26787,7 +26757,7 @@
       </c>
       <c r="B31" s="11" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -27082,7 +27052,7 @@
         <v>18</v>
       </c>
       <c r="B72" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D72" t="s">
         <v>254</v>
@@ -27093,7 +27063,7 @@
         <v>493</v>
       </c>
       <c r="B73" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -27135,7 +27105,7 @@
         <v>8</v>
       </c>
       <c r="B76" s="107" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D76" t="s">
         <v>256</v>
@@ -27177,7 +27147,7 @@
         <v>24</v>
       </c>
       <c r="B79" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -27292,7 +27262,7 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -27300,7 +27270,7 @@
         <v>85</v>
       </c>
       <c r="B96" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -27360,7 +27330,7 @@
       </c>
       <c r="B104" s="1" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -27384,7 +27354,7 @@
         <v>260</v>
       </c>
       <c r="B107" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -27427,7 +27397,7 @@
         <v>268</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -27449,7 +27419,7 @@
       </c>
       <c r="B115" s="1" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -27466,7 +27436,7 @@
       </c>
       <c r="B117" s="1" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -27878,7 +27848,7 @@
         <v>49</v>
       </c>
       <c r="B158" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -27918,7 +27888,7 @@
         <v>121</v>
       </c>
       <c r="B163" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -27926,7 +27896,7 @@
         <v>98</v>
       </c>
       <c r="B164" s="102" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -29283,7 +29253,7 @@
         <v>705</v>
       </c>
       <c r="B348" s="103" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
@@ -29544,7 +29514,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -29650,11 +29620,11 @@
       </c>
       <c r="B11" s="94" t="str">
         <f>IF(B4="DEV",D11,E11)</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="D11" s="93" t="str">
         <f>POLICYDATA!B9</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="E11" s="93" t="str">
         <f>POLICYDATA!C9</f>
@@ -29802,7 +29772,7 @@
       </c>
       <c r="B31" s="11" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -29851,7 +29821,7 @@
         <v>427</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -29859,7 +29829,7 @@
         <v>429</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -29867,7 +29837,7 @@
         <v>431</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -29875,7 +29845,7 @@
         <v>433</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -29883,7 +29853,7 @@
         <v>424</v>
       </c>
       <c r="B42" s="98" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -30097,7 +30067,7 @@
         <v>18</v>
       </c>
       <c r="B72" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D72" t="s">
         <v>254</v>
@@ -30108,7 +30078,7 @@
         <v>493</v>
       </c>
       <c r="B73" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -30300,7 +30270,7 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -30308,7 +30278,7 @@
         <v>85</v>
       </c>
       <c r="B96" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -30365,7 +30335,7 @@
       </c>
       <c r="B104" s="1" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -30389,7 +30359,7 @@
         <v>260</v>
       </c>
       <c r="B107" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -30432,7 +30402,7 @@
         <v>268</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -30454,7 +30424,7 @@
       </c>
       <c r="B115" s="1" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -30471,7 +30441,7 @@
       </c>
       <c r="B117" s="1" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -30503,7 +30473,7 @@
         <v>281</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -30559,7 +30529,7 @@
         <v>289</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -30883,7 +30853,7 @@
         <v>49</v>
       </c>
       <c r="B158" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -30923,7 +30893,7 @@
         <v>121</v>
       </c>
       <c r="B163" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -30931,7 +30901,7 @@
         <v>98</v>
       </c>
       <c r="B164" s="102" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -32288,7 +32258,7 @@
         <v>705</v>
       </c>
       <c r="B348" s="103" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
@@ -32547,7 +32517,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -32653,11 +32623,11 @@
       </c>
       <c r="B11" s="94" t="str">
         <f>IF(B4="DEV",D11,E11)</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="D11" s="93" t="str">
         <f>POLICYDATA!B9</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="E11" s="93" t="str">
         <f>POLICYDATA!C9</f>
@@ -32805,7 +32775,7 @@
       </c>
       <c r="B31" s="11" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -33100,7 +33070,7 @@
         <v>18</v>
       </c>
       <c r="B72" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D72" t="s">
         <v>254</v>
@@ -33111,7 +33081,7 @@
         <v>493</v>
       </c>
       <c r="B73" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -33136,7 +33106,7 @@
         <v>6</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D75" t="s">
         <v>255</v>
@@ -33153,7 +33123,7 @@
         <v>8</v>
       </c>
       <c r="B76" s="107" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D76" t="s">
         <v>256</v>
@@ -33187,7 +33157,7 @@
         <v>22</v>
       </c>
       <c r="B78" s="101" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -33195,7 +33165,7 @@
         <v>24</v>
       </c>
       <c r="B79" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -33306,7 +33276,7 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -33314,7 +33284,7 @@
         <v>85</v>
       </c>
       <c r="B96" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -33374,7 +33344,7 @@
       </c>
       <c r="B104" s="1" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -33398,7 +33368,7 @@
         <v>260</v>
       </c>
       <c r="B107" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -33441,7 +33411,7 @@
         <v>268</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -33463,7 +33433,7 @@
       </c>
       <c r="B115" s="1" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -33480,7 +33450,7 @@
       </c>
       <c r="B117" s="1" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -33892,7 +33862,7 @@
         <v>49</v>
       </c>
       <c r="B158" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -33932,7 +33902,7 @@
         <v>121</v>
       </c>
       <c r="B163" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -33940,7 +33910,7 @@
         <v>98</v>
       </c>
       <c r="B164" s="102" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -35297,7 +35267,7 @@
         <v>705</v>
       </c>
       <c r="B348" s="103" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
@@ -35558,7 +35528,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -35664,11 +35634,11 @@
       </c>
       <c r="B11" s="94" t="str">
         <f>IF(B4="DEV",D11,E11)</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="D11" s="93" t="str">
         <f>POLICYDATA!B9</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="E11" s="93" t="str">
         <f>POLICYDATA!C9</f>
@@ -35816,7 +35786,7 @@
       </c>
       <c r="B31" s="11" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -36111,7 +36081,7 @@
         <v>18</v>
       </c>
       <c r="B72" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D72" t="s">
         <v>254</v>
@@ -36122,7 +36092,7 @@
         <v>493</v>
       </c>
       <c r="B73" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -36198,7 +36168,7 @@
         <v>22</v>
       </c>
       <c r="B78" s="101" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -36206,7 +36176,7 @@
         <v>24</v>
       </c>
       <c r="B79" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -36317,7 +36287,7 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -36325,7 +36295,7 @@
         <v>85</v>
       </c>
       <c r="B96" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -36385,7 +36355,7 @@
       </c>
       <c r="B104" s="1" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -36409,7 +36379,7 @@
         <v>260</v>
       </c>
       <c r="B107" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -36452,7 +36422,7 @@
         <v>268</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -36474,7 +36444,7 @@
       </c>
       <c r="B115" s="1" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -36491,7 +36461,7 @@
       </c>
       <c r="B117" s="1" t="str">
         <f>B11</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -36903,7 +36873,7 @@
         <v>49</v>
       </c>
       <c r="B158" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -36943,7 +36913,7 @@
         <v>121</v>
       </c>
       <c r="B163" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -36951,7 +36921,7 @@
         <v>98</v>
       </c>
       <c r="B164" s="102" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -38308,7 +38278,7 @@
         <v>705</v>
       </c>
       <c r="B348" s="103" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
@@ -40860,14 +40830,14 @@
       </c>
       <c r="B12" s="78" t="str">
         <f>IF(B4="DEV",D12,E12)</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="C12" t="s">
         <v>640</v>
       </c>
       <c r="D12" s="80" t="str">
         <f>POLICYDATA!B9</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
       <c r="E12" s="77" t="str">
         <f>POLICYDATA!C9</f>
@@ -41018,7 +40988,7 @@
       </c>
       <c r="B32" s="75" t="str">
         <f>B12</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -41210,7 +41180,7 @@
       </c>
       <c r="B56" s="75" t="str">
         <f>B12</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -41233,7 +41203,7 @@
       </c>
       <c r="B59" s="75" t="str">
         <f>B12</f>
-        <v>21/02/2019</v>
+        <v>25/02/2019</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="POLICYDATA" sheetId="11" r:id="rId1"/>
@@ -2584,13 +2584,13 @@
     <t>BP Garage on the A325</t>
   </si>
   <si>
-    <t>28/02/2019</t>
-  </si>
-  <si>
     <t>Fnol_Step5_Notes</t>
   </si>
   <si>
     <t>000-00-000325</t>
+  </si>
+  <si>
+    <t>04/03/2019</t>
   </si>
 </sst>
 </file>
@@ -10483,8 +10483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10564,7 +10564,7 @@
         <v>660</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="C9" s="96" t="s">
         <v>662</v>
@@ -10733,11 +10733,11 @@
       </c>
       <c r="B10" s="78" t="str">
         <f>IF(B2="DEV",D10,E10)</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="D10" s="80" t="str">
         <f>POLICYDATA!B9</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="E10" s="77" t="str">
         <f>POLICYDATA!C9</f>
@@ -10878,7 +10878,7 @@
       </c>
       <c r="B28" s="75" t="str">
         <f>B10</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11043,7 +11043,7 @@
       </c>
       <c r="B52" s="85" t="str">
         <f>B10</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -11066,7 +11066,7 @@
       </c>
       <c r="B55" s="85" t="str">
         <f>B10</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -12524,11 +12524,11 @@
       </c>
       <c r="B11" s="89" t="str">
         <f>IF(B3="DEV",D11,E11)</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="D11" s="90" t="str">
         <f>POLICYDATA!B9</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="E11" s="88" t="str">
         <f>POLICYDATA!C9</f>
@@ -12676,7 +12676,7 @@
       </c>
       <c r="B31" s="91" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12841,7 +12841,7 @@
       </c>
       <c r="B55" s="91" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -12864,7 +12864,7 @@
       </c>
       <c r="B58" s="91" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -14276,11 +14276,11 @@
       </c>
       <c r="B11" s="94" t="str">
         <f>IF(B3="DEV",D11,E11)</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="D11" s="95" t="str">
         <f>POLICYDATA!B9</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="E11" s="93" t="str">
         <f>POLICYDATA!C9</f>
@@ -14428,7 +14428,7 @@
       </c>
       <c r="B31" s="91" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -14593,7 +14593,7 @@
       </c>
       <c r="B55" s="91" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -14616,7 +14616,7 @@
       </c>
       <c r="B58" s="91" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -16036,11 +16036,11 @@
       </c>
       <c r="B10" s="94" t="str">
         <f>IF(B2="DEV",D10,E10)</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="D10" s="95" t="str">
         <f>POLICYDATA!B9</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="E10" s="93" t="str">
         <f>POLICYDATA!C9</f>
@@ -16178,7 +16178,7 @@
       </c>
       <c r="B28" s="91" t="str">
         <f>B10</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -16343,7 +16343,7 @@
       </c>
       <c r="B52" s="91" t="str">
         <f>B10</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -16366,7 +16366,7 @@
       </c>
       <c r="B55" s="91" t="str">
         <f>B10</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -17830,11 +17830,11 @@
       </c>
       <c r="B10" s="94" t="str">
         <f>IF(B2="DEV",D10,E10)</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="D10" s="95" t="str">
         <f>POLICYDATA!B9</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="E10" s="93" t="str">
         <f>POLICYDATA!C9</f>
@@ -17972,7 +17972,7 @@
       </c>
       <c r="B28" s="91" t="str">
         <f>B10</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -18137,7 +18137,7 @@
       </c>
       <c r="B52" s="91" t="str">
         <f>B10</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -18160,7 +18160,7 @@
       </c>
       <c r="B55" s="91" t="str">
         <f>B10</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -19651,14 +19651,14 @@
       </c>
       <c r="B12" s="78" t="str">
         <f>IF(B4="DEV",D12,E12)</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="C12" t="s">
         <v>640</v>
       </c>
       <c r="D12" s="80" t="str">
         <f>POLICYDATA!B9</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="E12" s="77" t="str">
         <f>POLICYDATA!C9</f>
@@ -19809,7 +19809,7 @@
       </c>
       <c r="B32" s="75" t="str">
         <f>B12</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -20001,7 +20001,7 @@
       </c>
       <c r="B56" s="75" t="str">
         <f>B12</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -20024,7 +20024,7 @@
       </c>
       <c r="B59" s="75" t="str">
         <f>B12</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -21375,8 +21375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21398,7 +21398,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C2" t="s">
         <v>723</v>
@@ -21504,11 +21504,11 @@
       </c>
       <c r="B11" s="94" t="str">
         <f>IF(B4="DEV",D11,E11)</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="D11" s="93" t="str">
         <f>POLICYDATA!B9</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="E11" s="93" t="str">
         <f>POLICYDATA!C9</f>
@@ -21656,7 +21656,7 @@
       </c>
       <c r="B31" s="11" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -22272,7 +22272,7 @@
       </c>
       <c r="B110" s="1" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -22361,7 +22361,7 @@
       </c>
       <c r="B121" s="1" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -22378,7 +22378,7 @@
       </c>
       <c r="B123" s="1" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -24261,7 +24261,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="13" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B366" s="103" t="str">
         <f>B79</f>
@@ -24651,11 +24651,11 @@
       </c>
       <c r="B11" s="94" t="str">
         <f>IF(B4="DEV",D11,E11)</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="D11" s="93" t="str">
         <f>POLICYDATA!B9</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="E11" s="93" t="str">
         <f>POLICYDATA!C9</f>
@@ -24803,7 +24803,7 @@
       </c>
       <c r="B31" s="11" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -25423,7 +25423,7 @@
       </c>
       <c r="B110" s="1" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -25512,7 +25512,7 @@
       </c>
       <c r="B121" s="1" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -25529,7 +25529,7 @@
       </c>
       <c r="B123" s="1" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -27409,7 +27409,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="13" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B366" s="103" t="str">
         <f>B79</f>
@@ -27857,11 +27857,11 @@
       </c>
       <c r="B11" s="94" t="str">
         <f>IF(B4="DEV",D11,E11)</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="D11" s="93" t="str">
         <f>POLICYDATA!B9</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="E11" s="93" t="str">
         <f>POLICYDATA!C9</f>
@@ -28012,7 +28012,7 @@
       </c>
       <c r="B31" s="11" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -28630,7 +28630,7 @@
       </c>
       <c r="B110" s="1" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -28719,7 +28719,7 @@
       </c>
       <c r="B121" s="1" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -28736,7 +28736,7 @@
       </c>
       <c r="B123" s="1" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -30602,7 +30602,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="13" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B362" s="103" t="str">
         <f>B79</f>
@@ -31017,11 +31017,11 @@
       </c>
       <c r="B11" s="94" t="str">
         <f>IF(B4="DEV",D11,E11)</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="D11" s="93" t="str">
         <f>POLICYDATA!B9</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="E11" s="93" t="str">
         <f>POLICYDATA!C9</f>
@@ -31169,7 +31169,7 @@
       </c>
       <c r="B31" s="11" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -31780,7 +31780,7 @@
       </c>
       <c r="B110" s="1" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -31869,7 +31869,7 @@
       </c>
       <c r="B121" s="1" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -31886,7 +31886,7 @@
       </c>
       <c r="B123" s="1" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -33752,7 +33752,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="13" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B362" s="103" t="str">
         <f>B79</f>
@@ -34156,11 +34156,11 @@
       </c>
       <c r="B11" s="94" t="str">
         <f>IF(B4="DEV",D11,E11)</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="D11" s="93" t="str">
         <f>POLICYDATA!B9</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="E11" s="93" t="str">
         <f>POLICYDATA!C9</f>
@@ -34308,7 +34308,7 @@
       </c>
       <c r="B31" s="11" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -34922,7 +34922,7 @@
       </c>
       <c r="B110" s="1" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -35011,7 +35011,7 @@
       </c>
       <c r="B121" s="1" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -35028,7 +35028,7 @@
       </c>
       <c r="B123" s="1" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -36894,7 +36894,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="13" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B362" s="103" t="str">
         <f>B79</f>
@@ -37177,7 +37177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I362"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A331" workbookViewId="0">
       <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
@@ -37298,11 +37298,11 @@
       </c>
       <c r="B11" s="94" t="str">
         <f>IF(B4="DEV",D11,E11)</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="D11" s="93" t="str">
         <f>POLICYDATA!B9</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="E11" s="93" t="str">
         <f>POLICYDATA!C9</f>
@@ -37450,7 +37450,7 @@
       </c>
       <c r="B31" s="11" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -38064,7 +38064,7 @@
       </c>
       <c r="B110" s="1" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -38153,7 +38153,7 @@
       </c>
       <c r="B121" s="1" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -38170,7 +38170,7 @@
       </c>
       <c r="B123" s="1" t="str">
         <f>B11</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -40036,7 +40036,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="13" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B362" s="103" t="str">
         <f>B79</f>
@@ -42625,14 +42625,14 @@
       </c>
       <c r="B12" s="78" t="str">
         <f>IF(B4="DEV",D12,E12)</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="C12" t="s">
         <v>640</v>
       </c>
       <c r="D12" s="80" t="str">
         <f>POLICYDATA!B9</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
       <c r="E12" s="77" t="str">
         <f>POLICYDATA!C9</f>
@@ -42783,7 +42783,7 @@
       </c>
       <c r="B32" s="75" t="str">
         <f>B12</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -42975,7 +42975,7 @@
       </c>
       <c r="B56" s="75" t="str">
         <f>B12</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -42998,7 +42998,7 @@
       </c>
       <c r="B59" s="75" t="str">
         <f>B12</f>
-        <v>28/02/2019</v>
+        <v>04/03/2019</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -2374,9 +2374,6 @@
     <t>Fnol_PropertyNewOwnerPrimaryPhone</t>
   </si>
   <si>
-    <t>ITB/14000000</t>
-  </si>
-  <si>
     <t>Currently Under Investigations with SIU</t>
   </si>
   <si>
@@ -2591,6 +2588,9 @@
   </si>
   <si>
     <t>04/03/2019</t>
+  </si>
+  <si>
+    <t>ITB/1551704449579</t>
   </si>
 </sst>
 </file>
@@ -10484,7 +10484,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10520,7 +10520,7 @@
         <v>656</v>
       </c>
       <c r="B5" s="93" t="s">
-        <v>778</v>
+        <v>850</v>
       </c>
       <c r="C5" s="93" t="s">
         <v>627</v>
@@ -10564,7 +10564,7 @@
         <v>660</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C9" s="96" t="s">
         <v>662</v>
@@ -10665,11 +10665,11 @@
       </c>
       <c r="B6" s="77" t="str">
         <f>IF(B2="DEV",D6,E6)</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="D6" s="80" t="str">
         <f>POLICYDATA!B5</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="E6" s="77" t="str">
         <f>POLICYDATA!C5</f>
@@ -12456,11 +12456,11 @@
       </c>
       <c r="B7" s="88" t="str">
         <f>IF(B3="DEV",D7,E7)</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="D7" s="90" t="str">
         <f>POLICYDATA!B5</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="E7" s="88" t="str">
         <f>POLICYDATA!C5</f>
@@ -14208,11 +14208,11 @@
       </c>
       <c r="B7" s="93" t="str">
         <f>IF(B3="DEV",D7,E7)</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="D7" s="95" t="str">
         <f>POLICYDATA!B5</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="E7" s="93" t="str">
         <f>POLICYDATA!C5</f>
@@ -15968,11 +15968,11 @@
       </c>
       <c r="B6" s="93" t="str">
         <f>IF(B2="DEV",D6,E6)</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="D6" s="95" t="str">
         <f>POLICYDATA!B5</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="E6" s="93" t="str">
         <f>POLICYDATA!C5</f>
@@ -17762,11 +17762,11 @@
       </c>
       <c r="B6" s="93" t="str">
         <f>IF(B2="DEV",D6,E6)</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="D6" s="95" t="str">
         <f>POLICYDATA!B5</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="E6" s="93" t="str">
         <f>POLICYDATA!C5</f>
@@ -19571,14 +19571,14 @@
       </c>
       <c r="B8" s="51" t="str">
         <f>IF(B4="DEV",D8,E8)</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="C8" t="s">
         <v>640</v>
       </c>
       <c r="D8" s="80" t="str">
         <f>POLICYDATA!B5</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="E8" s="77" t="str">
         <f>POLICYDATA!C5</f>
@@ -21390,7 +21390,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -21398,7 +21398,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C2" t="s">
         <v>723</v>
@@ -21436,11 +21436,11 @@
       </c>
       <c r="B7" s="93" t="str">
         <f>IF(B4="DEV",D7,E7)</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="D7" s="95" t="str">
         <f>POLICYDATA!B5</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="E7" s="93" t="str">
         <f>POLICYDATA!C5</f>
@@ -21940,7 +21940,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B71" t="b">
         <v>0</v>
@@ -21948,7 +21948,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B72" t="b">
         <v>1</v>
@@ -21956,15 +21956,15 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>835</v>
+      </c>
+      <c r="B73" t="s">
         <v>836</v>
-      </c>
-      <c r="B73" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B74" t="b">
         <v>0</v>
@@ -21972,17 +21972,17 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="20" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B77" s="14" t="b">
         <v>0</v>
@@ -21990,10 +21990,10 @@
     </row>
     <row r="78" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="20" t="s">
+        <v>844</v>
+      </c>
+      <c r="B78" s="14" t="s">
         <v>845</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -22001,7 +22001,7 @@
         <v>493</v>
       </c>
       <c r="B79" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -22026,7 +22026,7 @@
         <v>6</v>
       </c>
       <c r="B81" s="106" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D81" t="s">
         <v>255</v>
@@ -22060,7 +22060,7 @@
         <v>716</v>
       </c>
       <c r="B83" s="104" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D83" t="s">
         <v>357</v>
@@ -22109,7 +22109,7 @@
         <v>29</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -23014,7 +23014,7 @@
         <v>69</v>
       </c>
       <c r="C194" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
@@ -23138,7 +23138,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B212" s="6" t="b">
         <v>1</v>
@@ -23146,26 +23146,26 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
+        <v>825</v>
+      </c>
+      <c r="B213" s="6" t="s">
         <v>826</v>
-      </c>
-      <c r="B213" s="6" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
@@ -24212,7 +24212,7 @@
         <v>707</v>
       </c>
       <c r="B358" s="103" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.35">
@@ -24261,7 +24261,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B366" s="103" t="str">
         <f>B79</f>
@@ -24537,7 +24537,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -24583,11 +24583,11 @@
       </c>
       <c r="B7" s="93" t="str">
         <f>IF(B4="DEV",D7,E7)</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="D7" s="95" t="str">
         <f>POLICYDATA!B5</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="E7" s="93" t="str">
         <f>POLICYDATA!C5</f>
@@ -25087,7 +25087,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B71" t="b">
         <v>0</v>
@@ -25095,7 +25095,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="20" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B72" s="14" t="b">
         <v>0</v>
@@ -25103,13 +25103,13 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="14" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B73" s="14"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="34" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B74" s="13" t="b">
         <v>1</v>
@@ -25117,23 +25117,23 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
+        <v>839</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>840</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="20" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B77" s="14" t="b">
         <v>0</v>
@@ -25141,10 +25141,10 @@
     </row>
     <row r="78" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="20" t="s">
+        <v>844</v>
+      </c>
+      <c r="B78" s="14" t="s">
         <v>845</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -25152,7 +25152,7 @@
         <v>493</v>
       </c>
       <c r="B79" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -25177,7 +25177,7 @@
         <v>6</v>
       </c>
       <c r="B81" s="106" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D81" t="s">
         <v>255</v>
@@ -25194,7 +25194,7 @@
         <v>8</v>
       </c>
       <c r="B82" s="107" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D82" t="s">
         <v>256</v>
@@ -25211,7 +25211,7 @@
         <v>716</v>
       </c>
       <c r="B83" s="104" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D83" t="s">
         <v>357</v>
@@ -25260,7 +25260,7 @@
         <v>29</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -26286,7 +26286,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B212" s="6" t="b">
         <v>0</v>
@@ -26294,26 +26294,26 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
+        <v>825</v>
+      </c>
+      <c r="B213" s="6" t="s">
         <v>826</v>
-      </c>
-      <c r="B213" s="6" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
+        <v>828</v>
+      </c>
+      <c r="B214" s="8" t="s">
         <v>829</v>
-      </c>
-      <c r="B214" s="8" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
@@ -27360,7 +27360,7 @@
         <v>707</v>
       </c>
       <c r="B358" s="103" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.35">
@@ -27409,7 +27409,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B366" s="103" t="str">
         <f>B79</f>
@@ -27751,7 +27751,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -27789,11 +27789,11 @@
       </c>
       <c r="B7" s="93" t="str">
         <f>IF(B4="DEV",D7,E7)</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="D7" s="95" t="str">
         <f>POLICYDATA!B5</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="E7" s="93" t="str">
         <f>POLICYDATA!C5</f>
@@ -27916,7 +27916,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -28296,7 +28296,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B71" t="b">
         <v>0</v>
@@ -28304,7 +28304,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="20" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B72" s="14" t="b">
         <v>1</v>
@@ -28312,15 +28312,15 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="14" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="34" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B74" s="13" t="b">
         <v>0</v>
@@ -28328,23 +28328,23 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
+        <v>839</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>840</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="20" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B77" s="14" t="b">
         <v>0</v>
@@ -28352,10 +28352,10 @@
     </row>
     <row r="78" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="20" t="s">
+        <v>844</v>
+      </c>
+      <c r="B78" s="14" t="s">
         <v>845</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -28363,7 +28363,7 @@
         <v>493</v>
       </c>
       <c r="B79" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -28405,7 +28405,7 @@
         <v>8</v>
       </c>
       <c r="B82" s="107" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D82" t="s">
         <v>256</v>
@@ -28447,7 +28447,7 @@
         <v>24</v>
       </c>
       <c r="B85" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -28562,7 +28562,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -28570,7 +28570,7 @@
         <v>85</v>
       </c>
       <c r="B102" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -28654,7 +28654,7 @@
         <v>260</v>
       </c>
       <c r="B113" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -28697,7 +28697,7 @@
         <v>268</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -29148,7 +29148,7 @@
         <v>49</v>
       </c>
       <c r="B164" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -29188,7 +29188,7 @@
         <v>121</v>
       </c>
       <c r="B169" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
@@ -29196,7 +29196,7 @@
         <v>98</v>
       </c>
       <c r="B170" s="102" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
@@ -30553,7 +30553,7 @@
         <v>707</v>
       </c>
       <c r="B354" s="103" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
@@ -30602,7 +30602,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B362" s="103" t="str">
         <f>B79</f>
@@ -30911,7 +30911,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -30949,11 +30949,11 @@
       </c>
       <c r="B7" s="93" t="str">
         <f>IF(B4="DEV",D7,E7)</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="D7" s="95" t="str">
         <f>POLICYDATA!B5</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="E7" s="93" t="str">
         <f>POLICYDATA!C5</f>
@@ -31218,7 +31218,7 @@
         <v>427</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -31226,7 +31226,7 @@
         <v>429</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -31234,7 +31234,7 @@
         <v>431</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -31242,7 +31242,7 @@
         <v>433</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -31250,7 +31250,7 @@
         <v>424</v>
       </c>
       <c r="B42" s="98" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -31453,18 +31453,18 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
         <v>833</v>
-      </c>
-      <c r="B71" t="b">
-        <v>1</v>
-      </c>
-      <c r="D71" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B72" t="b">
         <v>0</v>
@@ -31472,15 +31472,15 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>835</v>
+      </c>
+      <c r="B73" t="s">
         <v>836</v>
-      </c>
-      <c r="B73" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="34" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B74" s="13" t="b">
         <v>0</v>
@@ -31488,23 +31488,23 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
+        <v>839</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>840</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="20" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B77" s="14" t="b">
         <v>0</v>
@@ -31512,10 +31512,10 @@
     </row>
     <row r="78" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="20" t="s">
+        <v>844</v>
+      </c>
+      <c r="B78" s="14" t="s">
         <v>845</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -31523,7 +31523,7 @@
         <v>493</v>
       </c>
       <c r="B79" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -31715,7 +31715,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -31723,7 +31723,7 @@
         <v>85</v>
       </c>
       <c r="B102" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -31804,7 +31804,7 @@
         <v>260</v>
       </c>
       <c r="B113" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -31847,7 +31847,7 @@
         <v>268</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -31918,7 +31918,7 @@
         <v>281</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -31974,7 +31974,7 @@
         <v>289</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
@@ -32298,7 +32298,7 @@
         <v>49</v>
       </c>
       <c r="B164" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -32338,7 +32338,7 @@
         <v>121</v>
       </c>
       <c r="B169" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
@@ -32346,7 +32346,7 @@
         <v>98</v>
       </c>
       <c r="B170" s="102" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
@@ -33703,7 +33703,7 @@
         <v>707</v>
       </c>
       <c r="B354" s="103" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
@@ -33752,7 +33752,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B362" s="103" t="str">
         <f>B79</f>
@@ -34050,7 +34050,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -34088,11 +34088,11 @@
       </c>
       <c r="B7" s="93" t="str">
         <f>IF(B4="DEV",D7,E7)</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="D7" s="95" t="str">
         <f>POLICYDATA!B5</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="E7" s="93" t="str">
         <f>POLICYDATA!C5</f>
@@ -34592,7 +34592,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B71" t="b">
         <v>0</v>
@@ -34600,7 +34600,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B72" t="b">
         <v>0</v>
@@ -34608,15 +34608,15 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>835</v>
+      </c>
+      <c r="B73" t="s">
         <v>836</v>
-      </c>
-      <c r="B73" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="34" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B74" s="13" t="b">
         <v>0</v>
@@ -34624,23 +34624,23 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
+        <v>839</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>840</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="20" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B77" s="14" t="b">
         <v>1</v>
@@ -34648,10 +34648,10 @@
     </row>
     <row r="78" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="20" t="s">
+        <v>844</v>
+      </c>
+      <c r="B78" s="14" t="s">
         <v>845</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -34659,7 +34659,7 @@
         <v>493</v>
       </c>
       <c r="B79" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -34684,7 +34684,7 @@
         <v>6</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D81" t="s">
         <v>255</v>
@@ -34701,7 +34701,7 @@
         <v>8</v>
       </c>
       <c r="B82" s="107" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D82" t="s">
         <v>256</v>
@@ -34735,7 +34735,7 @@
         <v>22</v>
       </c>
       <c r="B84" s="101" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -34743,7 +34743,7 @@
         <v>24</v>
       </c>
       <c r="B85" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -34854,7 +34854,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -34862,7 +34862,7 @@
         <v>85</v>
       </c>
       <c r="B102" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -34946,7 +34946,7 @@
         <v>260</v>
       </c>
       <c r="B113" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -34989,7 +34989,7 @@
         <v>268</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -35440,7 +35440,7 @@
         <v>49</v>
       </c>
       <c r="B164" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -35480,7 +35480,7 @@
         <v>121</v>
       </c>
       <c r="B169" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
@@ -35488,7 +35488,7 @@
         <v>98</v>
       </c>
       <c r="B170" s="102" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
@@ -36845,7 +36845,7 @@
         <v>707</v>
       </c>
       <c r="B354" s="103" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
@@ -36894,7 +36894,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B362" s="103" t="str">
         <f>B79</f>
@@ -37192,7 +37192,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -37230,11 +37230,11 @@
       </c>
       <c r="B7" s="93" t="str">
         <f>IF(B4="DEV",D7,E7)</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="D7" s="95" t="str">
         <f>POLICYDATA!B5</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="E7" s="93" t="str">
         <f>POLICYDATA!C5</f>
@@ -37734,7 +37734,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B71" t="b">
         <v>0</v>
@@ -37742,15 +37742,15 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>835</v>
+      </c>
+      <c r="B72" t="s">
         <v>836</v>
-      </c>
-      <c r="B72" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B73" t="b">
         <v>0</v>
@@ -37758,7 +37758,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="34" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B74" s="13" t="b">
         <v>0</v>
@@ -37766,23 +37766,23 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
+        <v>839</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>840</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="20" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B77" s="14" t="b">
         <v>1</v>
@@ -37790,10 +37790,10 @@
     </row>
     <row r="78" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="20" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -37801,7 +37801,7 @@
         <v>493</v>
       </c>
       <c r="B79" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -37877,7 +37877,7 @@
         <v>22</v>
       </c>
       <c r="B84" s="101" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -37885,7 +37885,7 @@
         <v>24</v>
       </c>
       <c r="B85" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -37996,7 +37996,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -38004,7 +38004,7 @@
         <v>85</v>
       </c>
       <c r="B102" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -38088,7 +38088,7 @@
         <v>260</v>
       </c>
       <c r="B113" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -38131,7 +38131,7 @@
         <v>268</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -38582,7 +38582,7 @@
         <v>49</v>
       </c>
       <c r="B164" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -38622,7 +38622,7 @@
         <v>121</v>
       </c>
       <c r="B169" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
@@ -38630,7 +38630,7 @@
         <v>98</v>
       </c>
       <c r="B170" s="102" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
@@ -39987,7 +39987,7 @@
         <v>707</v>
       </c>
       <c r="B354" s="103" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
@@ -40036,7 +40036,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B362" s="103" t="str">
         <f>B79</f>
@@ -42545,14 +42545,14 @@
       </c>
       <c r="B8" s="51" t="str">
         <f>IF(B4="DEV",D8,E8)</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="C8" t="s">
         <v>640</v>
       </c>
       <c r="D8" s="80" t="str">
         <f>POLICYDATA!B5</f>
-        <v>ITB/14000000</v>
+        <v>ITB/1551704449579</v>
       </c>
       <c r="E8" s="77" t="str">
         <f>POLICYDATA!C5</f>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="POLICYDATA" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5656" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5652" uniqueCount="875">
   <si>
     <t>Fnol_PolicyNumber</t>
   </si>
@@ -2512,9 +2512,6 @@
     <t>9181918/WMI</t>
   </si>
   <si>
-    <t>000-00-000999</t>
-  </si>
-  <si>
     <t>Fnol_Step3_LossLocUseInsuredAddress</t>
   </si>
   <si>
@@ -2566,27 +2563,12 @@
     <t>WMI12345678-zzz</t>
   </si>
   <si>
-    <t>000-00-000105</t>
-  </si>
-  <si>
     <t>Enterprise House, Melburne Park Vicarage Road  Egham  Surrey, Egham, TW20 9JY</t>
   </si>
   <si>
     <t>PROBLEM WITH THE SERVICE ADDRESS</t>
   </si>
   <si>
-    <t>ITB/1551795161837</t>
-  </si>
-  <si>
-    <t>Test RR</t>
-  </si>
-  <si>
-    <t>182 Penstone Court, Chandlery Way, Cardiff, CF10 5NQ</t>
-  </si>
-  <si>
-    <t>06/03/2019</t>
-  </si>
-  <si>
     <t>Fnol_PHDriverLicenseHeldLength</t>
   </si>
   <si>
@@ -2653,16 +2635,35 @@
     <t>Took a breathalyser test</t>
   </si>
   <si>
-    <t>DGT/1552037256047</t>
-  </si>
-  <si>
-    <t>08/03/2019</t>
-  </si>
-  <si>
-    <t>steve knight-dgt2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</t>
+    <t>000-00-000143</t>
+  </si>
+  <si>
+    <t>TBB/1552320070379</t>
+  </si>
+  <si>
+    <t>Test Quote</t>
+  </si>
+  <si>
+    <t>4 Windmill Way, Gateshead, NE8 1PJ</t>
+  </si>
+  <si>
+    <t>DEV OR TEST</t>
+  </si>
+  <si>
+    <t>13/03/2019</t>
+  </si>
+  <si>
+    <t>ITB/1552489982690</t>
+  </si>
+  <si>
+    <t>steve knight-itb1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</t>
+  </si>
+  <si>
+    <t>CLM134-66-abc</t>
   </si>
 </sst>
 </file>
@@ -10567,8 +10568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10588,7 +10589,12 @@
       <c r="A2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6"/>
+      <c r="A3" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="B3" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
@@ -10607,7 +10613,7 @@
         <v>871</v>
       </c>
       <c r="C5" s="93" t="s">
-        <v>845</v>
+        <v>866</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -10615,10 +10621,10 @@
         <v>654</v>
       </c>
       <c r="B6" s="93" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C6" s="93" t="s">
-        <v>846</v>
+        <v>867</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -10632,15 +10638,15 @@
         <v>658</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>656</v>
       </c>
       <c r="B8" s="93" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C8" s="93" t="s">
-        <v>847</v>
+        <v>868</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10648,10 +10654,10 @@
         <v>657</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C9" s="96" t="s">
-        <v>848</v>
+        <v>681</v>
       </c>
       <c r="E9" s="52"/>
     </row>
@@ -10749,15 +10755,15 @@
       </c>
       <c r="B6" s="77" t="str">
         <f>IF(B2="DEV",D6,E6)</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="D6" s="80" t="str">
         <f>POLICYDATA!B5</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="E6" s="77" t="str">
         <f>POLICYDATA!C5</f>
-        <v>ITB/1551795161837</v>
+        <v>TBB/1552320070379</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -10766,15 +10772,15 @@
       </c>
       <c r="B7" s="77" t="str">
         <f>IF(B2="DEV",D7,E7)</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="D7" s="80" t="str">
         <f>POLICYDATA!B6</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="E7" s="77" t="str">
         <f>POLICYDATA!C6</f>
-        <v>Test RR</v>
+        <v>Test Quote</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -10800,15 +10806,17 @@
       </c>
       <c r="B9" s="77" t="str">
         <f>IF(B2="DEV",D9,E9)</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="D9" s="80" t="str">
         <f>POLICYDATA!B8</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="E9" s="77" t="str">
         <f>POLICYDATA!C8</f>
-        <v>182 Penstone Court, Chandlery Way, Cardiff, CF10 5NQ</v>
+        <v>4 Windmill Way, Gateshead, NE8 1PJ</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10817,15 +10825,15 @@
       </c>
       <c r="B10" s="78" t="str">
         <f>IF(B2="DEV",D10,E10)</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="D10" s="80" t="str">
         <f>POLICYDATA!B9</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="E10" s="77" t="str">
         <f>POLICYDATA!C9</f>
-        <v>06/03/2019</v>
+        <v>11/03/2019</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -10962,7 +10970,7 @@
       </c>
       <c r="B28" s="75" t="str">
         <f>B10</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10988,7 +10996,7 @@
       </c>
       <c r="B32" s="76" t="str">
         <f>B7</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -11127,7 +11135,7 @@
       </c>
       <c r="B52" s="85" t="str">
         <f>B10</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -11150,7 +11158,7 @@
       </c>
       <c r="B55" s="85" t="str">
         <f>B10</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -11201,7 +11209,7 @@
       </c>
       <c r="B63" s="57" t="str">
         <f>B7</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -11852,7 +11860,7 @@
       </c>
       <c r="B150" s="86" t="str">
         <f>B7</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="C150" t="s">
         <v>646</v>
@@ -12540,15 +12548,15 @@
       </c>
       <c r="B7" s="88" t="str">
         <f>IF(B3="DEV",D7,E7)</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="D7" s="90" t="str">
         <f>POLICYDATA!B5</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="E7" s="88" t="str">
         <f>POLICYDATA!C5</f>
-        <v>ITB/1551795161837</v>
+        <v>TBB/1552320070379</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -12557,15 +12565,15 @@
       </c>
       <c r="B8" s="88" t="str">
         <f>IF(B3="DEV",D8,E8)</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="D8" s="90" t="str">
         <f>POLICYDATA!B6</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="E8" s="88" t="str">
         <f>POLICYDATA!C6</f>
-        <v>Test RR</v>
+        <v>Test Quote</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -12591,15 +12599,17 @@
       </c>
       <c r="B10" s="88" t="str">
         <f>IF(B3="DEV",D10,E10)</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="D10" s="90" t="str">
         <f>POLICYDATA!B8</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="E10" s="88" t="str">
         <f>POLICYDATA!C8</f>
-        <v>182 Penstone Court, Chandlery Way, Cardiff, CF10 5NQ</v>
+        <v>4 Windmill Way, Gateshead, NE8 1PJ</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -12608,15 +12618,15 @@
       </c>
       <c r="B11" s="89" t="str">
         <f>IF(B3="DEV",D11,E11)</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="D11" s="90" t="str">
         <f>POLICYDATA!B9</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="E11" s="88" t="str">
         <f>POLICYDATA!C9</f>
-        <v>06/03/2019</v>
+        <v>11/03/2019</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -12760,7 +12770,7 @@
       </c>
       <c r="B31" s="91" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12786,7 +12796,7 @@
       </c>
       <c r="B35" s="92" t="str">
         <f>B8</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -12925,7 +12935,7 @@
       </c>
       <c r="B55" s="91" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -12948,7 +12958,7 @@
       </c>
       <c r="B58" s="91" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -12996,7 +13006,7 @@
       </c>
       <c r="B65" s="27" t="str">
         <f>B8</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -14292,15 +14302,15 @@
       </c>
       <c r="B7" s="93" t="str">
         <f>IF(B3="DEV",D7,E7)</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="D7" s="95" t="str">
         <f>POLICYDATA!B5</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="E7" s="93" t="str">
         <f>POLICYDATA!C5</f>
-        <v>ITB/1551795161837</v>
+        <v>TBB/1552320070379</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -14309,15 +14319,15 @@
       </c>
       <c r="B8" s="93" t="str">
         <f>IF(B3="DEV",D8,E8)</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="D8" s="95" t="str">
         <f>POLICYDATA!B6</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="E8" s="93" t="str">
         <f>POLICYDATA!C6</f>
-        <v>Test RR</v>
+        <v>Test Quote</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -14343,15 +14353,17 @@
       </c>
       <c r="B10" s="93" t="str">
         <f>IF(B3="DEV",D10,E10)</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="D10" s="95" t="str">
         <f>POLICYDATA!B8</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="E10" s="93" t="str">
         <f>POLICYDATA!C8</f>
-        <v>182 Penstone Court, Chandlery Way, Cardiff, CF10 5NQ</v>
+        <v>4 Windmill Way, Gateshead, NE8 1PJ</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -14360,15 +14372,15 @@
       </c>
       <c r="B11" s="94" t="str">
         <f>IF(B3="DEV",D11,E11)</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="D11" s="95" t="str">
         <f>POLICYDATA!B9</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="E11" s="93" t="str">
         <f>POLICYDATA!C9</f>
-        <v>06/03/2019</v>
+        <v>11/03/2019</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -14512,7 +14524,7 @@
       </c>
       <c r="B31" s="91" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -14538,7 +14550,7 @@
       </c>
       <c r="B35" s="92" t="str">
         <f>B8</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -14677,7 +14689,7 @@
       </c>
       <c r="B55" s="91" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -14700,7 +14712,7 @@
       </c>
       <c r="B58" s="91" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -14748,7 +14760,7 @@
       </c>
       <c r="B65" s="27" t="str">
         <f>B8</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -16052,15 +16064,15 @@
       </c>
       <c r="B6" s="93" t="str">
         <f>IF(B2="DEV",D6,E6)</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="D6" s="95" t="str">
         <f>POLICYDATA!B5</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="E6" s="93" t="str">
         <f>POLICYDATA!C5</f>
-        <v>ITB/1551795161837</v>
+        <v>TBB/1552320070379</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -16069,15 +16081,15 @@
       </c>
       <c r="B7" s="93" t="str">
         <f>IF(B2="DEV",D7,E7)</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="D7" s="95" t="str">
         <f>POLICYDATA!B6</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="E7" s="93" t="str">
         <f>POLICYDATA!C6</f>
-        <v>Test RR</v>
+        <v>Test Quote</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -16103,15 +16115,17 @@
       </c>
       <c r="B9" s="93" t="str">
         <f>IF(B2="DEV",D9,E9)</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="D9" s="95" t="str">
         <f>POLICYDATA!B8</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="E9" s="93" t="str">
         <f>POLICYDATA!C8</f>
-        <v>182 Penstone Court, Chandlery Way, Cardiff, CF10 5NQ</v>
+        <v>4 Windmill Way, Gateshead, NE8 1PJ</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16120,15 +16134,15 @@
       </c>
       <c r="B10" s="94" t="str">
         <f>IF(B2="DEV",D10,E10)</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="D10" s="95" t="str">
         <f>POLICYDATA!B9</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="E10" s="93" t="str">
         <f>POLICYDATA!C9</f>
-        <v>06/03/2019</v>
+        <v>11/03/2019</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -16262,7 +16276,7 @@
       </c>
       <c r="B28" s="91" t="str">
         <f>B10</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -16288,7 +16302,7 @@
       </c>
       <c r="B32" s="92" t="str">
         <f>B7</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -16427,7 +16441,7 @@
       </c>
       <c r="B52" s="91" t="str">
         <f>B10</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -16450,7 +16464,7 @@
       </c>
       <c r="B55" s="91" t="str">
         <f>B10</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -16501,7 +16515,7 @@
       </c>
       <c r="B63" s="27" t="str">
         <f>B7</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -17846,15 +17860,15 @@
       </c>
       <c r="B6" s="93" t="str">
         <f>IF(B2="DEV",D6,E6)</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="D6" s="95" t="str">
         <f>POLICYDATA!B5</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="E6" s="93" t="str">
         <f>POLICYDATA!C5</f>
-        <v>ITB/1551795161837</v>
+        <v>TBB/1552320070379</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -17863,15 +17877,15 @@
       </c>
       <c r="B7" s="93" t="str">
         <f>IF(B2="DEV",D7,E7)</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="D7" s="95" t="str">
         <f>POLICYDATA!B6</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="E7" s="93" t="str">
         <f>POLICYDATA!C6</f>
-        <v>Test RR</v>
+        <v>Test Quote</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -17897,15 +17911,17 @@
       </c>
       <c r="B9" s="93" t="str">
         <f>IF(B2="DEV",D9,E9)</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="D9" s="95" t="str">
         <f>POLICYDATA!B8</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="E9" s="93" t="str">
         <f>POLICYDATA!C8</f>
-        <v>182 Penstone Court, Chandlery Way, Cardiff, CF10 5NQ</v>
+        <v>4 Windmill Way, Gateshead, NE8 1PJ</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17914,15 +17930,15 @@
       </c>
       <c r="B10" s="94" t="str">
         <f>IF(B2="DEV",D10,E10)</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="D10" s="95" t="str">
         <f>POLICYDATA!B9</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="E10" s="93" t="str">
         <f>POLICYDATA!C9</f>
-        <v>06/03/2019</v>
+        <v>11/03/2019</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -18056,7 +18072,7 @@
       </c>
       <c r="B28" s="91" t="str">
         <f>B10</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -18082,7 +18098,7 @@
       </c>
       <c r="B32" s="92" t="str">
         <f>B7</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -18221,7 +18237,7 @@
       </c>
       <c r="B52" s="91" t="str">
         <f>B10</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -18244,7 +18260,7 @@
       </c>
       <c r="B55" s="91" t="str">
         <f>B10</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -18295,7 +18311,7 @@
       </c>
       <c r="B63" s="27" t="str">
         <f>B7</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -19655,18 +19671,18 @@
       </c>
       <c r="B8" s="51" t="str">
         <f>IF(B4="DEV",D8,E8)</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="C8" t="s">
         <v>637</v>
       </c>
       <c r="D8" s="80" t="str">
         <f>POLICYDATA!B5</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="E8" s="77" t="str">
         <f>POLICYDATA!C5</f>
-        <v>ITB/1551795161837</v>
+        <v>TBB/1552320070379</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -19675,18 +19691,18 @@
       </c>
       <c r="B9" s="77" t="str">
         <f>IF(B4="DEV",D9,E9)</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="C9" t="s">
         <v>636</v>
       </c>
       <c r="D9" s="80" t="str">
         <f>POLICYDATA!B6</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="E9" s="77" t="str">
         <f>POLICYDATA!C6</f>
-        <v>Test RR</v>
+        <v>Test Quote</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -19715,18 +19731,20 @@
       </c>
       <c r="B11" s="77" t="str">
         <f>IF(B4="DEV",D11,E11)</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="C11" t="s">
         <v>637</v>
       </c>
       <c r="D11" s="80" t="str">
         <f>POLICYDATA!B8</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="E11" s="77" t="str">
         <f>POLICYDATA!C8</f>
-        <v>182 Penstone Court, Chandlery Way, Cardiff, CF10 5NQ</v>
+        <v>4 Windmill Way, Gateshead, NE8 1PJ</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -19735,18 +19753,18 @@
       </c>
       <c r="B12" s="78" t="str">
         <f>IF(B4="DEV",D12,E12)</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="C12" t="s">
         <v>637</v>
       </c>
       <c r="D12" s="80" t="str">
         <f>POLICYDATA!B9</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="E12" s="77" t="str">
         <f>POLICYDATA!C9</f>
-        <v>06/03/2019</v>
+        <v>11/03/2019</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -19893,7 +19911,7 @@
       </c>
       <c r="B32" s="75" t="str">
         <f>B12</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -19919,7 +19937,7 @@
       </c>
       <c r="B36" s="76" t="str">
         <f>B9</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -20085,7 +20103,7 @@
       </c>
       <c r="B56" s="75" t="str">
         <f>B12</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -20108,7 +20126,7 @@
       </c>
       <c r="B59" s="75" t="str">
         <f>B12</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -20156,7 +20174,7 @@
       </c>
       <c r="B66" s="79" t="str">
         <f>B9</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -21459,8 +21477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I379"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="B230" sqref="B230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21482,7 +21500,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>842</v>
+        <v>865</v>
       </c>
       <c r="C2" t="s">
         <v>717</v>
@@ -21495,8 +21513,9 @@
       <c r="A4" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="B4" t="s">
-        <v>397</v>
+      <c r="B4" t="str">
+        <f>POLICYDATA!B3</f>
+        <v>DEV</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -21520,15 +21539,15 @@
       </c>
       <c r="B7" s="93" t="str">
         <f>IF(B4="DEV",D7,E7)</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="D7" s="95" t="str">
         <f>POLICYDATA!B5</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="E7" s="93" t="str">
         <f>POLICYDATA!C5</f>
-        <v>ITB/1551795161837</v>
+        <v>TBB/1552320070379</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -21537,15 +21556,15 @@
       </c>
       <c r="B8" s="97" t="str">
         <f>IF(B4="DEV",D8,E8)</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="D8" s="93" t="str">
         <f>POLICYDATA!B6</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="E8" s="93" t="str">
         <f>POLICYDATA!C6</f>
-        <v>Test RR</v>
+        <v>Test Quote</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -21571,15 +21590,17 @@
       </c>
       <c r="B10" s="97" t="str">
         <f>IF(B4="DEV",D10,E10)</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="D10" s="93" t="str">
         <f>POLICYDATA!B8</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="E10" s="93" t="str">
         <f>POLICYDATA!C8</f>
-        <v>182 Penstone Court, Chandlery Way, Cardiff, CF10 5NQ</v>
+        <v>4 Windmill Way, Gateshead, NE8 1PJ</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -21588,15 +21609,15 @@
       </c>
       <c r="B11" s="94" t="str">
         <f>IF(B4="DEV",D11,E11)</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="D11" s="93" t="str">
         <f>POLICYDATA!B9</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="E11" s="93" t="str">
         <f>POLICYDATA!C9</f>
-        <v>06/03/2019</v>
+        <v>11/03/2019</v>
       </c>
       <c r="G11" s="52"/>
     </row>
@@ -21740,7 +21761,7 @@
       </c>
       <c r="B31" s="11" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -21894,7 +21915,7 @@
       </c>
       <c r="B51" s="100" t="str">
         <f>B8</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -22024,7 +22045,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B71" t="b">
         <v>0</v>
@@ -22032,7 +22053,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B72" t="b">
         <v>1</v>
@@ -22040,15 +22061,15 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>827</v>
+      </c>
+      <c r="B73" t="s">
         <v>828</v>
-      </c>
-      <c r="B73" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B74" t="b">
         <v>0</v>
@@ -22056,17 +22077,17 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="20" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B77" s="14" t="b">
         <v>0</v>
@@ -22074,10 +22095,10 @@
     </row>
     <row r="78" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="20" t="s">
+        <v>836</v>
+      </c>
+      <c r="B78" s="14" t="s">
         <v>837</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -22356,7 +22377,7 @@
       </c>
       <c r="B110" s="1" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -22445,7 +22466,7 @@
       </c>
       <c r="B121" s="1" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -22462,7 +22483,7 @@
       </c>
       <c r="B123" s="1" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -22866,7 +22887,7 @@
       </c>
       <c r="B163" s="99" t="str">
         <f>B8</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -22895,31 +22916,31 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="14" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B168" s="99" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="14" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B169" s="99" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="47" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="B170" s="117" t="b">
         <v>0</v>
@@ -22927,23 +22948,23 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="47" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="B171" s="118" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="47" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="B172" s="117" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="14" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="B173" s="99" t="b">
         <v>0</v>
@@ -22951,23 +22972,23 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="14" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="B174" s="119" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="14" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="B175" s="99" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="14" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="B176" s="99">
         <v>3</v>
@@ -22975,15 +22996,15 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="14" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="B177" s="99" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="116" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="B178" s="120" t="b">
         <v>1</v>
@@ -22991,10 +23012,10 @@
     </row>
     <row r="179" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="116" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="B179" s="115" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
@@ -23345,7 +23366,7 @@
         <v>822</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>824</v>
+        <v>874</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
@@ -23353,7 +23374,7 @@
         <v>821</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
@@ -24244,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="C349" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.35">
@@ -24293,7 +24314,7 @@
       </c>
       <c r="B355" s="103" t="str">
         <f>B8</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
@@ -24301,7 +24322,7 @@
         <v>683</v>
       </c>
       <c r="B356" s="103" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
@@ -24451,7 +24472,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="13" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B379" s="103" t="str">
         <f>B79</f>
@@ -24713,7 +24734,7 @@
   <dimension ref="A1:I366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24748,8 +24769,9 @@
       <c r="A4" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="B4" t="s">
-        <v>397</v>
+      <c r="B4" t="str">
+        <f>POLICYDATA!B3</f>
+        <v>DEV</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -24773,15 +24795,15 @@
       </c>
       <c r="B7" s="93" t="str">
         <f>IF(B4="DEV",D7,E7)</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="D7" s="95" t="str">
         <f>POLICYDATA!B5</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="E7" s="93" t="str">
         <f>POLICYDATA!C5</f>
-        <v>ITB/1551795161837</v>
+        <v>TBB/1552320070379</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -24790,15 +24812,15 @@
       </c>
       <c r="B8" s="97" t="str">
         <f>IF(B4="DEV",D8,E8)</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="D8" s="93" t="str">
         <f>POLICYDATA!B6</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="E8" s="93" t="str">
         <f>POLICYDATA!C6</f>
-        <v>Test RR</v>
+        <v>Test Quote</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -24824,15 +24846,17 @@
       </c>
       <c r="B10" s="97" t="str">
         <f>IF(B4="DEV",D10,E10)</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="D10" s="93" t="str">
         <f>POLICYDATA!B8</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="E10" s="93" t="str">
         <f>POLICYDATA!C8</f>
-        <v>182 Penstone Court, Chandlery Way, Cardiff, CF10 5NQ</v>
+        <v>4 Windmill Way, Gateshead, NE8 1PJ</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -24841,15 +24865,15 @@
       </c>
       <c r="B11" s="94" t="str">
         <f>IF(B4="DEV",D11,E11)</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="D11" s="93" t="str">
         <f>POLICYDATA!B9</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="E11" s="93" t="str">
         <f>POLICYDATA!C9</f>
-        <v>06/03/2019</v>
+        <v>11/03/2019</v>
       </c>
       <c r="G11" s="52"/>
     </row>
@@ -24993,7 +25017,7 @@
       </c>
       <c r="B31" s="11" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -25147,7 +25171,7 @@
       </c>
       <c r="B51" s="100" t="str">
         <f>B8</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -25277,7 +25301,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B71" t="b">
         <v>0</v>
@@ -25285,7 +25309,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="20" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B72" s="14" t="b">
         <v>0</v>
@@ -25293,13 +25317,13 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="14" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B73" s="14"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="34" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B74" s="13" t="b">
         <v>1</v>
@@ -25307,23 +25331,23 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
+        <v>831</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>832</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="20" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B77" s="14" t="b">
         <v>0</v>
@@ -25331,10 +25355,10 @@
     </row>
     <row r="78" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="20" t="s">
+        <v>836</v>
+      </c>
+      <c r="B78" s="14" t="s">
         <v>837</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -25613,7 +25637,7 @@
       </c>
       <c r="B110" s="1" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -25702,7 +25726,7 @@
       </c>
       <c r="B121" s="1" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -25719,7 +25743,7 @@
       </c>
       <c r="B123" s="1" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -26123,7 +26147,7 @@
       </c>
       <c r="B163" s="99" t="str">
         <f>B8</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -26503,7 +26527,7 @@
         <v>821</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
@@ -27440,7 +27464,7 @@
       </c>
       <c r="B342" s="103" t="str">
         <f>B8</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
@@ -27449,7 +27473,8 @@
       </c>
       <c r="B343" s="103" t="str">
         <f>B10</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
@@ -27599,7 +27624,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="13" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B366" s="103" t="str">
         <f>B79</f>
@@ -27927,7 +27952,7 @@
   <dimension ref="A1:I362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27954,8 +27979,9 @@
       <c r="A4" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="B4" t="s">
-        <v>397</v>
+      <c r="B4" t="str">
+        <f>POLICYDATA!B3</f>
+        <v>DEV</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -27979,15 +28005,15 @@
       </c>
       <c r="B7" s="93" t="str">
         <f>IF(B4="DEV",D7,E7)</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="D7" s="95" t="str">
         <f>POLICYDATA!B5</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="E7" s="93" t="str">
         <f>POLICYDATA!C5</f>
-        <v>ITB/1551795161837</v>
+        <v>TBB/1552320070379</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -27996,15 +28022,15 @@
       </c>
       <c r="B8" s="97" t="str">
         <f>IF(B4="DEV",D8,E8)</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="D8" s="93" t="str">
         <f>POLICYDATA!B6</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="E8" s="93" t="str">
         <f>POLICYDATA!C6</f>
-        <v>Test RR</v>
+        <v>Test Quote</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -28030,15 +28056,17 @@
       </c>
       <c r="B10" s="97" t="str">
         <f>IF(B4="DEV",D10,E10)</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="D10" s="93" t="str">
         <f>POLICYDATA!B8</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="E10" s="93" t="str">
         <f>POLICYDATA!C8</f>
-        <v>182 Penstone Court, Chandlery Way, Cardiff, CF10 5NQ</v>
+        <v>4 Windmill Way, Gateshead, NE8 1PJ</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -28047,15 +28075,15 @@
       </c>
       <c r="B11" s="94" t="str">
         <f>IF(B4="DEV",D11,E11)</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="D11" s="93" t="str">
         <f>POLICYDATA!B9</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="E11" s="93" t="str">
         <f>POLICYDATA!C9</f>
-        <v>06/03/2019</v>
+        <v>11/03/2019</v>
       </c>
       <c r="G11" s="52"/>
     </row>
@@ -28202,7 +28230,7 @@
       </c>
       <c r="B31" s="11" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -28356,7 +28384,7 @@
       </c>
       <c r="B51" s="100" t="str">
         <f>B8</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -28486,7 +28514,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B71" t="b">
         <v>0</v>
@@ -28494,7 +28522,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="20" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B72" s="14" t="b">
         <v>1</v>
@@ -28502,15 +28530,15 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="14" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="34" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B74" s="13" t="b">
         <v>0</v>
@@ -28518,23 +28546,23 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
+        <v>831</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>832</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="20" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B77" s="14" t="b">
         <v>0</v>
@@ -28542,10 +28570,10 @@
     </row>
     <row r="78" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="20" t="s">
+        <v>836</v>
+      </c>
+      <c r="B78" s="14" t="s">
         <v>837</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -28820,7 +28848,7 @@
       </c>
       <c r="B110" s="1" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -28909,7 +28937,7 @@
       </c>
       <c r="B121" s="1" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -28926,7 +28954,7 @@
       </c>
       <c r="B123" s="1" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -29330,7 +29358,7 @@
       </c>
       <c r="B163" s="99" t="str">
         <f>B8</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -30633,7 +30661,7 @@
       </c>
       <c r="B338" s="103" t="str">
         <f>B8</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
@@ -30642,7 +30670,8 @@
       </c>
       <c r="B339" s="103" t="str">
         <f>B10</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
@@ -30792,7 +30821,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="13" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B362" s="103" t="str">
         <f>B79</f>
@@ -31086,8 +31115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I362"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31114,8 +31143,9 @@
       <c r="A4" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="B4" t="s">
-        <v>397</v>
+      <c r="B4" t="str">
+        <f>POLICYDATA!B3</f>
+        <v>DEV</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -31139,15 +31169,15 @@
       </c>
       <c r="B7" s="93" t="str">
         <f>IF(B4="DEV",D7,E7)</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="D7" s="95" t="str">
         <f>POLICYDATA!B5</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="E7" s="93" t="str">
         <f>POLICYDATA!C5</f>
-        <v>ITB/1551795161837</v>
+        <v>TBB/1552320070379</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -31156,15 +31186,15 @@
       </c>
       <c r="B8" s="97" t="str">
         <f>IF(B4="DEV",D8,E8)</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="D8" s="93" t="str">
         <f>POLICYDATA!B6</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="E8" s="93" t="str">
         <f>POLICYDATA!C6</f>
-        <v>Test RR</v>
+        <v>Test Quote</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -31190,15 +31220,17 @@
       </c>
       <c r="B10" s="97" t="str">
         <f>IF(B4="DEV",D10,E10)</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="D10" s="93" t="str">
         <f>POLICYDATA!B8</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="E10" s="93" t="str">
         <f>POLICYDATA!C8</f>
-        <v>182 Penstone Court, Chandlery Way, Cardiff, CF10 5NQ</v>
+        <v>4 Windmill Way, Gateshead, NE8 1PJ</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -31207,15 +31239,15 @@
       </c>
       <c r="B11" s="94" t="str">
         <f>IF(B4="DEV",D11,E11)</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="D11" s="93" t="str">
         <f>POLICYDATA!B9</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="E11" s="93" t="str">
         <f>POLICYDATA!C9</f>
-        <v>06/03/2019</v>
+        <v>11/03/2019</v>
       </c>
       <c r="G11" s="52"/>
     </row>
@@ -31359,7 +31391,7 @@
       </c>
       <c r="B31" s="11" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -31513,7 +31545,7 @@
       </c>
       <c r="B51" s="100" t="str">
         <f>B8</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -31643,18 +31675,18 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
         <v>825</v>
-      </c>
-      <c r="B71" t="b">
-        <v>1</v>
-      </c>
-      <c r="D71" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B72" t="b">
         <v>0</v>
@@ -31662,15 +31694,15 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>827</v>
+      </c>
+      <c r="B73" t="s">
         <v>828</v>
-      </c>
-      <c r="B73" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="34" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B74" s="13" t="b">
         <v>0</v>
@@ -31678,23 +31710,23 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
+        <v>831</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>832</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="20" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B77" s="14" t="b">
         <v>0</v>
@@ -31702,10 +31734,10 @@
     </row>
     <row r="78" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="20" t="s">
+        <v>836</v>
+      </c>
+      <c r="B78" s="14" t="s">
         <v>837</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -31970,7 +32002,7 @@
       </c>
       <c r="B110" s="1" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -32059,7 +32091,7 @@
       </c>
       <c r="B121" s="1" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -32076,7 +32108,7 @@
       </c>
       <c r="B123" s="1" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -32480,7 +32512,7 @@
       </c>
       <c r="B163" s="99" t="str">
         <f>B8</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -33783,7 +33815,7 @@
       </c>
       <c r="B338" s="103" t="str">
         <f>B8</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
@@ -33792,7 +33824,8 @@
       </c>
       <c r="B339" s="103" t="str">
         <f>B10</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
@@ -33942,7 +33975,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="13" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B362" s="103" t="str">
         <f>B79</f>
@@ -34226,7 +34259,7 @@
   <dimension ref="A1:I362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34253,8 +34286,9 @@
       <c r="A4" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="B4" t="s">
-        <v>397</v>
+      <c r="B4" t="str">
+        <f>POLICYDATA!B3</f>
+        <v>DEV</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -34278,15 +34312,15 @@
       </c>
       <c r="B7" s="93" t="str">
         <f>IF(B4="DEV",D7,E7)</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="D7" s="95" t="str">
         <f>POLICYDATA!B5</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="E7" s="93" t="str">
         <f>POLICYDATA!C5</f>
-        <v>ITB/1551795161837</v>
+        <v>TBB/1552320070379</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -34295,15 +34329,15 @@
       </c>
       <c r="B8" s="97" t="str">
         <f>IF(B4="DEV",D8,E8)</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="D8" s="93" t="str">
         <f>POLICYDATA!B6</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="E8" s="93" t="str">
         <f>POLICYDATA!C6</f>
-        <v>Test RR</v>
+        <v>Test Quote</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -34329,15 +34363,17 @@
       </c>
       <c r="B10" s="97" t="str">
         <f>IF(B4="DEV",D10,E10)</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="D10" s="93" t="str">
         <f>POLICYDATA!B8</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="E10" s="93" t="str">
         <f>POLICYDATA!C8</f>
-        <v>182 Penstone Court, Chandlery Way, Cardiff, CF10 5NQ</v>
+        <v>4 Windmill Way, Gateshead, NE8 1PJ</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -34346,15 +34382,15 @@
       </c>
       <c r="B11" s="94" t="str">
         <f>IF(B4="DEV",D11,E11)</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="D11" s="93" t="str">
         <f>POLICYDATA!B9</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="E11" s="93" t="str">
         <f>POLICYDATA!C9</f>
-        <v>06/03/2019</v>
+        <v>11/03/2019</v>
       </c>
       <c r="G11" s="52"/>
     </row>
@@ -34498,7 +34534,7 @@
       </c>
       <c r="B31" s="11" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -34652,7 +34688,7 @@
       </c>
       <c r="B51" s="100" t="str">
         <f>B8</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -34782,7 +34818,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B71" t="b">
         <v>0</v>
@@ -34790,7 +34826,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B72" t="b">
         <v>0</v>
@@ -34798,15 +34834,15 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>827</v>
+      </c>
+      <c r="B73" t="s">
         <v>828</v>
-      </c>
-      <c r="B73" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="34" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B74" s="13" t="b">
         <v>0</v>
@@ -34814,23 +34850,23 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
+        <v>831</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>832</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="20" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B77" s="14" t="b">
         <v>1</v>
@@ -34838,10 +34874,10 @@
     </row>
     <row r="78" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="20" t="s">
+        <v>836</v>
+      </c>
+      <c r="B78" s="14" t="s">
         <v>837</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -35112,7 +35148,7 @@
       </c>
       <c r="B110" s="1" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -35201,7 +35237,7 @@
       </c>
       <c r="B121" s="1" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -35218,7 +35254,7 @@
       </c>
       <c r="B123" s="1" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -35622,7 +35658,7 @@
       </c>
       <c r="B163" s="99" t="str">
         <f>B8</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -36925,7 +36961,7 @@
       </c>
       <c r="B338" s="103" t="str">
         <f>B8</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
@@ -36934,7 +36970,8 @@
       </c>
       <c r="B339" s="103" t="str">
         <f>B10</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
@@ -37084,7 +37121,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="13" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B362" s="103" t="str">
         <f>B79</f>
@@ -37368,7 +37405,7 @@
   <dimension ref="A1:I362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37395,8 +37432,9 @@
       <c r="A4" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="B4" t="s">
-        <v>397</v>
+      <c r="B4" t="str">
+        <f>POLICYDATA!B3</f>
+        <v>DEV</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -37420,15 +37458,15 @@
       </c>
       <c r="B7" s="93" t="str">
         <f>IF(B4="DEV",D7,E7)</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="D7" s="95" t="str">
         <f>POLICYDATA!B5</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="E7" s="93" t="str">
         <f>POLICYDATA!C5</f>
-        <v>ITB/1551795161837</v>
+        <v>TBB/1552320070379</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -37437,15 +37475,15 @@
       </c>
       <c r="B8" s="97" t="str">
         <f>IF(B4="DEV",D8,E8)</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="D8" s="93" t="str">
         <f>POLICYDATA!B6</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="E8" s="93" t="str">
         <f>POLICYDATA!C6</f>
-        <v>Test RR</v>
+        <v>Test Quote</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -37471,15 +37509,17 @@
       </c>
       <c r="B10" s="97" t="str">
         <f>IF(B4="DEV",D10,E10)</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="D10" s="93" t="str">
         <f>POLICYDATA!B8</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="E10" s="93" t="str">
         <f>POLICYDATA!C8</f>
-        <v>182 Penstone Court, Chandlery Way, Cardiff, CF10 5NQ</v>
+        <v>4 Windmill Way, Gateshead, NE8 1PJ</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -37488,15 +37528,15 @@
       </c>
       <c r="B11" s="94" t="str">
         <f>IF(B4="DEV",D11,E11)</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="D11" s="93" t="str">
         <f>POLICYDATA!B9</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="E11" s="93" t="str">
         <f>POLICYDATA!C9</f>
-        <v>06/03/2019</v>
+        <v>11/03/2019</v>
       </c>
       <c r="G11" s="52"/>
     </row>
@@ -37640,7 +37680,7 @@
       </c>
       <c r="B31" s="11" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -37794,7 +37834,7 @@
       </c>
       <c r="B51" s="100" t="str">
         <f>B8</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -37924,7 +37964,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B71" t="b">
         <v>0</v>
@@ -37932,15 +37972,15 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>827</v>
+      </c>
+      <c r="B72" t="s">
         <v>828</v>
-      </c>
-      <c r="B72" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B73" t="b">
         <v>0</v>
@@ -37948,7 +37988,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="34" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B74" s="13" t="b">
         <v>0</v>
@@ -37956,23 +37996,23 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
+        <v>831</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>832</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="20" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B77" s="14" t="b">
         <v>1</v>
@@ -37980,10 +38020,10 @@
     </row>
     <row r="78" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="20" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -38254,7 +38294,7 @@
       </c>
       <c r="B110" s="1" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -38343,7 +38383,7 @@
       </c>
       <c r="B121" s="1" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -38360,7 +38400,7 @@
       </c>
       <c r="B123" s="1" t="str">
         <f>B11</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -38764,7 +38804,7 @@
       </c>
       <c r="B163" s="99" t="str">
         <f>B8</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -40067,7 +40107,7 @@
       </c>
       <c r="B338" s="103" t="str">
         <f>B8</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
@@ -40076,7 +40116,8 @@
       </c>
       <c r="B339" s="103" t="str">
         <f>B10</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
@@ -40226,7 +40267,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="13" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B362" s="103" t="str">
         <f>B79</f>
@@ -42735,18 +42776,18 @@
       </c>
       <c r="B8" s="51" t="str">
         <f>IF(B4="DEV",D8,E8)</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="C8" t="s">
         <v>637</v>
       </c>
       <c r="D8" s="80" t="str">
         <f>POLICYDATA!B5</f>
-        <v>DGT/1552037256047</v>
+        <v>ITB/1552489982690</v>
       </c>
       <c r="E8" s="77" t="str">
         <f>POLICYDATA!C5</f>
-        <v>ITB/1551795161837</v>
+        <v>TBB/1552320070379</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -42755,18 +42796,18 @@
       </c>
       <c r="B9" s="77" t="str">
         <f>IF(B4="DEV",D9,E9)</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="C9" t="s">
         <v>636</v>
       </c>
       <c r="D9" s="80" t="str">
         <f>POLICYDATA!B6</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
       <c r="E9" s="77" t="str">
         <f>POLICYDATA!C6</f>
-        <v>Test RR</v>
+        <v>Test Quote</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -42795,18 +42836,20 @@
       </c>
       <c r="B11" s="77" t="str">
         <f>IF(B4="DEV",D11,E11)</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="C11" t="s">
         <v>637</v>
       </c>
       <c r="D11" s="80" t="str">
         <f>POLICYDATA!B8</f>
-        <v xml:space="preserve"> 1 Harley Terrace, Newcastle upon Tyne, NE3 1UL</v>
+        <v xml:space="preserve"> 
+1 Dene Grove, Newcastle upon Tyne, NE3 1PX</v>
       </c>
       <c r="E11" s="77" t="str">
         <f>POLICYDATA!C8</f>
-        <v>182 Penstone Court, Chandlery Way, Cardiff, CF10 5NQ</v>
+        <v>4 Windmill Way, Gateshead, NE8 1PJ</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -42815,18 +42858,18 @@
       </c>
       <c r="B12" s="78" t="str">
         <f>IF(B4="DEV",D12,E12)</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="C12" t="s">
         <v>637</v>
       </c>
       <c r="D12" s="80" t="str">
         <f>POLICYDATA!B9</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
       <c r="E12" s="77" t="str">
         <f>POLICYDATA!C9</f>
-        <v>06/03/2019</v>
+        <v>11/03/2019</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -42973,7 +43016,7 @@
       </c>
       <c r="B32" s="75" t="str">
         <f>B12</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -42999,7 +43042,7 @@
       </c>
       <c r="B36" s="76" t="str">
         <f>B9</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -43165,7 +43208,7 @@
       </c>
       <c r="B56" s="75" t="str">
         <f>B12</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -43188,7 +43231,7 @@
       </c>
       <c r="B59" s="75" t="str">
         <f>B12</f>
-        <v>08/03/2019</v>
+        <v>13/03/2019</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -43236,7 +43279,7 @@
       </c>
       <c r="B66" s="79" t="str">
         <f>B9</f>
-        <v>steve knight-dgt2</v>
+        <v>steve knight-itb1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="POLICYDATA" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7357" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7370" uniqueCount="936">
   <si>
     <t>Fnol_PolicyNumber</t>
   </si>
@@ -2837,6 +2837,18 @@
   </si>
   <si>
     <t>regress_fnol_inconly</t>
+  </si>
+  <si>
+    <t>Tourist Board Employee</t>
+  </si>
+  <si>
+    <t>Zoologist</t>
+  </si>
+  <si>
+    <t>01/1/2017</t>
+  </si>
+  <si>
+    <t>Coach Builder</t>
   </si>
 </sst>
 </file>
@@ -2874,7 +2886,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2938,6 +2950,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3082,7 +3100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -3223,13 +3241,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1329">
+  <dxfs count="1332">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11925,7 +11963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -12337,90 +12375,90 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="1328" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1327" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="1331" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1330" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1326" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="1329" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F21">
-    <cfRule type="cellIs" dxfId="1325" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1324" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="1328" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1327" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1323" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="1326" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F19">
-    <cfRule type="cellIs" dxfId="1322" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1321" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="1325" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1324" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1320" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="1323" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F11">
-    <cfRule type="cellIs" dxfId="1319" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1318" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="1322" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1321" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1317" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="1320" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12 F14">
-    <cfRule type="cellIs" dxfId="1316" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1315" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1319" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1318" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1314" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1317" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="1313" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1312" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1316" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1315" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1311" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1314" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="1310" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1309" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1313" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1312" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1308" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1311" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1310" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1309" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1308" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12434,7 +12472,7 @@
   <dimension ref="A1:D353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14886,8 +14924,8 @@
       <c r="A318" s="12" t="s">
         <v>654</v>
       </c>
-      <c r="B318" s="12" t="b">
-        <v>1</v>
+      <c r="B318" s="119" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
@@ -15406,8 +15444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30197,8 +30235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I372"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157:XFD164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31465,7 +31503,7 @@
         <v>51</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>52</v>
+        <v>933</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -31505,7 +31543,7 @@
         <v>836</v>
       </c>
       <c r="B157" s="111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
@@ -31529,7 +31567,7 @@
         <v>841</v>
       </c>
       <c r="B160" s="94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -31537,7 +31575,7 @@
         <v>842</v>
       </c>
       <c r="B161" s="113" t="s">
-        <v>844</v>
+        <v>934</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
@@ -33321,7 +33359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D372"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="D340" sqref="D340"/>
     </sheetView>
   </sheetViews>
@@ -39502,10 +39540,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I353"/>
+  <dimension ref="A1:I361"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E305" sqref="E305"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40766,10 +40804,10 @@
         <v>51</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>54</v>
       </c>
@@ -40778,325 +40816,325 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" s="21" t="s">
+      <c r="A153" s="44" t="s">
+        <v>836</v>
+      </c>
+      <c r="B153" s="111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" s="44" t="s">
+        <v>837</v>
+      </c>
+      <c r="B154" s="112" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" s="44" t="s">
+        <v>838</v>
+      </c>
+      <c r="B155" s="111" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B156" s="94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B157" s="113" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B158" s="94" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B159" s="94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A160" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="B160" s="94" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B153" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="23" t="s">
+      <c r="B161" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B154" s="96" t="s">
+      <c r="B162" s="96" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="23" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B155" s="24" t="s">
+      <c r="B163" s="24" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" s="23" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B156" s="96" t="s">
+      <c r="B164" s="96" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" s="25" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="B157" s="26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" s="25" t="s">
+      <c r="B165" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="B158" s="26" t="s">
+      <c r="B166" s="26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A159" s="27" t="s">
+    <row r="167" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A167" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B159" s="28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" s="5" t="s">
+      <c r="B167" s="28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
         <v>171</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B170" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
         <v>172</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B171" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
         <v>173</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B172" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
         <v>414</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B173" s="5" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A166" s="11" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B166" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" s="11" t="s">
+      <c r="B174" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="B175" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" s="11" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="B168" s="97" t="s">
+      <c r="B176" s="97" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A169" t="s">
+    <row r="177" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A177" t="s">
         <v>174</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B177" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A170" s="21" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="B170" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" s="23" t="s">
+      <c r="B178" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="B171" s="24" t="s">
+      <c r="B179" s="24" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" s="23" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="B172" s="96" t="s">
+      <c r="B180" s="96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" s="23" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="B173" s="96" t="s">
+      <c r="B181" s="96" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" s="25" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="B174" s="26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" s="25" t="s">
+      <c r="B182" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B175" s="29" t="s">
+      <c r="B183" s="29" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A176" s="27" t="s">
+    <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A184" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="B176" s="28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" s="5"/>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" s="5" t="s">
+      <c r="B184" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="5"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="5" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>63</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>65</v>
-      </c>
-      <c r="B180" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>66</v>
-      </c>
-      <c r="B181">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>67</v>
-      </c>
-      <c r="B182" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>68</v>
-      </c>
-      <c r="B183" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>72</v>
-      </c>
-      <c r="B184" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>74</v>
-      </c>
-      <c r="B185" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>75</v>
-      </c>
-      <c r="B186" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>711</v>
-      </c>
-      <c r="B187" t="b">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>712</v>
+        <v>65</v>
       </c>
       <c r="B188" t="s">
-        <v>713</v>
+        <v>69</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>715</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>716</v>
+        <v>66</v>
+      </c>
+      <c r="B189">
+        <v>2017</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>714</v>
-      </c>
-      <c r="B190">
-        <v>27000</v>
+        <v>67</v>
+      </c>
+      <c r="B190" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B191" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B192" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>717</v>
-      </c>
-      <c r="B193" t="b">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="B193" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>83</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="B194" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>420</v>
+        <v>711</v>
       </c>
       <c r="B195" t="b">
         <v>1</v>
@@ -41104,1426 +41142,1501 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>633</v>
-      </c>
-      <c r="B196" t="b">
-        <v>1</v>
+        <v>712</v>
+      </c>
+      <c r="B196" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>710</v>
-      </c>
-      <c r="B197" s="5" t="str">
-        <f>B203</f>
-        <v>Roy Racer</v>
+        <v>715</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>714</v>
+      </c>
+      <c r="B198">
+        <v>27000</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" s="5" t="s">
-        <v>327</v>
+      <c r="A199" t="s">
+        <v>99</v>
+      </c>
+      <c r="B199" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>59</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>60</v>
+        <v>82</v>
+      </c>
+      <c r="B200" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>55</v>
-      </c>
-      <c r="B201" t="s">
-        <v>56</v>
+        <v>717</v>
+      </c>
+      <c r="B201" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>58</v>
-      </c>
-      <c r="B202" t="s">
-        <v>57</v>
+        <v>83</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
+        <v>420</v>
+      </c>
+      <c r="B203" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>633</v>
+      </c>
+      <c r="B204" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>710</v>
+      </c>
+      <c r="B205" s="5" t="str">
+        <f>B211</f>
+        <v>Roy Racer</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>59</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>55</v>
+      </c>
+      <c r="B209" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>58</v>
+      </c>
+      <c r="B210" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
         <v>407</v>
       </c>
-      <c r="B203" s="5" t="s">
+      <c r="B211" s="5" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" s="11" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B204" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" s="11" t="s">
+      <c r="B212" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="B205" s="11" t="s">
+      <c r="B213" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" s="11" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="B206" s="97" t="s">
+      <c r="B214" s="97" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A207" t="s">
+    <row r="215" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A215" t="s">
         <v>62</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="B215" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" s="21" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B208" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A209" s="23" t="s">
+      <c r="B216" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="B209" s="24" t="s">
+      <c r="B217" s="24" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A210" s="23" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B210" s="96" t="s">
+      <c r="B218" s="96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A211" s="23" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B211" s="96" t="s">
+      <c r="B219" s="96" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A212" s="25" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="B212" s="26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A213" s="25" t="s">
+      <c r="B220" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="B213" s="26" t="s">
+      <c r="B221" s="26" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A214" s="27" t="s">
+    <row r="222" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A222" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="B214" s="28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A216" s="5" t="s">
+      <c r="B222" s="28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
         <v>142</v>
       </c>
-      <c r="B217" s="5" t="s">
+      <c r="B225" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
         <v>143</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B226" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
         <v>144</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B227" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
         <v>413</v>
       </c>
-      <c r="B220" s="5" t="s">
+      <c r="B228" s="5" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A221" s="11" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B221" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A222" s="11" t="s">
+      <c r="B229" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B222" s="11" t="s">
+      <c r="B230" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A223" s="11" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="B223" s="97" t="s">
+      <c r="B231" s="97" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A224" t="s">
+    <row r="232" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A232" t="s">
         <v>145</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B232" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A225" s="21" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="B225" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A226" s="23" t="s">
+      <c r="B233" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="B226" s="24" t="s">
+      <c r="B234" s="24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A227" s="23" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="B227" s="96" t="s">
+      <c r="B235" s="96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A228" s="23" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="B228" s="96" t="s">
+      <c r="B236" s="96" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A229" s="25" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B229" s="26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A230" s="25" t="s">
+      <c r="B237" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="B230" s="26" t="s">
+      <c r="B238" s="26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A231" s="27" t="s">
+    <row r="239" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A239" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="B231" s="28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A233" s="5" t="s">
+      <c r="B239" s="28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="5" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
-        <v>101</v>
-      </c>
-      <c r="B234" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
-        <v>103</v>
-      </c>
-      <c r="B235" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
-        <v>102</v>
-      </c>
-      <c r="B236" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
-        <v>410</v>
-      </c>
-      <c r="B237" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A238" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B238" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A239" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="B239" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A240" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B240" s="97" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
-        <v>104</v>
-      </c>
-      <c r="B241" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
+        <v>101</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>103</v>
+      </c>
+      <c r="B243" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>102</v>
+      </c>
+      <c r="B244" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>410</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B246" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B247" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B248" s="97" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>104</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
         <v>114</v>
       </c>
-      <c r="B242">
+      <c r="B250">
         <v>1237771234</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A243" t="s">
+    <row r="251" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A251" t="s">
         <v>115</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B251" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A244" s="21" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B244" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A245" s="23" t="s">
+      <c r="B252" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B245" s="24" t="s">
+      <c r="B253" s="24" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A246" s="23" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B246" s="96" t="s">
+      <c r="B254" s="96" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A247" s="23" t="s">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B247" s="96" t="s">
+      <c r="B255" s="96" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A248" s="25" t="s">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B248" s="26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A249" s="25" t="s">
+      <c r="B256" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="B249" s="26" t="s">
+      <c r="B257" s="26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A250" s="27" t="s">
+    <row r="258" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A258" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="B250" s="28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A252" s="5" t="s">
+      <c r="B258" s="28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
         <v>123</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B261" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A254" t="s">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
         <v>125</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B262" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
         <v>127</v>
       </c>
-      <c r="B255">
+      <c r="B263">
         <v>4000</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
         <v>128</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B264" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
         <v>130</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B265" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
         <v>725</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B266" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
         <v>727</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B267" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A260" t="s">
+    <row r="268" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A268" t="s">
         <v>730</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B268" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A261" s="102" t="s">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="B261" s="103" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A262" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="B262" s="104" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A263" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B263" s="26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A264" s="25" t="s">
-        <v>753</v>
-      </c>
-      <c r="B264" s="26"/>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A265" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="B265" s="26" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A266" s="25" t="s">
-        <v>416</v>
-      </c>
-      <c r="B266" s="104" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A267" s="25" t="s">
-        <v>757</v>
-      </c>
-      <c r="B267" s="107">
-        <v>1912850388</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A268" s="25" t="s">
-        <v>758</v>
-      </c>
-      <c r="B268" s="107">
-        <v>1912840399</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A269" s="25" t="s">
-        <v>759</v>
-      </c>
-      <c r="B269" s="107">
-        <v>7791458073</v>
+      <c r="B269" s="103" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="25" t="s">
-        <v>760</v>
-      </c>
-      <c r="B270" s="107"/>
+        <v>133</v>
+      </c>
+      <c r="B270" s="104" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B271" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="B272" s="26"/>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B273" s="26" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="B274" s="104" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" s="25" t="s">
+        <v>757</v>
+      </c>
+      <c r="B275" s="107">
+        <v>1912850388</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" s="25" t="s">
+        <v>758</v>
+      </c>
+      <c r="B276" s="107">
+        <v>1912840399</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" s="25" t="s">
+        <v>759</v>
+      </c>
+      <c r="B277" s="107">
+        <v>7791458073</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" s="25" t="s">
+        <v>760</v>
+      </c>
+      <c r="B278" s="107"/>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" s="25" t="s">
         <v>762</v>
       </c>
-      <c r="B271" s="104" t="s">
+      <c r="B279" s="104" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A272" s="106" t="s">
+    <row r="280" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A280" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="B272" s="26" t="s">
+      <c r="B280" s="26" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A273" s="106" t="s">
+    <row r="281" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A281" s="106" t="s">
         <v>754</v>
       </c>
-      <c r="B273" s="26" t="s">
+      <c r="B281" s="26" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A274" s="23" t="s">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" s="23" t="s">
         <v>740</v>
       </c>
-      <c r="B274" s="24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A275" s="23" t="s">
+      <c r="B282" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" s="23" t="s">
         <v>743</v>
       </c>
-      <c r="B275" s="24" t="s">
+      <c r="B283" s="24" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A276" s="23" t="s">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" s="23" t="s">
         <v>744</v>
       </c>
-      <c r="B276" s="24" t="s">
+      <c r="B284" s="24" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A277" s="25" t="s">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" s="25" t="s">
         <v>731</v>
       </c>
-      <c r="B277" s="26" t="s">
+      <c r="B285" s="26" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A278" s="25" t="s">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" s="25" t="s">
         <v>733</v>
       </c>
-      <c r="B278" s="26" t="s">
+      <c r="B286" s="26" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A279" s="106" t="s">
+    <row r="287" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A287" s="106" t="s">
         <v>735</v>
       </c>
-      <c r="B279" s="105" t="s">
+      <c r="B287" s="105" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A280" s="25" t="s">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" s="25" t="s">
         <v>737</v>
       </c>
-      <c r="B280" s="104" t="s">
+      <c r="B288" s="104" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A281" s="25" t="s">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A289" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B281" s="26" t="s">
+      <c r="B289" s="26" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A282" s="25" t="s">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A290" s="25" t="s">
         <v>745</v>
       </c>
-      <c r="B282" s="104" t="b">
-        <v>0</v>
-      </c>
-      <c r="C282" t="s">
+      <c r="B290" s="104" t="b">
+        <v>0</v>
+      </c>
+      <c r="C290" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A283" s="25" t="s">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A291" s="25" t="s">
         <v>746</v>
       </c>
-      <c r="B283" s="104" t="s">
+      <c r="B291" s="104" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A284" s="25" t="s">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A292" s="25" t="s">
         <v>748</v>
       </c>
-      <c r="B284" s="104" t="s">
+      <c r="B292" s="104" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A285" s="25" t="s">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A293" s="25" t="s">
         <v>750</v>
       </c>
-      <c r="B285" s="104">
+      <c r="B293" s="104">
         <v>99990000</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A286" s="27" t="s">
+    <row r="294" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A294" s="27" t="s">
         <v>751</v>
       </c>
-      <c r="B286" s="28">
+      <c r="B294" s="28">
         <v>990099</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A287" s="11" t="s">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A295" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="B287" s="97" t="s">
+      <c r="B295" s="97" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A288" s="11" t="s">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A296" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="B288" s="31">
+      <c r="B296" s="31">
         <v>3500</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A289" s="11" t="s">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A297" s="11" t="s">
         <v>720</v>
       </c>
-      <c r="B289" s="31" t="s">
+      <c r="B297" s="31" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A290" s="20" t="s">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A298" s="20" t="s">
         <v>722</v>
       </c>
-      <c r="B290" s="49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A292" s="5" t="s">
+      <c r="B298" s="49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A300" s="5" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A293" s="11" t="s">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A301" s="11" t="s">
         <v>899</v>
       </c>
-      <c r="B293" s="11" t="s">
+      <c r="B301" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A294" s="11" t="s">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A302" s="11" t="s">
         <v>900</v>
       </c>
-      <c r="B294" s="97" t="s">
+      <c r="B302" s="97" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A295" s="11" t="s">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A303" s="11" t="s">
         <v>902</v>
       </c>
-      <c r="B295" s="97" t="s">
+      <c r="B303" s="97" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A296" s="11" t="s">
+    <row r="304" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="11" t="s">
         <v>903</v>
       </c>
-      <c r="B296" s="31" t="s">
+      <c r="B304" s="31" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A297" s="11" t="s">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305" s="11" t="s">
         <v>905</v>
       </c>
-      <c r="B297" s="31" t="s">
+      <c r="B305" s="31" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A298" s="11" t="s">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306" s="11" t="s">
         <v>907</v>
       </c>
-      <c r="B298" s="117" t="s">
+      <c r="B306" s="117" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A299" s="11" t="s">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A307" s="11" t="s">
         <v>909</v>
       </c>
-      <c r="B299" s="11" t="s">
+      <c r="B307" s="11" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A300" s="5"/>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A301" s="5" t="s">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A308" s="5"/>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A309" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A302" s="5"/>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A303" s="5" t="s">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A310" s="5"/>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A311" s="5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A304" s="7" t="s">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A312" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B304" s="2" t="s">
+      <c r="B312" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A305" s="7" t="s">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A313" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B305" s="1">
+      <c r="B313" s="1">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A306" s="7" t="s">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A314" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B306" s="2" t="s">
+      <c r="B314" s="2" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A307" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A308" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A309" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A310" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B310" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A311" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="B311" s="30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A312" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="B312" s="30" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A313" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="B313" s="32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A314" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="B314" s="11" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A316" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A317" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A318" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B318" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A319" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B319" s="30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A320" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B320" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="B321" s="32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="B322" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B323" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A316" s="7"/>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A317" s="5" t="s">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324" s="7"/>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325" s="5" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A318" s="12" t="s">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326" s="12" t="s">
         <v>654</v>
       </c>
-      <c r="B318" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A319" s="12" t="s">
+      <c r="B326" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327" s="12" t="s">
         <v>655</v>
       </c>
-      <c r="B319" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A320" s="12" t="s">
+      <c r="B327" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="B320" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A321" s="12" t="s">
+      <c r="B328" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A329" s="12" t="s">
         <v>657</v>
       </c>
-      <c r="B321" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A322" s="12" t="s">
+      <c r="B329" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A330" s="12" t="s">
         <v>658</v>
       </c>
-      <c r="B322" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A323" s="12" t="s">
+      <c r="B330" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A331" s="12" t="s">
         <v>659</v>
       </c>
-      <c r="B323" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A324" s="12" t="s">
+      <c r="B331" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A332" s="12" t="s">
         <v>660</v>
       </c>
-      <c r="B324" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A325" s="11" t="s">
+      <c r="B332" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A333" s="11" t="s">
         <v>663</v>
       </c>
-      <c r="B325" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A326" s="11" t="s">
+      <c r="B333" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A334" s="11" t="s">
         <v>664</v>
       </c>
-      <c r="B326" s="97" t="s">
+      <c r="B334" s="97" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A327" s="11" t="s">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A335" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="B327" s="11" t="s">
+      <c r="B335" s="11" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A328" s="11" t="s">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A336" s="11" t="s">
         <v>666</v>
       </c>
-      <c r="B328" s="97" t="s">
+      <c r="B336" s="97" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A329" s="11" t="s">
-        <v>670</v>
-      </c>
-      <c r="B329" s="11" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A330" s="11" t="s">
-        <v>672</v>
-      </c>
-      <c r="B330" s="32" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A331" s="11" t="s">
-        <v>676</v>
-      </c>
-      <c r="B331" s="97" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A333" s="41" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A334" s="12" t="s">
-        <v>678</v>
-      </c>
-      <c r="B334" s="12" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A335" s="12" t="s">
-        <v>679</v>
-      </c>
-      <c r="B335" s="94" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A336" s="12" t="s">
-        <v>681</v>
-      </c>
-      <c r="B336" s="94"/>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="11" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>467</v>
+        <v>671</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="11" t="s">
-        <v>683</v>
-      </c>
-      <c r="B338" s="97"/>
+        <v>672</v>
+      </c>
+      <c r="B338" s="32" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="11" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="B339" s="97" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A340" s="12" t="s">
-        <v>686</v>
-      </c>
-      <c r="B340" s="12" t="s">
-        <v>468</v>
+        <v>675</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A341" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="B341" s="94" t="s">
-        <v>689</v>
+      <c r="A341" s="41" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="B342" s="94"/>
+        <v>678</v>
+      </c>
+      <c r="B342" s="12" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A343" s="11" t="s">
-        <v>690</v>
-      </c>
-      <c r="B343" s="11" t="s">
-        <v>467</v>
+      <c r="A343" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="B343" s="94" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A344" s="11" t="s">
-        <v>691</v>
-      </c>
-      <c r="B344" s="97"/>
+      <c r="A344" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="B344" s="94"/>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="11" t="s">
-        <v>692</v>
-      </c>
-      <c r="B345" s="97" t="s">
-        <v>763</v>
+        <v>682</v>
+      </c>
+      <c r="B345" s="11" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A346" s="12" t="s">
-        <v>694</v>
-      </c>
-      <c r="B346" s="12" t="s">
-        <v>468</v>
-      </c>
+      <c r="A346" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="B346" s="97"/>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A347" s="12" t="s">
-        <v>695</v>
-      </c>
-      <c r="B347" s="94" t="s">
-        <v>697</v>
+      <c r="A347" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="B347" s="97" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="B348" s="94"/>
+        <v>686</v>
+      </c>
+      <c r="B348" s="12" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A349" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="B349" s="11" t="s">
-        <v>468</v>
+      <c r="A349" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="B349" s="94" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A350" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="B350" s="97" t="s">
-        <v>707</v>
-      </c>
+      <c r="A350" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="B350" s="94"/>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="11" t="s">
-        <v>702</v>
-      </c>
-      <c r="B351" s="97"/>
+        <v>690</v>
+      </c>
+      <c r="B351" s="11" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A352" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="B352" s="97"/>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="B353" s="97" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A354" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="B354" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A355" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="B355" s="94" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A356" s="12" t="s">
+        <v>696</v>
+      </c>
+      <c r="B356" s="94"/>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A357" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="B357" s="11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A358" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B358" s="97" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A359" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="B359" s="97"/>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A361" s="11" t="s">
         <v>825</v>
       </c>
-      <c r="B353" s="97" t="str">
+      <c r="B361" s="97" t="str">
         <f>B68</f>
         <v>FIRE - My car burst in flames on the hard shoulder</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B198:B257 B291:B292 B282:B286 B261:B280 B68 B354:B1048576 B352 B1:B59 B71:B72 B325:B336 B74:B195 B300:B316">
-    <cfRule type="cellIs" dxfId="1112" priority="73" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1111" priority="74" operator="equal">
+  <conditionalFormatting sqref="B206:B265 B299:B300 B290:B294 B269:B288 B68 B362:B1048576 B360 B1:B59 B71:B72 B333:B344 B74:B152 B308:B324 B161:B203">
+    <cfRule type="cellIs" dxfId="1112" priority="76" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1111" priority="77" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1110" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="1110" priority="78" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B196:B197">
-    <cfRule type="cellIs" dxfId="1109" priority="64" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1108" priority="65" operator="equal">
+  <conditionalFormatting sqref="B204:B205">
+    <cfRule type="cellIs" dxfId="1109" priority="67" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1108" priority="68" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1107" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="1107" priority="69" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B317:B324">
-    <cfRule type="cellIs" dxfId="1106" priority="61" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1105" priority="62" operator="equal">
+  <conditionalFormatting sqref="B325:B332">
+    <cfRule type="cellIs" dxfId="1106" priority="64" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1105" priority="65" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1104" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="1104" priority="66" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B337:B339">
-    <cfRule type="cellIs" dxfId="1103" priority="58" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1102" priority="59" operator="equal">
+  <conditionalFormatting sqref="B345:B347">
+    <cfRule type="cellIs" dxfId="1103" priority="61" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1102" priority="62" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1101" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="1101" priority="63" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B340:B342">
-    <cfRule type="cellIs" dxfId="1100" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1099" priority="56" operator="equal">
+  <conditionalFormatting sqref="B348:B350">
+    <cfRule type="cellIs" dxfId="1100" priority="58" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1099" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1098" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="1098" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B343:B345">
-    <cfRule type="cellIs" dxfId="1097" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1096" priority="53" operator="equal">
+  <conditionalFormatting sqref="B351:B353">
+    <cfRule type="cellIs" dxfId="1097" priority="55" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1096" priority="56" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1095" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="1095" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B346:B348">
-    <cfRule type="cellIs" dxfId="1094" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1093" priority="50" operator="equal">
+  <conditionalFormatting sqref="B354:B356">
+    <cfRule type="cellIs" dxfId="1094" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1093" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1092" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="1092" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B349:B351">
-    <cfRule type="cellIs" dxfId="1091" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1090" priority="47" operator="equal">
+  <conditionalFormatting sqref="B357:B359">
+    <cfRule type="cellIs" dxfId="1091" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1090" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1089" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="1089" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B287">
-    <cfRule type="cellIs" dxfId="1088" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1087" priority="44" operator="equal">
+  <conditionalFormatting sqref="B295">
+    <cfRule type="cellIs" dxfId="1088" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1087" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1086" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="1086" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B288">
-    <cfRule type="cellIs" dxfId="1085" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1084" priority="41" operator="equal">
+  <conditionalFormatting sqref="B296">
+    <cfRule type="cellIs" dxfId="1085" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1084" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1083" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1083" priority="45" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B297">
+    <cfRule type="cellIs" dxfId="1082" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1081" priority="41" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1080" priority="42" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B298">
+    <cfRule type="cellIs" dxfId="1079" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1078" priority="38" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1077" priority="39" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B266:B268">
+    <cfRule type="cellIs" dxfId="1076" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1075" priority="35" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1074" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="cellIs" dxfId="1082" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1081" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1073" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1072" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1080" priority="39" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B290">
-    <cfRule type="cellIs" dxfId="1079" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1078" priority="35" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1077" priority="36" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B258:B260">
-    <cfRule type="cellIs" dxfId="1076" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1075" priority="32" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1074" priority="33" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B281">
-    <cfRule type="cellIs" dxfId="1073" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1072" priority="29" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1071" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1071" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="1070" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1069" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1070" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1069" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1068" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1068" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="1067" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1066" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="1067" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1066" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1065" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="1065" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="1064" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1063" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="1064" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1063" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1062" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="1062" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="cellIs" dxfId="1061" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1060" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="1061" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1060" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1059" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="1059" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="1058" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1057" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="1058" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1057" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1056" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="1056" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="1055" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1054" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1055" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1054" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1053" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1053" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="1052" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1051" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1052" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1051" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1050" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1050" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B353">
-    <cfRule type="cellIs" dxfId="1049" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1048" priority="5" operator="equal">
+  <conditionalFormatting sqref="B361">
+    <cfRule type="cellIs" dxfId="1049" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1048" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1047" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1047" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" dxfId="1046" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1045" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1046" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1045" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1044" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1044" priority="6" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153:B160">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B207" r:id="rId1"/>
-    <hyperlink ref="B241" r:id="rId2"/>
-    <hyperlink ref="B272" r:id="rId3"/>
-    <hyperlink ref="B224" r:id="rId4"/>
-    <hyperlink ref="B169" r:id="rId5"/>
+    <hyperlink ref="B215" r:id="rId1"/>
+    <hyperlink ref="B249" r:id="rId2"/>
+    <hyperlink ref="B280" r:id="rId3"/>
+    <hyperlink ref="B232" r:id="rId4"/>
+    <hyperlink ref="B177" r:id="rId5"/>
     <hyperlink ref="B30" r:id="rId6"/>
     <hyperlink ref="B36" r:id="rId7"/>
     <hyperlink ref="B53" r:id="rId8"/>
     <hyperlink ref="B44" r:id="rId9" display="ivechanged@yahoo.co.uk"/>
     <hyperlink ref="B46" r:id="rId10"/>
-    <hyperlink ref="B273" r:id="rId11"/>
-    <hyperlink ref="B298" r:id="rId12"/>
+    <hyperlink ref="B281" r:id="rId11"/>
+    <hyperlink ref="B306" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
@@ -42534,8 +42647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I353"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B302" sqref="B302"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -43786,7 +43899,7 @@
         <v>51</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>52</v>
+        <v>932</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -48555,7 +48668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I353"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="POLICYDATA" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7370" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7382" uniqueCount="937">
   <si>
     <t>Fnol_PolicyNumber</t>
   </si>
@@ -2722,9 +2722,6 @@
     <t>10 Shillhope Drive, Blyth, NE24 4SN</t>
   </si>
   <si>
-    <t>21/03/2019</t>
-  </si>
-  <si>
     <t>THEFT - Someone stole the car</t>
   </si>
   <si>
@@ -2849,6 +2846,12 @@
   </si>
   <si>
     <t>Coach Builder</t>
+  </si>
+  <si>
+    <t>postfnol_set1</t>
+  </si>
+  <si>
+    <t>000-00-000261</t>
   </si>
 </sst>
 </file>
@@ -3248,7 +3251,45 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1332">
+  <dxfs count="1338">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11961,10 +12002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11987,7 +12028,7 @@
         <v>627</v>
       </c>
       <c r="B3" t="s">
-        <v>829</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -12012,19 +12053,19 @@
         <v>829</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C5" t="s">
+        <v>895</v>
+      </c>
+      <c r="D5" s="115" t="s">
         <v>896</v>
-      </c>
-      <c r="D5" s="115" t="s">
-        <v>897</v>
       </c>
       <c r="E5" t="s">
         <v>892</v>
       </c>
       <c r="F5" s="92" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12032,19 +12073,19 @@
         <v>829</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C6" t="s">
+        <v>895</v>
+      </c>
+      <c r="D6" s="115" t="s">
         <v>896</v>
-      </c>
-      <c r="D6" s="115" t="s">
-        <v>897</v>
       </c>
       <c r="E6" t="s">
         <v>892</v>
       </c>
       <c r="F6" s="92" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12052,19 +12093,19 @@
         <v>829</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C7" t="s">
+        <v>895</v>
+      </c>
+      <c r="D7" s="115" t="s">
         <v>896</v>
-      </c>
-      <c r="D7" s="115" t="s">
-        <v>897</v>
       </c>
       <c r="E7" t="s">
         <v>892</v>
       </c>
       <c r="F7" s="92" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12075,16 +12116,16 @@
         <v>886</v>
       </c>
       <c r="C8" t="s">
+        <v>895</v>
+      </c>
+      <c r="D8" s="115" t="s">
         <v>896</v>
-      </c>
-      <c r="D8" s="115" t="s">
-        <v>897</v>
       </c>
       <c r="E8" t="s">
         <v>892</v>
       </c>
       <c r="F8" s="92" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12095,16 +12136,16 @@
         <v>887</v>
       </c>
       <c r="C9" t="s">
+        <v>895</v>
+      </c>
+      <c r="D9" s="115" t="s">
         <v>896</v>
-      </c>
-      <c r="D9" s="115" t="s">
-        <v>897</v>
       </c>
       <c r="E9" t="s">
         <v>892</v>
       </c>
       <c r="F9" s="92" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12115,16 +12156,16 @@
         <v>888</v>
       </c>
       <c r="C10" t="s">
+        <v>895</v>
+      </c>
+      <c r="D10" s="115" t="s">
         <v>896</v>
-      </c>
-      <c r="D10" s="115" t="s">
-        <v>897</v>
       </c>
       <c r="E10" t="s">
         <v>892</v>
       </c>
       <c r="F10" s="92" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12135,16 +12176,16 @@
         <v>889</v>
       </c>
       <c r="C11" t="s">
+        <v>895</v>
+      </c>
+      <c r="D11" s="115" t="s">
         <v>896</v>
-      </c>
-      <c r="D11" s="115" t="s">
-        <v>897</v>
       </c>
       <c r="E11" t="s">
         <v>892</v>
       </c>
       <c r="F11" s="92" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12152,19 +12193,19 @@
         <v>829</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C12" t="s">
+        <v>895</v>
+      </c>
+      <c r="D12" s="115" t="s">
         <v>896</v>
-      </c>
-      <c r="D12" s="115" t="s">
-        <v>897</v>
       </c>
       <c r="E12" t="s">
         <v>892</v>
       </c>
       <c r="F12" s="92" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12172,53 +12213,53 @@
         <v>829</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C13" t="s">
+        <v>895</v>
+      </c>
+      <c r="D13" s="115" t="s">
         <v>896</v>
-      </c>
-      <c r="D13" s="115" t="s">
-        <v>897</v>
       </c>
       <c r="E13" t="s">
         <v>892</v>
       </c>
       <c r="F13" s="92" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="C14" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="D14" s="115"/>
-      <c r="F14" s="92"/>
+      <c r="D14" s="115" t="s">
+        <v>896</v>
+      </c>
+      <c r="E14" t="s">
+        <v>892</v>
+      </c>
+      <c r="F14" s="92" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>911</v>
-      </c>
-      <c r="C15" t="s">
-        <v>891</v>
-      </c>
-      <c r="D15" t="s">
-        <v>890</v>
-      </c>
-      <c r="E15" t="s">
-        <v>892</v>
-      </c>
-      <c r="F15" s="92" t="s">
-        <v>893</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="115"/>
+      <c r="F15" s="92"/>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>395</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C16" t="s">
         <v>891</v>
@@ -12230,7 +12271,7 @@
         <v>892</v>
       </c>
       <c r="F16" s="92" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12238,7 +12279,7 @@
         <v>395</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C17" t="s">
         <v>891</v>
@@ -12250,7 +12291,7 @@
         <v>892</v>
       </c>
       <c r="F17" s="92" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12258,7 +12299,7 @@
         <v>395</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>886</v>
+        <v>912</v>
       </c>
       <c r="C18" t="s">
         <v>891</v>
@@ -12270,7 +12311,7 @@
         <v>892</v>
       </c>
       <c r="F18" s="92" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12278,7 +12319,7 @@
         <v>395</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C19" t="s">
         <v>891</v>
@@ -12290,7 +12331,7 @@
         <v>892</v>
       </c>
       <c r="F19" s="92" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12298,7 +12339,7 @@
         <v>395</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C20" t="s">
         <v>891</v>
@@ -12310,7 +12351,7 @@
         <v>892</v>
       </c>
       <c r="F20" s="92" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12318,7 +12359,7 @@
         <v>395</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C21" t="s">
         <v>891</v>
@@ -12330,7 +12371,7 @@
         <v>892</v>
       </c>
       <c r="F21" s="92" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12338,7 +12379,7 @@
         <v>395</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>914</v>
+        <v>889</v>
       </c>
       <c r="C22" t="s">
         <v>891</v>
@@ -12350,7 +12391,7 @@
         <v>892</v>
       </c>
       <c r="F22" s="92" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12358,7 +12399,7 @@
         <v>395</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>931</v>
+        <v>913</v>
       </c>
       <c r="C23" t="s">
         <v>891</v>
@@ -12370,55 +12411,84 @@
         <v>892</v>
       </c>
       <c r="F23" s="92" t="s">
-        <v>893</v>
+        <v>894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="C24" t="s">
+        <v>891</v>
+      </c>
+      <c r="D24" t="s">
+        <v>890</v>
+      </c>
+      <c r="E24" t="s">
+        <v>892</v>
+      </c>
+      <c r="F24" s="92" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="C25" t="s">
+        <v>891</v>
+      </c>
+      <c r="D25" t="s">
+        <v>890</v>
+      </c>
+      <c r="E25" t="s">
+        <v>892</v>
+      </c>
+      <c r="F25" s="92" t="s">
+        <v>894</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="1331" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1330" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="1337" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1336" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1329" priority="33" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F21">
-    <cfRule type="cellIs" dxfId="1328" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1327" priority="17" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1326" priority="18" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F19">
-    <cfRule type="cellIs" dxfId="1325" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1324" priority="20" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1323" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="1335" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F11">
-    <cfRule type="cellIs" dxfId="1322" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1321" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="1328" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1327" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1320" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="1326" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12 F14">
+  <conditionalFormatting sqref="F12 F15">
+    <cfRule type="cellIs" dxfId="1325" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1324" priority="17" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1323" priority="18" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:F14">
     <cfRule type="cellIs" dxfId="1319" priority="10" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -12429,36 +12499,14 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="1316" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1315" priority="8" operator="equal">
+  <conditionalFormatting sqref="F16:F25">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1314" priority="9" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="1313" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1312" priority="5" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1311" priority="6" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="1310" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1309" priority="2" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1308" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12486,7 +12534,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -12954,7 +13002,7 @@
         <v>822</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -12962,7 +13010,7 @@
         <v>491</v>
       </c>
       <c r="B68" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -12970,7 +13018,7 @@
         <v>17</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -12978,7 +13026,7 @@
         <v>6</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12986,7 +13034,7 @@
         <v>8</v>
       </c>
       <c r="B71" s="101" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -12999,7 +13047,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B73" s="118" t="b">
         <v>1</v>
@@ -13018,7 +13066,7 @@
         <v>24</v>
       </c>
       <c r="B75" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -13129,7 +13177,7 @@
         <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -13679,7 +13727,7 @@
         <v>49</v>
       </c>
       <c r="B150" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -14746,7 +14794,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B293" s="11" t="s">
         <v>37</v>
@@ -14754,15 +14802,15 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="B294" s="97" t="s">
         <v>900</v>
-      </c>
-      <c r="B294" s="97" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B295" s="97" t="s">
         <v>60</v>
@@ -14770,34 +14818,34 @@
     </row>
     <row r="296" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="B296" s="31" t="s">
         <v>903</v>
-      </c>
-      <c r="B296" s="31" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="B297" s="31" t="s">
         <v>905</v>
-      </c>
-      <c r="B297" s="31" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="B298" s="117" t="s">
         <v>907</v>
-      </c>
-      <c r="B298" s="117" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="B299" s="11" t="s">
         <v>909</v>
-      </c>
-      <c r="B299" s="11" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
@@ -15180,244 +15228,244 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B198:B257 B352 B291:B292 B282:B286 B261:B280 B68 B354:B1048576 B71:B72 B325:B336 B74:B195 B300:B316 B19:B59 B1:B17">
-    <cfRule type="cellIs" dxfId="779" priority="64" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="778" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="782" priority="64" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="781" priority="65" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="777" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="780" priority="66" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B196:B197">
-    <cfRule type="cellIs" dxfId="776" priority="61" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="775" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="779" priority="61" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="778" priority="62" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="774" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="777" priority="63" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B317:B324">
-    <cfRule type="cellIs" dxfId="773" priority="58" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="772" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="776" priority="58" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="775" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="771" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="774" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B337:B339">
-    <cfRule type="cellIs" dxfId="770" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="769" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="773" priority="55" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="772" priority="56" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="768" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="771" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B340:B342">
-    <cfRule type="cellIs" dxfId="767" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="766" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="770" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="769" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="765" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="768" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B343:B345">
-    <cfRule type="cellIs" dxfId="764" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="763" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="767" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="766" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="762" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="765" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B346:B348">
-    <cfRule type="cellIs" dxfId="761" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="760" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="764" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="763" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="759" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="762" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B349:B351">
-    <cfRule type="cellIs" dxfId="758" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="757" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="761" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="760" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="756" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="759" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="cellIs" dxfId="755" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="754" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="758" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="757" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="753" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="756" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B288">
-    <cfRule type="cellIs" dxfId="752" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="751" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="755" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="754" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="750" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="753" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="cellIs" dxfId="749" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="748" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="752" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="751" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="747" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B290">
-    <cfRule type="cellIs" dxfId="746" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="745" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="749" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="748" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="744" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="747" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B258:B260">
-    <cfRule type="cellIs" dxfId="743" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="742" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="746" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="745" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="741" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="744" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B281">
-    <cfRule type="cellIs" dxfId="740" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="739" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="743" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="742" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="738" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="741" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="737" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="736" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="740" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="739" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="735" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="738" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="734" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="733" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="737" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="736" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="732" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="735" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="731" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="730" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="734" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="733" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="729" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="732" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65 B67">
-    <cfRule type="cellIs" dxfId="728" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="727" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="731" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="730" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="726" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="729" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="725" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="724" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="728" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="727" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="723" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="722" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="721" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="725" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="724" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="720" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="723" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B353">
-    <cfRule type="cellIs" dxfId="719" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="718" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="722" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="721" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="717" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="720" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" dxfId="716" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="715" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="719" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="718" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="714" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="717" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15444,8 +15492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I199"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15482,7 +15530,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>652</v>
+        <v>936</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -17521,68 +17569,68 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B49:B53 B75:B85 B63:B68 B87:B88 B101:B109">
-    <cfRule type="cellIs" dxfId="713" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="712" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="716" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="715" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="711" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="714" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:B45">
-    <cfRule type="cellIs" dxfId="710" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="709" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="713" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="712" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="708" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="711" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="707" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="706" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="710" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="709" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="705" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="708" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B62">
-    <cfRule type="cellIs" dxfId="704" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="703" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="707" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="706" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="702" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="705" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B134">
-    <cfRule type="cellIs" dxfId="701" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="700" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="704" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="703" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="699" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="702" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B94">
-    <cfRule type="cellIs" dxfId="698" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="697" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="701" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="700" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="696" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="699" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19074,387 +19122,387 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E8:E12">
-    <cfRule type="cellIs" dxfId="695" priority="109" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="694" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="698" priority="109" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="697" priority="110" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="693" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="696" priority="111" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B11">
-    <cfRule type="cellIs" dxfId="692" priority="100" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="691" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="695" priority="100" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="694" priority="101" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="690" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="693" priority="102" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="cellIs" dxfId="689" priority="97" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="688" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="692" priority="97" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="691" priority="98" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="687" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="690" priority="99" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="cellIs" dxfId="686" priority="94" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="685" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="689" priority="94" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="688" priority="95" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="684" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="687" priority="96" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="cellIs" dxfId="683" priority="91" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="682" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="686" priority="91" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="685" priority="92" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="681" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="684" priority="93" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="cellIs" dxfId="680" priority="88" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="679" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="683" priority="88" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="682" priority="89" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="678" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="681" priority="90" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="cellIs" dxfId="677" priority="85" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="676" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="680" priority="85" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="679" priority="86" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="675" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="678" priority="87" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="cellIs" dxfId="674" priority="82" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="673" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="677" priority="82" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="676" priority="83" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="672" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="675" priority="84" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98">
-    <cfRule type="cellIs" dxfId="671" priority="79" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="670" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="674" priority="79" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="673" priority="80" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="669" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="672" priority="81" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B24">
-    <cfRule type="cellIs" dxfId="668" priority="76" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="667" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="671" priority="76" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="670" priority="77" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="666" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="669" priority="78" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B16">
-    <cfRule type="cellIs" dxfId="665" priority="73" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="664" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="668" priority="73" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="667" priority="74" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="663" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="666" priority="75" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="662" priority="70" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="661" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="665" priority="70" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="664" priority="71" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="660" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="663" priority="72" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B27">
-    <cfRule type="cellIs" dxfId="659" priority="67" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="658" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="662" priority="67" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="661" priority="68" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="657" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="660" priority="69" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="656" priority="64" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="655" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="659" priority="64" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="658" priority="65" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="654" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="657" priority="66" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="653" priority="61" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="652" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="656" priority="61" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="655" priority="62" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="651" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="63" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="650" priority="58" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="649" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="653" priority="58" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="652" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="648" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="651" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="cellIs" dxfId="647" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="646" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="650" priority="55" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="649" priority="56" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="645" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="648" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="cellIs" dxfId="644" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="643" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="647" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="646" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="642" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="645" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105">
-    <cfRule type="cellIs" dxfId="641" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="640" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="643" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="639" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="642" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="cellIs" dxfId="638" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="637" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="641" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="640" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="636" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="639" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="cellIs" dxfId="635" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="634" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="638" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="637" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="633" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="636" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="632" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="631" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="635" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="634" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="630" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="633" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133">
-    <cfRule type="cellIs" dxfId="629" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="628" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="632" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="631" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="627" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="630" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139">
-    <cfRule type="cellIs" dxfId="626" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="625" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="629" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="628" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="624" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="627" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143">
-    <cfRule type="cellIs" dxfId="623" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="622" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="626" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="625" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="621" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="cellIs" dxfId="620" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="619" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="622" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="618" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
-    <cfRule type="cellIs" dxfId="617" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="616" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="619" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="615" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:B168">
-    <cfRule type="cellIs" dxfId="614" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="613" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="616" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="612" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="615" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B170:B173">
-    <cfRule type="cellIs" dxfId="611" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="610" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="614" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="613" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="609" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B174:B176">
-    <cfRule type="cellIs" dxfId="608" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="607" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="610" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B177:B179">
-    <cfRule type="cellIs" dxfId="605" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="604" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="607" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="603" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B180:B182">
-    <cfRule type="cellIs" dxfId="602" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="601" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="605" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="604" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="600" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="603" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B183:B185">
-    <cfRule type="cellIs" dxfId="599" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="598" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="601" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="597" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="600" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B188">
-    <cfRule type="cellIs" dxfId="596" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="595" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="598" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="594" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="cellIs" dxfId="593" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="592" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="595" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="591" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20895,354 +20943,354 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6:E10">
-    <cfRule type="cellIs" dxfId="590" priority="103" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="589" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="103" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="592" priority="104" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="588" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="105" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B9">
-    <cfRule type="cellIs" dxfId="587" priority="94" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="586" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="590" priority="94" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="589" priority="95" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="585" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="96" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="cellIs" dxfId="584" priority="91" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="583" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="587" priority="91" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="586" priority="92" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="582" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="585" priority="93" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="cellIs" dxfId="581" priority="88" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="580" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="88" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="583" priority="89" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="579" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="90" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="cellIs" dxfId="578" priority="85" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="577" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="85" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="580" priority="86" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="576" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="87" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="575" priority="82" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="574" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="82" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="577" priority="83" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="573" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="84" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="cellIs" dxfId="572" priority="76" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="571" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="76" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="574" priority="77" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="570" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="78" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="569" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="568" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="572" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="571" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="567" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:B96">
-    <cfRule type="cellIs" dxfId="566" priority="73" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="565" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="73" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="568" priority="74" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="564" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="75" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="563" priority="70" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="562" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="70" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="565" priority="71" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="561" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="72" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B23">
-    <cfRule type="cellIs" dxfId="560" priority="67" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="559" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="67" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="562" priority="68" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="558" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="561" priority="69" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B35">
-    <cfRule type="cellIs" dxfId="557" priority="64" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="64" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="559" priority="65" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="66" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="554" priority="61" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="61" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="556" priority="62" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="552" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="63" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="551" priority="58" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="58" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="553" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="cellIs" dxfId="548" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="547" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="55" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="550" priority="56" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="cellIs" dxfId="545" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="544" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="547" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="543" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="cellIs" dxfId="542" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="541" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="545" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="544" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106">
-    <cfRule type="cellIs" dxfId="539" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="541" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="537" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116">
-    <cfRule type="cellIs" dxfId="536" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="535" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="539" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="538" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="534" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120">
-    <cfRule type="cellIs" dxfId="533" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="535" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="531" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="530" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="532" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="528" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140">
-    <cfRule type="cellIs" dxfId="527" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="526" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="529" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="525" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="cellIs" dxfId="524" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="526" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="522" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="525" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="521" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="520" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="523" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="519" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:B166">
-    <cfRule type="cellIs" dxfId="518" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="517" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="520" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168:B171">
-    <cfRule type="cellIs" dxfId="515" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="517" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="513" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B174">
-    <cfRule type="cellIs" dxfId="512" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="511" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="514" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="510" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B175:B177">
-    <cfRule type="cellIs" dxfId="509" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="511" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="507" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B178:B180">
-    <cfRule type="cellIs" dxfId="506" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="505" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="508" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="504" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B181:B183">
-    <cfRule type="cellIs" dxfId="503" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="505" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B186">
-    <cfRule type="cellIs" dxfId="500" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="499" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="502" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="cellIs" dxfId="497" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="499" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="495" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22669,332 +22717,332 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E7:E11">
-    <cfRule type="cellIs" dxfId="494" priority="106" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="106" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="496" priority="107" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="108" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B10">
-    <cfRule type="cellIs" dxfId="491" priority="97" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="97" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="493" priority="98" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="99" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="cellIs" dxfId="488" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="490" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108">
-    <cfRule type="cellIs" dxfId="485" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="487" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="483" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="cellIs" dxfId="482" priority="88" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="88" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="484" priority="89" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="90" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="cellIs" dxfId="479" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="481" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="476" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="475" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="478" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="cellIs" dxfId="473" priority="79" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="79" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="475" priority="80" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="81" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="cellIs" dxfId="470" priority="76" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="76" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="472" priority="77" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="78" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="467" priority="73" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="73" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="469" priority="74" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="75" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B26">
-    <cfRule type="cellIs" dxfId="464" priority="70" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="70" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="466" priority="71" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="72" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B38">
-    <cfRule type="cellIs" dxfId="461" priority="67" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="67" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="463" priority="68" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="69" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B50">
-    <cfRule type="cellIs" dxfId="458" priority="64" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="64" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="460" priority="65" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="66" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="455" priority="61" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="61" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="457" priority="62" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="63" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="452" priority="58" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="58" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="454" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79">
-    <cfRule type="cellIs" dxfId="449" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="55" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="451" priority="56" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="cellIs" dxfId="446" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="448" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="cellIs" dxfId="443" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="445" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="cellIs" dxfId="440" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="442" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="cellIs" dxfId="437" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="439" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="cellIs" dxfId="434" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="436" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152">
-    <cfRule type="cellIs" dxfId="431" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="433" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:B167">
-    <cfRule type="cellIs" dxfId="428" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="430" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B172">
-    <cfRule type="cellIs" dxfId="425" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="427" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="cellIs" dxfId="422" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="424" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B176:B178">
-    <cfRule type="cellIs" dxfId="419" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="421" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B179:B181">
-    <cfRule type="cellIs" dxfId="416" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="418" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B184">
-    <cfRule type="cellIs" dxfId="413" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="415" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B185:B187">
-    <cfRule type="cellIs" dxfId="410" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="412" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="cellIs" dxfId="407" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="409" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24421,343 +24469,343 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E7:E11">
-    <cfRule type="cellIs" dxfId="404" priority="103" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="103" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="406" priority="104" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="105" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B10">
-    <cfRule type="cellIs" dxfId="401" priority="94" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="94" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="403" priority="95" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="96" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="cellIs" dxfId="398" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="400" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108">
-    <cfRule type="cellIs" dxfId="395" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="397" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="cellIs" dxfId="392" priority="85" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="85" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="394" priority="86" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="87" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="cellIs" dxfId="389" priority="82" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="82" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="391" priority="83" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="84" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="cellIs" dxfId="386" priority="79" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="79" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="388" priority="80" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="81" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="cellIs" dxfId="383" priority="76" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="76" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="385" priority="77" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="78" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="cellIs" dxfId="380" priority="73" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="73" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="382" priority="74" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="75" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="377" priority="70" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="70" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="379" priority="71" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="72" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B26">
-    <cfRule type="cellIs" dxfId="374" priority="67" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="67" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="376" priority="68" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="69" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B38">
-    <cfRule type="cellIs" dxfId="371" priority="64" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="64" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="373" priority="65" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="66" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="368" priority="61" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="61" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="370" priority="62" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="63" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="365" priority="58" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="58" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="367" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79">
-    <cfRule type="cellIs" dxfId="362" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="55" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="364" priority="56" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="cellIs" dxfId="359" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="361" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="cellIs" dxfId="356" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="353" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="355" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="cellIs" dxfId="350" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="352" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="cellIs" dxfId="347" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="349" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="cellIs" dxfId="344" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="346" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="cellIs" dxfId="341" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="343" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152">
-    <cfRule type="cellIs" dxfId="338" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="340" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:B167">
-    <cfRule type="cellIs" dxfId="335" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="337" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B172">
-    <cfRule type="cellIs" dxfId="332" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="cellIs" dxfId="329" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="331" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B176:B178">
-    <cfRule type="cellIs" dxfId="326" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B179:B181">
-    <cfRule type="cellIs" dxfId="323" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B184">
-    <cfRule type="cellIs" dxfId="320" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B185:B187">
-    <cfRule type="cellIs" dxfId="317" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="319" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="cellIs" dxfId="314" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26182,376 +26230,376 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6:E10">
-    <cfRule type="cellIs" dxfId="311" priority="109" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="109" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="110" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="111" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B9">
-    <cfRule type="cellIs" dxfId="308" priority="100" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="100" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="101" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="102" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="cellIs" dxfId="305" priority="97" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="97" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="307" priority="98" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="99" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="cellIs" dxfId="302" priority="94" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="94" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="95" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="96" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="cellIs" dxfId="299" priority="91" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="91" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="92" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="93" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="296" priority="88" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="88" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="89" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="90" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="cellIs" dxfId="293" priority="85" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="85" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="86" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="87" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95">
-    <cfRule type="cellIs" dxfId="290" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="cellIs" dxfId="287" priority="79" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="79" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="289" priority="80" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="81" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="284" priority="76" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="76" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="77" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="78" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B23">
-    <cfRule type="cellIs" dxfId="281" priority="73" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="73" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="283" priority="74" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="75" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="cellIs" dxfId="278" priority="70" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="70" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="71" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="72" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="275" priority="67" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="67" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="68" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="69" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="272" priority="64" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="64" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="65" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="66" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="cellIs" dxfId="269" priority="61" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="61" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="62" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="63" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="cellIs" dxfId="266" priority="58" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="58" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="cellIs" dxfId="263" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="55" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="56" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103">
-    <cfRule type="cellIs" dxfId="260" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107">
-    <cfRule type="cellIs" dxfId="257" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="259" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="cellIs" dxfId="254" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121">
-    <cfRule type="cellIs" dxfId="251" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="248" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="245" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B141">
-    <cfRule type="cellIs" dxfId="242" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143">
-    <cfRule type="cellIs" dxfId="239" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="236" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:B166">
-    <cfRule type="cellIs" dxfId="233" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168:B171">
-    <cfRule type="cellIs" dxfId="230" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B174">
-    <cfRule type="cellIs" dxfId="227" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B175:B177">
-    <cfRule type="cellIs" dxfId="224" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B178:B180">
-    <cfRule type="cellIs" dxfId="221" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B181:B183">
-    <cfRule type="cellIs" dxfId="218" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B186">
-    <cfRule type="cellIs" dxfId="215" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="cellIs" dxfId="212" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27980,376 +28028,376 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6:E10">
-    <cfRule type="cellIs" dxfId="209" priority="106" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="106" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="107" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="108" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B9">
-    <cfRule type="cellIs" dxfId="206" priority="97" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="97" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="98" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="99" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="cellIs" dxfId="203" priority="94" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="94" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="95" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="96" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="cellIs" dxfId="200" priority="91" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="91" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="92" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="93" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="cellIs" dxfId="197" priority="88" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="88" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="89" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="90" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="194" priority="85" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="85" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="86" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="87" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="cellIs" dxfId="191" priority="82" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="82" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="83" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="84" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="cellIs" dxfId="188" priority="79" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="79" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="80" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="81" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="185" priority="76" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="76" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="77" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="78" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B23">
-    <cfRule type="cellIs" dxfId="182" priority="73" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="73" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="74" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="75" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="cellIs" dxfId="179" priority="70" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="70" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="71" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="72" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="176" priority="67" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="67" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="68" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="69" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="173" priority="64" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="64" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="65" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="66" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="cellIs" dxfId="170" priority="61" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="61" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="62" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="63" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="cellIs" dxfId="167" priority="58" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="58" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="cellIs" dxfId="164" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="55" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="56" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95">
-    <cfRule type="cellIs" dxfId="161" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103">
-    <cfRule type="cellIs" dxfId="158" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107">
-    <cfRule type="cellIs" dxfId="155" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="cellIs" dxfId="152" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121">
-    <cfRule type="cellIs" dxfId="149" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="146" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="143" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B141">
-    <cfRule type="cellIs" dxfId="140" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143">
-    <cfRule type="cellIs" dxfId="137" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="134" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:B166">
-    <cfRule type="cellIs" dxfId="131" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B170:B173">
-    <cfRule type="cellIs" dxfId="128" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B174:B176">
-    <cfRule type="cellIs" dxfId="125" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B177:B179">
-    <cfRule type="cellIs" dxfId="122" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B180:B182">
-    <cfRule type="cellIs" dxfId="119" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B183:B185">
-    <cfRule type="cellIs" dxfId="116" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B188">
-    <cfRule type="cellIs" dxfId="113" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="cellIs" dxfId="110" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29835,387 +29883,387 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E8:E12">
-    <cfRule type="cellIs" dxfId="107" priority="103" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="103" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="104" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="105" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B11">
-    <cfRule type="cellIs" dxfId="104" priority="100" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="100" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="101" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="102" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="cellIs" dxfId="101" priority="97" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="97" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="98" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="99" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="cellIs" dxfId="98" priority="94" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="94" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="95" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="96" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="cellIs" dxfId="95" priority="91" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="91" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="92" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="93" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="cellIs" dxfId="92" priority="88" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="88" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="89" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="90" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="cellIs" dxfId="89" priority="85" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="85" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="86" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="87" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="cellIs" dxfId="86" priority="82" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="82" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="83" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="84" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98">
-    <cfRule type="cellIs" dxfId="83" priority="79" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="79" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="80" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="81" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B24">
-    <cfRule type="cellIs" dxfId="80" priority="76" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="76" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="77" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="78" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B16">
-    <cfRule type="cellIs" dxfId="77" priority="73" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="73" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="74" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="75" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="74" priority="70" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="70" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="71" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="72" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B27">
-    <cfRule type="cellIs" dxfId="71" priority="67" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="67" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="68" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="69" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="68" priority="64" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="64" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="65" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="66" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="65" priority="61" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="61" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="62" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="63" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="58" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="cellIs" dxfId="59" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="cellIs" dxfId="56" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105">
-    <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="cellIs" dxfId="47" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133">
-    <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139">
-    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143">
-    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
-    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:B168">
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B170:B173">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B174:B176">
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B177:B179">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B180:B182">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B183:B185">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B188">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30807,7 +30855,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B74" s="116" t="b">
         <v>0</v>
@@ -31503,7 +31551,7 @@
         <v>51</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -31575,7 +31623,7 @@
         <v>842</v>
       </c>
       <c r="B161" s="113" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
@@ -32683,7 +32731,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B311" s="11" t="s">
         <v>37</v>
@@ -32691,15 +32739,15 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="B312" s="97" t="s">
         <v>900</v>
-      </c>
-      <c r="B312" s="97" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B313" s="97" t="s">
         <v>60</v>
@@ -32707,34 +32755,34 @@
     </row>
     <row r="314" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="B314" s="31" t="s">
         <v>903</v>
-      </c>
-      <c r="B314" s="31" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="B315" s="31" t="s">
         <v>905</v>
-      </c>
-      <c r="B315" s="31" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="B316" s="117" t="s">
         <v>907</v>
-      </c>
-      <c r="B316" s="117" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="B317" s="11" t="s">
         <v>909</v>
-      </c>
-      <c r="B317" s="11" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
@@ -33128,211 +33176,211 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B216:B275 B371 B309:B310 B300:B304 B279:B298 B65:B66 B373:B1048576 B1:B60 B343:B355 B69:B84 B86:B209 B318:B334">
-    <cfRule type="cellIs" dxfId="1307" priority="67" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1306" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="1313" priority="67" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1312" priority="68" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1305" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="1311" priority="69" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210:B215">
-    <cfRule type="cellIs" dxfId="1304" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1303" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="1310" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1309" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1302" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="1308" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B335:B342">
-    <cfRule type="cellIs" dxfId="1301" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1300" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="1307" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1306" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1299" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="1305" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B356:B358">
-    <cfRule type="cellIs" dxfId="1298" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1297" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="1304" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1303" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1296" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="1302" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B359:B361">
-    <cfRule type="cellIs" dxfId="1295" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1294" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="1301" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1300" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1293" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="1299" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B362:B364">
-    <cfRule type="cellIs" dxfId="1292" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1291" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1298" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1297" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1290" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1296" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B365:B367">
-    <cfRule type="cellIs" dxfId="1289" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1288" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1295" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1294" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1287" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1293" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B368:B370">
-    <cfRule type="cellIs" dxfId="1286" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1285" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1292" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1291" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1284" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1290" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B305">
-    <cfRule type="cellIs" dxfId="1283" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1282" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="1289" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1288" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1281" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="1287" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306">
-    <cfRule type="cellIs" dxfId="1280" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1279" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1286" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1285" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1278" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1284" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307">
-    <cfRule type="cellIs" dxfId="1277" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1276" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1283" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1282" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1275" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1281" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B308">
-    <cfRule type="cellIs" dxfId="1274" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1273" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="1280" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1279" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1272" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="1278" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276:B278">
-    <cfRule type="cellIs" dxfId="1271" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1270" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="1277" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1276" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1269" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="1275" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B299">
-    <cfRule type="cellIs" dxfId="1268" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1267" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="1274" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1273" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1266" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="1272" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B62">
-    <cfRule type="cellIs" dxfId="1265" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1264" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="1271" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1270" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1263" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="1269" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="cellIs" dxfId="1262" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1261" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1268" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1267" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1260" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1266" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="cellIs" dxfId="1259" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1258" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1265" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1264" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1257" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1263" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="1256" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1255" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1262" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1261" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1254" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1260" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B372">
-    <cfRule type="cellIs" dxfId="1253" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1252" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1259" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1258" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1251" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1257" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33895,7 +33943,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B74" s="116" t="b">
         <v>0</v>
@@ -35771,7 +35819,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B311" s="11" t="s">
         <v>37</v>
@@ -35779,15 +35827,15 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="B312" s="97" t="s">
         <v>900</v>
-      </c>
-      <c r="B312" s="97" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B313" s="97" t="s">
         <v>60</v>
@@ -35795,34 +35843,34 @@
     </row>
     <row r="314" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="B314" s="31" t="s">
         <v>903</v>
-      </c>
-      <c r="B314" s="31" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="B315" s="31" t="s">
         <v>905</v>
-      </c>
-      <c r="B315" s="31" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="B316" s="117" t="s">
         <v>907</v>
-      </c>
-      <c r="B316" s="117" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="B317" s="11" t="s">
         <v>909</v>
-      </c>
-      <c r="B317" s="11" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
@@ -36216,222 +36264,222 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B216:B275 B371 B309:B310 B300:B304 B279:B298 B65:B66 B373:B1048576 B1:B60 B69:B73 B343:B355 B75:B209 B318:B334">
-    <cfRule type="cellIs" dxfId="1250" priority="64" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1249" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="1256" priority="64" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1255" priority="65" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1248" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="1254" priority="66" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210:B215">
-    <cfRule type="cellIs" dxfId="1247" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1246" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="1253" priority="55" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1252" priority="56" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1245" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="1251" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B335:B342">
-    <cfRule type="cellIs" dxfId="1244" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1243" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="1250" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1249" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1242" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="1248" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B356:B358">
-    <cfRule type="cellIs" dxfId="1241" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1240" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="1247" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1246" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1239" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="1245" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B359:B361">
-    <cfRule type="cellIs" dxfId="1238" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1237" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="1244" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1243" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1236" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="1242" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B362:B364">
-    <cfRule type="cellIs" dxfId="1235" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1234" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="1241" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1240" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1233" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="1239" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B365:B367">
-    <cfRule type="cellIs" dxfId="1232" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1231" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1238" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1237" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1230" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1236" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B368:B370">
-    <cfRule type="cellIs" dxfId="1229" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1228" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1235" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1234" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1227" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1233" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B305">
-    <cfRule type="cellIs" dxfId="1226" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1225" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1232" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1231" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1224" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1230" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306">
-    <cfRule type="cellIs" dxfId="1223" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1222" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="1229" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1228" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1221" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="1227" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307">
-    <cfRule type="cellIs" dxfId="1220" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1219" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1226" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1225" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1218" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1224" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B308">
-    <cfRule type="cellIs" dxfId="1217" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1216" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1223" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1222" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1215" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1221" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276:B278">
-    <cfRule type="cellIs" dxfId="1214" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1213" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="1220" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1219" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1212" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="1218" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B299">
-    <cfRule type="cellIs" dxfId="1211" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1210" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="1217" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1216" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1209" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="1215" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B62">
-    <cfRule type="cellIs" dxfId="1208" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1207" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="1214" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1213" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1206" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="1212" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="cellIs" dxfId="1205" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1204" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="1211" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1210" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1203" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="1209" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="cellIs" dxfId="1202" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1201" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1208" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1207" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1200" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1206" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="1199" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1198" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1205" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1204" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1197" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1203" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B372">
-    <cfRule type="cellIs" dxfId="1196" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1195" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1202" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1201" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1194" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1200" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="cellIs" dxfId="1193" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1192" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1199" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1198" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1191" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1197" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37031,7 +37079,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B73" s="116" t="b">
         <v>0</v>
@@ -38800,7 +38848,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B297" s="11" t="s">
         <v>37</v>
@@ -38808,15 +38856,15 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="B298" s="97" t="s">
         <v>900</v>
-      </c>
-      <c r="B298" s="97" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B299" s="97" t="s">
         <v>60</v>
@@ -38824,34 +38872,34 @@
     </row>
     <row r="300" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="B300" s="31" t="s">
         <v>903</v>
-      </c>
-      <c r="B300" s="31" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="B301" s="31" t="s">
         <v>905</v>
-      </c>
-      <c r="B301" s="31" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="B302" s="117" t="s">
         <v>907</v>
-      </c>
-      <c r="B302" s="117" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="B303" s="11" t="s">
         <v>909</v>
-      </c>
-      <c r="B303" s="11" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
@@ -39234,288 +39282,288 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B202:B261 B356 B295:B296 B286:B290 B265:B284 B358:B1048576 B1:B59 B68:B72 B329:B340 B74:B195 B304:B320">
-    <cfRule type="cellIs" dxfId="1190" priority="82" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1189" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="1196" priority="82" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1195" priority="83" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1188" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="1194" priority="84" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B196:B197">
-    <cfRule type="cellIs" dxfId="1187" priority="73" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1186" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="1193" priority="73" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1192" priority="74" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1185" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="1191" priority="75" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B321:B328">
-    <cfRule type="cellIs" dxfId="1184" priority="70" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1183" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="1190" priority="70" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1189" priority="71" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1182" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="1188" priority="72" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B341:B343">
-    <cfRule type="cellIs" dxfId="1181" priority="67" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1180" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="1187" priority="67" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1186" priority="68" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1179" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="1185" priority="69" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B344:B346">
-    <cfRule type="cellIs" dxfId="1178" priority="64" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1177" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="1184" priority="64" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1183" priority="65" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1176" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="1182" priority="66" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B347:B349">
-    <cfRule type="cellIs" dxfId="1175" priority="61" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1174" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="1181" priority="61" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1180" priority="62" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1173" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="1179" priority="63" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B350:B352">
-    <cfRule type="cellIs" dxfId="1172" priority="58" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1171" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="1178" priority="58" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1177" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1170" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="1176" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B353:B355">
-    <cfRule type="cellIs" dxfId="1169" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1168" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="1175" priority="55" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1174" priority="56" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1167" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="1173" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="cellIs" dxfId="1166" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1165" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="1172" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1171" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1164" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="1170" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="cellIs" dxfId="1163" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1162" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="1169" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1168" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1161" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="1167" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293">
-    <cfRule type="cellIs" dxfId="1160" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1159" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="1166" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1165" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1158" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="1164" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B294">
-    <cfRule type="cellIs" dxfId="1157" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1156" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="1163" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1162" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1155" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="1161" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B262:B264">
-    <cfRule type="cellIs" dxfId="1154" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1153" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1160" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1159" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1152" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1158" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B285">
-    <cfRule type="cellIs" dxfId="1151" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1150" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1157" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1156" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1149" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1155" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198">
-    <cfRule type="cellIs" dxfId="1148" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1147" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1154" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1153" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1146" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1152" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B199">
-    <cfRule type="cellIs" dxfId="1145" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1144" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="1151" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1150" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1143" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="1149" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B200:B201">
-    <cfRule type="cellIs" dxfId="1142" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1141" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1148" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1147" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1140" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1146" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="1139" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1138" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1145" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1144" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1137" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1143" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="1136" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1135" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="1142" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1141" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1134" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="1140" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="1133" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1132" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="1139" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1138" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1131" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="1137" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="cellIs" dxfId="1130" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1129" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="1136" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1135" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1128" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="1134" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="1127" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1126" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="1133" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1132" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1125" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="1131" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="1124" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1123" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1130" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1129" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1122" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1128" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="1121" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1120" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1127" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1126" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1119" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1125" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B357">
-    <cfRule type="cellIs" dxfId="1118" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1117" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1124" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1123" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1116" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1122" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" dxfId="1115" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1114" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1121" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1120" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1113" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1119" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39542,8 +39590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="E155" sqref="E155"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40112,7 +40160,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B73" s="116" t="b">
         <v>0</v>
@@ -40804,7 +40852,7 @@
         <v>51</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
@@ -40852,7 +40900,7 @@
         <v>842</v>
       </c>
       <c r="B157" s="113" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
@@ -41927,7 +41975,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B301" s="11" t="s">
         <v>37</v>
@@ -41935,15 +41983,15 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="B302" s="97" t="s">
         <v>900</v>
-      </c>
-      <c r="B302" s="97" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B303" s="97" t="s">
         <v>60</v>
@@ -41951,34 +41999,34 @@
     </row>
     <row r="304" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="B304" s="31" t="s">
         <v>903</v>
-      </c>
-      <c r="B304" s="31" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="B305" s="31" t="s">
         <v>905</v>
-      </c>
-      <c r="B305" s="31" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="B306" s="117" t="s">
         <v>907</v>
-      </c>
-      <c r="B306" s="117" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="B307" s="11" t="s">
         <v>909</v>
-      </c>
-      <c r="B307" s="11" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
@@ -42361,266 +42409,266 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B206:B265 B299:B300 B290:B294 B269:B288 B68 B362:B1048576 B360 B1:B59 B71:B72 B333:B344 B74:B152 B308:B324 B161:B203">
-    <cfRule type="cellIs" dxfId="1112" priority="76" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1111" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="1118" priority="76" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1117" priority="77" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1110" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="1116" priority="78" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B204:B205">
-    <cfRule type="cellIs" dxfId="1109" priority="67" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1108" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="1115" priority="67" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1114" priority="68" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1107" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="1113" priority="69" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B325:B332">
-    <cfRule type="cellIs" dxfId="1106" priority="64" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1105" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="1112" priority="64" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1111" priority="65" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1104" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="1110" priority="66" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B345:B347">
-    <cfRule type="cellIs" dxfId="1103" priority="61" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1102" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="1109" priority="61" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1108" priority="62" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1101" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="1107" priority="63" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B348:B350">
-    <cfRule type="cellIs" dxfId="1100" priority="58" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1099" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="1106" priority="58" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1105" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1098" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="1104" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B351:B353">
-    <cfRule type="cellIs" dxfId="1097" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1096" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="1103" priority="55" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1102" priority="56" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1095" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="1101" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B354:B356">
-    <cfRule type="cellIs" dxfId="1094" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1093" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="1100" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1099" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1092" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="1098" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B357:B359">
-    <cfRule type="cellIs" dxfId="1091" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1090" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="1097" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1096" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1089" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="1095" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295">
-    <cfRule type="cellIs" dxfId="1088" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1087" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="1094" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1093" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1086" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="1092" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B296">
-    <cfRule type="cellIs" dxfId="1085" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1084" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="1091" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1090" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1083" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="1089" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B297">
-    <cfRule type="cellIs" dxfId="1082" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1081" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1088" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1087" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1080" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1086" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B298">
-    <cfRule type="cellIs" dxfId="1079" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1078" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1085" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1084" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1077" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1083" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B266:B268">
-    <cfRule type="cellIs" dxfId="1076" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1075" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1082" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1081" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1074" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1080" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="cellIs" dxfId="1073" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1072" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="1079" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1078" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1071" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="1077" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="1070" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1069" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1076" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1075" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1068" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1074" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="1067" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1066" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1073" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1072" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1065" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1071" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="1064" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1063" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="1070" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1069" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1062" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="1068" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="cellIs" dxfId="1061" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1060" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="1067" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1066" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1059" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="1065" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="1058" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1057" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="1064" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1063" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1056" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="1062" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="1055" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1054" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="1061" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1060" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1053" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="1059" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="1052" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1051" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1058" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1057" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1050" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1056" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B361">
-    <cfRule type="cellIs" dxfId="1049" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1048" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1055" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1054" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1047" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1053" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" dxfId="1046" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1045" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1052" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1051" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1044" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1050" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153:B160">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1049" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1048" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1047" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43144,7 +43192,7 @@
         <v>491</v>
       </c>
       <c r="B68" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -43217,7 +43265,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B73" s="116" t="b">
         <v>0</v>
@@ -43899,7 +43947,7 @@
         <v>51</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -44958,7 +45006,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B293" s="11" t="s">
         <v>37</v>
@@ -44966,15 +45014,15 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="B294" s="97" t="s">
         <v>900</v>
-      </c>
-      <c r="B294" s="97" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B295" s="97" t="s">
         <v>60</v>
@@ -44982,34 +45030,34 @@
     </row>
     <row r="296" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="B296" s="31" t="s">
         <v>903</v>
-      </c>
-      <c r="B296" s="31" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="B297" s="31" t="s">
         <v>905</v>
-      </c>
-      <c r="B297" s="31" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="B298" s="117" t="s">
         <v>907</v>
-      </c>
-      <c r="B298" s="117" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="B299" s="11" t="s">
         <v>909</v>
-      </c>
-      <c r="B299" s="11" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
@@ -45392,244 +45440,244 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B198:B257 B352 B291:B292 B282:B286 B261:B280 B68 B354:B1048576 B1:B60 B325:B336 B74:B195 B300:B316">
-    <cfRule type="cellIs" dxfId="1043" priority="70" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1042" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="1046" priority="70" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1045" priority="71" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1041" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="1044" priority="72" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B196:B197">
-    <cfRule type="cellIs" dxfId="1040" priority="61" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1039" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="1043" priority="61" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1042" priority="62" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1038" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="1041" priority="63" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B317:B324">
-    <cfRule type="cellIs" dxfId="1037" priority="58" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1036" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="1040" priority="58" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1039" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1035" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="1038" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B337:B339">
-    <cfRule type="cellIs" dxfId="1034" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1033" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="1037" priority="55" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1036" priority="56" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1032" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="1035" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B340:B342">
-    <cfRule type="cellIs" dxfId="1031" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1030" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="1034" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1033" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1029" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="1032" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B343:B345">
-    <cfRule type="cellIs" dxfId="1028" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1027" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="1031" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1030" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1026" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="1029" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B346:B348">
-    <cfRule type="cellIs" dxfId="1025" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1024" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="1028" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1027" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1023" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="1026" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B349:B351">
-    <cfRule type="cellIs" dxfId="1022" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1021" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="1025" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1024" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1020" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="1023" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="cellIs" dxfId="1019" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1018" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1022" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1021" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1017" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1020" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B288">
-    <cfRule type="cellIs" dxfId="1016" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1015" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1019" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1018" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1014" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1017" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="cellIs" dxfId="1013" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1012" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1016" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1015" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1011" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1014" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B290">
-    <cfRule type="cellIs" dxfId="1010" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1009" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="1013" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1012" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1008" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="1011" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B258:B260">
-    <cfRule type="cellIs" dxfId="1007" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1006" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1010" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1009" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1005" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1008" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B281">
-    <cfRule type="cellIs" dxfId="1004" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1003" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1007" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1006" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1002" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1005" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="1001" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1000" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="1004" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1003" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="999" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="1002" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="998" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="997" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="1001" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1000" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="996" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="999" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65">
-    <cfRule type="cellIs" dxfId="995" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="994" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="998" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="997" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="993" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="996" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="992" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="991" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="995" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="994" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="990" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="993" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="989" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="988" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="992" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="991" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="987" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="990" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="986" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="985" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="989" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="988" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="984" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="987" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B353">
-    <cfRule type="cellIs" dxfId="983" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="982" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="986" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="985" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="981" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="984" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" dxfId="980" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="979" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="983" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="982" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="978" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="981" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46223,7 +46271,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B73" s="116" t="b">
         <v>0</v>
@@ -47970,7 +48018,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B293" s="11" t="s">
         <v>37</v>
@@ -47978,15 +48026,15 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="B294" s="97" t="s">
         <v>900</v>
-      </c>
-      <c r="B294" s="97" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B295" s="97" t="s">
         <v>60</v>
@@ -47994,34 +48042,34 @@
     </row>
     <row r="296" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="B296" s="31" t="s">
         <v>903</v>
-      </c>
-      <c r="B296" s="31" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="B297" s="31" t="s">
         <v>905</v>
-      </c>
-      <c r="B297" s="31" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="B298" s="117" t="s">
         <v>907</v>
-      </c>
-      <c r="B298" s="117" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="B299" s="11" t="s">
         <v>909</v>
-      </c>
-      <c r="B299" s="11" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
@@ -48404,244 +48452,244 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B198:B257 B352 B291:B292 B282:B286 B261:B280 B68 B354:B1048576 B1:B59 B71:B72 B325:B336 B74:B195 B300:B316">
-    <cfRule type="cellIs" dxfId="977" priority="70" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="976" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="980" priority="70" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="979" priority="71" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="975" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="978" priority="72" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B196:B197">
-    <cfRule type="cellIs" dxfId="974" priority="61" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="973" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="977" priority="61" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="976" priority="62" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="972" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="975" priority="63" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B317:B324">
-    <cfRule type="cellIs" dxfId="971" priority="58" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="970" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="974" priority="58" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="973" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="969" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="972" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B337:B339">
-    <cfRule type="cellIs" dxfId="968" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="967" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="971" priority="55" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="970" priority="56" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="966" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="969" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B340:B342">
-    <cfRule type="cellIs" dxfId="965" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="964" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="968" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="967" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="963" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="966" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B343:B345">
-    <cfRule type="cellIs" dxfId="962" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="961" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="965" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="964" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="960" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="963" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B346:B348">
-    <cfRule type="cellIs" dxfId="959" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="958" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="962" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="961" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="957" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="960" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B349:B351">
-    <cfRule type="cellIs" dxfId="956" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="955" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="959" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="958" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="954" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="957" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="cellIs" dxfId="953" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="952" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="956" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="955" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="951" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="954" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B288">
-    <cfRule type="cellIs" dxfId="950" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="949" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="953" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="952" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="948" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="951" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="cellIs" dxfId="947" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="946" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="950" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="949" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="945" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="948" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B290">
-    <cfRule type="cellIs" dxfId="944" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="943" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="947" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="946" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="942" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="945" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B258:B260">
-    <cfRule type="cellIs" dxfId="941" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="940" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="944" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="943" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="939" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="942" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B281">
-    <cfRule type="cellIs" dxfId="938" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="937" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="941" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="940" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="936" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="939" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="935" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="934" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="938" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="937" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="933" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="936" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="932" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="931" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="935" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="934" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="930" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="933" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="929" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="928" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="932" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="931" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="927" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="930" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65 B67">
-    <cfRule type="cellIs" dxfId="926" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="925" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="929" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="928" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="924" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="927" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="923" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="922" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="926" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="925" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="921" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="924" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="920" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="919" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="923" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="922" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="918" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="921" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B353">
-    <cfRule type="cellIs" dxfId="917" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="916" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="920" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="919" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="915" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="918" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" dxfId="914" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="913" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="917" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="916" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="912" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="915" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49235,7 +49283,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B73" s="116" t="b">
         <v>0</v>
@@ -50982,7 +51030,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B293" s="11" t="s">
         <v>37</v>
@@ -50990,15 +51038,15 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="B294" s="97" t="s">
         <v>900</v>
-      </c>
-      <c r="B294" s="97" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B295" s="97" t="s">
         <v>60</v>
@@ -51006,34 +51054,34 @@
     </row>
     <row r="296" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="B296" s="31" t="s">
         <v>903</v>
-      </c>
-      <c r="B296" s="31" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="B297" s="31" t="s">
         <v>905</v>
-      </c>
-      <c r="B297" s="31" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="B298" s="117" t="s">
         <v>907</v>
-      </c>
-      <c r="B298" s="117" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="B299" s="11" t="s">
         <v>909</v>
-      </c>
-      <c r="B299" s="11" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
@@ -51416,244 +51464,244 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B198:B257 B352 B291:B292 B282:B286 B261:B280 B68 B354:B1048576 B1:B59 B71:B72 B325:B336 B74:B195 B300:B316">
-    <cfRule type="cellIs" dxfId="911" priority="70" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="910" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="914" priority="70" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="913" priority="71" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="909" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="912" priority="72" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B196:B197">
-    <cfRule type="cellIs" dxfId="908" priority="61" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="907" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="911" priority="61" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="910" priority="62" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="906" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="909" priority="63" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B317:B324">
-    <cfRule type="cellIs" dxfId="905" priority="58" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="904" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="908" priority="58" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="907" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="903" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="906" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B337:B339">
-    <cfRule type="cellIs" dxfId="902" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="901" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="905" priority="55" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="904" priority="56" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="900" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="903" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B340:B342">
-    <cfRule type="cellIs" dxfId="899" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="898" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="902" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="901" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="897" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="900" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B343:B345">
-    <cfRule type="cellIs" dxfId="896" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="895" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="899" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="898" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="894" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="897" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B346:B348">
-    <cfRule type="cellIs" dxfId="893" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="892" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="896" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="895" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="891" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="894" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B349:B351">
-    <cfRule type="cellIs" dxfId="890" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="889" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="893" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="892" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="888" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="891" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="cellIs" dxfId="887" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="886" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="890" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="889" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="885" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="888" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B288">
-    <cfRule type="cellIs" dxfId="884" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="883" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="887" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="886" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="882" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="885" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="cellIs" dxfId="881" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="880" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="884" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="883" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="879" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="882" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B290">
-    <cfRule type="cellIs" dxfId="878" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="877" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="881" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="880" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="876" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="879" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B258:B260">
-    <cfRule type="cellIs" dxfId="875" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="874" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="878" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="877" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="873" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="876" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B281">
-    <cfRule type="cellIs" dxfId="872" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="871" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="875" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="874" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="870" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="873" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="869" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="868" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="872" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="871" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="867" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="870" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="866" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="865" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="869" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="868" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="864" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="867" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="863" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="862" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="866" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="865" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="861" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="864" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65 B67">
-    <cfRule type="cellIs" dxfId="860" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="859" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="863" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="862" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="858" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="861" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="857" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="856" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="860" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="859" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="855" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="858" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="854" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="853" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="857" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="856" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="852" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="855" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B353">
-    <cfRule type="cellIs" dxfId="851" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="850" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="854" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="853" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="849" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="852" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" dxfId="848" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="847" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="851" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="850" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="846" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="849" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51695,7 +51743,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -52163,7 +52211,7 @@
         <v>822</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -52171,7 +52219,7 @@
         <v>491</v>
       </c>
       <c r="B68" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -52179,7 +52227,7 @@
         <v>17</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D69" t="s">
         <v>253</v>
@@ -52196,7 +52244,7 @@
         <v>6</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D70" t="s">
         <v>255</v>
@@ -52213,7 +52261,7 @@
         <v>8</v>
       </c>
       <c r="B71" s="101" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D71" t="s">
         <v>256</v>
@@ -52244,7 +52292,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B73" s="116" t="b">
         <v>0</v>
@@ -52374,7 +52422,7 @@
         <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -52382,7 +52430,7 @@
         <v>85</v>
       </c>
       <c r="B92" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -52924,7 +52972,7 @@
         <v>49</v>
       </c>
       <c r="B150" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -53991,7 +54039,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B293" s="11" t="s">
         <v>37</v>
@@ -53999,15 +54047,15 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="B294" s="97" t="s">
         <v>900</v>
-      </c>
-      <c r="B294" s="97" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B295" s="97" t="s">
         <v>60</v>
@@ -54015,34 +54063,34 @@
     </row>
     <row r="296" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="B296" s="31" t="s">
         <v>903</v>
-      </c>
-      <c r="B296" s="31" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="B297" s="31" t="s">
         <v>905</v>
-      </c>
-      <c r="B297" s="31" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="B298" s="117" t="s">
         <v>907</v>
-      </c>
-      <c r="B298" s="117" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="B299" s="11" t="s">
         <v>909</v>
-      </c>
-      <c r="B299" s="11" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
@@ -54425,244 +54473,244 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B198:B257 B352 B291:B292 B282:B286 B261:B280 B68 B354:B1048576 B71:B72 B325:B336 B74:B195 B300:B316 B19:B59 B1:B17">
-    <cfRule type="cellIs" dxfId="845" priority="64" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="844" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="848" priority="64" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="847" priority="65" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="843" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="846" priority="66" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B196:B197">
-    <cfRule type="cellIs" dxfId="842" priority="61" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="841" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="845" priority="61" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="844" priority="62" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="840" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="843" priority="63" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B317:B324">
-    <cfRule type="cellIs" dxfId="839" priority="58" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="838" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="842" priority="58" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="841" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="837" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="840" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B337:B339">
-    <cfRule type="cellIs" dxfId="836" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="835" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="839" priority="55" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="838" priority="56" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="834" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="837" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B340:B342">
-    <cfRule type="cellIs" dxfId="833" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="832" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="836" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="835" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="831" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="834" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B343:B345">
-    <cfRule type="cellIs" dxfId="830" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="829" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="833" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="832" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="828" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="831" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B346:B348">
-    <cfRule type="cellIs" dxfId="827" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="826" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="830" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="829" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="825" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="828" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B349:B351">
-    <cfRule type="cellIs" dxfId="824" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="823" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="827" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="826" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="822" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="825" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="cellIs" dxfId="821" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="820" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="824" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="823" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="819" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="822" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B288">
-    <cfRule type="cellIs" dxfId="818" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="817" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="821" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="820" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="816" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="819" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="cellIs" dxfId="815" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="814" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="818" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="817" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="813" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="816" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B290">
-    <cfRule type="cellIs" dxfId="812" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="811" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="815" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="814" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="810" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="813" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B258:B260">
-    <cfRule type="cellIs" dxfId="809" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="808" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="812" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="811" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="807" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="810" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B281">
-    <cfRule type="cellIs" dxfId="806" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="805" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="809" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="808" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="804" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="807" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="803" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="802" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="806" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="805" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="801" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="804" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="800" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="799" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="803" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="802" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="798" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="801" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="797" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="796" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="800" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="799" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="795" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="798" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65 B67">
-    <cfRule type="cellIs" dxfId="794" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="793" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="797" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="796" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="792" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="795" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="791" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="790" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="794" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="793" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="789" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="792" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="788" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="787" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="791" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="790" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="786" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="789" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B353">
-    <cfRule type="cellIs" dxfId="785" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="784" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="788" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="787" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="783" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" dxfId="782" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="781" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="785" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="784" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="780" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="783" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="POLICYDATA" sheetId="11" r:id="rId1"/>
@@ -2851,7 +2851,7 @@
     <t>postfnol_set1</t>
   </si>
   <si>
-    <t>000-00-000261</t>
+    <t>000-00-000149</t>
   </si>
 </sst>
 </file>
@@ -12004,8 +12004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15492,7 +15492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -39590,8 +39590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I361"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153"/>
+    <sheetView topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="B371" sqref="B371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="POLICYDATA" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7382" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7382" uniqueCount="940">
   <si>
     <t>Fnol_PolicyNumber</t>
   </si>
@@ -2578,12 +2578,6 @@
     <t>01/10/2017</t>
   </si>
   <si>
-    <t>AC10 - Failing to stop after an accident</t>
-  </si>
-  <si>
-    <t>3 Months</t>
-  </si>
-  <si>
     <t>Fnol_PHDriverOffencePoints</t>
   </si>
   <si>
@@ -2728,12 +2722,6 @@
     <t>22/03/2019</t>
   </si>
   <si>
-    <t>TBB/1553169816001</t>
-  </si>
-  <si>
-    <t>ainsley lamb</t>
-  </si>
-  <si>
     <t>Fnol_Step3_IncidentOnly</t>
   </si>
   <si>
@@ -2845,13 +2833,34 @@
     <t>01/1/2017</t>
   </si>
   <si>
-    <t>Coach Builder</t>
-  </si>
-  <si>
     <t>postfnol_set1</t>
   </si>
   <si>
     <t>000-00-000149</t>
+  </si>
+  <si>
+    <t>ITB/1553593375351</t>
+  </si>
+  <si>
+    <t>Scott Thomson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27 Eastbourne Gardens, Whitley Bay, NE26 1PU</t>
+  </si>
+  <si>
+    <t>26/03/2019</t>
+  </si>
+  <si>
+    <t>Architect Technician</t>
+  </si>
+  <si>
+    <t>Full UK Licence</t>
+  </si>
+  <si>
+    <t>0-6 Months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC10 </t>
   </si>
 </sst>
 </file>
@@ -3251,7 +3260,64 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1338">
+  <dxfs count="1347">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -12004,8 +12070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12014,7 +12080,7 @@
     <col min="2" max="2" width="29.08984375" customWidth="1"/>
     <col min="3" max="3" width="31.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="5" max="5" width="38.36328125" customWidth="1"/>
+    <col min="5" max="5" width="46.36328125" customWidth="1"/>
     <col min="6" max="6" width="18.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12028,21 +12094,21 @@
         <v>627</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>829</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C4" t="s">
+        <v>881</v>
+      </c>
+      <c r="D4" t="s">
         <v>882</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>883</v>
-      </c>
-      <c r="D4" t="s">
-        <v>884</v>
-      </c>
-      <c r="E4" t="s">
-        <v>885</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -12053,19 +12119,19 @@
         <v>829</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="C5" t="s">
-        <v>895</v>
+        <v>932</v>
       </c>
       <c r="D5" s="115" t="s">
-        <v>896</v>
-      </c>
-      <c r="E5" t="s">
-        <v>892</v>
+        <v>933</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>934</v>
       </c>
       <c r="F5" s="92" t="s">
-        <v>894</v>
+        <v>935</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12073,19 +12139,19 @@
         <v>829</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C6" t="s">
-        <v>895</v>
+        <v>932</v>
       </c>
       <c r="D6" s="115" t="s">
-        <v>896</v>
-      </c>
-      <c r="E6" t="s">
-        <v>892</v>
+        <v>933</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>934</v>
       </c>
       <c r="F6" s="92" t="s">
-        <v>894</v>
+        <v>935</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12093,19 +12159,19 @@
         <v>829</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C7" t="s">
-        <v>895</v>
+        <v>932</v>
       </c>
       <c r="D7" s="115" t="s">
-        <v>896</v>
-      </c>
-      <c r="E7" t="s">
-        <v>892</v>
+        <v>933</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>934</v>
       </c>
       <c r="F7" s="92" t="s">
-        <v>894</v>
+        <v>935</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12113,19 +12179,19 @@
         <v>829</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C8" t="s">
-        <v>895</v>
+        <v>932</v>
       </c>
       <c r="D8" s="115" t="s">
-        <v>896</v>
-      </c>
-      <c r="E8" t="s">
-        <v>892</v>
+        <v>933</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>934</v>
       </c>
       <c r="F8" s="92" t="s">
-        <v>894</v>
+        <v>935</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12133,19 +12199,19 @@
         <v>829</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C9" t="s">
-        <v>895</v>
+        <v>932</v>
       </c>
       <c r="D9" s="115" t="s">
-        <v>896</v>
-      </c>
-      <c r="E9" t="s">
-        <v>892</v>
+        <v>933</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>934</v>
       </c>
       <c r="F9" s="92" t="s">
-        <v>894</v>
+        <v>935</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12153,19 +12219,19 @@
         <v>829</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C10" t="s">
-        <v>895</v>
+        <v>932</v>
       </c>
       <c r="D10" s="115" t="s">
-        <v>896</v>
-      </c>
-      <c r="E10" t="s">
-        <v>892</v>
+        <v>933</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>934</v>
       </c>
       <c r="F10" s="92" t="s">
-        <v>894</v>
+        <v>935</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12173,19 +12239,19 @@
         <v>829</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C11" t="s">
-        <v>895</v>
+        <v>932</v>
       </c>
       <c r="D11" s="115" t="s">
-        <v>896</v>
-      </c>
-      <c r="E11" t="s">
-        <v>892</v>
+        <v>933</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>934</v>
       </c>
       <c r="F11" s="92" t="s">
-        <v>894</v>
+        <v>935</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12193,19 +12259,19 @@
         <v>829</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C12" t="s">
-        <v>895</v>
+        <v>932</v>
       </c>
       <c r="D12" s="115" t="s">
-        <v>896</v>
-      </c>
-      <c r="E12" t="s">
-        <v>892</v>
+        <v>933</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>934</v>
       </c>
       <c r="F12" s="92" t="s">
-        <v>894</v>
+        <v>935</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12213,19 +12279,19 @@
         <v>829</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C13" t="s">
-        <v>895</v>
+        <v>932</v>
       </c>
       <c r="D13" s="115" t="s">
-        <v>896</v>
-      </c>
-      <c r="E13" t="s">
-        <v>892</v>
+        <v>933</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>934</v>
       </c>
       <c r="F13" s="92" t="s">
-        <v>894</v>
+        <v>935</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12233,19 +12299,19 @@
         <v>829</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="C14" t="s">
+        <v>932</v>
+      </c>
+      <c r="D14" s="115" t="s">
+        <v>933</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="F14" s="92" t="s">
         <v>935</v>
-      </c>
-      <c r="C14" t="s">
-        <v>895</v>
-      </c>
-      <c r="D14" s="115" t="s">
-        <v>896</v>
-      </c>
-      <c r="E14" t="s">
-        <v>892</v>
-      </c>
-      <c r="F14" s="92" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12259,19 +12325,19 @@
         <v>395</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="C16" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D16" t="s">
+        <v>888</v>
+      </c>
+      <c r="E16" t="s">
         <v>890</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" s="92" t="s">
         <v>892</v>
-      </c>
-      <c r="F16" s="92" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12279,19 +12345,19 @@
         <v>395</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C17" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D17" t="s">
+        <v>888</v>
+      </c>
+      <c r="E17" t="s">
         <v>890</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" s="92" t="s">
         <v>892</v>
-      </c>
-      <c r="F17" s="92" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12299,19 +12365,19 @@
         <v>395</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C18" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D18" t="s">
+        <v>888</v>
+      </c>
+      <c r="E18" t="s">
         <v>890</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" s="92" t="s">
         <v>892</v>
-      </c>
-      <c r="F18" s="92" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12319,19 +12385,19 @@
         <v>395</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C19" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D19" t="s">
+        <v>888</v>
+      </c>
+      <c r="E19" t="s">
         <v>890</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" s="92" t="s">
         <v>892</v>
-      </c>
-      <c r="F19" s="92" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12339,19 +12405,19 @@
         <v>395</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C20" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D20" t="s">
+        <v>888</v>
+      </c>
+      <c r="E20" t="s">
         <v>890</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" s="92" t="s">
         <v>892</v>
-      </c>
-      <c r="F20" s="92" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12359,19 +12425,19 @@
         <v>395</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="C21" t="s">
+        <v>889</v>
+      </c>
+      <c r="D21" t="s">
         <v>888</v>
       </c>
-      <c r="C21" t="s">
-        <v>891</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>890</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" s="92" t="s">
         <v>892</v>
-      </c>
-      <c r="F21" s="92" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12379,19 +12445,19 @@
         <v>395</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="C22" t="s">
         <v>889</v>
       </c>
-      <c r="C22" t="s">
-        <v>891</v>
-      </c>
       <c r="D22" t="s">
+        <v>888</v>
+      </c>
+      <c r="E22" t="s">
         <v>890</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" s="92" t="s">
         <v>892</v>
-      </c>
-      <c r="F22" s="92" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12399,19 +12465,19 @@
         <v>395</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C23" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D23" t="s">
+        <v>888</v>
+      </c>
+      <c r="E23" t="s">
         <v>890</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" s="92" t="s">
         <v>892</v>
-      </c>
-      <c r="F23" s="92" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12419,19 +12485,19 @@
         <v>395</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C24" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D24" t="s">
+        <v>888</v>
+      </c>
+      <c r="E24" t="s">
         <v>890</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" s="92" t="s">
         <v>892</v>
-      </c>
-      <c r="F24" s="92" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12439,74 +12505,63 @@
         <v>395</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="C25" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D25" t="s">
+        <v>888</v>
+      </c>
+      <c r="E25" t="s">
         <v>890</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" s="92" t="s">
         <v>892</v>
-      </c>
-      <c r="F25" s="92" t="s">
-        <v>894</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="1337" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1336" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1346" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1345" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1335" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1344" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F11">
-    <cfRule type="cellIs" dxfId="1328" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1327" priority="20" operator="equal">
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="1334" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1333" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1326" priority="21" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12 F15">
-    <cfRule type="cellIs" dxfId="1325" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1324" priority="17" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1323" priority="18" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F14">
-    <cfRule type="cellIs" dxfId="1319" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1318" priority="11" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1317" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1332" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F14">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12519,8 +12574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D353"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12534,7 +12589,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -13002,7 +13057,7 @@
         <v>822</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -13010,7 +13065,7 @@
         <v>491</v>
       </c>
       <c r="B68" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -13018,7 +13073,7 @@
         <v>17</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -13026,7 +13081,7 @@
         <v>6</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13034,7 +13089,7 @@
         <v>8</v>
       </c>
       <c r="B71" s="101" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -13047,7 +13102,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="B73" s="118" t="b">
         <v>1</v>
@@ -13066,7 +13121,7 @@
         <v>24</v>
       </c>
       <c r="B75" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -13177,7 +13232,7 @@
         <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -13727,7 +13782,7 @@
         <v>49</v>
       </c>
       <c r="B150" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -13735,7 +13790,7 @@
         <v>51</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>52</v>
+        <v>936</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13743,7 +13798,7 @@
         <v>54</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>53</v>
+        <v>937</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -14794,7 +14849,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="11" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B293" s="11" t="s">
         <v>37</v>
@@ -14802,15 +14857,15 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="11" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="B294" s="97" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="11" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B295" s="97" t="s">
         <v>60</v>
@@ -14818,34 +14873,34 @@
     </row>
     <row r="296" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="11" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B296" s="31" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="11" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B297" s="31" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="11" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B298" s="117" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="11" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
@@ -15228,244 +15283,244 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B198:B257 B352 B291:B292 B282:B286 B261:B280 B68 B354:B1048576 B71:B72 B325:B336 B74:B195 B300:B316 B19:B59 B1:B17">
-    <cfRule type="cellIs" dxfId="782" priority="64" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="781" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="791" priority="64" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="790" priority="65" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="780" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="789" priority="66" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B196:B197">
-    <cfRule type="cellIs" dxfId="779" priority="61" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="778" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="788" priority="61" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="787" priority="62" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="777" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="63" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B317:B324">
-    <cfRule type="cellIs" dxfId="776" priority="58" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="775" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="785" priority="58" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="784" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="774" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="783" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B337:B339">
-    <cfRule type="cellIs" dxfId="773" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="772" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="782" priority="55" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="781" priority="56" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="771" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="780" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B340:B342">
-    <cfRule type="cellIs" dxfId="770" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="769" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="779" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="778" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="768" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="777" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B343:B345">
-    <cfRule type="cellIs" dxfId="767" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="766" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="776" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="775" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="765" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="774" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B346:B348">
-    <cfRule type="cellIs" dxfId="764" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="763" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="773" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="772" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="762" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="771" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B349:B351">
-    <cfRule type="cellIs" dxfId="761" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="760" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="770" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="769" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="759" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="768" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="cellIs" dxfId="758" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="757" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="767" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="766" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="756" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="765" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B288">
-    <cfRule type="cellIs" dxfId="755" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="754" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="764" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="763" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="753" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="762" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="cellIs" dxfId="752" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="751" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="761" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="760" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="750" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="759" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B290">
-    <cfRule type="cellIs" dxfId="749" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="748" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="758" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="757" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="747" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="756" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B258:B260">
-    <cfRule type="cellIs" dxfId="746" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="745" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="755" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="754" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="744" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="753" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B281">
-    <cfRule type="cellIs" dxfId="743" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="742" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="752" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="751" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="741" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="740" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="739" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="749" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="748" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="738" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="747" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="737" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="736" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="746" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="745" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="735" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="744" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="734" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="733" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="743" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="742" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="732" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="741" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B65 B67">
-    <cfRule type="cellIs" dxfId="731" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="730" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="740" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="739" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="729" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="738" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="728" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="727" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="737" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="736" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="726" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="735" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="725" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="724" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="734" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="733" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="723" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="732" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B353">
-    <cfRule type="cellIs" dxfId="722" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="721" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="731" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="730" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="720" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="729" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" dxfId="719" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="718" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="728" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="727" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="717" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15492,7 +15547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -15530,7 +15585,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -17569,68 +17624,68 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B49:B53 B75:B85 B63:B68 B87:B88 B101:B109">
-    <cfRule type="cellIs" dxfId="716" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="715" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="725" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="724" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="714" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="723" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:B45">
-    <cfRule type="cellIs" dxfId="713" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="712" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="722" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="721" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="711" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="720" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="cellIs" dxfId="710" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="709" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="719" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="718" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="708" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="717" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B62">
-    <cfRule type="cellIs" dxfId="707" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="706" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="716" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="715" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="705" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="714" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B134">
-    <cfRule type="cellIs" dxfId="704" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="703" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="713" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="712" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="702" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="711" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B94">
-    <cfRule type="cellIs" dxfId="701" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="700" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="710" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="709" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="699" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="708" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19122,387 +19177,387 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E8:E12">
-    <cfRule type="cellIs" dxfId="698" priority="109" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="697" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="707" priority="109" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="706" priority="110" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="696" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="705" priority="111" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B11">
-    <cfRule type="cellIs" dxfId="695" priority="100" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="694" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="704" priority="100" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="703" priority="101" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="693" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="702" priority="102" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="cellIs" dxfId="692" priority="97" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="691" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="701" priority="97" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="700" priority="98" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="690" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="699" priority="99" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="cellIs" dxfId="689" priority="94" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="688" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="698" priority="94" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="697" priority="95" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="687" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="696" priority="96" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="cellIs" dxfId="686" priority="91" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="685" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="695" priority="91" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="694" priority="92" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="684" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="693" priority="93" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="cellIs" dxfId="683" priority="88" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="682" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="692" priority="88" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="691" priority="89" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="681" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="690" priority="90" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="cellIs" dxfId="680" priority="85" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="679" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="689" priority="85" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="688" priority="86" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="678" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="687" priority="87" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="cellIs" dxfId="677" priority="82" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="676" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="686" priority="82" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="685" priority="83" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="675" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="684" priority="84" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98">
-    <cfRule type="cellIs" dxfId="674" priority="79" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="673" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="683" priority="79" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="682" priority="80" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="672" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="681" priority="81" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B24">
-    <cfRule type="cellIs" dxfId="671" priority="76" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="670" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="680" priority="76" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="679" priority="77" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="669" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="678" priority="78" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B16">
-    <cfRule type="cellIs" dxfId="668" priority="73" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="667" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="677" priority="73" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="676" priority="74" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="666" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="675" priority="75" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="665" priority="70" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="664" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="674" priority="70" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="673" priority="71" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="663" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="672" priority="72" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B27">
-    <cfRule type="cellIs" dxfId="662" priority="67" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="661" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="671" priority="67" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="670" priority="68" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="660" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="669" priority="69" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="659" priority="64" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="658" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="668" priority="64" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="667" priority="65" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="657" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="666" priority="66" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="656" priority="61" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="655" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="665" priority="61" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="664" priority="62" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="654" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="663" priority="63" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="653" priority="58" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="652" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="662" priority="58" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="661" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="651" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="660" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="cellIs" dxfId="650" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="649" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="659" priority="55" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="658" priority="56" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="648" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="657" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="cellIs" dxfId="647" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="646" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="656" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="655" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="645" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105">
-    <cfRule type="cellIs" dxfId="644" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="643" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="653" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="652" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="642" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="651" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="cellIs" dxfId="641" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="640" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="650" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="649" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="639" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="648" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="cellIs" dxfId="638" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="637" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="647" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="646" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="636" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="645" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="635" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="634" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="643" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="633" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="642" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133">
-    <cfRule type="cellIs" dxfId="632" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="631" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="641" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="640" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="630" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="639" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139">
-    <cfRule type="cellIs" dxfId="629" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="628" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="638" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="637" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="627" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="636" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143">
-    <cfRule type="cellIs" dxfId="626" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="625" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="635" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="634" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="624" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="633" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="cellIs" dxfId="623" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="622" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="632" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="631" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="621" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="630" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
-    <cfRule type="cellIs" dxfId="620" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="619" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="629" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="628" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="618" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="627" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:B168">
-    <cfRule type="cellIs" dxfId="617" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="616" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="626" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="625" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="615" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B170:B173">
-    <cfRule type="cellIs" dxfId="614" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="613" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="622" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="612" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B174:B176">
-    <cfRule type="cellIs" dxfId="611" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="610" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="619" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="609" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B177:B179">
-    <cfRule type="cellIs" dxfId="608" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="607" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="616" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="615" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B180:B182">
-    <cfRule type="cellIs" dxfId="605" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="604" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="614" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="613" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="603" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B183:B185">
-    <cfRule type="cellIs" dxfId="602" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="601" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="610" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="600" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B188">
-    <cfRule type="cellIs" dxfId="599" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="598" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="607" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="597" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="cellIs" dxfId="596" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="595" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="605" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="604" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="594" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="603" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20943,354 +20998,354 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6:E10">
-    <cfRule type="cellIs" dxfId="593" priority="103" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="592" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="103" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="601" priority="104" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="591" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="600" priority="105" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B9">
-    <cfRule type="cellIs" dxfId="590" priority="94" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="589" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="94" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="598" priority="95" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="588" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="96" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="cellIs" dxfId="587" priority="91" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="586" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="91" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="595" priority="92" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="585" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="93" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="cellIs" dxfId="584" priority="88" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="583" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="88" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="592" priority="89" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="582" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="90" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="cellIs" dxfId="581" priority="85" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="580" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="590" priority="85" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="589" priority="86" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="579" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="87" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="578" priority="82" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="577" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="587" priority="82" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="586" priority="83" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="576" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="585" priority="84" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="cellIs" dxfId="575" priority="76" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="574" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="76" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="583" priority="77" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="573" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="78" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="572" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="571" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="580" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="570" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:B96">
-    <cfRule type="cellIs" dxfId="569" priority="73" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="568" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="73" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="577" priority="74" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="567" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="75" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="566" priority="70" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="565" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="70" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="574" priority="71" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="564" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="72" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B23">
-    <cfRule type="cellIs" dxfId="563" priority="67" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="562" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="572" priority="67" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="571" priority="68" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="561" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="69" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B35">
-    <cfRule type="cellIs" dxfId="560" priority="64" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="559" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="64" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="568" priority="65" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="558" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="66" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="557" priority="61" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="61" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="565" priority="62" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="63" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="554" priority="58" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="58" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="562" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="552" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="561" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="cellIs" dxfId="551" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="55" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="559" priority="56" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="cellIs" dxfId="548" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="547" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="556" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="cellIs" dxfId="545" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="544" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="553" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="543" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106">
-    <cfRule type="cellIs" dxfId="542" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="541" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="550" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116">
-    <cfRule type="cellIs" dxfId="539" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="547" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="537" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120">
-    <cfRule type="cellIs" dxfId="536" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="535" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="545" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="544" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="534" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="533" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="541" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="531" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140">
-    <cfRule type="cellIs" dxfId="530" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="539" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="538" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="528" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="cellIs" dxfId="527" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="526" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="535" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="525" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="524" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="532" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="522" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:B166">
-    <cfRule type="cellIs" dxfId="521" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="520" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="529" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="519" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168:B171">
-    <cfRule type="cellIs" dxfId="518" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="517" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="526" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="525" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B174">
-    <cfRule type="cellIs" dxfId="515" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="523" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="513" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B175:B177">
-    <cfRule type="cellIs" dxfId="512" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="511" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="520" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="510" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B178:B180">
-    <cfRule type="cellIs" dxfId="509" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="517" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="507" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B181:B183">
-    <cfRule type="cellIs" dxfId="506" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="505" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="514" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="504" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B186">
-    <cfRule type="cellIs" dxfId="503" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="511" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="cellIs" dxfId="500" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="499" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="508" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22717,332 +22772,332 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E7:E11">
-    <cfRule type="cellIs" dxfId="497" priority="106" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="106" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="505" priority="107" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="495" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="108" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B10">
-    <cfRule type="cellIs" dxfId="494" priority="97" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="97" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="502" priority="98" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="99" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="cellIs" dxfId="491" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="499" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108">
-    <cfRule type="cellIs" dxfId="488" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="496" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="cellIs" dxfId="485" priority="88" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="88" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="493" priority="89" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="483" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="90" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="cellIs" dxfId="482" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="490" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="479" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="487" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="cellIs" dxfId="476" priority="79" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="475" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="79" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="484" priority="80" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="81" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="cellIs" dxfId="473" priority="76" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="76" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="481" priority="77" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="78" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="470" priority="73" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="73" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="478" priority="74" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="75" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B26">
-    <cfRule type="cellIs" dxfId="467" priority="70" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="70" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="475" priority="71" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="72" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B38">
-    <cfRule type="cellIs" dxfId="464" priority="67" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="67" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="472" priority="68" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="69" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B50">
-    <cfRule type="cellIs" dxfId="461" priority="64" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="64" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="469" priority="65" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="66" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="458" priority="61" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="61" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="466" priority="62" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="63" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="455" priority="58" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="58" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="463" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79">
-    <cfRule type="cellIs" dxfId="452" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="55" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="460" priority="56" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="cellIs" dxfId="449" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="457" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="cellIs" dxfId="446" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="454" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="cellIs" dxfId="443" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="451" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="cellIs" dxfId="440" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="448" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="cellIs" dxfId="437" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="445" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152">
-    <cfRule type="cellIs" dxfId="434" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="442" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:B167">
-    <cfRule type="cellIs" dxfId="431" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="439" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B172">
-    <cfRule type="cellIs" dxfId="428" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="436" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="cellIs" dxfId="425" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="433" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B176:B178">
-    <cfRule type="cellIs" dxfId="422" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="430" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B179:B181">
-    <cfRule type="cellIs" dxfId="419" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="427" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B184">
-    <cfRule type="cellIs" dxfId="416" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="424" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B185:B187">
-    <cfRule type="cellIs" dxfId="413" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="421" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="cellIs" dxfId="410" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="418" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24469,343 +24524,343 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E7:E11">
-    <cfRule type="cellIs" dxfId="407" priority="103" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="103" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="415" priority="104" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="105" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B10">
-    <cfRule type="cellIs" dxfId="404" priority="94" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="94" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="412" priority="95" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="96" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="cellIs" dxfId="401" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="409" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108">
-    <cfRule type="cellIs" dxfId="398" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="406" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="cellIs" dxfId="395" priority="85" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="85" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="403" priority="86" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="87" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="cellIs" dxfId="392" priority="82" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="82" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="400" priority="83" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="84" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="cellIs" dxfId="389" priority="79" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="79" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="397" priority="80" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="81" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="cellIs" dxfId="386" priority="76" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="76" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="394" priority="77" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="78" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="cellIs" dxfId="383" priority="73" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="73" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="391" priority="74" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="75" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="380" priority="70" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="70" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="388" priority="71" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="72" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B26">
-    <cfRule type="cellIs" dxfId="377" priority="67" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="67" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="385" priority="68" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="69" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B38">
-    <cfRule type="cellIs" dxfId="374" priority="64" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="64" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="382" priority="65" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="66" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="371" priority="61" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="61" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="379" priority="62" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="63" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="368" priority="58" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="58" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="376" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79">
-    <cfRule type="cellIs" dxfId="365" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="55" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="373" priority="56" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="cellIs" dxfId="362" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="370" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="cellIs" dxfId="359" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="367" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="356" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="364" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="cellIs" dxfId="353" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="361" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="cellIs" dxfId="350" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="cellIs" dxfId="347" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="355" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="cellIs" dxfId="344" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="352" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152">
-    <cfRule type="cellIs" dxfId="341" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="349" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:B167">
-    <cfRule type="cellIs" dxfId="338" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="346" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B172">
-    <cfRule type="cellIs" dxfId="335" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="343" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="cellIs" dxfId="332" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="340" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B176:B178">
-    <cfRule type="cellIs" dxfId="329" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="337" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B179:B181">
-    <cfRule type="cellIs" dxfId="326" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B184">
-    <cfRule type="cellIs" dxfId="323" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="331" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B185:B187">
-    <cfRule type="cellIs" dxfId="320" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="cellIs" dxfId="317" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26230,376 +26285,376 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6:E10">
-    <cfRule type="cellIs" dxfId="314" priority="109" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="109" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="110" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="111" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B9">
-    <cfRule type="cellIs" dxfId="311" priority="100" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="100" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="319" priority="101" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="102" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="cellIs" dxfId="308" priority="97" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="97" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="98" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="99" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="cellIs" dxfId="305" priority="94" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="94" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="95" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="96" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="cellIs" dxfId="302" priority="91" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="91" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="92" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="93" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="299" priority="88" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="88" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="307" priority="89" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="90" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="cellIs" dxfId="296" priority="85" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="85" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="86" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="87" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95">
-    <cfRule type="cellIs" dxfId="293" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="cellIs" dxfId="290" priority="79" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="79" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="80" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="81" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="287" priority="76" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="76" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="77" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="78" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B23">
-    <cfRule type="cellIs" dxfId="284" priority="73" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="73" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="74" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="75" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="cellIs" dxfId="281" priority="70" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="70" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="289" priority="71" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="72" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="278" priority="67" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="67" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="68" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="69" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="275" priority="64" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="64" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="283" priority="65" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="66" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="cellIs" dxfId="272" priority="61" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="61" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="62" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="63" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="cellIs" dxfId="269" priority="58" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="58" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="cellIs" dxfId="266" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="55" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="56" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103">
-    <cfRule type="cellIs" dxfId="263" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107">
-    <cfRule type="cellIs" dxfId="260" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="cellIs" dxfId="257" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121">
-    <cfRule type="cellIs" dxfId="254" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="251" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="259" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="248" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B141">
-    <cfRule type="cellIs" dxfId="245" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143">
-    <cfRule type="cellIs" dxfId="242" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="239" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:B166">
-    <cfRule type="cellIs" dxfId="236" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168:B171">
-    <cfRule type="cellIs" dxfId="233" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:B174">
-    <cfRule type="cellIs" dxfId="230" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B175:B177">
-    <cfRule type="cellIs" dxfId="227" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B178:B180">
-    <cfRule type="cellIs" dxfId="224" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B181:B183">
-    <cfRule type="cellIs" dxfId="221" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B186">
-    <cfRule type="cellIs" dxfId="218" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="cellIs" dxfId="215" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28028,376 +28083,376 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6:E10">
-    <cfRule type="cellIs" dxfId="212" priority="106" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="106" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="107" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="108" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B9">
-    <cfRule type="cellIs" dxfId="209" priority="97" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="97" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="98" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="99" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="cellIs" dxfId="206" priority="94" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="94" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="95" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="96" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="cellIs" dxfId="203" priority="91" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="91" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="92" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="93" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="cellIs" dxfId="200" priority="88" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="88" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="89" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="90" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="197" priority="85" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="85" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="86" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="87" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="cellIs" dxfId="194" priority="82" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="82" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="83" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="84" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="cellIs" dxfId="191" priority="79" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="79" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="80" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="81" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="188" priority="76" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="76" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="77" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="78" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B23">
-    <cfRule type="cellIs" dxfId="185" priority="73" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="73" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="74" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="75" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="cellIs" dxfId="182" priority="70" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="70" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="71" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="72" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="179" priority="67" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="67" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="68" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="69" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="176" priority="64" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="64" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="65" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="66" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="cellIs" dxfId="173" priority="61" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="61" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="62" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="63" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="cellIs" dxfId="170" priority="58" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="58" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="cellIs" dxfId="167" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="55" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="56" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95">
-    <cfRule type="cellIs" dxfId="164" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103">
-    <cfRule type="cellIs" dxfId="161" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107">
-    <cfRule type="cellIs" dxfId="158" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="cellIs" dxfId="155" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121">
-    <cfRule type="cellIs" dxfId="152" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="149" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="146" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B141">
-    <cfRule type="cellIs" dxfId="143" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143">
-    <cfRule type="cellIs" dxfId="140" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="137" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:B166">
-    <cfRule type="cellIs" dxfId="134" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B170:B173">
-    <cfRule type="cellIs" dxfId="131" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B174:B176">
-    <cfRule type="cellIs" dxfId="128" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B177:B179">
-    <cfRule type="cellIs" dxfId="125" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B180:B182">
-    <cfRule type="cellIs" dxfId="122" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B183:B185">
-    <cfRule type="cellIs" dxfId="119" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B188">
-    <cfRule type="cellIs" dxfId="116" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="cellIs" dxfId="113" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29883,387 +29938,387 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E8:E12">
-    <cfRule type="cellIs" dxfId="110" priority="103" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="103" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="104" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="105" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B11">
-    <cfRule type="cellIs" dxfId="107" priority="100" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="100" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="101" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="102" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="cellIs" dxfId="104" priority="97" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="97" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="98" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="99" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="cellIs" dxfId="101" priority="94" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="94" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="95" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="96" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="cellIs" dxfId="98" priority="91" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="91" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="92" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="93" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="cellIs" dxfId="95" priority="88" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="88" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="89" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="90" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="cellIs" dxfId="92" priority="85" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="85" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="86" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="87" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="cellIs" dxfId="89" priority="82" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="82" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="83" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="84" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98">
-    <cfRule type="cellIs" dxfId="86" priority="79" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="79" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="80" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="81" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B24">
-    <cfRule type="cellIs" dxfId="83" priority="76" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="76" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="77" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="78" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B16">
-    <cfRule type="cellIs" dxfId="80" priority="73" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="73" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="74" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="75" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="77" priority="70" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="70" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="71" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="72" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B27">
-    <cfRule type="cellIs" dxfId="74" priority="67" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="67" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="68" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="69" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="71" priority="64" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="64" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="65" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="66" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="68" priority="61" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="61" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="62" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="63" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="65" priority="58" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="58" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="59" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="55" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="56" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="cellIs" dxfId="59" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105">
-    <cfRule type="cellIs" dxfId="56" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="cellIs" dxfId="53" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="cellIs" dxfId="50" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="47" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133">
-    <cfRule type="cellIs" dxfId="44" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139">
-    <cfRule type="cellIs" dxfId="41" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143">
-    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="cellIs" dxfId="35" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
-    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:B168">
-    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B170:B173">
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B174:B176">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B177:B179">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B180:B182">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B183:B185">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B188">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30284,7 +30339,7 @@
   <dimension ref="A1:I372"/>
   <sheetViews>
     <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A157" sqref="A157:XFD164"/>
+      <selection activeCell="B162" sqref="B162:B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30306,7 +30361,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C2" t="s">
         <v>708</v>
@@ -30782,7 +30837,7 @@
         <v>491</v>
       </c>
       <c r="B69" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -30855,7 +30910,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="B74" s="116" t="b">
         <v>0</v>
@@ -31551,7 +31606,7 @@
         <v>51</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -31559,7 +31614,7 @@
         <v>54</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>53</v>
+        <v>937</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
@@ -31623,7 +31678,7 @@
         <v>842</v>
       </c>
       <c r="B161" s="113" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
@@ -31631,12 +31686,12 @@
         <v>843</v>
       </c>
       <c r="B162" s="94" t="s">
-        <v>845</v>
+        <v>939</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="12" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B163" s="94">
         <v>3</v>
@@ -31644,15 +31699,15 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="12" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B164" s="94" t="s">
-        <v>846</v>
+        <v>938</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="110" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B165" s="114" t="b">
         <v>1</v>
@@ -31660,10 +31715,10 @@
     </row>
     <row r="166" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="110" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B166" s="109" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
@@ -32014,7 +32069,7 @@
         <v>808</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
@@ -32731,7 +32786,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="11" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B311" s="11" t="s">
         <v>37</v>
@@ -32739,15 +32794,15 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="11" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="B312" s="97" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="11" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B313" s="97" t="s">
         <v>60</v>
@@ -32755,34 +32810,34 @@
     </row>
     <row r="314" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="11" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B314" s="31" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="11" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B315" s="31" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="11" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B316" s="117" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="11" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
@@ -33176,211 +33231,211 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B216:B275 B371 B309:B310 B300:B304 B279:B298 B65:B66 B373:B1048576 B1:B60 B343:B355 B69:B84 B86:B209 B318:B334">
-    <cfRule type="cellIs" dxfId="1313" priority="67" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1312" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="1322" priority="67" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1321" priority="68" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1311" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="1320" priority="69" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210:B215">
-    <cfRule type="cellIs" dxfId="1310" priority="52" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1309" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="1319" priority="52" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1318" priority="53" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1308" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="1317" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B335:B342">
-    <cfRule type="cellIs" dxfId="1307" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1306" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="1316" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1315" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1305" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="1314" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B356:B358">
-    <cfRule type="cellIs" dxfId="1304" priority="46" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1303" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="1313" priority="46" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1312" priority="47" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1302" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="1311" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B359:B361">
-    <cfRule type="cellIs" dxfId="1301" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1300" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="1310" priority="43" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1309" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1299" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="1308" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B362:B364">
-    <cfRule type="cellIs" dxfId="1298" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1297" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1307" priority="40" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1306" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1296" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1305" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B365:B367">
-    <cfRule type="cellIs" dxfId="1295" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1294" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1304" priority="37" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1303" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1293" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1302" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B368:B370">
-    <cfRule type="cellIs" dxfId="1292" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1291" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1301" priority="34" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1300" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1290" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1299" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B305">
-    <cfRule type="cellIs" dxfId="1289" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1288" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="1298" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1297" priority="32" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1287" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="1296" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306">
-    <cfRule type="cellIs" dxfId="1286" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1285" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1295" priority="28" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1294" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1284" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1293" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307">
-    <cfRule type="cellIs" dxfId="1283" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1282" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1292" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1291" priority="26" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1281" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1290" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B308">
-    <cfRule type="cellIs" dxfId="1280" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1279" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="1289" priority="22" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1288" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1278" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="1287" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276:B278">
-    <cfRule type="cellIs" dxfId="1277" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1276" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="1286" priority="19" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1285" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1275" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="1284" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B299">
-    <cfRule type="cellIs" dxfId="1274" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1273" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="1283" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1282" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1272" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="1281" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B62">
-    <cfRule type="cellIs" dxfId="1271" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1270" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="1280" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1279" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1269" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="1278" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="cellIs" dxfId="1268" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1267" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1277" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1276" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1266" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1275" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="cellIs" dxfId="1265" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1264" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1274" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1273" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1263" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1272" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="1262" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1261" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1271" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1270" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1260" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1269" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B372">
-    <cfRule type="cellIs" dxfId="1259" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1258" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1268" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1267" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1257" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1266" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33407,8 +33462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D372"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="D340" sqref="